--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Austria 2 Liga</t>
   </si>
   <si>
-    <t>First Vienna FC 1894</t>
+    <t>FC Flyeralarm Admira</t>
+  </si>
+  <si>
+    <t>Rapid Vienna II</t>
   </si>
   <si>
     <t>SV Horn</t>
   </si>
   <si>
-    <t>FC Flyeralarm Admira</t>
-  </si>
-  <si>
-    <t>Rapid Vienna II</t>
+    <t>First Vienna FC 1894</t>
   </si>
   <si>
     <t>SK Vorwrts Steyr</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC241"/>
+  <dimension ref="A1:AC238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5207376</v>
+        <v>5207202</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,10 +643,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -655,22 +655,22 @@
         <v>49</v>
       </c>
       <c r="K2">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>1.9</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -697,7 +697,7 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.625</v>
+        <v>1.7</v>
       </c>
       <c r="Z2">
         <v>-1</v>
@@ -706,10 +706,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5207922</v>
+        <v>5208022</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,28 +732,28 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="N3">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O3">
         <v>3.4</v>
@@ -765,22 +765,22 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -789,16 +789,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5207202</v>
+        <v>5207922</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,70 +821,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
         <v>3.4</v>
       </c>
       <c r="M4">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N4">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
+        <v>1.975</v>
+      </c>
+      <c r="S4">
+        <v>1.725</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
         <v>1.9</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>1.9</v>
       </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.825</v>
-      </c>
-      <c r="V4">
-        <v>1.975</v>
-      </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB4">
-        <v>0.825</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208022</v>
+        <v>5207376</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="N5">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
         <v>3.4</v>
       </c>
       <c r="P5">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1533,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5207924</v>
+        <v>5207772</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,40 +2064,40 @@
         <v>44995.59027777778</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="N18">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>1.875</v>
@@ -2106,19 +2106,19 @@
         <v>1.925</v>
       </c>
       <c r="T18">
+        <v>2.5</v>
+      </c>
+      <c r="U18">
+        <v>1.8</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
         <v>3</v>
-      </c>
-      <c r="U18">
-        <v>1.9</v>
-      </c>
-      <c r="V18">
-        <v>1.9</v>
-      </c>
-      <c r="W18">
-        <v>1.2</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
@@ -2130,10 +2130,10 @@
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5208025</v>
+        <v>5207059</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,76 +2153,76 @@
         <v>44995.59027777778</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="N19">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>1.8</v>
+      </c>
+      <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1.925</v>
+      </c>
+      <c r="V19">
+        <v>1.875</v>
+      </c>
+      <c r="W19">
+        <v>1.8</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
         <v>1</v>
       </c>
-      <c r="R19">
-        <v>1.875</v>
-      </c>
-      <c r="S19">
-        <v>1.925</v>
-      </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>1.975</v>
-      </c>
-      <c r="V19">
-        <v>1.825</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>0.571</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5207772</v>
+        <v>5207924</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,40 +2331,40 @@
         <v>44995.59027777778</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>2.625</v>
+      </c>
+      <c r="N21">
+        <v>2.2</v>
+      </c>
+      <c r="O21">
         <v>3.6</v>
       </c>
-      <c r="M21">
-        <v>1.65</v>
-      </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
       <c r="P21">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
         <v>1.875</v>
@@ -2373,19 +2373,19 @@
         <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
@@ -2397,10 +2397,10 @@
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5207059</v>
+        <v>5208025</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2420,76 +2420,76 @@
         <v>44995.59027777778</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22">
+        <v>4.5</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>1.6</v>
+      </c>
+      <c r="N22">
+        <v>5.5</v>
+      </c>
+      <c r="O22">
+        <v>4.2</v>
+      </c>
+      <c r="P22">
+        <v>1.571</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22">
-        <v>2.5</v>
-      </c>
-      <c r="L22">
-        <v>3.3</v>
-      </c>
-      <c r="M22">
-        <v>2.45</v>
-      </c>
-      <c r="N22">
-        <v>2.8</v>
-      </c>
-      <c r="O22">
-        <v>3.4</v>
-      </c>
-      <c r="P22">
-        <v>2.45</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>44995.6875</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>43</v>
@@ -2598,10 +2598,10 @@
         <v>44997.27083333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2954,7 +2954,7 @@
         <v>45002.59027777778</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3046,7 +3046,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5207773</v>
+        <v>5207383</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,73 +3221,73 @@
         <v>45003.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
+        <v>2.7</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <v>1.8</v>
       </c>
-      <c r="Q31">
-        <v>0.5</v>
-      </c>
-      <c r="R31">
-        <v>1.975</v>
-      </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5207383</v>
+        <v>5207773</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,73 +3310,73 @@
         <v>45003.4375</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N32">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
         <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X32">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5207385</v>
+        <v>5207061</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,64 +3666,64 @@
         <v>45016.54861111111</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M36">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N36">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
+        <v>1.95</v>
+      </c>
+      <c r="S36">
         <v>1.75</v>
-      </c>
-      <c r="S36">
-        <v>1.95</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y36">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -3732,10 +3732,10 @@
         <v>-0</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5207061</v>
+        <v>5207385</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,64 +3755,64 @@
         <v>45016.54861111111</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>3.4</v>
+      </c>
+      <c r="M37">
         <v>2.15</v>
       </c>
-      <c r="L37">
-        <v>3.5</v>
-      </c>
-      <c r="M37">
-        <v>2.875</v>
-      </c>
       <c r="N37">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37">
+        <v>1.75</v>
+      </c>
+      <c r="S37">
         <v>1.95</v>
-      </c>
-      <c r="S37">
-        <v>1.75</v>
       </c>
       <c r="T37">
         <v>3</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>-0</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>45017.39583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>42</v>
@@ -4111,10 +4111,10 @@
         <v>45018.22916666666</v>
       </c>
       <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
         <v>31</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5207775</v>
+        <v>5207386</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4292,46 +4292,46 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
         <v>49</v>
       </c>
       <c r="K43">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L43">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O43">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
         <v>1.9</v>
@@ -4346,13 +4346,13 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
         <v>0.8999999999999999</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5207386</v>
+        <v>5207775</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,49 +4378,49 @@
         <v>45023.54861111111</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>49</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N44">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O44">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
         <v>1.9</v>
@@ -4435,13 +4435,13 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB44">
         <v>0.8999999999999999</v>
@@ -4648,7 +4648,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -5004,7 +5004,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5207389</v>
+        <v>5207388</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,34 +5268,34 @@
         <v>45032.22916666666</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L54">
+        <v>3.1</v>
+      </c>
+      <c r="M54">
+        <v>2.8</v>
+      </c>
+      <c r="N54">
         <v>3.4</v>
       </c>
-      <c r="M54">
-        <v>2.1</v>
-      </c>
-      <c r="N54">
-        <v>3.2</v>
-      </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P54">
         <v>2.25</v>
@@ -5304,37 +5304,37 @@
         <v>0.25</v>
       </c>
       <c r="R54">
+        <v>1.925</v>
+      </c>
+      <c r="S54">
+        <v>1.875</v>
+      </c>
+      <c r="T54">
+        <v>2.25</v>
+      </c>
+      <c r="U54">
         <v>1.8</v>
       </c>
-      <c r="S54">
-        <v>2</v>
-      </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>1.85</v>
-      </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z54">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB54">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5207388</v>
+        <v>5207389</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,34 +5357,34 @@
         <v>45032.22916666666</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55" t="s">
+        <v>51</v>
+      </c>
+      <c r="K55">
         <v>3</v>
       </c>
-      <c r="J55" t="s">
-        <v>49</v>
-      </c>
-      <c r="K55">
-        <v>2.3</v>
-      </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N55">
+        <v>3.2</v>
+      </c>
+      <c r="O55">
         <v>3.4</v>
-      </c>
-      <c r="O55">
-        <v>3.25</v>
       </c>
       <c r="P55">
         <v>2.25</v>
@@ -5393,37 +5393,37 @@
         <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y55">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA55">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5446,7 +5446,7 @@
         <v>45034.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5207926</v>
+        <v>5207263</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,76 +5535,76 @@
         <v>45037.54861111111</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>50</v>
+      </c>
+      <c r="K57">
+        <v>1.95</v>
+      </c>
+      <c r="L57">
+        <v>3.4</v>
+      </c>
+      <c r="M57">
+        <v>3.8</v>
+      </c>
+      <c r="N57">
+        <v>2.55</v>
+      </c>
+      <c r="O57">
+        <v>3.6</v>
+      </c>
+      <c r="P57">
+        <v>2.6</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
+        <v>1.95</v>
+      </c>
+      <c r="T57">
+        <v>3.25</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>1.8</v>
+      </c>
+      <c r="W57">
+        <v>1.55</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>-1</v>
+      </c>
+      <c r="Z57">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA57">
+        <v>-1</v>
+      </c>
+      <c r="AB57">
         <v>1</v>
       </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="J57" t="s">
-        <v>49</v>
-      </c>
-      <c r="K57">
-        <v>1.571</v>
-      </c>
-      <c r="L57">
-        <v>4</v>
-      </c>
-      <c r="M57">
-        <v>5.5</v>
-      </c>
-      <c r="N57">
-        <v>1.95</v>
-      </c>
-      <c r="O57">
-        <v>3.8</v>
-      </c>
-      <c r="P57">
-        <v>3.5</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>1.95</v>
-      </c>
-      <c r="S57">
-        <v>1.85</v>
-      </c>
-      <c r="T57">
-        <v>3</v>
-      </c>
-      <c r="U57">
-        <v>1.8</v>
-      </c>
-      <c r="V57">
-        <v>2</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>2.5</v>
-      </c>
-      <c r="Z57">
-        <v>-1</v>
-      </c>
-      <c r="AA57">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5207263</v>
+        <v>5208041</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,49 +5624,49 @@
         <v>45037.54861111111</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>50</v>
       </c>
       <c r="K58">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N58">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5675,7 +5675,7 @@
         <v>1.8</v>
       </c>
       <c r="W58">
-        <v>1.55</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5684,7 +5684,7 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5208041</v>
+        <v>5207926</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,76 +5713,76 @@
         <v>45037.54861111111</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K59">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N59">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O59">
+        <v>3.8</v>
+      </c>
+      <c r="P59">
         <v>3.5</v>
-      </c>
-      <c r="P59">
-        <v>4.333</v>
       </c>
       <c r="Q59">
         <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>1.8</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
         <v>2.5</v>
       </c>
-      <c r="U59">
-        <v>2</v>
-      </c>
-      <c r="V59">
-        <v>1.8</v>
-      </c>
-      <c r="W59">
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5894,7 +5894,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -5983,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6425,10 +6425,10 @@
         <v>45044.54861111111</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>45044.54861111111</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>34</v>
@@ -6692,7 +6692,7 @@
         <v>45044.54861111111</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>35</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5207262</v>
+        <v>5208047</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,40 +7048,40 @@
         <v>45051.54861111111</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>51</v>
+      </c>
+      <c r="K74">
+        <v>1.444</v>
+      </c>
+      <c r="L74">
         <v>4</v>
       </c>
-      <c r="J74" t="s">
-        <v>49</v>
-      </c>
-      <c r="K74">
-        <v>2.15</v>
-      </c>
-      <c r="L74">
-        <v>3.5</v>
-      </c>
       <c r="M74">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P74">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R74">
         <v>2</v>
@@ -7093,19 +7093,19 @@
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y74">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
         <v>-1</v>
@@ -7114,10 +7114,10 @@
         <v>0.8</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5207779</v>
+        <v>5207927</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,13 +7137,13 @@
         <v>45051.54861111111</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7152,43 +7152,43 @@
         <v>50</v>
       </c>
       <c r="K75">
+        <v>2.15</v>
+      </c>
+      <c r="L75">
         <v>3.4</v>
       </c>
-      <c r="L75">
-        <v>3.6</v>
-      </c>
       <c r="M75">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7197,16 +7197,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5207927</v>
+        <v>5207779</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,13 +7226,13 @@
         <v>45051.54861111111</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7241,43 +7241,43 @@
         <v>50</v>
       </c>
       <c r="K76">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N76">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7286,16 +7286,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5208047</v>
+        <v>5207262</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7315,40 +7315,40 @@
         <v>45051.54861111111</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N77">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
         <v>2</v>
@@ -7360,19 +7360,19 @@
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z77">
         <v>-1</v>
@@ -7381,10 +7381,10 @@
         <v>0.8</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7674,7 +7674,7 @@
         <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5208050</v>
+        <v>5207393</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,13 +7760,13 @@
         <v>45058.54861111111</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7775,43 +7775,43 @@
         <v>50</v>
       </c>
       <c r="K82">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7820,7 +7820,7 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
         <v>-1</v>
@@ -7829,7 +7829,7 @@
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5207393</v>
+        <v>5208050</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,13 +7849,13 @@
         <v>45058.54861111111</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7864,43 +7864,43 @@
         <v>50</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7909,7 +7909,7 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7918,7 +7918,7 @@
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5207064</v>
+        <v>5207928</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45058.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K84">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N84">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O84">
         <v>3.8</v>
       </c>
       <c r="P84">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q84">
         <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
         <v>1.825</v>
       </c>
-      <c r="S84">
-        <v>1.975</v>
-      </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y84">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5207928</v>
+        <v>5207064</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45058.54861111111</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O85">
         <v>3.8</v>
       </c>
       <c r="P85">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q85">
         <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>1.825</v>
+      </c>
+      <c r="S85">
         <v>1.975</v>
       </c>
-      <c r="S85">
-        <v>1.825</v>
-      </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>45059.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>44</v>
@@ -8297,7 +8297,7 @@
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8472,10 +8472,10 @@
         <v>45065.54861111111</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8920,7 +8920,7 @@
         <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5208058</v>
+        <v>5207396</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,58 +9184,58 @@
         <v>45072.59375</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>50</v>
       </c>
       <c r="K98">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N98">
+        <v>1.833</v>
+      </c>
+      <c r="O98">
+        <v>3.8</v>
+      </c>
+      <c r="P98">
+        <v>3.8</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
         <v>2.75</v>
       </c>
-      <c r="O98">
-        <v>3.6</v>
-      </c>
-      <c r="P98">
-        <v>2.375</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.725</v>
-      </c>
-      <c r="S98">
-        <v>1.975</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>1.75</v>
+        <v>0.833</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9244,16 +9244,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>45072.59375</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5207396</v>
+        <v>5208058</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,58 +9451,58 @@
         <v>45072.59375</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>1</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>50</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>0.833</v>
+        <v>1.75</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9511,16 +9511,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9543,7 +9543,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>45072.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9988,7 +9988,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         <v>45081.39583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
         <v>37</v>
@@ -10430,7 +10430,7 @@
         <v>45081.39583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10522,7 +10522,7 @@
         <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6831794</v>
+        <v>6832839</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,13 +10608,13 @@
         <v>45135.53125</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10623,43 +10623,43 @@
         <v>50</v>
       </c>
       <c r="K114">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N114">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,16 +10668,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6832839</v>
+        <v>6831794</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,13 +10697,13 @@
         <v>45135.53125</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -10712,61 +10712,61 @@
         <v>50</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N115">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P115">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
+        <v>-0.75</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>1.8</v>
+      </c>
+      <c r="T115">
+        <v>3</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>1.8</v>
+      </c>
+      <c r="W115">
+        <v>0.833</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>1</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>0</v>
       </c>
-      <c r="R115">
-        <v>1.775</v>
-      </c>
-      <c r="S115">
-        <v>2.025</v>
-      </c>
-      <c r="T115">
-        <v>2.75</v>
-      </c>
-      <c r="U115">
-        <v>1.9</v>
-      </c>
-      <c r="V115">
-        <v>1.9</v>
-      </c>
-      <c r="W115">
-        <v>1.375</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10789,7 +10789,7 @@
         <v>45</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6832067</v>
+        <v>6832836</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,58 +10875,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>3</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>50</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M117">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O117">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P117">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
         <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10935,16 +10935,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6832836</v>
+        <v>6832067</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,58 +10964,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H118">
         <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>50</v>
       </c>
       <c r="K118">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N118">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O118">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
         <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
-        <v>0.615</v>
+        <v>0.909</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11024,16 +11024,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6832069</v>
+        <v>6832840</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,55 +11320,55 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F122" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>1</v>
-      </c>
-      <c r="I122">
-        <v>4</v>
       </c>
       <c r="J122" t="s">
         <v>49</v>
       </c>
       <c r="K122">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M122">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="N122">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P122">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11377,19 +11377,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AB122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6832842</v>
+        <v>6831795</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,67 +11409,67 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N123">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O123">
         <v>4</v>
       </c>
       <c r="P123">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11478,7 +11478,7 @@
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6832840</v>
+        <v>6832069</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,55 +11498,55 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
         <v>49</v>
       </c>
       <c r="K124">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L124">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="N124">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="O124">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11555,19 +11555,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6831795</v>
+        <v>6832842</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,67 +11587,67 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N125">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O125">
         <v>4</v>
       </c>
       <c r="P125">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="Q125">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X125">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11656,7 +11656,7 @@
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>48</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11854,7 +11854,7 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
         <v>36</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6832850</v>
+        <v>6832849</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,10 +11943,10 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F129" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11958,43 +11958,43 @@
         <v>50</v>
       </c>
       <c r="K129">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N129">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O129">
         <v>3.6</v>
       </c>
       <c r="P129">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>2.3</v>
+        <v>0.909</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12003,7 +12003,7 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA129">
         <v>-1</v>
@@ -12012,7 +12012,7 @@
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6832849</v>
+        <v>6832846</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,76 +12032,76 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
         <v>1</v>
       </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6832846</v>
+        <v>6832850</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,49 +12121,49 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
         <v>0</v>
       </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L131">
         <v>3.6</v>
       </c>
       <c r="M131">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N131">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
         <v>1.825</v>
@@ -12172,19 +12172,19 @@
         <v>1.975</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
@@ -12210,7 +12210,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
         <v>43</v>
@@ -12833,10 +12833,10 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13192,7 +13192,7 @@
         <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13367,7 +13367,7 @@
         <v>45160.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>44</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6832860</v>
+        <v>6832859</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F146" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G146" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K146">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N146">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X146">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6832858</v>
+        <v>6832860</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,76 +13545,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K147">
+        <v>2.625</v>
+      </c>
+      <c r="L147">
+        <v>3.5</v>
+      </c>
+      <c r="M147">
+        <v>2.25</v>
+      </c>
+      <c r="N147">
+        <v>3.25</v>
+      </c>
+      <c r="O147">
+        <v>3.75</v>
+      </c>
+      <c r="P147">
+        <v>2.05</v>
+      </c>
+      <c r="Q147">
+        <v>0.25</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
         <v>1.8</v>
-      </c>
-      <c r="L147">
-        <v>3.6</v>
-      </c>
-      <c r="M147">
-        <v>3.6</v>
-      </c>
-      <c r="N147">
-        <v>1.8</v>
-      </c>
-      <c r="O147">
-        <v>3.8</v>
-      </c>
-      <c r="P147">
-        <v>4.2</v>
-      </c>
-      <c r="Q147">
-        <v>-0.5</v>
-      </c>
-      <c r="R147">
-        <v>1.75</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6832859</v>
+        <v>6832073</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,34 +13634,34 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N148">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O148">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P148">
         <v>3.6</v>
@@ -13676,34 +13676,34 @@
         <v>1.875</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z148">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6832073</v>
+        <v>6832856</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13723,76 +13723,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
         <v>0</v>
       </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K149">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L149">
         <v>3.6</v>
       </c>
       <c r="M149">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N149">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
+        <v>1.875</v>
+      </c>
+      <c r="S149">
         <v>1.925</v>
       </c>
-      <c r="S149">
-        <v>1.875</v>
-      </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6832856</v>
+        <v>6832858</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,58 +13812,58 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L150">
         <v>3.6</v>
       </c>
       <c r="M150">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N150">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S150">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
         <v>1.95</v>
       </c>
-      <c r="V150">
-        <v>1.85</v>
-      </c>
       <c r="W150">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13872,16 +13872,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6832863</v>
+        <v>6832861</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,76 +14168,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K154">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L154">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M154">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N154">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P154">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC154">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6832866</v>
+        <v>6832864</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,40 +14257,40 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
         <v>1</v>
       </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K155">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M155">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="N155">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="O155">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P155">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R155">
         <v>1.85</v>
@@ -14299,34 +14299,34 @@
         <v>1.95</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z155">
+        <v>0.425</v>
+      </c>
+      <c r="AA155">
+        <v>-0.5</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>-1</v>
-      </c>
-      <c r="AC155">
-        <v>0.875</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832861</v>
+        <v>6832866</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,58 +14346,58 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>50</v>
       </c>
       <c r="K156">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L156">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N156">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
         <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
-        <v>0.833</v>
+        <v>1.9</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14406,16 +14406,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6832864</v>
+        <v>6832863</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K157">
+        <v>1.727</v>
+      </c>
+      <c r="L157">
         <v>3.75</v>
       </c>
-      <c r="L157">
-        <v>4.2</v>
-      </c>
       <c r="M157">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="O157">
+        <v>4</v>
+      </c>
+      <c r="P157">
         <v>5</v>
       </c>
-      <c r="P157">
-        <v>1.5</v>
-      </c>
       <c r="Q157">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T157">
         <v>3</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y157">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14702,7 +14702,7 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
         <v>42</v>
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6832867</v>
+        <v>6832869</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,58 +14969,58 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
         <v>50</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O163">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W163">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15029,16 +15029,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6832869</v>
+        <v>6832868</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,40 +15058,40 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N164">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R164">
         <v>1.85</v>
@@ -15103,31 +15103,31 @@
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z164">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC164">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6832868</v>
+        <v>6832867</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,76 +15236,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
         <v>29</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I166">
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K166">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N166">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="O166">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15402,7 +15402,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6831798</v>
+        <v>6832077</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15414,76 +15414,76 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168" t="s">
+        <v>49</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>3.5</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>2.4</v>
+      </c>
+      <c r="O168">
+        <v>3.6</v>
+      </c>
+      <c r="P168">
+        <v>2.7</v>
+      </c>
+      <c r="Q168">
         <v>0</v>
       </c>
-      <c r="J168" t="s">
-        <v>50</v>
-      </c>
-      <c r="K168">
-        <v>1.571</v>
-      </c>
-      <c r="L168">
-        <v>4</v>
-      </c>
-      <c r="M168">
-        <v>4.333</v>
-      </c>
-      <c r="N168">
-        <v>1.5</v>
-      </c>
-      <c r="O168">
-        <v>4.333</v>
-      </c>
-      <c r="P168">
-        <v>6.5</v>
-      </c>
-      <c r="Q168">
-        <v>-1</v>
-      </c>
       <c r="R168">
+        <v>1.8</v>
+      </c>
+      <c r="S168">
+        <v>2</v>
+      </c>
+      <c r="T168">
+        <v>3</v>
+      </c>
+      <c r="U168">
+        <v>1.975</v>
+      </c>
+      <c r="V168">
         <v>1.825</v>
       </c>
-      <c r="S168">
-        <v>1.975</v>
-      </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
-      <c r="U168">
-        <v>1.825</v>
-      </c>
-      <c r="V168">
-        <v>1.975</v>
-      </c>
       <c r="W168">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>1</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
         <v>0.825</v>
-      </c>
-      <c r="AA168">
-        <v>-1</v>
-      </c>
-      <c r="AB168">
-        <v>-1</v>
-      </c>
-      <c r="AC168">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6832077</v>
+        <v>6831798</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,76 +15503,76 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G169" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169">
         <v>0</v>
       </c>
-      <c r="I169">
-        <v>2</v>
-      </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M169">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N169">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P169">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R169">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
+        <v>1.825</v>
+      </c>
+      <c r="V169">
         <v>1.975</v>
       </c>
-      <c r="V169">
-        <v>1.825</v>
-      </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>40</v>
@@ -15948,7 +15948,7 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
         <v>42</v>
@@ -16215,7 +16215,7 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
         <v>36</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6832881</v>
+        <v>6832080</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,40 +16304,40 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K178">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L178">
         <v>3.6</v>
       </c>
       <c r="M178">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N178">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P178">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
         <v>1.975</v>
@@ -16349,28 +16349,28 @@
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y178">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16396,7 +16396,7 @@
         <v>48</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>5</v>
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6832080</v>
+        <v>6832881</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,40 +16482,40 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K180">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L180">
         <v>3.6</v>
       </c>
       <c r="M180">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N180">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P180">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
         <v>1.975</v>
@@ -16527,28 +16527,28 @@
         <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB180">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16663,7 +16663,7 @@
         <v>35</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16930,7 +16930,7 @@
         <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6832082</v>
+        <v>6831800</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,76 +17016,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K186">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L186">
+        <v>3.6</v>
+      </c>
+      <c r="M186">
         <v>3.4</v>
       </c>
-      <c r="M186">
-        <v>2.75</v>
-      </c>
       <c r="N186">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
         <v>1.975</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T186">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6832886</v>
+        <v>6832885</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17105,73 +17105,73 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G187" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K187">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L187">
         <v>3.6</v>
       </c>
       <c r="M187">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N187">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T187">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA187">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC187">
         <v>-1</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6832885</v>
+        <v>6832886</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,73 +17194,73 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F188" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>3</v>
+      </c>
+      <c r="J188" t="s">
+        <v>49</v>
+      </c>
+      <c r="K188">
         <v>4</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="J188" t="s">
-        <v>50</v>
-      </c>
-      <c r="K188">
-        <v>3.8</v>
       </c>
       <c r="L188">
         <v>3.6</v>
       </c>
       <c r="M188">
+        <v>1.75</v>
+      </c>
+      <c r="N188">
+        <v>6</v>
+      </c>
+      <c r="O188">
+        <v>4.2</v>
+      </c>
+      <c r="P188">
+        <v>1.533</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
         <v>1.8</v>
       </c>
-      <c r="N188">
-        <v>3.75</v>
-      </c>
-      <c r="O188">
-        <v>3.6</v>
-      </c>
-      <c r="P188">
+      <c r="T188">
+        <v>3</v>
+      </c>
+      <c r="U188">
         <v>1.95</v>
       </c>
-      <c r="Q188">
-        <v>0.5</v>
-      </c>
-      <c r="R188">
-        <v>1.9</v>
-      </c>
-      <c r="S188">
-        <v>1.9</v>
-      </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>1.875</v>
-      </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z188">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6831800</v>
+        <v>6832082</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,76 +17283,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K189">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
+        <v>2.75</v>
+      </c>
+      <c r="N189">
+        <v>2.05</v>
+      </c>
+      <c r="O189">
+        <v>3.75</v>
+      </c>
+      <c r="P189">
         <v>3.4</v>
       </c>
-      <c r="N189">
-        <v>2.45</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
-        <v>2.8</v>
-      </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
         <v>1.975</v>
       </c>
       <c r="S189">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
+        <v>3</v>
+      </c>
+      <c r="U189">
+        <v>1.975</v>
+      </c>
+      <c r="V189">
+        <v>1.825</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
         <v>2.75</v>
       </c>
-      <c r="U189">
-        <v>1.85</v>
-      </c>
-      <c r="V189">
-        <v>1.95</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
       <c r="Y189">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17372,7 +17372,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
         <v>38</v>
@@ -17642,7 +17642,7 @@
         <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17820,7 +17820,7 @@
         <v>48</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>4</v>
@@ -17995,7 +17995,7 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G197" t="s">
         <v>43</v>
@@ -18265,7 +18265,7 @@
         <v>45</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H200">
         <v>3</v>
@@ -18428,7 +18428,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6832894</v>
+        <v>6832895</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18440,76 +18440,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I202">
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K202">
+        <v>1.7</v>
+      </c>
+      <c r="L202">
+        <v>3.8</v>
+      </c>
+      <c r="M202">
+        <v>4</v>
+      </c>
+      <c r="N202">
+        <v>1.727</v>
+      </c>
+      <c r="O202">
         <v>4.2</v>
       </c>
-      <c r="L202">
-        <v>4</v>
-      </c>
-      <c r="M202">
-        <v>1.615</v>
-      </c>
-      <c r="N202">
+      <c r="P202">
         <v>4.333</v>
       </c>
-      <c r="O202">
-        <v>4</v>
-      </c>
-      <c r="P202">
-        <v>1.727</v>
-      </c>
       <c r="Q202">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U202">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V202">
         <v>1.95</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA202">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.425</v>
+        <v>0.75</v>
       </c>
       <c r="AC202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18517,7 +18517,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6832892</v>
+        <v>6832894</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,10 +18529,10 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F203" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18547,37 +18547,37 @@
         <v>4.2</v>
       </c>
       <c r="L203">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="N203">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O203">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P203">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="Q203">
         <v>0.75</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S203">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
         <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V203">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18586,16 +18586,16 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0.6499999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z203">
         <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB203">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AC203">
         <v>-0.5</v>
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6831802</v>
+        <v>6832892</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,76 +18618,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K204">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="L204">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M204">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="N204">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="O204">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R204">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC204">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6832086</v>
+        <v>6831802</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,76 +18707,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K205">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N205">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O205">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
+        <v>1.775</v>
+      </c>
+      <c r="S205">
         <v>2.025</v>
       </c>
-      <c r="S205">
-        <v>1.775</v>
-      </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W205">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB205">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6832895</v>
+        <v>6832086</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,13 +18796,13 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H206">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -18811,43 +18811,43 @@
         <v>50</v>
       </c>
       <c r="K206">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L206">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N206">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O206">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P206">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S206">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T206">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>0.7270000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18856,13 +18856,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18974,7 +18974,7 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
         <v>44</v>
@@ -19155,7 +19155,7 @@
         <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19241,7 +19241,7 @@
         <v>45233.6875</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G211" t="s">
         <v>37</v>
@@ -19422,7 +19422,7 @@
         <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19775,7 +19775,7 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G217" t="s">
         <v>34</v>
@@ -20042,10 +20042,10 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F220" t="s">
+        <v>32</v>
+      </c>
+      <c r="G220" t="s">
         <v>29</v>
-      </c>
-      <c r="G220" t="s">
-        <v>31</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20475,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6832910</v>
+        <v>6832912</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20487,76 +20487,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
         <v>0</v>
       </c>
-      <c r="I225">
-        <v>2</v>
-      </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K225">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L225">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M225">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N225">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O225">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P225">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q225">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
+        <v>1.95</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>1.875</v>
+      </c>
+      <c r="V225">
         <v>1.925</v>
       </c>
-      <c r="S225">
-        <v>1.875</v>
-      </c>
-      <c r="T225">
-        <v>2.75</v>
-      </c>
-      <c r="U225">
-        <v>1.75</v>
-      </c>
-      <c r="V225">
-        <v>1.95</v>
-      </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA225">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20564,7 +20564,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6832912</v>
+        <v>6832910</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20576,76 +20576,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F226" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K226">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L226">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M226">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N226">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O226">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P226">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S226">
+        <v>1.875</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>1.75</v>
+      </c>
+      <c r="V226">
         <v>1.95</v>
       </c>
-      <c r="T226">
-        <v>2.5</v>
-      </c>
-      <c r="U226">
-        <v>1.875</v>
-      </c>
-      <c r="V226">
-        <v>1.925</v>
-      </c>
       <c r="W226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20843,7 +20843,7 @@
         <v>45255.4375</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
         <v>45</v>
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6832909</v>
+        <v>6832091</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,55 +21021,55 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G231" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
         <v>49</v>
       </c>
       <c r="K231">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L231">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N231">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P231">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q231">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R231">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -21078,19 +21078,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6832091</v>
+        <v>6832909</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,56 +21110,56 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G232" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>49</v>
       </c>
       <c r="K232">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L232">
+        <v>3.5</v>
+      </c>
+      <c r="M232">
+        <v>2.2</v>
+      </c>
+      <c r="N232">
+        <v>3</v>
+      </c>
+      <c r="O232">
         <v>3.6</v>
       </c>
-      <c r="M232">
-        <v>1.833</v>
-      </c>
-      <c r="N232">
-        <v>4.5</v>
-      </c>
-      <c r="O232">
-        <v>4.2</v>
-      </c>
       <c r="P232">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q232">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
+        <v>1.925</v>
+      </c>
+      <c r="S232">
+        <v>1.875</v>
+      </c>
+      <c r="T232">
+        <v>2.75</v>
+      </c>
+      <c r="U232">
+        <v>1.85</v>
+      </c>
+      <c r="V232">
         <v>1.95</v>
       </c>
-      <c r="S232">
-        <v>1.85</v>
-      </c>
-      <c r="T232">
-        <v>3.25</v>
-      </c>
-      <c r="U232">
-        <v>2</v>
-      </c>
-      <c r="V232">
-        <v>1.8</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
@@ -21167,19 +21167,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
+        <v>0.875</v>
+      </c>
+      <c r="AB232">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB232">
-        <v>-1</v>
-      </c>
       <c r="AC232">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21187,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6832917</v>
+        <v>6831806</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,73 +21199,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L233">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M233">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N233">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O233">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P233">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q233">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V233">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB233">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6831806</v>
+        <v>6832914</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21288,13 +21288,13 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G234" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234">
         <v>4</v>
@@ -21303,40 +21303,40 @@
         <v>49</v>
       </c>
       <c r="K234">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L234">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M234">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N234">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O234">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P234">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R234">
+        <v>1.95</v>
+      </c>
+      <c r="S234">
         <v>1.85</v>
-      </c>
-      <c r="S234">
-        <v>1.95</v>
       </c>
       <c r="T234">
         <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
         <v>-1</v>
@@ -21345,16 +21345,16 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB234">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -21365,7 +21365,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6832914</v>
+        <v>6832917</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21377,73 +21377,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F235" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H235">
+        <v>3</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="s">
+        <v>50</v>
+      </c>
+      <c r="K235">
+        <v>1.4</v>
+      </c>
+      <c r="L235">
+        <v>4.2</v>
+      </c>
+      <c r="M235">
+        <v>7.5</v>
+      </c>
+      <c r="N235">
+        <v>1.2</v>
+      </c>
+      <c r="O235">
+        <v>7</v>
+      </c>
+      <c r="P235">
+        <v>13</v>
+      </c>
+      <c r="Q235">
+        <v>-2</v>
+      </c>
+      <c r="R235">
+        <v>1.8</v>
+      </c>
+      <c r="S235">
+        <v>2</v>
+      </c>
+      <c r="T235">
+        <v>3.5</v>
+      </c>
+      <c r="U235">
+        <v>1.875</v>
+      </c>
+      <c r="V235">
+        <v>1.925</v>
+      </c>
+      <c r="W235">
+        <v>0.2</v>
+      </c>
+      <c r="X235">
+        <v>-1</v>
+      </c>
+      <c r="Y235">
+        <v>-1</v>
+      </c>
+      <c r="Z235">
         <v>0</v>
       </c>
-      <c r="I235">
-        <v>4</v>
-      </c>
-      <c r="J235" t="s">
-        <v>49</v>
-      </c>
-      <c r="K235">
-        <v>2.15</v>
-      </c>
-      <c r="L235">
-        <v>3.25</v>
-      </c>
-      <c r="M235">
-        <v>3.1</v>
-      </c>
-      <c r="N235">
-        <v>2.7</v>
-      </c>
-      <c r="O235">
-        <v>3.4</v>
-      </c>
-      <c r="P235">
-        <v>2.625</v>
-      </c>
-      <c r="Q235">
-        <v>0</v>
-      </c>
-      <c r="R235">
-        <v>1.95</v>
-      </c>
-      <c r="S235">
-        <v>1.85</v>
-      </c>
-      <c r="T235">
-        <v>2.5</v>
-      </c>
-      <c r="U235">
-        <v>1.9</v>
-      </c>
-      <c r="V235">
-        <v>1.9</v>
-      </c>
-      <c r="W235">
-        <v>-1</v>
-      </c>
-      <c r="X235">
-        <v>-1</v>
-      </c>
-      <c r="Y235">
-        <v>1.625</v>
-      </c>
-      <c r="Z235">
-        <v>-1</v>
-      </c>
       <c r="AA235">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB235">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -21555,7 +21555,7 @@
         <v>45338.59027777778</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G237" t="s">
         <v>46</v>
@@ -21714,228 +21714,6 @@
       </c>
       <c r="AC238">
         <v>0.8999999999999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:29">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>7581960</v>
-      </c>
-      <c r="C239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D239" t="s">
-        <v>28</v>
-      </c>
-      <c r="E239" s="2">
-        <v>45339.4375</v>
-      </c>
-      <c r="F239" t="s">
-        <v>34</v>
-      </c>
-      <c r="G239" t="s">
-        <v>43</v>
-      </c>
-      <c r="K239">
-        <v>5.5</v>
-      </c>
-      <c r="L239">
-        <v>4.333</v>
-      </c>
-      <c r="M239">
-        <v>1.5</v>
-      </c>
-      <c r="N239">
-        <v>5</v>
-      </c>
-      <c r="O239">
-        <v>4.2</v>
-      </c>
-      <c r="P239">
-        <v>1.65</v>
-      </c>
-      <c r="Q239">
-        <v>0.75</v>
-      </c>
-      <c r="R239">
-        <v>2</v>
-      </c>
-      <c r="S239">
-        <v>1.8</v>
-      </c>
-      <c r="T239">
-        <v>2.75</v>
-      </c>
-      <c r="U239">
-        <v>1.825</v>
-      </c>
-      <c r="V239">
-        <v>1.975</v>
-      </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-      <c r="X239">
-        <v>0</v>
-      </c>
-      <c r="Y239">
-        <v>0</v>
-      </c>
-      <c r="Z239">
-        <v>0</v>
-      </c>
-      <c r="AA239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>7582036</v>
-      </c>
-      <c r="C240" t="s">
-        <v>28</v>
-      </c>
-      <c r="D240" t="s">
-        <v>28</v>
-      </c>
-      <c r="E240" s="2">
-        <v>45339.4375</v>
-      </c>
-      <c r="F240" t="s">
-        <v>42</v>
-      </c>
-      <c r="G240" t="s">
-        <v>44</v>
-      </c>
-      <c r="K240">
-        <v>3.5</v>
-      </c>
-      <c r="L240">
-        <v>3.6</v>
-      </c>
-      <c r="M240">
-        <v>1.909</v>
-      </c>
-      <c r="N240">
-        <v>3.8</v>
-      </c>
-      <c r="O240">
-        <v>3.75</v>
-      </c>
-      <c r="P240">
-        <v>1.909</v>
-      </c>
-      <c r="Q240">
-        <v>0.5</v>
-      </c>
-      <c r="R240">
-        <v>1.9</v>
-      </c>
-      <c r="S240">
-        <v>1.9</v>
-      </c>
-      <c r="T240">
-        <v>2.75</v>
-      </c>
-      <c r="U240">
-        <v>1.9</v>
-      </c>
-      <c r="V240">
-        <v>1.9</v>
-      </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>0</v>
-      </c>
-      <c r="Y240">
-        <v>0</v>
-      </c>
-      <c r="Z240">
-        <v>0</v>
-      </c>
-      <c r="AA240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>7582491</v>
-      </c>
-      <c r="C241" t="s">
-        <v>28</v>
-      </c>
-      <c r="D241" t="s">
-        <v>28</v>
-      </c>
-      <c r="E241" s="2">
-        <v>45339.4375</v>
-      </c>
-      <c r="F241" t="s">
-        <v>29</v>
-      </c>
-      <c r="G241" t="s">
-        <v>45</v>
-      </c>
-      <c r="K241">
-        <v>1.909</v>
-      </c>
-      <c r="L241">
-        <v>3.5</v>
-      </c>
-      <c r="M241">
-        <v>3.5</v>
-      </c>
-      <c r="N241">
-        <v>1.7</v>
-      </c>
-      <c r="O241">
-        <v>4</v>
-      </c>
-      <c r="P241">
-        <v>5</v>
-      </c>
-      <c r="Q241">
-        <v>-0.75</v>
-      </c>
-      <c r="R241">
-        <v>1.85</v>
-      </c>
-      <c r="S241">
-        <v>1.95</v>
-      </c>
-      <c r="T241">
-        <v>2.5</v>
-      </c>
-      <c r="U241">
-        <v>1.8</v>
-      </c>
-      <c r="V241">
-        <v>2</v>
-      </c>
-      <c r="W241">
-        <v>0</v>
-      </c>
-      <c r="X241">
-        <v>0</v>
-      </c>
-      <c r="Y241">
-        <v>0</v>
-      </c>
-      <c r="Z241">
-        <v>0</v>
-      </c>
-      <c r="AA241">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Austria 2 Liga</t>
   </si>
   <si>
+    <t>SV Horn</t>
+  </si>
+  <si>
     <t>FC Flyeralarm Admira</t>
   </si>
   <si>
     <t>Rapid Vienna II</t>
-  </si>
-  <si>
-    <t>SV Horn</t>
   </si>
   <si>
     <t>First Vienna FC 1894</t>
@@ -163,10 +163,10 @@
     <t>SV Ried</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC238"/>
+  <dimension ref="A1:AC245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5207202</v>
+        <v>5207922</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,70 +643,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
         <v>3.4</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
+        <v>1.975</v>
+      </c>
+      <c r="S2">
+        <v>1.725</v>
+      </c>
+      <c r="T2">
+        <v>2.5</v>
+      </c>
+      <c r="U2">
         <v>1.9</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>1.9</v>
       </c>
-      <c r="T2">
-        <v>2.25</v>
-      </c>
-      <c r="U2">
-        <v>1.825</v>
-      </c>
-      <c r="V2">
-        <v>1.975</v>
-      </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB2">
-        <v>0.825</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5208022</v>
+        <v>5207202</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5207922</v>
+        <v>5208022</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,28 +821,28 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M4">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O4">
         <v>3.4</v>
@@ -854,22 +854,22 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -878,16 +878,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>4.75</v>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>2.9</v>
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>2.625</v>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>2.2</v>
@@ -1542,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>3.1</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>2.05</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>1.125</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>2.6</v>
@@ -1889,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>1.85</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>2.25</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2334,7 +2334,7 @@
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>2.25</v>
@@ -2432,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>4.5</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23">
         <v>2.6</v>
@@ -2598,10 +2598,10 @@
         <v>44997.27083333334</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
         <v>2.3</v>
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
         <v>1.75</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>1.85</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>4.333</v>
@@ -2954,7 +2954,7 @@
         <v>45002.59027777778</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3046,7 +3046,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>1.4</v>
@@ -3221,7 +3221,7 @@
         <v>45003.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
         <v>3.8</v>
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>1.25</v>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>8.5</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>3.6</v>
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5207061</v>
+        <v>5207385</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,64 +3666,64 @@
         <v>45016.54861111111</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>3.4</v>
+      </c>
+      <c r="M36">
         <v>2.15</v>
       </c>
-      <c r="L36">
-        <v>3.5</v>
-      </c>
-      <c r="M36">
-        <v>2.875</v>
-      </c>
       <c r="N36">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
+        <v>1.75</v>
+      </c>
+      <c r="S36">
         <v>1.95</v>
-      </c>
-      <c r="S36">
-        <v>1.75</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -3732,10 +3732,10 @@
         <v>-0</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5207385</v>
+        <v>5207061</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,64 +3755,64 @@
         <v>45016.54861111111</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N37">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37">
+        <v>1.95</v>
+      </c>
+      <c r="S37">
         <v>1.75</v>
-      </c>
-      <c r="S37">
-        <v>1.95</v>
       </c>
       <c r="T37">
         <v>3</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y37">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>-0</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>1.7</v>
@@ -4034,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>1.55</v>
@@ -4111,10 +4111,10 @@
         <v>45018.22916666666</v>
       </c>
       <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
         <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>1.8</v>
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5207386</v>
+        <v>5207775</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,49 +4289,49 @@
         <v>45023.54861111111</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L43">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N43">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
         <v>1.9</v>
@@ -4346,13 +4346,13 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB43">
         <v>0.8999999999999999</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5207775</v>
+        <v>5207386</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4381,46 +4381,46 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U44">
         <v>1.9</v>
@@ -4435,13 +4435,13 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB44">
         <v>0.8999999999999999</v>
@@ -4568,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46">
         <v>1.5</v>
@@ -4648,7 +4648,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K47">
         <v>1.363</v>
@@ -4746,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>1.5</v>
@@ -4835,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K49">
         <v>3.3</v>
@@ -5004,7 +5004,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5191,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
         <v>2.5</v>
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5207388</v>
+        <v>5207389</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,34 +5268,34 @@
         <v>45032.22916666666</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>51</v>
+      </c>
+      <c r="K54">
         <v>3</v>
       </c>
-      <c r="J54" t="s">
-        <v>49</v>
-      </c>
-      <c r="K54">
-        <v>2.3</v>
-      </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N54">
+        <v>3.2</v>
+      </c>
+      <c r="O54">
         <v>3.4</v>
-      </c>
-      <c r="O54">
-        <v>3.25</v>
       </c>
       <c r="P54">
         <v>2.25</v>
@@ -5304,37 +5304,37 @@
         <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y54">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA54">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB54">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5207389</v>
+        <v>5207388</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,34 +5357,34 @@
         <v>45032.22916666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L55">
+        <v>3.1</v>
+      </c>
+      <c r="M55">
+        <v>2.8</v>
+      </c>
+      <c r="N55">
         <v>3.4</v>
       </c>
-      <c r="M55">
-        <v>2.1</v>
-      </c>
-      <c r="N55">
-        <v>3.2</v>
-      </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P55">
         <v>2.25</v>
@@ -5393,37 +5393,37 @@
         <v>0.25</v>
       </c>
       <c r="R55">
+        <v>1.925</v>
+      </c>
+      <c r="S55">
+        <v>1.875</v>
+      </c>
+      <c r="T55">
+        <v>2.25</v>
+      </c>
+      <c r="U55">
         <v>1.8</v>
       </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
-      <c r="U55">
-        <v>1.85</v>
-      </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z55">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB55">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5446,7 +5446,7 @@
         <v>45034.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5458,7 +5458,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>1.8</v>
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5207263</v>
+        <v>5207926</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,76 +5535,76 @@
         <v>45037.54861111111</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>50</v>
       </c>
       <c r="K57">
+        <v>1.571</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>5.5</v>
+      </c>
+      <c r="N57">
         <v>1.95</v>
       </c>
-      <c r="L57">
-        <v>3.4</v>
-      </c>
-      <c r="M57">
+      <c r="O57">
         <v>3.8</v>
       </c>
-      <c r="N57">
-        <v>2.55</v>
-      </c>
-      <c r="O57">
-        <v>3.6</v>
-      </c>
       <c r="P57">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
         <v>1.85</v>
       </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
       <c r="AB57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5208041</v>
+        <v>5207263</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,49 +5624,49 @@
         <v>45037.54861111111</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K58">
+        <v>1.95</v>
+      </c>
+      <c r="L58">
+        <v>3.4</v>
+      </c>
+      <c r="M58">
+        <v>3.8</v>
+      </c>
+      <c r="N58">
+        <v>2.55</v>
+      </c>
+      <c r="O58">
+        <v>3.6</v>
+      </c>
+      <c r="P58">
+        <v>2.6</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
         <v>1.85</v>
       </c>
-      <c r="L58">
-        <v>3.6</v>
-      </c>
-      <c r="M58">
-        <v>4</v>
-      </c>
-      <c r="N58">
-        <v>1.85</v>
-      </c>
-      <c r="O58">
-        <v>3.5</v>
-      </c>
-      <c r="P58">
-        <v>4.333</v>
-      </c>
-      <c r="Q58">
-        <v>-0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.9</v>
-      </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5675,16 +5675,16 @@
         <v>1.8</v>
       </c>
       <c r="W58">
+        <v>1.55</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
-      <c r="Z58">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5207926</v>
+        <v>5208041</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5716,73 +5716,73 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
         <v>1</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>49</v>
       </c>
       <c r="K59">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L59">
+        <v>3.6</v>
+      </c>
+      <c r="M59">
         <v>4</v>
       </c>
-      <c r="M59">
-        <v>5.5</v>
-      </c>
       <c r="N59">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O59">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q59">
         <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
         <v>1.8</v>
       </c>
-      <c r="V59">
-        <v>2</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5814,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K60">
         <v>2.3</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61">
         <v>4.2</v>
@@ -5983,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K62">
         <v>1.833</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>1.2</v>
@@ -6170,7 +6170,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>2.625</v>
@@ -6259,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K65">
         <v>2.45</v>
@@ -6348,7 +6348,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.4</v>
@@ -6428,7 +6428,7 @@
         <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68">
         <v>2.45</v>
@@ -6603,7 +6603,7 @@
         <v>45044.54861111111</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>34</v>
@@ -6615,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6692,7 +6692,7 @@
         <v>45044.54861111111</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>35</v>
@@ -6793,7 +6793,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K71">
         <v>3.4</v>
@@ -6882,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K72">
         <v>4.333</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -7137,10 +7137,10 @@
         <v>45051.54861111111</v>
       </c>
       <c r="F75" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s">
         <v>31</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <v>2.15</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
         <v>3.4</v>
@@ -7327,7 +7327,7 @@
         <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
         <v>2.15</v>
@@ -7416,7 +7416,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K78">
         <v>2.8</v>
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7674,7 +7674,7 @@
         <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7683,7 +7683,7 @@
         <v>5</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K81">
         <v>2.3</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5207393</v>
+        <v>5208050</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,58 +7760,58 @@
         <v>45058.54861111111</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K82">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M82">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N82">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7820,7 +7820,7 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA82">
         <v>-1</v>
@@ -7829,7 +7829,7 @@
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5208050</v>
+        <v>5207393</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,58 +7849,58 @@
         <v>45058.54861111111</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K83">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N83">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="O83">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P83">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7909,7 +7909,7 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7918,7 +7918,7 @@
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5207928</v>
+        <v>5207064</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45058.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O84">
         <v>3.8</v>
       </c>
       <c r="P84">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q84">
         <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>1.975</v>
       </c>
-      <c r="S84">
-        <v>1.825</v>
-      </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5207064</v>
+        <v>5207928</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45058.54861111111</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N85">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O85">
         <v>3.8</v>
       </c>
       <c r="P85">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q85">
         <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>1.975</v>
+      </c>
+      <c r="S85">
         <v>1.825</v>
       </c>
-      <c r="S85">
-        <v>1.975</v>
-      </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8128,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K86">
         <v>3.75</v>
@@ -8205,7 +8205,7 @@
         <v>45059.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
         <v>44</v>
@@ -8297,7 +8297,7 @@
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8306,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K88">
         <v>2.8</v>
@@ -8395,7 +8395,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K89">
         <v>2.75</v>
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5207394</v>
+        <v>5207780</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,13 +8472,13 @@
         <v>45065.54861111111</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -8487,25 +8487,25 @@
         <v>49</v>
       </c>
       <c r="K90">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N90">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
         <v>1.8</v>
@@ -8514,34 +8514,34 @@
         <v>2</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5207780</v>
+        <v>5207394</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,13 +8650,13 @@
         <v>45065.54861111111</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -8665,25 +8665,25 @@
         <v>50</v>
       </c>
       <c r="K92">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L92">
+        <v>3.5</v>
+      </c>
+      <c r="M92">
         <v>3.4</v>
       </c>
-      <c r="M92">
-        <v>3</v>
-      </c>
       <c r="N92">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
         <v>1.8</v>
@@ -8692,34 +8692,34 @@
         <v>2</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8831,7 +8831,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K94">
         <v>1.285</v>
@@ -8920,7 +8920,7 @@
         <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>1.65</v>
@@ -9018,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K96">
         <v>3.6</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2.05</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5207396</v>
+        <v>5207781</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,58 +9184,58 @@
         <v>45072.59375</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N98">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P98">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>0.833</v>
+        <v>0.7</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9244,16 +9244,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9285,7 +9285,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>2.8</v>
@@ -9362,7 +9362,7 @@
         <v>45072.59375</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>41</v>
@@ -9374,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
         <v>4.75</v>
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5208058</v>
+        <v>5207396</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,58 +9451,58 @@
         <v>45072.59375</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="N101">
+        <v>1.833</v>
+      </c>
+      <c r="O101">
+        <v>3.8</v>
+      </c>
+      <c r="P101">
+        <v>3.8</v>
+      </c>
+      <c r="Q101">
+        <v>-0.5</v>
+      </c>
+      <c r="R101">
+        <v>1.85</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
         <v>2.75</v>
       </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
-      <c r="P101">
-        <v>2.375</v>
-      </c>
-      <c r="Q101">
-        <v>0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.725</v>
-      </c>
-      <c r="S101">
-        <v>1.975</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
-        <v>1.75</v>
+        <v>0.833</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9511,16 +9511,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5208057</v>
+        <v>5208058</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,76 +9540,76 @@
         <v>45072.59375</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L102">
         <v>3.4</v>
       </c>
       <c r="M102">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O102">
         <v>3.6</v>
       </c>
       <c r="P102">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q102">
         <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.4375</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9629,7 +9629,7 @@
         <v>45072.59375</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9641,7 +9641,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K103">
         <v>1.833</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>1.444</v>
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5207781</v>
+        <v>5208057</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,40 +9807,40 @@
         <v>45072.59375</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>51</v>
+      </c>
+      <c r="K105">
         <v>3</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105" t="s">
-        <v>50</v>
-      </c>
-      <c r="K105">
-        <v>1.8</v>
-      </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="N105">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
         <v>1.875</v>
@@ -9849,34 +9849,34 @@
         <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5257845</v>
+        <v>5227634</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,76 +9896,76 @@
         <v>45081.39583333334</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>49</v>
       </c>
       <c r="K106">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M106">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N106">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q106">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5227634</v>
+        <v>5207398</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,58 +9985,58 @@
         <v>45081.39583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
         <v>1</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>1.6</v>
+        <v>1.181</v>
       </c>
       <c r="L107">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="M107">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N107">
-        <v>1.615</v>
+        <v>1.09</v>
       </c>
       <c r="O107">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="P107">
-        <v>4.75</v>
+        <v>19</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U107">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
-        <v>0.615</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10045,16 +10045,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5207398</v>
+        <v>5208060</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,58 +10074,58 @@
         <v>45081.39583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>1.181</v>
+        <v>1.6</v>
       </c>
       <c r="L108">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N108">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="O108">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="P108">
-        <v>19</v>
+        <v>4.75</v>
       </c>
       <c r="Q108">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>0.09000000000000008</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10134,16 +10134,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5208060</v>
+        <v>5257845</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,76 +10163,76 @@
         <v>45081.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
         <v>50</v>
       </c>
       <c r="K109">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="L109">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N109">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="O109">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q109">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10353,7 +10353,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
         <v>2.8</v>
@@ -10430,7 +10430,7 @@
         <v>45081.39583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>1.909</v>
@@ -10522,7 +10522,7 @@
         <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832839</v>
+        <v>6831794</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,76 +10608,76 @@
         <v>45135.53125</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>49</v>
+      </c>
+      <c r="K114">
+        <v>1.7</v>
+      </c>
+      <c r="L114">
+        <v>3.75</v>
+      </c>
+      <c r="M114">
+        <v>4.2</v>
+      </c>
+      <c r="N114">
+        <v>1.833</v>
+      </c>
+      <c r="O114">
+        <v>4</v>
+      </c>
+      <c r="P114">
+        <v>3.8</v>
+      </c>
+      <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>1.8</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+      <c r="U114">
+        <v>2</v>
+      </c>
+      <c r="V114">
+        <v>1.8</v>
+      </c>
+      <c r="W114">
+        <v>0.833</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
         <v>1</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
-        <v>50</v>
-      </c>
-      <c r="K114">
-        <v>2</v>
-      </c>
-      <c r="L114">
-        <v>3.4</v>
-      </c>
-      <c r="M114">
-        <v>3.3</v>
-      </c>
-      <c r="N114">
-        <v>2.375</v>
-      </c>
-      <c r="O114">
-        <v>3.6</v>
-      </c>
-      <c r="P114">
-        <v>2.75</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>1.775</v>
-      </c>
-      <c r="S114">
-        <v>2.025</v>
-      </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
-      <c r="U114">
-        <v>1.9</v>
-      </c>
-      <c r="V114">
-        <v>1.9</v>
-      </c>
-      <c r="W114">
-        <v>1.375</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6831794</v>
+        <v>6832839</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,58 +10697,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K115">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N115">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10757,16 +10757,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10798,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>2.7</v>
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6832836</v>
+        <v>6832067</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,58 +10875,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H117">
         <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K117">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N117">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O117">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
         <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
-        <v>0.615</v>
+        <v>0.909</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10935,16 +10935,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6832067</v>
+        <v>6832836</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,58 +10964,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>3</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M118">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N118">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O118">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P118">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W118">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11024,16 +11024,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11065,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K119">
         <v>1.55</v>
@@ -11243,7 +11243,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K121">
         <v>4.2</v>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
         <v>4.2</v>
@@ -11510,7 +11510,7 @@
         <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K124">
         <v>2.3</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>1.727</v>
@@ -11679,7 +11679,7 @@
         <v>48</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6832849</v>
+        <v>6832846</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,76 +11943,76 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
         <v>1</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>50</v>
       </c>
       <c r="K129">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N129">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P129">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6832846</v>
+        <v>6832850</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,49 +12032,49 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L130">
         <v>3.6</v>
       </c>
       <c r="M130">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O130">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
         <v>1.825</v>
@@ -12083,19 +12083,19 @@
         <v>1.975</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6832850</v>
+        <v>6832849</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,10 +12121,10 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12133,46 +12133,46 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N131">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
         <v>3.6</v>
       </c>
       <c r="P131">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>2.3</v>
+        <v>0.909</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12181,7 +12181,7 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA131">
         <v>-1</v>
@@ -12190,7 +12190,7 @@
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12222,7 +12222,7 @@
         <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K132">
         <v>4</v>
@@ -12311,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>1.7</v>
@@ -12400,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K134">
         <v>2.1</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K136">
         <v>2.25</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6832071</v>
+        <v>6832852</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,10 +12655,10 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12667,46 +12667,46 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N137">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12715,7 +12715,7 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA137">
         <v>-1</v>
@@ -12724,7 +12724,7 @@
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6832854</v>
+        <v>6832072</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,49 +12744,49 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q138">
         <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U138">
         <v>1.925</v>
@@ -12795,7 +12795,7 @@
         <v>1.875</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12804,16 +12804,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6832852</v>
+        <v>6832855</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L139">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N139">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O139">
         <v>3.6</v>
       </c>
       <c r="P139">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6832072</v>
+        <v>6832854</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,49 +12922,49 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N140">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O140">
+        <v>3.4</v>
+      </c>
+      <c r="P140">
         <v>3.8</v>
-      </c>
-      <c r="P140">
-        <v>4.2</v>
       </c>
       <c r="Q140">
         <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
         <v>1.925</v>
@@ -12973,7 +12973,7 @@
         <v>1.875</v>
       </c>
       <c r="W140">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12982,16 +12982,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6832855</v>
+        <v>6832071</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,76 +13011,76 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N141">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X141">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K142">
         <v>1.533</v>
@@ -13192,7 +13192,7 @@
         <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K143">
         <v>3</v>
@@ -13290,7 +13290,7 @@
         <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K144">
         <v>5</v>
@@ -13367,7 +13367,7 @@
         <v>45160.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>44</v>
@@ -13379,7 +13379,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2.6</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6832859</v>
+        <v>6832860</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K146">
+        <v>2.625</v>
+      </c>
+      <c r="L146">
+        <v>3.5</v>
+      </c>
+      <c r="M146">
         <v>2.25</v>
       </c>
-      <c r="L146">
-        <v>3.4</v>
-      </c>
-      <c r="M146">
-        <v>2.7</v>
-      </c>
       <c r="N146">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P146">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q146">
+        <v>0.25</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2.75</v>
+      </c>
+      <c r="U146">
+        <v>1.925</v>
+      </c>
+      <c r="V146">
+        <v>1.875</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>2.75</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
+        <v>0.5</v>
+      </c>
+      <c r="AA146">
         <v>-0.5</v>
       </c>
-      <c r="R146">
-        <v>1.925</v>
-      </c>
-      <c r="S146">
-        <v>1.875</v>
-      </c>
-      <c r="T146">
-        <v>3</v>
-      </c>
-      <c r="U146">
-        <v>1.95</v>
-      </c>
-      <c r="V146">
-        <v>1.85</v>
-      </c>
-      <c r="W146">
-        <v>0.95</v>
-      </c>
-      <c r="X146">
-        <v>-1</v>
-      </c>
-      <c r="Y146">
-        <v>-1</v>
-      </c>
-      <c r="Z146">
-        <v>0.925</v>
-      </c>
-      <c r="AA146">
-        <v>-1</v>
-      </c>
       <c r="AB146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6832860</v>
+        <v>6832859</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,76 +13545,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N147">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X147">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6832073</v>
+        <v>6832858</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,13 +13634,13 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -13649,61 +13649,61 @@
         <v>49</v>
       </c>
       <c r="K148">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L148">
         <v>3.6</v>
       </c>
       <c r="M148">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N148">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P148">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6832856</v>
+        <v>6832073</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13723,76 +13723,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L149">
         <v>3.6</v>
       </c>
       <c r="M149">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N149">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O149">
+        <v>4</v>
+      </c>
+      <c r="P149">
         <v>3.6</v>
       </c>
-      <c r="P149">
-        <v>3.25</v>
-      </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
+        <v>1.925</v>
+      </c>
+      <c r="S149">
         <v>1.875</v>
       </c>
-      <c r="S149">
-        <v>1.925</v>
-      </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
         <v>0.875</v>
       </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6832858</v>
+        <v>6832856</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,58 +13812,58 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K150">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L150">
         <v>3.6</v>
       </c>
       <c r="M150">
+        <v>3.5</v>
+      </c>
+      <c r="N150">
+        <v>2.15</v>
+      </c>
+      <c r="O150">
         <v>3.6</v>
       </c>
-      <c r="N150">
-        <v>1.8</v>
-      </c>
-      <c r="O150">
-        <v>3.8</v>
-      </c>
       <c r="P150">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
+        <v>1.925</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
         <v>1.95</v>
       </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
-      <c r="U150">
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="V150">
-        <v>1.95</v>
-      </c>
       <c r="W150">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13872,16 +13872,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC150">
-        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13913,7 +13913,7 @@
         <v>5</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>3.1</v>
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6832861</v>
+        <v>6832866</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,58 +14168,58 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K154">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L154">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M154">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N154">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="O154">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P154">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T154">
         <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>0.833</v>
+        <v>1.9</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,16 +14228,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6832864</v>
+        <v>6832861</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,13 +14257,13 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -14272,34 +14272,34 @@
         <v>49</v>
       </c>
       <c r="K155">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="L155">
+        <v>3.8</v>
+      </c>
+      <c r="M155">
+        <v>3.6</v>
+      </c>
+      <c r="N155">
+        <v>1.833</v>
+      </c>
+      <c r="O155">
+        <v>3.8</v>
+      </c>
+      <c r="P155">
         <v>4.2</v>
       </c>
-      <c r="M155">
-        <v>1.7</v>
-      </c>
-      <c r="N155">
-        <v>6</v>
-      </c>
-      <c r="O155">
-        <v>5</v>
-      </c>
-      <c r="P155">
-        <v>1.5</v>
-      </c>
       <c r="Q155">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
         <v>1.95</v>
@@ -14308,25 +14308,25 @@
         <v>1.85</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832866</v>
+        <v>6832864</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,40 +14346,40 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
         <v>1</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>50</v>
       </c>
       <c r="K156">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M156">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="N156">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P156">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q156">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R156">
         <v>1.85</v>
@@ -14388,34 +14388,34 @@
         <v>1.95</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z156">
+        <v>0.425</v>
+      </c>
+      <c r="AA156">
+        <v>-0.5</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
-      <c r="AB156">
-        <v>-1</v>
-      </c>
-      <c r="AC156">
-        <v>0.875</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14435,7 +14435,7 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
         <v>36</v>
@@ -14536,7 +14536,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K159">
         <v>2.7</v>
@@ -14702,7 +14702,7 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
         <v>42</v>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K160">
         <v>2.05</v>
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K161">
         <v>3.6</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K162">
         <v>1.95</v>
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6832869</v>
+        <v>6832867</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,58 +14969,58 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L163">
+        <v>3.4</v>
+      </c>
+      <c r="M163">
+        <v>3.1</v>
+      </c>
+      <c r="N163">
+        <v>2.1</v>
+      </c>
+      <c r="O163">
         <v>3.5</v>
       </c>
-      <c r="M163">
-        <v>2.4</v>
-      </c>
-      <c r="N163">
-        <v>2.45</v>
-      </c>
-      <c r="O163">
-        <v>3.75</v>
-      </c>
       <c r="P163">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15029,16 +15029,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6832868</v>
+        <v>6832869</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,40 +15058,40 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N164">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P164">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R164">
         <v>1.85</v>
@@ -15103,31 +15103,31 @@
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15159,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K165">
         <v>1.909</v>
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6832867</v>
+        <v>6832868</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,13 +15236,13 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>2</v>
@@ -15251,61 +15251,61 @@
         <v>50</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M166">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N166">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P166">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R166">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15337,7 +15337,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K167">
         <v>3.75</v>
@@ -15402,7 +15402,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6832077</v>
+        <v>6831798</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15414,76 +15414,76 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N168">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P168">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
+        <v>1.825</v>
+      </c>
+      <c r="V168">
         <v>1.975</v>
       </c>
-      <c r="V168">
-        <v>1.825</v>
-      </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6831798</v>
+        <v>6832077</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,76 +15503,76 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F169" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
         <v>50</v>
       </c>
       <c r="K169">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M169">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N169">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O169">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R169">
+        <v>1.8</v>
+      </c>
+      <c r="S169">
+        <v>2</v>
+      </c>
+      <c r="T169">
+        <v>3</v>
+      </c>
+      <c r="U169">
+        <v>1.975</v>
+      </c>
+      <c r="V169">
         <v>1.825</v>
       </c>
-      <c r="S169">
-        <v>1.975</v>
-      </c>
-      <c r="T169">
-        <v>2.75</v>
-      </c>
-      <c r="U169">
-        <v>1.825</v>
-      </c>
-      <c r="V169">
-        <v>1.975</v>
-      </c>
       <c r="W169">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z169">
+        <v>-1</v>
+      </c>
+      <c r="AA169">
+        <v>1</v>
+      </c>
+      <c r="AB169">
+        <v>-1</v>
+      </c>
+      <c r="AC169">
         <v>0.825</v>
-      </c>
-      <c r="AA169">
-        <v>-1</v>
-      </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
-      <c r="AC169">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6834056</v>
+        <v>6832876</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,55 +15592,55 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F170" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
+        <v>2</v>
+      </c>
+      <c r="J170" t="s">
+        <v>50</v>
+      </c>
+      <c r="K170">
+        <v>2.7</v>
+      </c>
+      <c r="L170">
+        <v>3.5</v>
+      </c>
+      <c r="M170">
+        <v>2.3</v>
+      </c>
+      <c r="N170">
         <v>3</v>
-      </c>
-      <c r="J170" t="s">
-        <v>49</v>
-      </c>
-      <c r="K170">
-        <v>1.909</v>
-      </c>
-      <c r="L170">
-        <v>3.6</v>
-      </c>
-      <c r="M170">
-        <v>3.4</v>
-      </c>
-      <c r="N170">
-        <v>1.8</v>
       </c>
       <c r="O170">
         <v>3.75</v>
       </c>
       <c r="P170">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15649,19 +15649,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>3.333</v>
+        <v>1.2</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB170">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6832078</v>
+        <v>6834056</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,40 +15681,40 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K171">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N171">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P171">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="Q171">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
         <v>1.8</v>
@@ -15723,13 +15723,13 @@
         <v>2</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15738,7 +15738,7 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.375</v>
+        <v>3.333</v>
       </c>
       <c r="Z171">
         <v>-1</v>
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="AB171">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6832876</v>
+        <v>6832078</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,55 +15770,55 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L172">
         <v>3.5</v>
       </c>
       <c r="M172">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N172">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O172">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P172">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q172">
         <v>0.25</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S172">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15827,19 +15827,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15859,7 +15859,7 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
         <v>40</v>
@@ -16049,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K175">
         <v>1.533</v>
@@ -16215,7 +16215,7 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
         <v>36</v>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K177">
         <v>1.909</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6832080</v>
+        <v>6832880</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,73 +16304,73 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K178">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L178">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N178">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O178">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X178">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA178">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6832880</v>
+        <v>6832080</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,73 +16393,73 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L179">
+        <v>3.6</v>
+      </c>
+      <c r="M179">
+        <v>2.8</v>
+      </c>
+      <c r="N179">
+        <v>2.375</v>
+      </c>
+      <c r="O179">
         <v>3.75</v>
       </c>
-      <c r="M179">
-        <v>4</v>
-      </c>
-      <c r="N179">
-        <v>1.571</v>
-      </c>
-      <c r="O179">
-        <v>4</v>
-      </c>
       <c r="P179">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W179">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB179">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16494,7 +16494,7 @@
         <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K180">
         <v>2.6</v>
@@ -16583,7 +16583,7 @@
         <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K181">
         <v>2.15</v>
@@ -16663,7 +16663,7 @@
         <v>35</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16761,7 +16761,7 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K183">
         <v>1.75</v>
@@ -16850,7 +16850,7 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>2.3</v>
@@ -16939,7 +16939,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K185">
         <v>2</v>
@@ -17016,7 +17016,7 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
         <v>35</v>
@@ -17028,7 +17028,7 @@
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K186">
         <v>1.909</v>
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17206,7 +17206,7 @@
         <v>3</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K188">
         <v>4</v>
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K191">
         <v>1.45</v>
@@ -17562,7 +17562,7 @@
         <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K192">
         <v>2.2</v>
@@ -17642,7 +17642,7 @@
         <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17740,7 +17740,7 @@
         <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K194">
         <v>2.15</v>
@@ -17829,7 +17829,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K195">
         <v>1.615</v>
@@ -17995,7 +17995,7 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F197" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
         <v>43</v>
@@ -18161,7 +18161,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6831801</v>
+        <v>6832085</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18173,58 +18173,58 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H199">
         <v>3</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K199">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L199">
         <v>3.4</v>
       </c>
       <c r="M199">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N199">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O199">
         <v>3.5</v>
       </c>
       <c r="P199">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
+        <v>1.9</v>
+      </c>
+      <c r="S199">
+        <v>1.9</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
+        <v>1.975</v>
+      </c>
+      <c r="V199">
         <v>1.825</v>
       </c>
-      <c r="S199">
-        <v>1.975</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.9</v>
-      </c>
-      <c r="V199">
-        <v>1.9</v>
-      </c>
       <c r="W199">
-        <v>0.833</v>
+        <v>1.2</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18233,13 +18233,13 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6832085</v>
+        <v>6831801</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18262,58 +18262,58 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H200">
         <v>3</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K200">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L200">
         <v>3.4</v>
       </c>
       <c r="M200">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N200">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O200">
         <v>3.5</v>
       </c>
       <c r="P200">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q200">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
+        <v>1.825</v>
+      </c>
+      <c r="S200">
+        <v>1.975</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
         <v>1.9</v>
       </c>
-      <c r="S200">
+      <c r="V200">
         <v>1.9</v>
       </c>
-      <c r="T200">
-        <v>2.75</v>
-      </c>
-      <c r="U200">
-        <v>1.975</v>
-      </c>
-      <c r="V200">
-        <v>1.825</v>
-      </c>
       <c r="W200">
-        <v>1.2</v>
+        <v>0.833</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18322,13 +18322,13 @@
         <v>-1</v>
       </c>
       <c r="Z200">
+        <v>0.825</v>
+      </c>
+      <c r="AA200">
+        <v>-1</v>
+      </c>
+      <c r="AB200">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA200">
-        <v>-1</v>
-      </c>
-      <c r="AB200">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18363,7 +18363,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K201">
         <v>1.7</v>
@@ -18452,7 +18452,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K202">
         <v>1.7</v>
@@ -18529,7 +18529,7 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
         <v>43</v>
@@ -18541,7 +18541,7 @@
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K203">
         <v>4.2</v>
@@ -18630,7 +18630,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K204">
         <v>4.2</v>
@@ -18799,7 +18799,7 @@
         <v>46</v>
       </c>
       <c r="G206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -18808,7 +18808,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K206">
         <v>2.2</v>
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6832087</v>
+        <v>6832893</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,40 +18885,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K207">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L207">
+        <v>3.4</v>
+      </c>
+      <c r="M207">
+        <v>2.875</v>
+      </c>
+      <c r="N207">
+        <v>2.2</v>
+      </c>
+      <c r="O207">
         <v>3.5</v>
       </c>
-      <c r="M207">
-        <v>3.4</v>
-      </c>
-      <c r="N207">
-        <v>1.833</v>
-      </c>
-      <c r="O207">
-        <v>3.6</v>
-      </c>
       <c r="P207">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q207">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
         <v>1.875</v>
@@ -18927,34 +18927,34 @@
         <v>1.925</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V207">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X207">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA207">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6832893</v>
+        <v>6832087</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,40 +18974,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K208">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L208">
+        <v>3.5</v>
+      </c>
+      <c r="M208">
         <v>3.4</v>
       </c>
-      <c r="M208">
-        <v>2.875</v>
-      </c>
       <c r="N208">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O208">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P208">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
         <v>1.875</v>
@@ -19016,34 +19016,34 @@
         <v>1.925</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W208">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19155,7 +19155,7 @@
         <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19164,7 +19164,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K210">
         <v>1.55</v>
@@ -19241,7 +19241,7 @@
         <v>45233.6875</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G211" t="s">
         <v>37</v>
@@ -19253,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K211">
         <v>1.909</v>
@@ -19520,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K214">
         <v>1.4</v>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K216">
         <v>1.571</v>
@@ -19775,7 +19775,7 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
         <v>34</v>
@@ -19787,7 +19787,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K217">
         <v>1.909</v>
@@ -19876,7 +19876,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K218">
         <v>1.65</v>
@@ -19965,7 +19965,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K219">
         <v>1.7</v>
@@ -20045,7 +20045,7 @@
         <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20054,7 +20054,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K220">
         <v>2.5</v>
@@ -20143,7 +20143,7 @@
         <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K221">
         <v>3</v>
@@ -20232,7 +20232,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K222">
         <v>1.666</v>
@@ -20321,7 +20321,7 @@
         <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K223">
         <v>1.8</v>
@@ -20410,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K224">
         <v>2.05</v>
@@ -20475,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6832912</v>
+        <v>6832910</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20487,76 +20487,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
         <v>50</v>
       </c>
       <c r="K225">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L225">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M225">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N225">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O225">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P225">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S225">
+        <v>1.875</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
+        <v>1.75</v>
+      </c>
+      <c r="V225">
         <v>1.95</v>
       </c>
-      <c r="T225">
-        <v>2.5</v>
-      </c>
-      <c r="U225">
-        <v>1.875</v>
-      </c>
-      <c r="V225">
-        <v>1.925</v>
-      </c>
       <c r="W225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20564,7 +20564,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6832910</v>
+        <v>6832912</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20576,76 +20576,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F226" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>49</v>
       </c>
       <c r="K226">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L226">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N226">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O226">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P226">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q226">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
+        <v>1.85</v>
+      </c>
+      <c r="S226">
+        <v>1.95</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>1.875</v>
+      </c>
+      <c r="V226">
         <v>1.925</v>
       </c>
-      <c r="S226">
-        <v>1.875</v>
-      </c>
-      <c r="T226">
-        <v>2.75</v>
-      </c>
-      <c r="U226">
-        <v>1.75</v>
-      </c>
-      <c r="V226">
-        <v>1.95</v>
-      </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA226">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20677,7 +20677,7 @@
         <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K227">
         <v>4.5</v>
@@ -20766,7 +20766,7 @@
         <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K228">
         <v>5.75</v>
@@ -20843,7 +20843,7 @@
         <v>45255.4375</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
         <v>45</v>
@@ -20855,7 +20855,7 @@
         <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K229">
         <v>1.909</v>
@@ -20944,7 +20944,7 @@
         <v>6</v>
       </c>
       <c r="J230" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K230">
         <v>2.2</v>
@@ -21033,7 +21033,7 @@
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K231">
         <v>3.75</v>
@@ -21122,7 +21122,7 @@
         <v>3</v>
       </c>
       <c r="J232" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K232">
         <v>2.875</v>
@@ -21211,7 +21211,7 @@
         <v>4</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K233">
         <v>1.909</v>
@@ -21291,7 +21291,7 @@
         <v>47</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -21300,7 +21300,7 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K234">
         <v>2.15</v>
@@ -21389,7 +21389,7 @@
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K235">
         <v>1.4</v>
@@ -21478,7 +21478,7 @@
         <v>5</v>
       </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K236">
         <v>5.25</v>
@@ -21555,7 +21555,7 @@
         <v>45338.59027777778</v>
       </c>
       <c r="F237" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
         <v>46</v>
@@ -21567,7 +21567,7 @@
         <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K237">
         <v>3.2</v>
@@ -21656,7 +21656,7 @@
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K238">
         <v>1.666</v>
@@ -21714,6 +21714,524 @@
       </c>
       <c r="AC238">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>6831807</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45345.59027777778</v>
+      </c>
+      <c r="F239" t="s">
+        <v>38</v>
+      </c>
+      <c r="G239" t="s">
+        <v>35</v>
+      </c>
+      <c r="K239">
+        <v>1.75</v>
+      </c>
+      <c r="L239">
+        <v>3.6</v>
+      </c>
+      <c r="M239">
+        <v>4</v>
+      </c>
+      <c r="N239">
+        <v>1.75</v>
+      </c>
+      <c r="O239">
+        <v>3.6</v>
+      </c>
+      <c r="P239">
+        <v>4</v>
+      </c>
+      <c r="Q239">
+        <v>-0.5</v>
+      </c>
+      <c r="R239">
+        <v>1.775</v>
+      </c>
+      <c r="S239">
+        <v>2.025</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>1.95</v>
+      </c>
+      <c r="V239">
+        <v>1.85</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>6832096</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45345.59027777778</v>
+      </c>
+      <c r="F240" t="s">
+        <v>46</v>
+      </c>
+      <c r="G240" t="s">
+        <v>47</v>
+      </c>
+      <c r="K240">
+        <v>1.8</v>
+      </c>
+      <c r="L240">
+        <v>3.6</v>
+      </c>
+      <c r="M240">
+        <v>3.75</v>
+      </c>
+      <c r="N240">
+        <v>1.75</v>
+      </c>
+      <c r="O240">
+        <v>3.75</v>
+      </c>
+      <c r="P240">
+        <v>4</v>
+      </c>
+      <c r="Q240">
+        <v>-0.75</v>
+      </c>
+      <c r="R240">
+        <v>2</v>
+      </c>
+      <c r="S240">
+        <v>1.8</v>
+      </c>
+      <c r="T240">
+        <v>2.75</v>
+      </c>
+      <c r="U240">
+        <v>1.975</v>
+      </c>
+      <c r="V240">
+        <v>1.825</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>6832922</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45345.59027777778</v>
+      </c>
+      <c r="F241" t="s">
+        <v>44</v>
+      </c>
+      <c r="G241" t="s">
+        <v>29</v>
+      </c>
+      <c r="K241">
+        <v>1.85</v>
+      </c>
+      <c r="L241">
+        <v>3.75</v>
+      </c>
+      <c r="M241">
+        <v>3.75</v>
+      </c>
+      <c r="N241">
+        <v>1.75</v>
+      </c>
+      <c r="O241">
+        <v>3.8</v>
+      </c>
+      <c r="P241">
+        <v>4</v>
+      </c>
+      <c r="Q241">
+        <v>-0.75</v>
+      </c>
+      <c r="R241">
+        <v>1.975</v>
+      </c>
+      <c r="S241">
+        <v>1.825</v>
+      </c>
+      <c r="T241">
+        <v>3</v>
+      </c>
+      <c r="U241">
+        <v>2</v>
+      </c>
+      <c r="V241">
+        <v>1.8</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>6832921</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45345.6875</v>
+      </c>
+      <c r="F242" t="s">
+        <v>37</v>
+      </c>
+      <c r="G242" t="s">
+        <v>40</v>
+      </c>
+      <c r="K242">
+        <v>4.75</v>
+      </c>
+      <c r="L242">
+        <v>3.8</v>
+      </c>
+      <c r="M242">
+        <v>1.615</v>
+      </c>
+      <c r="N242">
+        <v>4.333</v>
+      </c>
+      <c r="O242">
+        <v>3.75</v>
+      </c>
+      <c r="P242">
+        <v>1.666</v>
+      </c>
+      <c r="Q242">
+        <v>0.75</v>
+      </c>
+      <c r="R242">
+        <v>1.9</v>
+      </c>
+      <c r="S242">
+        <v>1.9</v>
+      </c>
+      <c r="T242">
+        <v>2.75</v>
+      </c>
+      <c r="U242">
+        <v>1.975</v>
+      </c>
+      <c r="V242">
+        <v>1.825</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6832095</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45346.4375</v>
+      </c>
+      <c r="F243" t="s">
+        <v>45</v>
+      </c>
+      <c r="G243" t="s">
+        <v>34</v>
+      </c>
+      <c r="K243">
+        <v>1.909</v>
+      </c>
+      <c r="L243">
+        <v>3.5</v>
+      </c>
+      <c r="M243">
+        <v>3.5</v>
+      </c>
+      <c r="N243">
+        <v>1.95</v>
+      </c>
+      <c r="O243">
+        <v>3.5</v>
+      </c>
+      <c r="P243">
+        <v>3.4</v>
+      </c>
+      <c r="Q243">
+        <v>-0.5</v>
+      </c>
+      <c r="R243">
+        <v>1.95</v>
+      </c>
+      <c r="S243">
+        <v>1.85</v>
+      </c>
+      <c r="T243">
+        <v>2.75</v>
+      </c>
+      <c r="U243">
+        <v>2</v>
+      </c>
+      <c r="V243">
+        <v>1.8</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>6832918</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45346.4375</v>
+      </c>
+      <c r="F244" t="s">
+        <v>43</v>
+      </c>
+      <c r="G244" t="s">
+        <v>42</v>
+      </c>
+      <c r="K244">
+        <v>1.285</v>
+      </c>
+      <c r="L244">
+        <v>5.25</v>
+      </c>
+      <c r="M244">
+        <v>8</v>
+      </c>
+      <c r="N244">
+        <v>1.333</v>
+      </c>
+      <c r="O244">
+        <v>5</v>
+      </c>
+      <c r="P244">
+        <v>7.5</v>
+      </c>
+      <c r="Q244">
+        <v>-1.5</v>
+      </c>
+      <c r="R244">
+        <v>1.9</v>
+      </c>
+      <c r="S244">
+        <v>1.9</v>
+      </c>
+      <c r="T244">
+        <v>3</v>
+      </c>
+      <c r="U244">
+        <v>1.825</v>
+      </c>
+      <c r="V244">
+        <v>1.975</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>6832920</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45346.4375</v>
+      </c>
+      <c r="F245" t="s">
+        <v>36</v>
+      </c>
+      <c r="G245" t="s">
+        <v>32</v>
+      </c>
+      <c r="K245">
+        <v>3.5</v>
+      </c>
+      <c r="L245">
+        <v>3.6</v>
+      </c>
+      <c r="M245">
+        <v>1.909</v>
+      </c>
+      <c r="N245">
+        <v>4</v>
+      </c>
+      <c r="O245">
+        <v>3.8</v>
+      </c>
+      <c r="P245">
+        <v>1.75</v>
+      </c>
+      <c r="Q245">
+        <v>0.75</v>
+      </c>
+      <c r="R245">
+        <v>1.85</v>
+      </c>
+      <c r="S245">
+        <v>1.95</v>
+      </c>
+      <c r="T245">
+        <v>3</v>
+      </c>
+      <c r="U245">
+        <v>1.975</v>
+      </c>
+      <c r="V245">
+        <v>1.825</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,16 @@
     <t>Austria 2 Liga</t>
   </si>
   <si>
-    <t>SV Horn</t>
+    <t>First Vienna FC 1894</t>
+  </si>
+  <si>
+    <t>FC Flyeralarm Admira</t>
   </si>
   <si>
     <t>Rapid Vienna II</t>
   </si>
   <si>
-    <t>First Vienna FC 1894</t>
-  </si>
-  <si>
-    <t>FC Flyeralarm Admira</t>
+    <t>SV Horn</t>
   </si>
   <si>
     <t>SK Vorwrts Steyr</t>
@@ -151,10 +151,10 @@
     <t>FC Liefering</t>
   </si>
   <si>
-    <t>SW Bregenz</t>
+    <t>Leoben DSV</t>
   </si>
   <si>
-    <t>Leoben DSV</t>
+    <t>SW Bregenz</t>
   </si>
   <si>
     <t>SV StripfingWeiden</t>
@@ -163,10 +163,10 @@
     <t>SV Ried</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC249"/>
+  <dimension ref="A1:AC246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5207922</v>
+        <v>5207376</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N2">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O2">
         <v>3.4</v>
       </c>
       <c r="P2">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z2">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5208022</v>
+        <v>5207202</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
       </c>
       <c r="K3">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5207376</v>
+        <v>5208022</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,73 +821,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>0</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
       </c>
       <c r="K4">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="N4">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O4">
         <v>3.4</v>
       </c>
       <c r="P4">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
+        <v>1.75</v>
+      </c>
+      <c r="V4">
         <v>1.95</v>
       </c>
-      <c r="V4">
-        <v>1.85</v>
-      </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5207202</v>
+        <v>5207922</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,70 +910,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>50</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N5">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
+        <v>1.975</v>
+      </c>
+      <c r="S5">
+        <v>1.725</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
         <v>1.9</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.9</v>
       </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB5">
-        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>4.75</v>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>2.9</v>
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>2.625</v>
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>3.1</v>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>2.2</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>2.05</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>1.125</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>2.6</v>
@@ -1889,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>1.85</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>2.25</v>
@@ -2076,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>4.5</v>
@@ -2245,7 +2245,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>2.25</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>2.5</v>
@@ -2509,7 +2509,7 @@
         <v>44995.6875</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
         <v>43</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>2.6</v>
@@ -2598,10 +2598,10 @@
         <v>44997.27083333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>2.3</v>
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>1.75</v>
@@ -2776,7 +2776,7 @@
         <v>45002.59027777778</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
         <v>1.85</v>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>4.333</v>
@@ -3046,7 +3046,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5207773</v>
+        <v>5208027</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,58 +3132,58 @@
         <v>45003.4375</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M30">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P30">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3192,16 +3192,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5207383</v>
+        <v>5207773</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,73 +3221,73 @@
         <v>45003.4375</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N31">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X31">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5208027</v>
+        <v>5207383</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45003.4375</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32">
+        <v>2.5</v>
+      </c>
+      <c r="L32">
+        <v>3.3</v>
+      </c>
+      <c r="M32">
+        <v>2.5</v>
+      </c>
+      <c r="N32">
+        <v>2.55</v>
+      </c>
+      <c r="O32">
+        <v>3.4</v>
+      </c>
+      <c r="P32">
+        <v>2.7</v>
+      </c>
+      <c r="Q32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32">
-        <v>1.4</v>
-      </c>
-      <c r="L32">
-        <v>4.5</v>
-      </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
-      <c r="N32">
-        <v>1.4</v>
-      </c>
-      <c r="O32">
-        <v>4.5</v>
-      </c>
-      <c r="P32">
-        <v>7.5</v>
-      </c>
-      <c r="Q32">
-        <v>-1.25</v>
-      </c>
       <c r="R32">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
+        <v>1.85</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.9</v>
-      </c>
-      <c r="V32">
-        <v>1.9</v>
-      </c>
       <c r="W32">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>1.25</v>
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5208030</v>
+        <v>5208031</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,58 +3488,58 @@
         <v>45016.54861111111</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="L34">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="N34">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="O34">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="Q34">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3548,16 +3548,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5207385</v>
+        <v>5207061</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,64 +3577,64 @@
         <v>45016.54861111111</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N35">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
         <v>1.75</v>
-      </c>
-      <c r="S35">
-        <v>1.95</v>
       </c>
       <c r="T35">
         <v>3</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y35">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -3643,10 +3643,10 @@
         <v>-0</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5208031</v>
+        <v>5207385</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45016.54861111111</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
         <v>49</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="N36">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R36">
+        <v>1.75</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.8</v>
       </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
-      <c r="T36">
-        <v>2.25</v>
-      </c>
-      <c r="U36">
-        <v>1.875</v>
-      </c>
-      <c r="V36">
-        <v>1.925</v>
-      </c>
       <c r="W36">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5207061</v>
+        <v>5208030</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,76 +3755,76 @@
         <v>45016.54861111111</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>8.5</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="M37">
-        <v>2.875</v>
+        <v>1.25</v>
       </c>
       <c r="N37">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P37">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>1.8</v>
+      </c>
+      <c r="T37">
+        <v>3.25</v>
+      </c>
+      <c r="U37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.75</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.875</v>
-      </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X37">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>45017.39583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>42</v>
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>1.7</v>
@@ -4034,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>1.55</v>
@@ -4111,10 +4111,10 @@
         <v>45018.22916666666</v>
       </c>
       <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
         <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>45023.54861111111</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>36</v>
@@ -4301,7 +4301,7 @@
         <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>2.15</v>
@@ -4381,7 +4381,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4390,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44">
         <v>1.8</v>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5207775</v>
+        <v>5208033</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,10 +4467,10 @@
         <v>45023.54861111111</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4479,37 +4479,37 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="N45">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
         <v>1.9</v>
@@ -4524,13 +4524,13 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.9</v>
+        <v>4.25</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
         <v>0.8999999999999999</v>
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5208033</v>
+        <v>5207775</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,10 +4556,10 @@
         <v>45023.54861111111</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4568,37 +4568,37 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N46">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P46">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
         <v>1.9</v>
@@ -4613,13 +4613,13 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>4.25</v>
+        <v>1.9</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB46">
         <v>0.8999999999999999</v>
@@ -4633,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5208034</v>
+        <v>5207197</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4645,40 +4645,40 @@
         <v>45024.39583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L47">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N47">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="O47">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P47">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q47">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R47">
         <v>2</v>
@@ -4690,13 +4690,13 @@
         <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
-        <v>0.5</v>
+        <v>0.363</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4705,13 +4705,13 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA47">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5207197</v>
+        <v>5208034</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,40 +4734,40 @@
         <v>45024.39583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L48">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M48">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N48">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P48">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q48">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
         <v>2</v>
@@ -4779,13 +4779,13 @@
         <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>0.363</v>
+        <v>0.5</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4794,13 +4794,13 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB48">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4835,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K49">
         <v>3.3</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5207776</v>
+        <v>5208035</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,76 +4912,76 @@
         <v>45030.54861111111</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="N50">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R50">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5208035</v>
+        <v>5207776</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,76 +5001,76 @@
         <v>45030.54861111111</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="N51">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X51">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5191,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
         <v>2.5</v>
@@ -5268,7 +5268,7 @@
         <v>45032.22916666666</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
         <v>38</v>
@@ -5280,7 +5280,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54">
         <v>2.3</v>
@@ -5360,7 +5360,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5446,7 +5446,7 @@
         <v>45034.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5458,7 +5458,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>1.8</v>
@@ -5535,7 +5535,7 @@
         <v>45037.54861111111</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57">
         <v>1.85</v>
@@ -5624,7 +5624,7 @@
         <v>45037.54861111111</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
@@ -5636,7 +5636,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K58">
         <v>1.571</v>
@@ -5716,7 +5716,7 @@
         <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59">
         <v>4.2</v>
@@ -5814,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60">
         <v>2.3</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>1.95</v>
@@ -5983,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62">
         <v>1.833</v>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>1.2</v>
@@ -6170,7 +6170,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>2.625</v>
@@ -6259,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>2.45</v>
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5208045</v>
+        <v>5207391</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,76 +6336,76 @@
         <v>45044.54861111111</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="L66">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N66">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P66">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5207392</v>
+        <v>5207778</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,76 +6425,76 @@
         <v>45044.54861111111</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67" t="s">
+        <v>50</v>
+      </c>
+      <c r="K67">
+        <v>2.4</v>
+      </c>
+      <c r="L67">
+        <v>3.25</v>
+      </c>
+      <c r="M67">
+        <v>2.75</v>
+      </c>
+      <c r="N67">
+        <v>2.5</v>
+      </c>
+      <c r="O67">
+        <v>3.2</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>51</v>
-      </c>
-      <c r="K67">
-        <v>2.5</v>
-      </c>
-      <c r="L67">
-        <v>3.3</v>
-      </c>
-      <c r="M67">
-        <v>2.55</v>
-      </c>
-      <c r="N67">
-        <v>3</v>
-      </c>
-      <c r="O67">
-        <v>3.4</v>
-      </c>
-      <c r="P67">
-        <v>2.375</v>
-      </c>
-      <c r="Q67">
-        <v>0.25</v>
-      </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X67">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5207194</v>
+        <v>5208045</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,76 +6514,76 @@
         <v>45044.54861111111</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L68">
+        <v>3.75</v>
+      </c>
+      <c r="M68">
         <v>3.5</v>
       </c>
-      <c r="M68">
-        <v>3</v>
-      </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q68">
         <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y68">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5207778</v>
+        <v>5207392</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6603,76 +6603,76 @@
         <v>45044.54861111111</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>51</v>
+      </c>
+      <c r="K69">
+        <v>2.5</v>
+      </c>
+      <c r="L69">
+        <v>3.3</v>
+      </c>
+      <c r="M69">
+        <v>2.55</v>
+      </c>
+      <c r="N69">
         <v>3</v>
       </c>
-      <c r="J69" t="s">
-        <v>49</v>
-      </c>
-      <c r="K69">
+      <c r="O69">
+        <v>3.4</v>
+      </c>
+      <c r="P69">
+        <v>2.375</v>
+      </c>
+      <c r="Q69">
+        <v>0.25</v>
+      </c>
+      <c r="R69">
+        <v>1.8</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>2.5</v>
+      </c>
+      <c r="U69">
+        <v>1.75</v>
+      </c>
+      <c r="V69">
+        <v>1.95</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
         <v>2.4</v>
       </c>
-      <c r="L69">
-        <v>3.25</v>
-      </c>
-      <c r="M69">
-        <v>2.75</v>
-      </c>
-      <c r="N69">
-        <v>2.5</v>
-      </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
-        <v>3</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>1.75</v>
-      </c>
-      <c r="S69">
-        <v>2.05</v>
-      </c>
-      <c r="T69">
-        <v>2.25</v>
-      </c>
-      <c r="U69">
-        <v>1.95</v>
-      </c>
-      <c r="V69">
-        <v>1.85</v>
-      </c>
-      <c r="W69">
-        <v>1.5</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>0.95</v>
-      </c>
-      <c r="AC69">
-        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6680,7 +6680,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5207391</v>
+        <v>5207194</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6692,10 +6692,10 @@
         <v>45044.54861111111</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6704,43 +6704,43 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L70">
+        <v>3.5</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
         <v>3.6</v>
       </c>
-      <c r="M70">
-        <v>2.45</v>
-      </c>
-      <c r="N70">
-        <v>2.8</v>
-      </c>
-      <c r="O70">
-        <v>3.8</v>
-      </c>
       <c r="P70">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
         <v>1.8</v>
       </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6749,19 +6749,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
+        <v>0.8</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>1</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
-      <c r="AC70">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6793,7 +6793,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>3.4</v>
@@ -6882,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>4.333</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75">
         <v>3.4</v>
@@ -7229,7 +7229,7 @@
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
         <v>2.15</v>
@@ -7315,10 +7315,10 @@
         <v>45051.54861111111</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
         <v>2.15</v>
@@ -7416,7 +7416,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K78">
         <v>2.8</v>
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7585,7 +7585,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7594,7 +7594,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K80">
         <v>2.3</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5208050</v>
+        <v>5207393</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,58 +7760,58 @@
         <v>45058.54861111111</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K82">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
         <v>3</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7820,7 +7820,7 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
         <v>-1</v>
@@ -7829,7 +7829,7 @@
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7849,7 +7849,7 @@
         <v>45058.54861111111</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>35</v>
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5207393</v>
+        <v>5208050</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,58 +7938,58 @@
         <v>45058.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="U84">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
-        <v>1.625</v>
+        <v>1.375</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7998,7 +7998,7 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -8007,7 +8007,7 @@
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8039,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K85">
         <v>1.727</v>
@@ -8128,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K86">
         <v>3.75</v>
@@ -8208,7 +8208,7 @@
         <v>42</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8217,7 +8217,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>2.8</v>
@@ -8294,7 +8294,7 @@
         <v>45059.39583333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>44</v>
@@ -8395,7 +8395,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>2.75</v>
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5207780</v>
+        <v>5208054</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45065.54861111111</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K90">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L90">
         <v>3.4</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N90">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O90">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V90">
         <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5208054</v>
+        <v>5207929</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,76 +8561,76 @@
         <v>45065.54861111111</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M91">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N91">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P91">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5207929</v>
+        <v>5207780</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,13 +8650,13 @@
         <v>45065.54861111111</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -8665,61 +8665,61 @@
         <v>50</v>
       </c>
       <c r="K92">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="L92">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O92">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q92">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5207065</v>
+        <v>5207394</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,76 +8739,76 @@
         <v>45065.54861111111</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N93">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
+        <v>1.8</v>
+      </c>
+      <c r="S93">
+        <v>2</v>
+      </c>
+      <c r="T93">
+        <v>2.75</v>
+      </c>
+      <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
         <v>1.875</v>
       </c>
-      <c r="S93">
-        <v>1.925</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>2</v>
-      </c>
-      <c r="V93">
-        <v>1.8</v>
-      </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5207394</v>
+        <v>5207065</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,76 +8828,76 @@
         <v>45065.54861111111</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94" t="s">
+        <v>51</v>
+      </c>
+      <c r="K94">
+        <v>2.05</v>
+      </c>
+      <c r="L94">
+        <v>3.6</v>
+      </c>
+      <c r="M94">
+        <v>3.1</v>
+      </c>
+      <c r="N94">
+        <v>2.15</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>2.9</v>
+      </c>
+      <c r="Q94">
+        <v>-0.25</v>
+      </c>
+      <c r="R94">
+        <v>1.875</v>
+      </c>
+      <c r="S94">
+        <v>1.925</v>
+      </c>
+      <c r="T94">
+        <v>3.25</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
+        <v>1.8</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>3</v>
+      </c>
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <v>-0.5</v>
+      </c>
+      <c r="AA94">
+        <v>0.4625</v>
+      </c>
+      <c r="AB94">
         <v>1</v>
       </c>
-      <c r="J94" t="s">
-        <v>50</v>
-      </c>
-      <c r="K94">
-        <v>1.95</v>
-      </c>
-      <c r="L94">
-        <v>3.5</v>
-      </c>
-      <c r="M94">
-        <v>3.4</v>
-      </c>
-      <c r="N94">
-        <v>1.75</v>
-      </c>
-      <c r="O94">
-        <v>3.8</v>
-      </c>
-      <c r="P94">
-        <v>4.5</v>
-      </c>
-      <c r="Q94">
-        <v>-0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.8</v>
-      </c>
-      <c r="S94">
-        <v>2</v>
-      </c>
-      <c r="T94">
-        <v>2.75</v>
-      </c>
-      <c r="U94">
-        <v>1.925</v>
-      </c>
-      <c r="V94">
-        <v>1.875</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>3.5</v>
-      </c>
-      <c r="Z94">
-        <v>-1</v>
-      </c>
-      <c r="AA94">
-        <v>1</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8920,7 +8920,7 @@
         <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K95">
         <v>1.65</v>
@@ -9018,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K96">
         <v>3.6</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K97">
         <v>2.05</v>
@@ -9196,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K98">
         <v>3.4</v>
@@ -9273,7 +9273,7 @@
         <v>45072.59375</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
         <v>41</v>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>4.75</v>
@@ -9365,7 +9365,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>45072.59375</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>42</v>
@@ -9463,7 +9463,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>1.833</v>
@@ -9552,7 +9552,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K102">
         <v>2.8</v>
@@ -9632,7 +9632,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K103">
         <v>2.3</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K104">
         <v>1.444</v>
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K105">
         <v>1.8</v>
@@ -9899,7 +9899,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9908,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>1.6</v>
@@ -9985,7 +9985,7 @@
         <v>45081.39583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
         <v>39</v>
@@ -9997,7 +9997,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>2.8</v>
@@ -10166,7 +10166,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10252,7 +10252,7 @@
         <v>45081.39583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>33</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K110">
         <v>1.909</v>
@@ -10353,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
         <v>1.181</v>
@@ -10442,7 +10442,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>3.1</v>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K113">
         <v>1.6</v>
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832066</v>
+        <v>6832839</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,58 +10608,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L114">
         <v>3.4</v>
       </c>
       <c r="M114">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
         <v>3.6</v>
       </c>
       <c r="P114">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,7 +10668,7 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA114">
         <v>-1</v>
@@ -10677,7 +10677,7 @@
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6831794</v>
+        <v>6832836</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,10 +10697,10 @@
         <v>45135.53125</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10709,46 +10709,46 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M115">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N115">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P115">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
         <v>1.8</v>
       </c>
-      <c r="T115">
-        <v>3</v>
-      </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>0.833</v>
+        <v>0.615</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10757,16 +10757,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6832835</v>
+        <v>6832067</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,49 +10786,49 @@
         <v>45135.53125</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>50</v>
       </c>
       <c r="K116">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N116">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
         <v>1.95</v>
@@ -10837,25 +10837,25 @@
         <v>1.85</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6832836</v>
+        <v>6832835</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45135.53125</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>49</v>
       </c>
       <c r="K117">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M117">
         <v>5</v>
       </c>
       <c r="N117">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O117">
         <v>4.333</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB117">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6832839</v>
+        <v>6832066</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,58 +10964,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L118">
         <v>3.4</v>
       </c>
       <c r="M118">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N118">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O118">
         <v>3.6</v>
       </c>
       <c r="P118">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
         <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W118">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11024,7 +11024,7 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA118">
         <v>-1</v>
@@ -11033,7 +11033,7 @@
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6832067</v>
+        <v>6831794</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,58 +11053,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K119">
+        <v>1.7</v>
+      </c>
+      <c r="L119">
+        <v>3.75</v>
+      </c>
+      <c r="M119">
+        <v>4.2</v>
+      </c>
+      <c r="N119">
+        <v>1.833</v>
+      </c>
+      <c r="O119">
+        <v>4</v>
+      </c>
+      <c r="P119">
+        <v>3.8</v>
+      </c>
+      <c r="Q119">
+        <v>-0.75</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>1.8</v>
+      </c>
+      <c r="T119">
         <v>3</v>
       </c>
-      <c r="L119">
-        <v>3.4</v>
-      </c>
-      <c r="M119">
-        <v>2.15</v>
-      </c>
-      <c r="N119">
-        <v>1.909</v>
-      </c>
-      <c r="O119">
-        <v>3.8</v>
-      </c>
-      <c r="P119">
-        <v>3.6</v>
-      </c>
-      <c r="Q119">
-        <v>-0.5</v>
-      </c>
-      <c r="R119">
-        <v>1.95</v>
-      </c>
-      <c r="S119">
-        <v>1.85</v>
-      </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>0.909</v>
+        <v>0.833</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11113,16 +11113,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11243,7 +11243,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K121">
         <v>4.2</v>
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6832840</v>
+        <v>6832842</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,76 +11320,76 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
         <v>0</v>
-      </c>
-      <c r="I122">
-        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>50</v>
       </c>
       <c r="K122">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="L122">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="N122">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="O122">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
+        <v>1.85</v>
+      </c>
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6832842</v>
+        <v>6832069</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,76 +11409,76 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
         <v>49</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N123">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6832069</v>
+        <v>6831795</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,40 +11498,40 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L124">
         <v>3.5</v>
       </c>
       <c r="M124">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N124">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
         <v>1.875</v>
@@ -11540,34 +11540,34 @@
         <v>1.925</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y124">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6831795</v>
+        <v>6832840</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,76 +11587,76 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M125">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="N125">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P125">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="Q125">
         <v>0.75</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>48</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11768,7 +11768,7 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11854,7 +11854,7 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
         <v>36</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6832846</v>
+        <v>6832850</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,49 +11943,49 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
         <v>0</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>50</v>
       </c>
       <c r="K129">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L129">
         <v>3.6</v>
       </c>
       <c r="M129">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N129">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
         <v>1.825</v>
@@ -11994,19 +11994,19 @@
         <v>1.975</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
         <v>-1</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6832849</v>
+        <v>6832846</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,76 +12032,76 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
         <v>1</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>49</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6832850</v>
+        <v>6832849</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,10 +12121,10 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12133,46 +12133,46 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N131">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
         <v>3.6</v>
       </c>
       <c r="P131">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>2.3</v>
+        <v>0.909</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12181,7 +12181,7 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA131">
         <v>-1</v>
@@ -12190,7 +12190,7 @@
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12210,7 +12210,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
         <v>43</v>
@@ -12222,7 +12222,7 @@
         <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>4</v>
@@ -12299,7 +12299,7 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
         <v>35</v>
@@ -12311,7 +12311,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>2.1</v>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K134">
         <v>1.7</v>
@@ -12566,7 +12566,7 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
         <v>34</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K136">
         <v>2.25</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6832071</v>
+        <v>6832072</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,7 +12655,7 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s">
         <v>46</v>
@@ -12664,49 +12664,49 @@
         <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
         <v>1.727</v>
       </c>
       <c r="L137">
+        <v>3.75</v>
+      </c>
+      <c r="M137">
         <v>4</v>
       </c>
-      <c r="M137">
-        <v>3.75</v>
-      </c>
       <c r="N137">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P137">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W137">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12715,16 +12715,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12756,7 +12756,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12922,10 +12922,10 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F140" t="s">
+        <v>32</v>
+      </c>
+      <c r="G140" t="s">
         <v>29</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12934,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K140">
         <v>2.6</v>
@@ -12999,7 +12999,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6832072</v>
+        <v>6832071</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13011,7 +13011,7 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G141" t="s">
         <v>45</v>
@@ -13020,67 +13020,67 @@
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K141">
         <v>1.727</v>
       </c>
       <c r="L141">
+        <v>4</v>
+      </c>
+      <c r="M141">
         <v>3.75</v>
       </c>
-      <c r="M141">
-        <v>4</v>
-      </c>
       <c r="N141">
+        <v>2.15</v>
+      </c>
+      <c r="O141">
+        <v>3.75</v>
+      </c>
+      <c r="P141">
+        <v>3.1</v>
+      </c>
+      <c r="Q141">
+        <v>-0.25</v>
+      </c>
+      <c r="R141">
         <v>1.8</v>
       </c>
-      <c r="O141">
-        <v>3.8</v>
-      </c>
-      <c r="P141">
-        <v>4.2</v>
-      </c>
-      <c r="Q141">
-        <v>-0.5</v>
-      </c>
-      <c r="R141">
-        <v>1.75</v>
-      </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
+        <v>1.15</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
         <v>0.8</v>
       </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>-1</v>
-      </c>
-      <c r="Z141">
-        <v>0.75</v>
-      </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K142">
         <v>1.533</v>
@@ -13192,7 +13192,7 @@
         <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143">
         <v>3</v>
@@ -13290,7 +13290,7 @@
         <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K144">
         <v>5</v>
@@ -13367,7 +13367,7 @@
         <v>45160.5625</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
         <v>44</v>
@@ -13379,7 +13379,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K145">
         <v>2.6</v>
@@ -13456,10 +13456,10 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>1.75</v>
@@ -13545,7 +13545,7 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>34</v>
@@ -13557,7 +13557,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>1.8</v>
@@ -13646,7 +13646,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K148">
         <v>1.833</v>
@@ -13815,7 +13815,7 @@
         <v>47</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13824,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K150">
         <v>2.25</v>
@@ -13904,7 +13904,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13913,7 +13913,7 @@
         <v>5</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K152">
         <v>3.1</v>
@@ -14168,7 +14168,7 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>36</v>
@@ -14269,7 +14269,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K155">
         <v>1.75</v>
@@ -14346,7 +14346,7 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
         <v>47</v>
@@ -14358,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K156">
         <v>2.25</v>
@@ -14447,7 +14447,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14536,7 +14536,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14613,7 +14613,7 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
         <v>42</v>
@@ -14625,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K159">
         <v>2.05</v>
@@ -14702,7 +14702,7 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G160" t="s">
         <v>39</v>
@@ -14714,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14794,7 +14794,7 @@
         <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K161">
         <v>3.6</v>
@@ -14883,7 +14883,7 @@
         <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6832868</v>
+        <v>6832869</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,40 +14969,40 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
         <v>50</v>
       </c>
       <c r="K163">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M163">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N163">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R163">
         <v>1.85</v>
@@ -15014,31 +15014,31 @@
         <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6832870</v>
+        <v>6832868</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
         <v>29</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z164">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC164">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15159,7 +15159,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K165">
         <v>1.95</v>
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6832869</v>
+        <v>6832870</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,58 +15236,58 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K166">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L166">
         <v>3.5</v>
       </c>
       <c r="M166">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N166">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O166">
         <v>3.75</v>
       </c>
       <c r="P166">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W166">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15296,7 +15296,7 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA166">
         <v>-1</v>
@@ -15305,7 +15305,7 @@
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15325,7 +15325,7 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G167" t="s">
         <v>43</v>
@@ -15337,7 +15337,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>3.75</v>
@@ -15426,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K168">
         <v>1.571</v>
@@ -15506,7 +15506,7 @@
         <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15515,7 +15515,7 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K169">
         <v>2</v>
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6832876</v>
+        <v>6832078</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,55 +15592,55 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K170">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L170">
         <v>3.5</v>
       </c>
       <c r="M170">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N170">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O170">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P170">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q170">
         <v>0.25</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15649,19 +15649,19 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB170">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6834056</v>
+        <v>6832876</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,55 +15681,55 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171" t="s">
+        <v>49</v>
+      </c>
+      <c r="K171">
+        <v>2.7</v>
+      </c>
+      <c r="L171">
+        <v>3.5</v>
+      </c>
+      <c r="M171">
+        <v>2.3</v>
+      </c>
+      <c r="N171">
         <v>3</v>
-      </c>
-      <c r="J171" t="s">
-        <v>50</v>
-      </c>
-      <c r="K171">
-        <v>1.909</v>
-      </c>
-      <c r="L171">
-        <v>3.6</v>
-      </c>
-      <c r="M171">
-        <v>3.4</v>
-      </c>
-      <c r="N171">
-        <v>1.8</v>
       </c>
       <c r="O171">
         <v>3.75</v>
       </c>
       <c r="P171">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R171">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15738,19 +15738,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>3.333</v>
+        <v>1.2</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB171">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6832078</v>
+        <v>6834056</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,40 +15770,40 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K172">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N172">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O172">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P172">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="Q172">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
         <v>1.8</v>
@@ -15812,13 +15812,13 @@
         <v>2</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15827,7 +15827,7 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1.375</v>
+        <v>3.333</v>
       </c>
       <c r="Z172">
         <v>-1</v>
@@ -15836,7 +15836,7 @@
         <v>1</v>
       </c>
       <c r="AB172">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15859,7 +15859,7 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
         <v>40</v>
@@ -15948,7 +15948,7 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>42</v>
@@ -16049,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K175">
         <v>1.533</v>
@@ -16126,7 +16126,7 @@
         <v>45192.625</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
         <v>48</v>
@@ -16215,7 +16215,7 @@
         <v>45193.22916666666</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
         <v>36</v>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K177">
         <v>1.909</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6832881</v>
+        <v>6832880</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,73 +16304,73 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>50</v>
       </c>
       <c r="K178">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L178">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N178">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16396,7 +16396,7 @@
         <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6832880</v>
+        <v>6832881</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,73 +16482,73 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
         <v>49</v>
       </c>
       <c r="K180">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M180">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N180">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P180">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
         <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB180">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16583,7 +16583,7 @@
         <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K181">
         <v>2.15</v>
@@ -16663,7 +16663,7 @@
         <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16672,7 +16672,7 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K182">
         <v>1.75</v>
@@ -16752,7 +16752,7 @@
         <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16841,7 +16841,7 @@
         <v>39</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16850,7 +16850,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>2</v>
@@ -16939,7 +16939,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K185">
         <v>2.3</v>
@@ -17016,7 +17016,7 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G186" t="s">
         <v>39</v>
@@ -17105,7 +17105,7 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>35</v>
@@ -17117,7 +17117,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K187">
         <v>1.909</v>
@@ -17206,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K188">
         <v>3.8</v>
@@ -17295,7 +17295,7 @@
         <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>4</v>
@@ -17372,7 +17372,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
         <v>38</v>
@@ -17473,7 +17473,7 @@
         <v>3</v>
       </c>
       <c r="J191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K191">
         <v>2.2</v>
@@ -17553,7 +17553,7 @@
         <v>43</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17562,7 +17562,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K192">
         <v>1.45</v>
@@ -17642,7 +17642,7 @@
         <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17731,7 +17731,7 @@
         <v>48</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H194">
         <v>4</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K194">
         <v>1.615</v>
@@ -17918,7 +17918,7 @@
         <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>2.15</v>
@@ -17995,7 +17995,7 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
         <v>43</v>
@@ -18084,10 +18084,10 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>3</v>
@@ -18096,7 +18096,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K198">
         <v>2.2</v>
@@ -18274,7 +18274,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K200">
         <v>2.05</v>
@@ -18354,7 +18354,7 @@
         <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18363,7 +18363,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K201">
         <v>1.7</v>
@@ -18428,7 +18428,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6832895</v>
+        <v>6832894</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18440,13 +18440,13 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -18455,61 +18455,61 @@
         <v>49</v>
       </c>
       <c r="K202">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L202">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M202">
+        <v>1.615</v>
+      </c>
+      <c r="N202">
+        <v>4.333</v>
+      </c>
+      <c r="O202">
         <v>4</v>
       </c>
-      <c r="N202">
+      <c r="P202">
         <v>1.727</v>
       </c>
-      <c r="O202">
-        <v>4.2</v>
-      </c>
-      <c r="P202">
-        <v>4.333</v>
-      </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R202">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S202">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T202">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
         <v>1.95</v>
       </c>
       <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
         <v>0.7270000000000001</v>
       </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
-      <c r="Y202">
-        <v>-1</v>
-      </c>
       <c r="Z202">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB202">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18517,7 +18517,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6832894</v>
+        <v>6831802</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,76 +18529,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H203">
         <v>1</v>
       </c>
       <c r="I203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K203">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M203">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N203">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="Q203">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R203">
+        <v>1.775</v>
+      </c>
+      <c r="S203">
+        <v>2.025</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.95</v>
+      </c>
+      <c r="V203">
         <v>1.85</v>
       </c>
-      <c r="S203">
-        <v>1.95</v>
-      </c>
-      <c r="T203">
-        <v>2.75</v>
-      </c>
-      <c r="U203">
-        <v>1.85</v>
-      </c>
-      <c r="V203">
-        <v>1.95</v>
-      </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y203">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA203">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB203">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6831802</v>
+        <v>6832892</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,76 +18618,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K204">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="L204">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M204">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="N204">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="O204">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R204">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC204">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6832892</v>
+        <v>6832086</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,13 +18707,13 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G205" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -18722,61 +18722,61 @@
         <v>50</v>
       </c>
       <c r="K205">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="N205">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P205">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="Q205">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA205">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6832086</v>
+        <v>6832895</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,58 +18796,58 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I206">
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K206">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M206">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N206">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O206">
+        <v>4.2</v>
+      </c>
+      <c r="P206">
+        <v>4.333</v>
+      </c>
+      <c r="Q206">
+        <v>-0.75</v>
+      </c>
+      <c r="R206">
+        <v>1.925</v>
+      </c>
+      <c r="S206">
+        <v>1.875</v>
+      </c>
+      <c r="T206">
         <v>3.25</v>
       </c>
-      <c r="P206">
-        <v>3.1</v>
-      </c>
-      <c r="Q206">
-        <v>-0.25</v>
-      </c>
-      <c r="R206">
-        <v>2.025</v>
-      </c>
-      <c r="S206">
-        <v>1.775</v>
-      </c>
-      <c r="T206">
-        <v>2.25</v>
-      </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
-        <v>1.375</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18856,13 +18856,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18888,7 +18888,7 @@
         <v>47</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18974,7 +18974,7 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
         <v>44</v>
@@ -18986,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K208">
         <v>2.15</v>
@@ -19155,7 +19155,7 @@
         <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19164,7 +19164,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K210">
         <v>1.55</v>
@@ -19241,7 +19241,7 @@
         <v>45233.6875</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G211" t="s">
         <v>39</v>
@@ -19253,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K211">
         <v>1.909</v>
@@ -19333,7 +19333,7 @@
         <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19520,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K214">
         <v>1.4</v>
@@ -19597,10 +19597,10 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F215" t="s">
+        <v>46</v>
+      </c>
+      <c r="G215" t="s">
         <v>45</v>
-      </c>
-      <c r="G215" t="s">
-        <v>46</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K216">
         <v>1.571</v>
@@ -19775,10 +19775,10 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H217">
         <v>2</v>
@@ -19787,7 +19787,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K217">
         <v>2.5</v>
@@ -19876,7 +19876,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K218">
         <v>1.7</v>
@@ -19953,7 +19953,7 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F219" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
         <v>34</v>
@@ -19965,7 +19965,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K219">
         <v>1.909</v>
@@ -20054,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K220">
         <v>1.65</v>
@@ -20131,7 +20131,7 @@
         <v>45240.6875</v>
       </c>
       <c r="F221" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G221" t="s">
         <v>40</v>
@@ -20143,7 +20143,7 @@
         <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K221">
         <v>3</v>
@@ -20220,7 +20220,7 @@
         <v>45241.4375</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G222" t="s">
         <v>42</v>
@@ -20232,7 +20232,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K222">
         <v>1.666</v>
@@ -20321,7 +20321,7 @@
         <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K223">
         <v>1.8</v>
@@ -20410,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K224">
         <v>2.05</v>
@@ -20475,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6832912</v>
+        <v>6832910</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20487,76 +20487,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
         <v>49</v>
       </c>
       <c r="K225">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L225">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M225">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N225">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O225">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P225">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S225">
+        <v>1.875</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
+        <v>1.75</v>
+      </c>
+      <c r="V225">
         <v>1.95</v>
       </c>
-      <c r="T225">
-        <v>2.5</v>
-      </c>
-      <c r="U225">
-        <v>1.875</v>
-      </c>
-      <c r="V225">
-        <v>1.925</v>
-      </c>
       <c r="W225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20564,7 +20564,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6832910</v>
+        <v>6832912</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20576,76 +20576,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F226" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G226" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H226">
+        <v>2</v>
+      </c>
+      <c r="I226">
         <v>0</v>
-      </c>
-      <c r="I226">
-        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>50</v>
       </c>
       <c r="K226">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L226">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N226">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O226">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P226">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q226">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
+        <v>1.85</v>
+      </c>
+      <c r="S226">
+        <v>1.95</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>1.875</v>
+      </c>
+      <c r="V226">
         <v>1.925</v>
       </c>
-      <c r="S226">
-        <v>1.875</v>
-      </c>
-      <c r="T226">
-        <v>2.75</v>
-      </c>
-      <c r="U226">
-        <v>1.75</v>
-      </c>
-      <c r="V226">
-        <v>1.95</v>
-      </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA226">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20677,7 +20677,7 @@
         <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K227">
         <v>4.5</v>
@@ -20754,10 +20754,10 @@
         <v>45255.4375</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -20766,7 +20766,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K228">
         <v>1.909</v>
@@ -20855,7 +20855,7 @@
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K229">
         <v>5.75</v>
@@ -20944,7 +20944,7 @@
         <v>6</v>
       </c>
       <c r="J230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K230">
         <v>2.2</v>
@@ -21024,7 +21024,7 @@
         <v>36</v>
       </c>
       <c r="G231" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21033,7 +21033,7 @@
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K231">
         <v>3.75</v>
@@ -21113,7 +21113,7 @@
         <v>34</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21122,7 +21122,7 @@
         <v>3</v>
       </c>
       <c r="J232" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K232">
         <v>2.875</v>
@@ -21187,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6831806</v>
+        <v>6832914</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,55 +21199,55 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
         <v>4</v>
       </c>
       <c r="J233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L233">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M233">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N233">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O233">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P233">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q233">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R233">
+        <v>1.95</v>
+      </c>
+      <c r="S233">
         <v>1.85</v>
-      </c>
-      <c r="S233">
-        <v>1.95</v>
       </c>
       <c r="T233">
         <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21256,16 +21256,16 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB233">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6832917</v>
+        <v>6831806</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21288,73 +21288,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J234" t="s">
         <v>49</v>
       </c>
       <c r="K234">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L234">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N234">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O234">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P234">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q234">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T234">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB234">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC234">
         <v>-1</v>
@@ -21365,7 +21365,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6832914</v>
+        <v>6832917</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21377,73 +21377,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F235" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
         <v>50</v>
       </c>
       <c r="K235">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L235">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M235">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N235">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="O235">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P235">
-        <v>2.625</v>
+        <v>13</v>
       </c>
       <c r="Q235">
+        <v>-2</v>
+      </c>
+      <c r="R235">
+        <v>1.8</v>
+      </c>
+      <c r="S235">
+        <v>2</v>
+      </c>
+      <c r="T235">
+        <v>3.5</v>
+      </c>
+      <c r="U235">
+        <v>1.875</v>
+      </c>
+      <c r="V235">
+        <v>1.925</v>
+      </c>
+      <c r="W235">
+        <v>0.2</v>
+      </c>
+      <c r="X235">
+        <v>-1</v>
+      </c>
+      <c r="Y235">
+        <v>-1</v>
+      </c>
+      <c r="Z235">
         <v>0</v>
       </c>
-      <c r="R235">
-        <v>1.95</v>
-      </c>
-      <c r="S235">
-        <v>1.85</v>
-      </c>
-      <c r="T235">
-        <v>2.5</v>
-      </c>
-      <c r="U235">
-        <v>1.9</v>
-      </c>
-      <c r="V235">
-        <v>1.9</v>
-      </c>
-      <c r="W235">
-        <v>-1</v>
-      </c>
-      <c r="X235">
-        <v>-1</v>
-      </c>
-      <c r="Y235">
-        <v>1.625</v>
-      </c>
-      <c r="Z235">
-        <v>-1</v>
-      </c>
       <c r="AA235">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB235">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -21478,7 +21478,7 @@
         <v>5</v>
       </c>
       <c r="J236" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K236">
         <v>5.25</v>
@@ -21555,10 +21555,10 @@
         <v>45338.59027777778</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G237" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21567,7 +21567,7 @@
         <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K237">
         <v>3.2</v>
@@ -21656,7 +21656,7 @@
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K238">
         <v>1.666</v>
@@ -21721,7 +21721,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7581960</v>
+        <v>7582036</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21733,55 +21733,55 @@
         <v>45339.4375</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G239" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K239">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L239">
+        <v>3.6</v>
+      </c>
+      <c r="M239">
+        <v>1.909</v>
+      </c>
+      <c r="N239">
         <v>4.333</v>
       </c>
-      <c r="M239">
-        <v>1.5</v>
-      </c>
-      <c r="N239">
-        <v>5.25</v>
-      </c>
       <c r="O239">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P239">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q239">
         <v>0.75</v>
       </c>
       <c r="R239">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V239">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
         <v>-1</v>
@@ -21790,19 +21790,19 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB239">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21810,7 +21810,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7582036</v>
+        <v>7581960</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21822,55 +21822,55 @@
         <v>45339.4375</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H240">
         <v>1</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K240">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L240">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M240">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="N240">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O240">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P240">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q240">
         <v>0.75</v>
       </c>
       <c r="R240">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T240">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
         <v>-1</v>
@@ -21879,19 +21879,19 @@
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="Z240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB240">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21911,10 +21911,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G241" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21923,7 +21923,7 @@
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K241">
         <v>1.909</v>
@@ -22000,7 +22000,7 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F242" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G242" t="s">
         <v>47</v>
@@ -22012,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K242">
         <v>1.8</v>
@@ -22181,7 +22181,7 @@
         <v>44</v>
       </c>
       <c r="G244" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22190,7 +22190,7 @@
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K244">
         <v>1.85</v>
@@ -22279,7 +22279,7 @@
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K245">
         <v>4.75</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6832095</v>
+        <v>6832923</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22353,49 +22353,49 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45346.4375</v>
+        <v>45347.27083333334</v>
       </c>
       <c r="F246" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="L246">
         <v>3.5</v>
       </c>
       <c r="M246">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N246">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O246">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P246">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q246">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R246">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S246">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V246">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22410,228 +22410,6 @@
         <v>0</v>
       </c>
       <c r="AA246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:29">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247">
-        <v>6832918</v>
-      </c>
-      <c r="C247" t="s">
-        <v>28</v>
-      </c>
-      <c r="D247" t="s">
-        <v>28</v>
-      </c>
-      <c r="E247" s="2">
-        <v>45346.4375</v>
-      </c>
-      <c r="F247" t="s">
-        <v>43</v>
-      </c>
-      <c r="G247" t="s">
-        <v>42</v>
-      </c>
-      <c r="K247">
-        <v>1.285</v>
-      </c>
-      <c r="L247">
-        <v>5.25</v>
-      </c>
-      <c r="M247">
-        <v>8</v>
-      </c>
-      <c r="N247">
-        <v>1.285</v>
-      </c>
-      <c r="O247">
-        <v>6</v>
-      </c>
-      <c r="P247">
-        <v>9</v>
-      </c>
-      <c r="Q247">
-        <v>-1.75</v>
-      </c>
-      <c r="R247">
-        <v>1.975</v>
-      </c>
-      <c r="S247">
-        <v>1.825</v>
-      </c>
-      <c r="T247">
-        <v>3</v>
-      </c>
-      <c r="U247">
-        <v>1.775</v>
-      </c>
-      <c r="V247">
-        <v>2.025</v>
-      </c>
-      <c r="W247">
-        <v>0</v>
-      </c>
-      <c r="X247">
-        <v>0</v>
-      </c>
-      <c r="Y247">
-        <v>0</v>
-      </c>
-      <c r="Z247">
-        <v>0</v>
-      </c>
-      <c r="AA247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:29">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248">
-        <v>6832920</v>
-      </c>
-      <c r="C248" t="s">
-        <v>28</v>
-      </c>
-      <c r="D248" t="s">
-        <v>28</v>
-      </c>
-      <c r="E248" s="2">
-        <v>45346.4375</v>
-      </c>
-      <c r="F248" t="s">
-        <v>36</v>
-      </c>
-      <c r="G248" t="s">
-        <v>31</v>
-      </c>
-      <c r="K248">
-        <v>3.5</v>
-      </c>
-      <c r="L248">
-        <v>3.6</v>
-      </c>
-      <c r="M248">
-        <v>1.909</v>
-      </c>
-      <c r="N248">
-        <v>4.5</v>
-      </c>
-      <c r="O248">
-        <v>4</v>
-      </c>
-      <c r="P248">
-        <v>1.727</v>
-      </c>
-      <c r="Q248">
-        <v>0.75</v>
-      </c>
-      <c r="R248">
-        <v>1.85</v>
-      </c>
-      <c r="S248">
-        <v>1.95</v>
-      </c>
-      <c r="T248">
-        <v>3</v>
-      </c>
-      <c r="U248">
-        <v>1.9</v>
-      </c>
-      <c r="V248">
-        <v>1.9</v>
-      </c>
-      <c r="W248">
-        <v>0</v>
-      </c>
-      <c r="X248">
-        <v>0</v>
-      </c>
-      <c r="Y248">
-        <v>0</v>
-      </c>
-      <c r="Z248">
-        <v>0</v>
-      </c>
-      <c r="AA248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:29">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249">
-        <v>6832923</v>
-      </c>
-      <c r="C249" t="s">
-        <v>28</v>
-      </c>
-      <c r="D249" t="s">
-        <v>28</v>
-      </c>
-      <c r="E249" s="2">
-        <v>45347.27083333334</v>
-      </c>
-      <c r="F249" t="s">
-        <v>32</v>
-      </c>
-      <c r="G249" t="s">
-        <v>48</v>
-      </c>
-      <c r="K249">
-        <v>2.9</v>
-      </c>
-      <c r="L249">
-        <v>3.5</v>
-      </c>
-      <c r="M249">
-        <v>2.15</v>
-      </c>
-      <c r="N249">
-        <v>3.75</v>
-      </c>
-      <c r="O249">
-        <v>3.75</v>
-      </c>
-      <c r="P249">
-        <v>1.95</v>
-      </c>
-      <c r="Q249">
-        <v>0.5</v>
-      </c>
-      <c r="R249">
-        <v>1.8</v>
-      </c>
-      <c r="S249">
-        <v>2</v>
-      </c>
-      <c r="T249">
-        <v>2.5</v>
-      </c>
-      <c r="U249">
-        <v>1.875</v>
-      </c>
-      <c r="V249">
-        <v>1.925</v>
-      </c>
-      <c r="W249">
-        <v>0</v>
-      </c>
-      <c r="X249">
-        <v>0</v>
-      </c>
-      <c r="Y249">
-        <v>0</v>
-      </c>
-      <c r="Z249">
-        <v>0</v>
-      </c>
-      <c r="AA249">
         <v>0</v>
       </c>
     </row>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -103,19 +103,7 @@
     <t>Austria 2 Liga</t>
   </si>
   <si>
-    <t>FC Blau Weiss Linz</t>
-  </si>
-  <si>
     <t>FC Liefering</t>
-  </si>
-  <si>
-    <t>FC Dornbirn 1913</t>
-  </si>
-  <si>
-    <t>SKU Amstetten</t>
-  </si>
-  <si>
-    <t>St Polten</t>
   </si>
   <si>
     <t>FC Flyeralarm Admira</t>
@@ -124,7 +112,22 @@
     <t>First Vienna FC 1894</t>
   </si>
   <si>
+    <t>SKU Amstetten</t>
+  </si>
+  <si>
+    <t>FC Blau Weiss Linz</t>
+  </si>
+  <si>
+    <t>FC Dornbirn 1913</t>
+  </si>
+  <si>
+    <t>St Polten</t>
+  </si>
+  <si>
     <t>SV Kapfenberg</t>
+  </si>
+  <si>
+    <t>SV Lafnitz</t>
   </si>
   <si>
     <t>SW Bregenz</t>
@@ -134,9 +137,6 @@
   </si>
   <si>
     <t>Leoben DSV</t>
-  </si>
-  <si>
-    <t>SV Lafnitz</t>
   </si>
   <si>
     <t>Floridsdorfer AC</t>
@@ -157,19 +157,19 @@
     <t>FK Austria Vienna II</t>
   </si>
   <si>
-    <t>Rapid Vienna II</t>
+    <t>SK Vorwrts Steyr</t>
   </si>
   <si>
-    <t>SK Vorwrts Steyr</t>
+    <t>Rapid Vienna II</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5207398</v>
+        <v>5208060</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,55 +643,55 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>1.181</v>
+        <v>1.6</v>
       </c>
       <c r="L2">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N2">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="O2">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="P2">
-        <v>19</v>
+        <v>4.75</v>
       </c>
       <c r="Q2">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>0.09000000000000008</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -700,16 +700,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5208060</v>
+        <v>5214263</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,10 +732,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -744,43 +744,43 @@
         <v>49</v>
       </c>
       <c r="K3">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O3">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
+        <v>1.925</v>
+      </c>
+      <c r="S3">
+        <v>1.875</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
         <v>1.9</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>1.9</v>
       </c>
-      <c r="T3">
-        <v>3.75</v>
-      </c>
-      <c r="U3">
-        <v>1.825</v>
-      </c>
-      <c r="V3">
-        <v>1.975</v>
-      </c>
       <c r="W3">
-        <v>0.6000000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -789,16 +789,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208062</v>
+        <v>5208063</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,73 +821,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
       </c>
       <c r="K4">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="L4">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N4">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="O4">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="Q4">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>2.55</v>
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5227634</v>
+        <v>5207398</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,55 +999,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
       </c>
       <c r="K6">
-        <v>1.6</v>
+        <v>1.181</v>
       </c>
       <c r="L6">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="M6">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N6">
-        <v>1.615</v>
+        <v>1.09</v>
       </c>
       <c r="O6">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>19</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>0.615</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1056,16 +1056,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5214263</v>
+        <v>5208062</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,73 +1088,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M7">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="N7">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P7">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
+        <v>0.825</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.925</v>
-      </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>0.45</v>
-      </c>
-      <c r="AC7">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5208063</v>
+        <v>5227634</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,73 +1177,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8">
+        <v>1.6</v>
+      </c>
+      <c r="L8">
+        <v>4.333</v>
+      </c>
+      <c r="M8">
+        <v>4.75</v>
+      </c>
+      <c r="N8">
+        <v>1.615</v>
+      </c>
+      <c r="O8">
+        <v>4.75</v>
+      </c>
+      <c r="P8">
+        <v>4.75</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8">
-        <v>2.8</v>
-      </c>
-      <c r="L8">
-        <v>3.4</v>
-      </c>
-      <c r="M8">
-        <v>2.375</v>
-      </c>
-      <c r="N8">
-        <v>3.1</v>
-      </c>
-      <c r="O8">
-        <v>3.8</v>
-      </c>
-      <c r="P8">
-        <v>2.15</v>
-      </c>
-      <c r="Q8">
-        <v>0.25</v>
-      </c>
-      <c r="R8">
-        <v>1.95</v>
-      </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1275,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>3.1</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832066</v>
+        <v>6831794</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,10 +1355,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1367,43 +1367,43 @@
         <v>49</v>
       </c>
       <c r="K10">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N10">
+        <v>1.833</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>3.8</v>
+      </c>
+      <c r="Q10">
+        <v>-0.75</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="O10">
-        <v>3.6</v>
-      </c>
-      <c r="P10">
-        <v>2.2</v>
-      </c>
-      <c r="Q10">
-        <v>0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.925</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
       <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
         <v>1.8</v>
       </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
-        <v>2</v>
+        <v>0.833</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1412,16 +1412,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832835</v>
+        <v>6832066</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1441,40 +1441,40 @@
         <v>45135.53125</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N11">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
         <v>1.875</v>
@@ -1483,34 +1483,34 @@
         <v>1.925</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832836</v>
+        <v>6832839</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,13 +1530,13 @@
         <v>45135.53125</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1545,43 +1545,43 @@
         <v>49</v>
       </c>
       <c r="K12">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N12">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.615</v>
+        <v>1.375</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1590,16 +1590,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6832839</v>
+        <v>6832836</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,13 +1619,13 @@
         <v>45135.53125</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1634,43 +1634,43 @@
         <v>49</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>1.375</v>
+        <v>0.615</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1679,16 +1679,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC13">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6832067</v>
+        <v>6832835</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,49 +1708,49 @@
         <v>45135.53125</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O14">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
         <v>1.95</v>
@@ -1759,25 +1759,25 @@
         <v>1.85</v>
       </c>
       <c r="W14">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6831794</v>
+        <v>6832067</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1800,55 +1800,55 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>49</v>
       </c>
       <c r="K15">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N15">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>0.833</v>
+        <v>0.909</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,16 +1857,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
         <v>3.5</v>
@@ -1978,7 +1978,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1987,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>4.2</v>
@@ -2064,10 +2064,10 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2153,10 +2153,10 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>4.2</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832069</v>
+        <v>6831795</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,40 +2242,40 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
         <v>3.5</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N20">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
         <v>1.875</v>
@@ -2284,34 +2284,34 @@
         <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y20">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6831795</v>
+        <v>6832069</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,40 +2331,40 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
         <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>1.875</v>
@@ -2373,34 +2373,34 @@
         <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2432,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
         <v>1.571</v>
@@ -2512,7 +2512,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2598,7 +2598,7 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
         <v>2.4</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832846</v>
+        <v>6832850</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,49 +2687,49 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N25">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q25">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
         <v>1.825</v>
@@ -2738,19 +2738,19 @@
         <v>1.975</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
@@ -2776,7 +2776,7 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6832850</v>
+        <v>6832846</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,49 +2865,49 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N27">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P27">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <v>1.825</v>
@@ -2916,19 +2916,19 @@
         <v>1.975</v>
       </c>
       <c r="W27">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2954,10 +2954,10 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6832847</v>
+        <v>6834058</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
+        <v>1.75</v>
+      </c>
+      <c r="V29">
         <v>1.95</v>
       </c>
-      <c r="V29">
-        <v>1.85</v>
-      </c>
       <c r="W29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6834058</v>
+        <v>6832847</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3135,73 +3135,73 @@
         <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N30">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
+        <v>1.975</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
         <v>1.95</v>
       </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
-      <c r="U30">
-        <v>1.75</v>
-      </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832845</v>
+        <v>6832070</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N31">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X31">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6832070</v>
+        <v>6832845</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N32">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6832855</v>
+        <v>6832852</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,76 +3399,76 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N33">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O33">
         <v>3.6</v>
       </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X33">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6832854</v>
+        <v>6832072</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,49 +3488,49 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>49</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
         <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U34">
         <v>1.925</v>
@@ -3539,7 +3539,7 @@
         <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3548,16 +3548,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6832852</v>
+        <v>6832854</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,13 +3577,13 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3592,43 +3592,43 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>3.4</v>
+      </c>
+      <c r="P35">
+        <v>3.8</v>
+      </c>
+      <c r="Q35">
+        <v>-0.5</v>
+      </c>
+      <c r="R35">
+        <v>1.975</v>
+      </c>
+      <c r="S35">
+        <v>1.825</v>
+      </c>
+      <c r="T35">
         <v>2.5</v>
       </c>
-      <c r="O35">
-        <v>3.6</v>
-      </c>
-      <c r="P35">
-        <v>2.55</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
+      <c r="U35">
+        <v>1.925</v>
+      </c>
+      <c r="V35">
         <v>1.875</v>
       </c>
-      <c r="S35">
-        <v>1.925</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.8</v>
-      </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
       <c r="W35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,16 +3637,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6832071</v>
+        <v>6832855</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N36">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O36">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6832072</v>
+        <v>6832071</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,16 +3755,16 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>49</v>
@@ -3773,58 +3773,58 @@
         <v>1.727</v>
       </c>
       <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
         <v>3.75</v>
       </c>
-      <c r="M37">
-        <v>4</v>
-      </c>
       <c r="N37">
+        <v>2.15</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>3.1</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
         <v>1.8</v>
       </c>
-      <c r="O37">
-        <v>3.8</v>
-      </c>
-      <c r="P37">
-        <v>4.2</v>
-      </c>
-      <c r="Q37">
-        <v>-0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.75</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
+        <v>1.15</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
         <v>0.8</v>
       </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.75</v>
-      </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>45156.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -3933,10 +3933,10 @@
         <v>45157.39583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4114,7 +4114,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832073</v>
+        <v>6832859</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,34 +4200,34 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N42">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P42">
         <v>3.6</v>
@@ -4242,34 +4242,34 @@
         <v>1.875</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6832856</v>
+        <v>6832858</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,58 +4289,58 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>49</v>
       </c>
       <c r="K43">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L43">
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N43">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
+        <v>1.85</v>
+      </c>
+      <c r="V43">
         <v>1.95</v>
       </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
       <c r="W43">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4349,16 +4349,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6832859</v>
+        <v>6832856</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,49 +4378,49 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>49</v>
       </c>
       <c r="K44">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
+        <v>1.875</v>
+      </c>
+      <c r="S44">
         <v>1.925</v>
       </c>
-      <c r="S44">
-        <v>1.875</v>
-      </c>
       <c r="T44">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
         <v>1.95</v>
@@ -4429,7 +4429,7 @@
         <v>1.85</v>
       </c>
       <c r="W44">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4438,16 +4438,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4467,7 +4467,7 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
         <v>44</v>
@@ -4479,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45">
         <v>2.625</v>
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6832858</v>
+        <v>6832073</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,76 +4556,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L46">
         <v>3.6</v>
       </c>
       <c r="M46">
+        <v>3.75</v>
+      </c>
+      <c r="N46">
+        <v>1.909</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
         <v>3.6</v>
-      </c>
-      <c r="N46">
-        <v>1.8</v>
-      </c>
-      <c r="O46">
-        <v>3.8</v>
-      </c>
-      <c r="P46">
-        <v>4.2</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4645,10 +4645,10 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K47">
         <v>2.25</v>
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6831797</v>
+        <v>6832857</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,73 +4734,73 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="N48">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P48">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
+        <v>1.925</v>
+      </c>
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="V48">
-        <v>1.925</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X48">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4811,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6832857</v>
+        <v>6831797</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4823,73 +4823,73 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49">
+        <v>1.85</v>
+      </c>
+      <c r="L49">
+        <v>3.75</v>
+      </c>
+      <c r="M49">
+        <v>3.25</v>
+      </c>
+      <c r="N49">
+        <v>1.909</v>
+      </c>
+      <c r="O49">
         <v>4</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>49</v>
-      </c>
-      <c r="K49">
-        <v>3.1</v>
-      </c>
-      <c r="L49">
+      <c r="P49">
         <v>3.5</v>
       </c>
-      <c r="M49">
+      <c r="Q49">
+        <v>-0.5</v>
+      </c>
+      <c r="R49">
+        <v>1.85</v>
+      </c>
+      <c r="S49">
         <v>1.95</v>
       </c>
-      <c r="N49">
-        <v>4.333</v>
-      </c>
-      <c r="O49">
-        <v>3.8</v>
-      </c>
-      <c r="P49">
-        <v>1.75</v>
-      </c>
-      <c r="Q49">
-        <v>0.75</v>
-      </c>
-      <c r="R49">
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="U49">
         <v>1.875</v>
       </c>
-      <c r="S49">
+      <c r="V49">
         <v>1.925</v>
       </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.925</v>
-      </c>
-      <c r="V49">
-        <v>1.875</v>
-      </c>
       <c r="W49">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
+        <v>0.95</v>
+      </c>
+      <c r="AB49">
         <v>0.875</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.925</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6832866</v>
+        <v>6832861</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,58 +4912,58 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M50">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N50">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>1.9</v>
+        <v>0.833</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4972,16 +4972,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6832864</v>
+        <v>6832863</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,13 +5001,13 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -5016,61 +5016,61 @@
         <v>51</v>
       </c>
       <c r="K51">
+        <v>1.727</v>
+      </c>
+      <c r="L51">
         <v>3.75</v>
       </c>
-      <c r="L51">
-        <v>4.2</v>
-      </c>
       <c r="M51">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
         <v>5</v>
       </c>
-      <c r="P51">
-        <v>1.5</v>
-      </c>
       <c r="Q51">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6832863</v>
+        <v>6832866</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,76 +5090,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N52">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6832861</v>
+        <v>6832864</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,49 +5179,49 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="L53">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="N53">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="O53">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P53">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U53">
         <v>1.95</v>
@@ -5230,25 +5230,25 @@
         <v>1.85</v>
       </c>
       <c r="W53">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5357,10 +5357,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" t="s">
         <v>37</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5449,7 +5449,7 @@
         <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5538,7 +5538,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6832870</v>
+        <v>6832867</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,58 +5624,58 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>2</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>49</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L58">
+        <v>3.4</v>
+      </c>
+      <c r="M58">
+        <v>3.1</v>
+      </c>
+      <c r="N58">
+        <v>2.1</v>
+      </c>
+      <c r="O58">
         <v>3.5</v>
       </c>
-      <c r="M58">
-        <v>3.3</v>
-      </c>
-      <c r="N58">
-        <v>2.2</v>
-      </c>
-      <c r="O58">
-        <v>3.75</v>
-      </c>
       <c r="P58">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.8</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>2.5</v>
+      </c>
+      <c r="U58">
+        <v>1.925</v>
+      </c>
+      <c r="V58">
         <v>1.875</v>
       </c>
-      <c r="S58">
-        <v>1.925</v>
-      </c>
-      <c r="T58">
-        <v>2.75</v>
-      </c>
-      <c r="U58">
-        <v>1.8</v>
-      </c>
-      <c r="V58">
-        <v>2</v>
-      </c>
       <c r="W58">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5684,16 +5684,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832867</v>
+        <v>6832870</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,58 +5713,58 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>49</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N59">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q59">
         <v>-0.25</v>
       </c>
       <c r="R59">
+        <v>1.875</v>
+      </c>
+      <c r="S59">
+        <v>1.925</v>
+      </c>
+      <c r="T59">
+        <v>2.75</v>
+      </c>
+      <c r="U59">
         <v>1.8</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>2</v>
       </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.925</v>
-      </c>
-      <c r="V59">
-        <v>1.875</v>
-      </c>
       <c r="W59">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5773,16 +5773,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5802,7 +5802,7 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>32</v>
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6832871</v>
+        <v>6832868</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,10 +5891,10 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5903,43 +5903,43 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K61">
+        <v>1.571</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>4.333</v>
+      </c>
+      <c r="N61">
+        <v>1.55</v>
+      </c>
+      <c r="O61">
+        <v>4</v>
+      </c>
+      <c r="P61">
+        <v>6</v>
+      </c>
+      <c r="Q61">
+        <v>-1</v>
+      </c>
+      <c r="R61">
+        <v>1.85</v>
+      </c>
+      <c r="S61">
         <v>1.95</v>
-      </c>
-      <c r="L61">
-        <v>3.5</v>
-      </c>
-      <c r="M61">
-        <v>3.2</v>
-      </c>
-      <c r="N61">
-        <v>2.3</v>
-      </c>
-      <c r="O61">
-        <v>3.5</v>
-      </c>
-      <c r="P61">
-        <v>3</v>
-      </c>
-      <c r="Q61">
-        <v>-0.25</v>
-      </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
-      <c r="S61">
-        <v>1.8</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5948,16 +5948,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB61">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
       <c r="AC61">
         <v>-0.5</v>
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6832868</v>
+        <v>6832871</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,10 +5980,10 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5992,43 +5992,43 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N62">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6037,16 +6037,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB62">
-        <v>0.45</v>
+        <v>0.4375</v>
       </c>
       <c r="AC62">
         <v>-0.5</v>
@@ -6069,10 +6069,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" t="s">
         <v>39</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>3.75</v>
@@ -6250,7 +6250,7 @@
         <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6259,7 +6259,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832078</v>
+        <v>6832876</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,55 +6336,55 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K66">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L66">
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N66">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6393,19 +6393,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6834056</v>
+        <v>6832078</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,40 +6425,40 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K67">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
         <v>1.8</v>
@@ -6467,13 +6467,13 @@
         <v>2</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,7 +6482,7 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>3.333</v>
+        <v>1.375</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6491,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832876</v>
+        <v>6834056</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,56 +6514,56 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
         <v>3.75</v>
       </c>
       <c r="P68">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
+        <v>1.8</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>1.95</v>
+      </c>
+      <c r="V68">
         <v>1.85</v>
       </c>
-      <c r="S68">
-        <v>1.95</v>
-      </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.9</v>
-      </c>
-      <c r="V68">
-        <v>1.9</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
@@ -6571,19 +6571,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.2</v>
+        <v>3.333</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
         <v>0.95</v>
       </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6603,10 +6603,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6680,7 +6680,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6832873</v>
+        <v>6832872</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6692,76 +6692,76 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N70">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O70">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>1.85</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>1.95</v>
+      </c>
+      <c r="V70">
         <v>1.75</v>
       </c>
-      <c r="S70">
-        <v>1.95</v>
-      </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.975</v>
-      </c>
-      <c r="V70">
-        <v>1.825</v>
-      </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X70">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6769,7 +6769,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6832872</v>
+        <v>6832873</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6781,76 +6781,76 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K71">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N71">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
+        <v>1.75</v>
+      </c>
+      <c r="S71">
         <v>1.95</v>
       </c>
-      <c r="S71">
-        <v>1.85</v>
-      </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
         <v>0.95</v>
       </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
       <c r="AB71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6870,7 +6870,7 @@
         <v>45192.625</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>44</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6832880</v>
+        <v>6832080</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,73 +7048,73 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K74">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>2.8</v>
+      </c>
+      <c r="N74">
+        <v>2.375</v>
+      </c>
+      <c r="O74">
         <v>3.75</v>
       </c>
-      <c r="M74">
-        <v>4</v>
-      </c>
-      <c r="N74">
-        <v>1.571</v>
-      </c>
-      <c r="O74">
-        <v>4</v>
-      </c>
       <c r="P74">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB74">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6832080</v>
+        <v>6832881</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,40 +7137,40 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>50</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L75">
         <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N75">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
         <v>1.975</v>
@@ -7182,28 +7182,28 @@
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6832881</v>
+        <v>6832880</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,73 +7226,73 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="O76">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7315,10 +7315,10 @@
         <v>45198.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K77">
         <v>2.15</v>
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7262602</v>
+        <v>6832081</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,76 +7404,76 @@
         <v>45199.39583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>50</v>
       </c>
       <c r="K78">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
         <v>3.75</v>
       </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N78">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O78">
         <v>3.75</v>
       </c>
       <c r="P78">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z78">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6832081</v>
+        <v>7262602</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45199.39583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>51</v>
       </c>
       <c r="K79">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="L79">
         <v>3.75</v>
       </c>
       <c r="M79">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N79">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O79">
         <v>3.75</v>
       </c>
       <c r="P79">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y79">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA79">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6832879</v>
+        <v>6832877</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,73 +7582,73 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
         <v>3</v>
       </c>
-      <c r="I80">
+      <c r="J80" t="s">
+        <v>50</v>
+      </c>
+      <c r="K80">
         <v>2</v>
       </c>
-      <c r="J80" t="s">
-        <v>49</v>
-      </c>
-      <c r="K80">
-        <v>2.3</v>
-      </c>
       <c r="L80">
+        <v>3.75</v>
+      </c>
+      <c r="M80">
+        <v>3.4</v>
+      </c>
+      <c r="N80">
+        <v>2.25</v>
+      </c>
+      <c r="O80">
         <v>3.6</v>
       </c>
-      <c r="M80">
-        <v>2.8</v>
-      </c>
-      <c r="N80">
-        <v>2.3</v>
-      </c>
-      <c r="O80">
-        <v>3.8</v>
-      </c>
       <c r="P80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
         <v>3</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
+        <v>1.75</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
         <v>2</v>
       </c>
-      <c r="W80">
-        <v>1.3</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
       <c r="Z80">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7659,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6832877</v>
+        <v>6832879</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7671,73 +7671,73 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
         <v>2</v>
       </c>
-      <c r="I81">
-        <v>3</v>
-      </c>
       <c r="J81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N81">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R81">
+        <v>1.725</v>
+      </c>
+      <c r="S81">
         <v>1.975</v>
-      </c>
-      <c r="S81">
-        <v>1.825</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7772,7 +7772,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6832082</v>
+        <v>6831800</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>50</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
         <v>3.4</v>
       </c>
-      <c r="M83">
-        <v>2.75</v>
-      </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
         <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6831800</v>
+        <v>6832885</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="L84">
         <v>3.6</v>
       </c>
       <c r="M84">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="N84">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
         <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA84">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6832885</v>
+        <v>6832082</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N85">
+        <v>2.05</v>
+      </c>
+      <c r="O85">
         <v>3.75</v>
       </c>
-      <c r="O85">
-        <v>3.6</v>
-      </c>
       <c r="P85">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="Q85">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
+        <v>3</v>
+      </c>
+      <c r="U85">
+        <v>1.975</v>
+      </c>
+      <c r="V85">
+        <v>1.825</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
         <v>2.75</v>
       </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.925</v>
-      </c>
-      <c r="W85">
-        <v>2.75</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8116,7 +8116,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8128,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K86">
         <v>2.7</v>
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6832083</v>
+        <v>6832884</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,76 +8205,76 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K87">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N87">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6832884</v>
+        <v>6832083</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
         <v>1.9</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>1.9</v>
       </c>
-      <c r="T88">
-        <v>3</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
-      <c r="V88">
-        <v>1.825</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
+        <v>-0</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB88">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,10 +8383,10 @@
         <v>45207.22916666666</v>
       </c>
       <c r="F89" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" t="s">
         <v>30</v>
-      </c>
-      <c r="G89" t="s">
-        <v>34</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8395,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K89">
         <v>2.3</v>
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832888</v>
+        <v>6832890</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K90">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M90">
         <v>4.75</v>
       </c>
       <c r="N90">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O90">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832890</v>
+        <v>6832888</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,76 +8561,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
         <v>4.75</v>
       </c>
       <c r="N91">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8650,7 +8650,7 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
         <v>43</v>
@@ -8662,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K92">
         <v>2.15</v>
@@ -8739,10 +8739,10 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6831801</v>
+        <v>6832085</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,58 +8828,58 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N94">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O94">
         <v>3.5</v>
       </c>
       <c r="P94">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
+        <v>1.9</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>2.75</v>
+      </c>
+      <c r="U94">
+        <v>1.975</v>
+      </c>
+      <c r="V94">
         <v>1.825</v>
       </c>
-      <c r="S94">
-        <v>1.975</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>1.9</v>
-      </c>
-      <c r="V94">
-        <v>1.9</v>
-      </c>
       <c r="W94">
-        <v>0.833</v>
+        <v>1.2</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8888,13 +8888,13 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6832887</v>
+        <v>6831801</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,76 +8917,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
+        <v>1.825</v>
+      </c>
+      <c r="S95">
+        <v>1.975</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
         <v>1.9</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.9</v>
       </c>
-      <c r="T95">
-        <v>3.5</v>
-      </c>
-      <c r="U95">
-        <v>1.95</v>
-      </c>
-      <c r="V95">
-        <v>1.85</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X95">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6832085</v>
+        <v>6832887</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,40 +9006,40 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K96">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
         <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N96">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
         <v>1.9</v>
@@ -9048,34 +9048,34 @@
         <v>1.9</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9095,10 +9095,10 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832895</v>
+        <v>6831802</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K98">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6832894</v>
+        <v>6832086</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="N99">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P99">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="Q99">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA99">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6832892</v>
+        <v>6832895</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,76 +9362,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K100">
+        <v>1.7</v>
+      </c>
+      <c r="L100">
+        <v>3.8</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100">
+        <v>1.727</v>
+      </c>
+      <c r="O100">
         <v>4.2</v>
       </c>
-      <c r="L100">
-        <v>3.6</v>
-      </c>
-      <c r="M100">
-        <v>1.7</v>
-      </c>
-      <c r="N100">
-        <v>5.25</v>
-      </c>
-      <c r="O100">
-        <v>3.8</v>
-      </c>
       <c r="P100">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.925</v>
+      </c>
+      <c r="S100">
+        <v>1.875</v>
+      </c>
+      <c r="T100">
+        <v>3.25</v>
+      </c>
+      <c r="U100">
+        <v>1.75</v>
+      </c>
+      <c r="V100">
+        <v>1.95</v>
+      </c>
+      <c r="W100">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.925</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>0.75</v>
       </c>
-      <c r="R100">
-        <v>1.975</v>
-      </c>
-      <c r="S100">
-        <v>1.825</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Z100">
-        <v>-0.5</v>
-      </c>
-      <c r="AA100">
-        <v>0.4125</v>
-      </c>
-      <c r="AB100">
-        <v>0.4875</v>
-      </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6832086</v>
+        <v>6832892</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,76 +9451,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K101">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
+        <v>1.7</v>
+      </c>
+      <c r="N101">
+        <v>5.25</v>
+      </c>
+      <c r="O101">
+        <v>3.8</v>
+      </c>
+      <c r="P101">
+        <v>1.65</v>
+      </c>
+      <c r="Q101">
+        <v>0.75</v>
+      </c>
+      <c r="R101">
+        <v>1.975</v>
+      </c>
+      <c r="S101">
+        <v>1.825</v>
+      </c>
+      <c r="T101">
         <v>2.75</v>
       </c>
-      <c r="N101">
-        <v>2.375</v>
-      </c>
-      <c r="O101">
-        <v>3.25</v>
-      </c>
-      <c r="P101">
-        <v>3.1</v>
-      </c>
-      <c r="Q101">
-        <v>-0.25</v>
-      </c>
-      <c r="R101">
-        <v>2.025</v>
-      </c>
-      <c r="S101">
-        <v>1.775</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z101">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB101">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6831802</v>
+        <v>6832894</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,76 +9540,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>50</v>
       </c>
       <c r="K102">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="N102">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
+        <v>1.85</v>
+      </c>
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9629,10 +9629,10 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9721,7 +9721,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9730,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9810,7 +9810,7 @@
         <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105">
         <v>2.2</v>
@@ -9908,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>1.55</v>
@@ -9985,10 +9985,10 @@
         <v>45233.6875</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7404272</v>
+        <v>7404273</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,49 +10074,49 @@
         <v>45234.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L108">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N108">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
         <v>1.825</v>
@@ -10128,22 +10128,22 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7404273</v>
+        <v>7404272</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,49 +10163,49 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K109">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M109">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N109">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
         <v>1.825</v>
@@ -10217,22 +10217,22 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA109">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,10 +10252,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10341,10 +10341,10 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K111">
         <v>2.2</v>
@@ -10430,7 +10430,7 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6832904</v>
+        <v>6832907</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,58 +10519,58 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N113">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="O113">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
         <v>1.8</v>
       </c>
-      <c r="S113">
-        <v>2</v>
-      </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>1.55</v>
+        <v>0.615</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,13 +10579,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6832907</v>
+        <v>6832904</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,58 +10697,58 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>49</v>
       </c>
       <c r="K115">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N115">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="O115">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P115">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R115">
+        <v>1.8</v>
+      </c>
+      <c r="S115">
         <v>2</v>
       </c>
-      <c r="S115">
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
         <v>1.8</v>
       </c>
-      <c r="T115">
-        <v>3</v>
-      </c>
-      <c r="U115">
-        <v>1.85</v>
-      </c>
-      <c r="V115">
-        <v>1.95</v>
-      </c>
       <c r="W115">
-        <v>0.615</v>
+        <v>1.55</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10757,13 +10757,13 @@
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>0.8</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>1</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10875,10 +10875,10 @@
         <v>45240.6875</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10887,7 +10887,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117">
         <v>3</v>
@@ -10964,10 +10964,10 @@
         <v>45241.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>6</v>
@@ -11053,7 +11053,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
         <v>41</v>
@@ -11065,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11142,7 +11142,7 @@
         <v>45242.35416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
         <v>36</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K120">
         <v>2.05</v>
@@ -11320,7 +11320,7 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>45</v>
@@ -11332,7 +11332,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11412,7 +11412,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11421,7 +11421,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K123">
         <v>4.5</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6832908</v>
+        <v>6832092</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,55 +11498,55 @@
         <v>45255.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K124">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L124">
+        <v>3.5</v>
+      </c>
+      <c r="M124">
         <v>3.6</v>
       </c>
-      <c r="M124">
-        <v>2.75</v>
-      </c>
       <c r="N124">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11555,16 +11555,16 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6832092</v>
+        <v>6832908</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,55 +11587,55 @@
         <v>45255.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
+        <v>6</v>
+      </c>
+      <c r="J125" t="s">
+        <v>50</v>
+      </c>
+      <c r="K125">
+        <v>2.2</v>
+      </c>
+      <c r="L125">
+        <v>3.6</v>
+      </c>
+      <c r="M125">
+        <v>2.75</v>
+      </c>
+      <c r="N125">
+        <v>2.375</v>
+      </c>
+      <c r="O125">
+        <v>3.75</v>
+      </c>
+      <c r="P125">
+        <v>2.7</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>1.775</v>
+      </c>
+      <c r="S125">
+        <v>2.025</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="J125" t="s">
-        <v>51</v>
-      </c>
-      <c r="K125">
-        <v>1.909</v>
-      </c>
-      <c r="L125">
-        <v>3.5</v>
-      </c>
-      <c r="M125">
-        <v>3.6</v>
-      </c>
-      <c r="N125">
-        <v>2.15</v>
-      </c>
-      <c r="O125">
-        <v>3.25</v>
-      </c>
-      <c r="P125">
-        <v>3.4</v>
-      </c>
-      <c r="Q125">
-        <v>-0.25</v>
-      </c>
-      <c r="R125">
-        <v>1.825</v>
-      </c>
-      <c r="S125">
-        <v>1.975</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11644,16 +11644,16 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11676,7 +11676,7 @@
         <v>45255.4375</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
         <v>44</v>
@@ -11688,7 +11688,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K126">
         <v>5.75</v>
@@ -11768,7 +11768,7 @@
         <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K127">
         <v>3.75</v>
@@ -11857,7 +11857,7 @@
         <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11866,7 +11866,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K128">
         <v>2.875</v>
@@ -11946,7 +11946,7 @@
         <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -11955,7 +11955,7 @@
         <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K129">
         <v>2.15</v>
@@ -12035,7 +12035,7 @@
         <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12044,7 +12044,7 @@
         <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12121,7 +12121,7 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>42</v>
@@ -12222,7 +12222,7 @@
         <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K132">
         <v>5.25</v>
@@ -12302,7 +12302,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12311,7 +12311,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K133">
         <v>3.2</v>
@@ -12400,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7582491</v>
+        <v>7582036</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,10 +12477,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12489,64 +12489,64 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K135">
+        <v>3.5</v>
+      </c>
+      <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
         <v>1.909</v>
       </c>
-      <c r="L135">
-        <v>3.5</v>
-      </c>
-      <c r="M135">
-        <v>3.5</v>
-      </c>
       <c r="N135">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q135">
+        <v>0.75</v>
+      </c>
+      <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>1.975</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
+        <v>1.975</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>0.8</v>
+      </c>
+      <c r="Z135">
         <v>-0.5</v>
       </c>
-      <c r="R135">
-        <v>2</v>
-      </c>
-      <c r="S135">
-        <v>1.8</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>1.95</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>2.75</v>
-      </c>
-      <c r="Z135">
-        <v>-1</v>
-      </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7582036</v>
+        <v>7582491</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12569,7 +12569,7 @@
         <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12578,64 +12578,64 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K136">
+        <v>1.909</v>
+      </c>
+      <c r="L136">
         <v>3.5</v>
       </c>
-      <c r="L136">
+      <c r="M136">
+        <v>3.5</v>
+      </c>
+      <c r="N136">
+        <v>2.05</v>
+      </c>
+      <c r="O136">
         <v>3.6</v>
       </c>
-      <c r="M136">
-        <v>1.909</v>
-      </c>
-      <c r="N136">
-        <v>4.333</v>
-      </c>
-      <c r="O136">
-        <v>3.8</v>
-      </c>
       <c r="P136">
+        <v>3.75</v>
+      </c>
+      <c r="Q136">
+        <v>-0.5</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
         <v>1.8</v>
       </c>
-      <c r="Q136">
-        <v>0.75</v>
-      </c>
-      <c r="R136">
-        <v>1.825</v>
-      </c>
-      <c r="S136">
-        <v>1.975</v>
-      </c>
       <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
+        <v>1.95</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
         <v>2.75</v>
       </c>
-      <c r="U136">
-        <v>1.825</v>
-      </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
         <v>0.8</v>
       </c>
-      <c r="Z136">
-        <v>-0.5</v>
-      </c>
-      <c r="AA136">
-        <v>0.4875</v>
-      </c>
       <c r="AB136">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12658,7 +12658,7 @@
         <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12667,7 +12667,7 @@
         <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K137">
         <v>5.5</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6832096</v>
+        <v>6831807</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L138">
         <v>3.6</v>
       </c>
       <c r="M138">
+        <v>4</v>
+      </c>
+      <c r="N138">
+        <v>1.7</v>
+      </c>
+      <c r="O138">
         <v>3.75</v>
       </c>
-      <c r="N138">
+      <c r="P138">
+        <v>5</v>
+      </c>
+      <c r="Q138">
+        <v>-0.75</v>
+      </c>
+      <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>1.9</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
         <v>1.8</v>
       </c>
-      <c r="O138">
-        <v>4</v>
-      </c>
-      <c r="P138">
-        <v>4</v>
-      </c>
-      <c r="Q138">
-        <v>-0.5</v>
-      </c>
-      <c r="R138">
-        <v>1.8</v>
-      </c>
-      <c r="S138">
+      <c r="V138">
         <v>2</v>
       </c>
-      <c r="T138">
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>2.75</v>
       </c>
-      <c r="U138">
-        <v>1.975</v>
-      </c>
-      <c r="V138">
-        <v>1.825</v>
-      </c>
-      <c r="W138">
-        <v>0.8</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6831807</v>
+        <v>6832096</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L139">
         <v>3.6</v>
       </c>
       <c r="M139">
+        <v>3.75</v>
+      </c>
+      <c r="N139">
+        <v>1.8</v>
+      </c>
+      <c r="O139">
         <v>4</v>
       </c>
-      <c r="N139">
-        <v>1.7</v>
-      </c>
-      <c r="O139">
-        <v>3.75</v>
-      </c>
       <c r="P139">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X139">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
         <v>45</v>
@@ -13011,10 +13011,10 @@
         <v>45345.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
         <v>4.75</v>
@@ -13100,10 +13100,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6832920</v>
+        <v>6832095</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,13 +13189,13 @@
         <v>45346.4375</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -13204,61 +13204,61 @@
         <v>50</v>
       </c>
       <c r="K143">
+        <v>1.909</v>
+      </c>
+      <c r="L143">
         <v>3.5</v>
       </c>
-      <c r="L143">
-        <v>3.6</v>
-      </c>
       <c r="M143">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N143">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
+        <v>1.9</v>
+      </c>
+      <c r="V143">
+        <v>1.9</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
         <v>1.875</v>
       </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
-      <c r="W143">
-        <v>-1</v>
-      </c>
-      <c r="X143">
-        <v>3</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
       <c r="Z143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6832095</v>
+        <v>6832920</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,13 +13278,13 @@
         <v>45346.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -13293,61 +13293,61 @@
         <v>51</v>
       </c>
       <c r="K144">
+        <v>3.5</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
         <v>1.909</v>
       </c>
-      <c r="L144">
-        <v>3.5</v>
-      </c>
-      <c r="M144">
-        <v>3.5</v>
-      </c>
       <c r="N144">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13367,7 +13367,7 @@
         <v>45347.27083333334</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>44</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6832926</v>
+        <v>6832097</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,46 +13456,46 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F146" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K146">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L146">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="N146">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O146">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q146">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T146">
         <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -13518,7 +13518,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6832929</v>
+        <v>6832926</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13530,46 +13530,46 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L147">
+        <v>4.2</v>
+      </c>
+      <c r="M147">
         <v>5</v>
       </c>
-      <c r="M147">
-        <v>7.5</v>
-      </c>
       <c r="N147">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="O147">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P147">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q147">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13592,7 +13592,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6832097</v>
+        <v>6832929</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13604,46 +13604,46 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K148">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="N148">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P148">
-        <v>1.833</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13678,10 +13678,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K149">
         <v>1.6</v>
@@ -13696,7 +13696,7 @@
         <v>1.615</v>
       </c>
       <c r="O149">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
         <v>4.75</v>
@@ -13705,19 +13705,19 @@
         <v>-0.75</v>
       </c>
       <c r="R149">
+        <v>1.85</v>
+      </c>
+      <c r="S149">
+        <v>1.95</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
         <v>1.8</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>2</v>
-      </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>2</v>
-      </c>
-      <c r="V149">
-        <v>1.8</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -13740,7 +13740,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6832925</v>
+        <v>6834055</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13752,46 +13752,46 @@
         <v>45353.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K150">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L150">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="N150">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O150">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13814,7 +13814,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6832924</v>
+        <v>6832925</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13826,37 +13826,37 @@
         <v>45353.4375</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K151">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="L151">
         <v>3.75</v>
       </c>
       <c r="M151">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="N151">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O151">
         <v>3.75</v>
       </c>
       <c r="P151">
+        <v>2.15</v>
+      </c>
+      <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
         <v>1.85</v>
       </c>
-      <c r="Q151">
-        <v>0.5</v>
-      </c>
-      <c r="R151">
-        <v>1.9</v>
-      </c>
       <c r="S151">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
         <v>2.75</v>
@@ -13888,7 +13888,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6834055</v>
+        <v>6832924</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13900,46 +13900,46 @@
         <v>45353.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K152">
         <v>3.4</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
+        <v>1.833</v>
+      </c>
+      <c r="N152">
+        <v>3.4</v>
+      </c>
+      <c r="O152">
+        <v>3.75</v>
+      </c>
+      <c r="P152">
+        <v>1.85</v>
+      </c>
+      <c r="Q152">
+        <v>0.5</v>
+      </c>
+      <c r="R152">
         <v>1.9</v>
       </c>
-      <c r="N152">
-        <v>2.4</v>
-      </c>
-      <c r="O152">
-        <v>3.5</v>
-      </c>
-      <c r="P152">
-        <v>2.55</v>
-      </c>
-      <c r="Q152">
-        <v>0</v>
-      </c>
-      <c r="R152">
-        <v>1.825</v>
-      </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -13977,7 +13977,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K153">
         <v>2.7</v>
@@ -14001,19 +14001,19 @@
         <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
         <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
         <v>0</v>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -103,22 +103,22 @@
     <t>Austria 2 Liga</t>
   </si>
   <si>
+    <t>FC Dornbirn 1913</t>
+  </si>
+  <si>
+    <t>FC Blau Weiss Linz</t>
+  </si>
+  <si>
     <t>FC Liefering</t>
   </si>
   <si>
-    <t>FC Flyeralarm Admira</t>
+    <t>SKU Amstetten</t>
   </si>
   <si>
     <t>First Vienna FC 1894</t>
   </si>
   <si>
-    <t>SKU Amstetten</t>
-  </si>
-  <si>
-    <t>FC Blau Weiss Linz</t>
-  </si>
-  <si>
-    <t>FC Dornbirn 1913</t>
+    <t>FC Flyeralarm Admira</t>
   </si>
   <si>
     <t>St Polten</t>
@@ -127,16 +127,16 @@
     <t>SV Kapfenberg</t>
   </si>
   <si>
+    <t>SW Bregenz</t>
+  </si>
+  <si>
+    <t>Leoben DSV</t>
+  </si>
+  <si>
     <t>SV Lafnitz</t>
   </si>
   <si>
-    <t>SW Bregenz</t>
-  </si>
-  <si>
     <t>Grazer AK</t>
-  </si>
-  <si>
-    <t>Leoben DSV</t>
   </si>
   <si>
     <t>Floridsdorfer AC</t>
@@ -163,13 +163,13 @@
     <t>Rapid Vienna II</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5208060</v>
+        <v>5208062</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M2">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="N2">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="O2">
         <v>4.75</v>
       </c>
       <c r="P2">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
+        <v>2.75</v>
+      </c>
+      <c r="U2">
+        <v>1.875</v>
+      </c>
+      <c r="V2">
+        <v>1.925</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
         <v>3.75</v>
       </c>
-      <c r="U2">
-        <v>1.825</v>
-      </c>
-      <c r="V2">
-        <v>1.975</v>
-      </c>
-      <c r="W2">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5214263</v>
+        <v>5207398</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,55 +732,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>1.181</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M3">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="N3">
-        <v>1.95</v>
+        <v>1.09</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R3">
+        <v>1.875</v>
+      </c>
+      <c r="S3">
         <v>1.925</v>
       </c>
-      <c r="S3">
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>1.9</v>
-      </c>
       <c r="W3">
-        <v>0.95</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -789,16 +789,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
         <v>0.925</v>
       </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
       <c r="AB3">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208063</v>
+        <v>5208060</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,73 +821,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
       </c>
       <c r="K4">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M4">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N4">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P4">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>2.55</v>
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5207398</v>
+        <v>5208063</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="L6">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N6">
-        <v>1.09</v>
+        <v>3.1</v>
       </c>
       <c r="O6">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>19</v>
+        <v>2.15</v>
       </c>
       <c r="Q6">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5208062</v>
+        <v>5214263</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,73 +1088,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="L7">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="O7">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="Q7">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X7">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC7">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>1.6</v>
@@ -1275,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9">
         <v>3.1</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6831794</v>
+        <v>6832066</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,56 +1355,56 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>2.7</v>
+      </c>
+      <c r="L10">
+        <v>3.4</v>
+      </c>
+      <c r="M10">
+        <v>2.3</v>
+      </c>
+      <c r="N10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10">
-        <v>1.7</v>
-      </c>
-      <c r="L10">
-        <v>3.75</v>
-      </c>
-      <c r="M10">
-        <v>4.2</v>
-      </c>
-      <c r="N10">
-        <v>1.833</v>
-      </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
+        <v>1.875</v>
+      </c>
+      <c r="S10">
+        <v>1.925</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
+        <v>1.8</v>
+      </c>
+      <c r="V10">
         <v>2</v>
       </c>
-      <c r="S10">
-        <v>1.8</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
-      <c r="U10">
+      <c r="W10">
         <v>2</v>
       </c>
-      <c r="V10">
-        <v>1.8</v>
-      </c>
-      <c r="W10">
-        <v>0.833</v>
-      </c>
       <c r="X10">
         <v>-1</v>
       </c>
@@ -1412,16 +1412,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
+        <v>0.875</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>-0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832066</v>
+        <v>6832067</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,55 +1444,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>3.4</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
+        <v>3.8</v>
+      </c>
+      <c r="P11">
         <v>3.6</v>
       </c>
-      <c r="P11">
-        <v>2.2</v>
-      </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1501,16 +1501,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832839</v>
+        <v>6831794</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,76 +1530,76 @@
         <v>45135.53125</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>1.7</v>
+      </c>
+      <c r="L12">
+        <v>3.75</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
+        <v>1.833</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>3.8</v>
+      </c>
+      <c r="Q12">
+        <v>-0.75</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.8</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>1.8</v>
+      </c>
+      <c r="W12">
+        <v>0.833</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>3.4</v>
-      </c>
-      <c r="M12">
-        <v>3.3</v>
-      </c>
-      <c r="N12">
-        <v>2.375</v>
-      </c>
-      <c r="O12">
-        <v>3.6</v>
-      </c>
-      <c r="P12">
-        <v>2.75</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>1.775</v>
-      </c>
-      <c r="S12">
-        <v>2.025</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.9</v>
-      </c>
-      <c r="V12">
-        <v>1.9</v>
-      </c>
-      <c r="W12">
-        <v>1.375</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6832836</v>
+        <v>6832839</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,58 +1619,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N13">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>0.615</v>
+        <v>1.375</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1679,16 +1679,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6832835</v>
+        <v>6832836</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,76 +1708,76 @@
         <v>45135.53125</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>50</v>
       </c>
       <c r="K14">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M14">
         <v>5</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O14">
         <v>4.333</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6832067</v>
+        <v>6832835</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,49 +1797,49 @@
         <v>45135.53125</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
         <v>1.95</v>
@@ -1848,25 +1848,25 @@
         <v>1.85</v>
       </c>
       <c r="W15">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>3.5</v>
@@ -1987,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17">
         <v>4.2</v>
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832842</v>
+        <v>6831795</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,67 +2064,67 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
       </c>
       <c r="K18">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N18">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2133,7 +2133,7 @@
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6832840</v>
+        <v>6832069</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,55 +2153,55 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2210,19 +2210,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6831795</v>
+        <v>6832840</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,13 +2242,13 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2257,61 +2257,61 @@
         <v>51</v>
       </c>
       <c r="K20">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="N20">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P20">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="Q20">
         <v>0.75</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z20">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832069</v>
+        <v>6832842</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,76 +2331,76 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N21">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2432,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>1.571</v>
@@ -2512,7 +2512,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2598,7 +2598,7 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K24">
         <v>2.4</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
         <v>3.6</v>
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832849</v>
+        <v>6832846</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,76 +2776,76 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N26">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6832846</v>
+        <v>6832849</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,76 +2865,76 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>50</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L27">
+        <v>3.4</v>
+      </c>
+      <c r="M27">
+        <v>3.2</v>
+      </c>
+      <c r="N27">
+        <v>1.909</v>
+      </c>
+      <c r="O27">
         <v>3.6</v>
       </c>
-      <c r="M27">
-        <v>3.8</v>
-      </c>
-      <c r="N27">
-        <v>1.5</v>
-      </c>
-      <c r="O27">
-        <v>4.333</v>
-      </c>
       <c r="P27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2954,10 +2954,10 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3043,7 +3043,7 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
         <v>2.1</v>
@@ -3132,10 +3132,10 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832070</v>
+        <v>6832845</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>49</v>
       </c>
       <c r="K31">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6832845</v>
+        <v>6832070</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N32">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3402,7 +3402,7 @@
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>2.6</v>
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6832072</v>
+        <v>6832854</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,49 +3488,49 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34">
         <v>2</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34">
-        <v>1.727</v>
-      </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N34">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O34">
+        <v>3.4</v>
+      </c>
+      <c r="P34">
         <v>3.8</v>
-      </c>
-      <c r="P34">
-        <v>4.2</v>
       </c>
       <c r="Q34">
         <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
         <v>1.925</v>
@@ -3539,7 +3539,7 @@
         <v>1.875</v>
       </c>
       <c r="W34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3548,16 +3548,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6832854</v>
+        <v>6832855</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,40 +3577,40 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>49</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L35">
+        <v>3.6</v>
+      </c>
+      <c r="M35">
         <v>3.4</v>
       </c>
-      <c r="M35">
-        <v>3.3</v>
-      </c>
       <c r="N35">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R35">
         <v>1.975</v>
@@ -3619,34 +3619,34 @@
         <v>1.825</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>-0</v>
+      </c>
+      <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA35">
-        <v>-1</v>
-      </c>
-      <c r="AB35">
-        <v>0.925</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6832855</v>
+        <v>6832072</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X36">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
         <v>-0</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
-      <c r="AC36">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3758,7 +3758,7 @@
         <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>1.727</v>
@@ -3844,7 +3844,7 @@
         <v>45156.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>1.533</v>
@@ -3933,10 +3933,10 @@
         <v>45157.39583333334</v>
       </c>
       <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
         <v>34</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4034,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4114,7 +4114,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
         <v>2.6</v>
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832859</v>
+        <v>6832073</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,34 +4200,34 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O42">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P42">
         <v>3.6</v>
@@ -4242,34 +4242,34 @@
         <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6832858</v>
+        <v>6832860</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,13 +4289,13 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4304,61 +4304,61 @@
         <v>49</v>
       </c>
       <c r="K43">
+        <v>2.625</v>
+      </c>
+      <c r="L43">
+        <v>3.5</v>
+      </c>
+      <c r="M43">
+        <v>2.25</v>
+      </c>
+      <c r="N43">
+        <v>3.25</v>
+      </c>
+      <c r="O43">
+        <v>3.75</v>
+      </c>
+      <c r="P43">
+        <v>2.05</v>
+      </c>
+      <c r="Q43">
+        <v>0.25</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
         <v>1.8</v>
-      </c>
-      <c r="L43">
-        <v>3.6</v>
-      </c>
-      <c r="M43">
-        <v>3.6</v>
-      </c>
-      <c r="N43">
-        <v>1.8</v>
-      </c>
-      <c r="O43">
-        <v>3.8</v>
-      </c>
-      <c r="P43">
-        <v>4.2</v>
-      </c>
-      <c r="Q43">
-        <v>-0.5</v>
-      </c>
-      <c r="R43">
-        <v>1.75</v>
-      </c>
-      <c r="S43">
-        <v>1.95</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44">
         <v>1.833</v>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6832860</v>
+        <v>6832859</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,76 +4467,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N45">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6832073</v>
+        <v>6832858</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,13 +4556,13 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4571,61 +4571,61 @@
         <v>50</v>
       </c>
       <c r="K46">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
         <v>3.6</v>
       </c>
       <c r="M46">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N46">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4645,10 +4645,10 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47">
         <v>2.25</v>
@@ -4734,10 +4734,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48">
         <v>3.1</v>
@@ -4835,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K49">
         <v>1.85</v>
@@ -4915,7 +4915,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50">
         <v>1.75</v>
@@ -5001,7 +5001,7 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>1.727</v>
@@ -5090,7 +5090,7 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>43</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53">
         <v>3.75</v>
@@ -5268,7 +5268,7 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54">
         <v>2.25</v>
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6832075</v>
+        <v>6832862</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,58 +5357,58 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O55">
         <v>3.6</v>
       </c>
       <c r="P55">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5417,13 +5417,13 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.425</v>
+        <v>0.4375</v>
       </c>
       <c r="AC55">
         <v>-0.5</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6832862</v>
+        <v>6832075</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,58 +5446,58 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N56">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O56">
         <v>3.6</v>
       </c>
       <c r="P56">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5506,13 +5506,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.4375</v>
+        <v>0.425</v>
       </c>
       <c r="AC56">
         <v>-0.5</v>
@@ -5538,7 +5538,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57">
         <v>3.6</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6832867</v>
+        <v>6832871</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,76 +5624,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O58">
         <v>3.5</v>
       </c>
       <c r="P58">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
         <v>1.8</v>
       </c>
-      <c r="S58">
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
+        <v>1.875</v>
+      </c>
+      <c r="V58">
+        <v>1.925</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
         <v>2</v>
       </c>
-      <c r="T58">
-        <v>2.5</v>
-      </c>
-      <c r="U58">
-        <v>1.925</v>
-      </c>
-      <c r="V58">
-        <v>1.875</v>
-      </c>
-      <c r="W58">
-        <v>1.1</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
-      <c r="Y58">
-        <v>-1</v>
-      </c>
       <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
         <v>0.8</v>
       </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832870</v>
+        <v>6832869</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,58 +5713,58 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L59">
         <v>3.5</v>
       </c>
       <c r="M59">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O59">
         <v>3.75</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
         <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5773,7 +5773,7 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -5782,7 +5782,7 @@
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6832869</v>
+        <v>6832870</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,58 +5802,58 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L60">
         <v>3.5</v>
       </c>
       <c r="M60">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N60">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
         <v>3.75</v>
       </c>
       <c r="P60">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5862,7 +5862,7 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5871,7 +5871,7 @@
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6832868</v>
+        <v>6832867</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,13 +5891,13 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
         <v>2</v>
@@ -5906,61 +5906,61 @@
         <v>50</v>
       </c>
       <c r="K61">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M61">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N61">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P61">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6832871</v>
+        <v>6832868</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,10 +5980,10 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5992,43 +5992,43 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62">
+        <v>1.571</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>4.333</v>
+      </c>
+      <c r="N62">
+        <v>1.55</v>
+      </c>
+      <c r="O62">
+        <v>4</v>
+      </c>
+      <c r="P62">
+        <v>6</v>
+      </c>
+      <c r="Q62">
+        <v>-1</v>
+      </c>
+      <c r="R62">
+        <v>1.85</v>
+      </c>
+      <c r="S62">
         <v>1.95</v>
-      </c>
-      <c r="L62">
-        <v>3.5</v>
-      </c>
-      <c r="M62">
-        <v>3.2</v>
-      </c>
-      <c r="N62">
-        <v>2.3</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
-      <c r="P62">
-        <v>3</v>
-      </c>
-      <c r="Q62">
-        <v>-0.25</v>
-      </c>
-      <c r="R62">
-        <v>2</v>
-      </c>
-      <c r="S62">
-        <v>1.8</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6037,16 +6037,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB62">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
       <c r="AC62">
         <v>-0.5</v>
@@ -6069,10 +6069,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" t="s">
         <v>40</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63">
         <v>3.75</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6831798</v>
+        <v>6832077</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,76 +6158,76 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>2</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K64">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O64">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>3</v>
+      </c>
+      <c r="U64">
+        <v>1.975</v>
+      </c>
+      <c r="V64">
         <v>1.825</v>
       </c>
-      <c r="S64">
-        <v>1.975</v>
-      </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
-      <c r="U64">
-        <v>1.825</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
       <c r="W64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.825</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
-      <c r="AC64">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6832077</v>
+        <v>6831798</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,76 +6247,76 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>50</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N65">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P65">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
+        <v>1.825</v>
+      </c>
+      <c r="V65">
         <v>1.975</v>
       </c>
-      <c r="V65">
-        <v>1.825</v>
-      </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832876</v>
+        <v>6834056</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,56 +6336,56 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O66">
         <v>3.75</v>
       </c>
       <c r="P66">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
+        <v>1.8</v>
+      </c>
+      <c r="S66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
+        <v>1.95</v>
+      </c>
+      <c r="V66">
         <v>1.85</v>
       </c>
-      <c r="S66">
-        <v>1.95</v>
-      </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
-      <c r="U66">
-        <v>1.9</v>
-      </c>
-      <c r="V66">
-        <v>1.9</v>
-      </c>
       <c r="W66">
         <v>-1</v>
       </c>
@@ -6393,19 +6393,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.2</v>
+        <v>3.333</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
         <v>0.95</v>
       </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832078</v>
+        <v>6832876</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,55 +6425,55 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K67">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P67">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,19 +6482,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6834056</v>
+        <v>6832078</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,40 +6514,40 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
         <v>1.8</v>
@@ -6556,13 +6556,13 @@
         <v>2</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,7 +6571,7 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>3.333</v>
+        <v>1.375</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6580,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6603,7 +6603,7 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6692,10 +6692,10 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K70">
         <v>1.533</v>
@@ -6781,10 +6781,10 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6870,7 +6870,7 @@
         <v>45192.625</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>44</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73">
         <v>1.909</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6832080</v>
+        <v>6832881</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7051,37 +7051,37 @@
         <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>51</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L74">
         <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N74">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
         <v>1.975</v>
@@ -7093,28 +7093,28 @@
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6832881</v>
+        <v>6832080</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,40 +7137,40 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
         <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
         <v>1.975</v>
@@ -7182,28 +7182,28 @@
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y75">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
         <v>1.833</v>
@@ -7318,7 +7318,7 @@
         <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K77">
         <v>2.15</v>
@@ -7407,7 +7407,7 @@
         <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7416,7 +7416,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K78">
         <v>1.75</v>
@@ -7496,7 +7496,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>3.1</v>
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6832877</v>
+        <v>6832879</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,73 +7582,73 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
         <v>2</v>
-      </c>
-      <c r="I80">
-        <v>3</v>
       </c>
       <c r="J80" t="s">
         <v>50</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N80">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O80">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R80">
+        <v>1.725</v>
+      </c>
+      <c r="S80">
         <v>1.975</v>
-      </c>
-      <c r="S80">
-        <v>1.825</v>
       </c>
       <c r="T80">
         <v>3</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7659,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6832879</v>
+        <v>6832877</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7671,73 +7671,73 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
         <v>3</v>
       </c>
-      <c r="I81">
+      <c r="J81" t="s">
+        <v>51</v>
+      </c>
+      <c r="K81">
         <v>2</v>
       </c>
-      <c r="J81" t="s">
-        <v>49</v>
-      </c>
-      <c r="K81">
-        <v>2.3</v>
-      </c>
       <c r="L81">
+        <v>3.75</v>
+      </c>
+      <c r="M81">
+        <v>3.4</v>
+      </c>
+      <c r="N81">
+        <v>2.25</v>
+      </c>
+      <c r="O81">
         <v>3.6</v>
       </c>
-      <c r="M81">
-        <v>2.8</v>
-      </c>
-      <c r="N81">
-        <v>2.3</v>
-      </c>
-      <c r="O81">
-        <v>3.8</v>
-      </c>
       <c r="P81">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
+        <v>1.75</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
         <v>2</v>
       </c>
-      <c r="W81">
-        <v>1.3</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
       <c r="Z81">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832886</v>
+        <v>6831800</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,76 +7760,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>2</v>
       </c>
-      <c r="I82">
-        <v>3</v>
-      </c>
       <c r="J82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L82">
         <v>3.6</v>
       </c>
       <c r="M82">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N82">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
+        <v>1.725</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
+        <v>1.85</v>
+      </c>
+      <c r="V82">
+        <v>1.95</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
         <v>1.8</v>
       </c>
-      <c r="T82">
-        <v>3</v>
-      </c>
-      <c r="U82">
-        <v>1.95</v>
-      </c>
-      <c r="V82">
-        <v>1.85</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>0.95</v>
-      </c>
-      <c r="AC82">
-        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6831800</v>
+        <v>6832082</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
+        <v>2.75</v>
+      </c>
+      <c r="N83">
+        <v>2.05</v>
+      </c>
+      <c r="O83">
+        <v>3.75</v>
+      </c>
+      <c r="P83">
         <v>3.4</v>
       </c>
-      <c r="N83">
-        <v>2.45</v>
-      </c>
-      <c r="O83">
-        <v>3.4</v>
-      </c>
-      <c r="P83">
-        <v>2.8</v>
-      </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
         <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>1.975</v>
+      </c>
+      <c r="V83">
+        <v>1.825</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
         <v>2.75</v>
       </c>
-      <c r="U83">
-        <v>1.85</v>
-      </c>
-      <c r="V83">
-        <v>1.95</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
       <c r="Y83">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832885</v>
+        <v>6832886</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,73 +7938,73 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84" t="s">
+        <v>51</v>
+      </c>
+      <c r="K84">
         <v>4</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84" t="s">
-        <v>49</v>
-      </c>
-      <c r="K84">
-        <v>3.8</v>
       </c>
       <c r="L84">
         <v>3.6</v>
       </c>
       <c r="M84">
+        <v>1.75</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84">
+        <v>4.2</v>
+      </c>
+      <c r="P84">
+        <v>1.533</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
         <v>1.8</v>
       </c>
-      <c r="N84">
-        <v>3.75</v>
-      </c>
-      <c r="O84">
-        <v>3.6</v>
-      </c>
-      <c r="P84">
+      <c r="T84">
+        <v>3</v>
+      </c>
+      <c r="U84">
         <v>1.95</v>
       </c>
-      <c r="Q84">
-        <v>0.5</v>
-      </c>
-      <c r="R84">
-        <v>1.9</v>
-      </c>
-      <c r="S84">
-        <v>1.9</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.875</v>
-      </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z84">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6832082</v>
+        <v>6832885</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K85">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
+        <v>1.8</v>
+      </c>
+      <c r="N85">
+        <v>3.75</v>
+      </c>
+      <c r="O85">
+        <v>3.6</v>
+      </c>
+      <c r="P85">
+        <v>1.95</v>
+      </c>
+      <c r="Q85">
+        <v>0.5</v>
+      </c>
+      <c r="R85">
+        <v>1.9</v>
+      </c>
+      <c r="S85">
+        <v>1.9</v>
+      </c>
+      <c r="T85">
         <v>2.75</v>
       </c>
-      <c r="N85">
-        <v>2.05</v>
-      </c>
-      <c r="O85">
-        <v>3.75</v>
-      </c>
-      <c r="P85">
-        <v>3.4</v>
-      </c>
-      <c r="Q85">
-        <v>-0.5</v>
-      </c>
-      <c r="R85">
-        <v>1.975</v>
-      </c>
-      <c r="S85">
-        <v>1.825</v>
-      </c>
-      <c r="T85">
-        <v>3</v>
-      </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X85">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8116,7 +8116,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8128,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K86">
         <v>2.7</v>
@@ -8205,7 +8205,7 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>42</v>
@@ -8217,7 +8217,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K87">
         <v>2.2</v>
@@ -8294,10 +8294,10 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K88">
         <v>1.45</v>
@@ -8383,10 +8383,10 @@
         <v>45207.22916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8395,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>2.3</v>
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832890</v>
+        <v>6832891</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
         <v>51</v>
       </c>
       <c r="K90">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="L90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="N90">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>4</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K91">
         <v>1.615</v>
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6832891</v>
+        <v>6832890</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,76 +8650,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K92">
+        <v>1.6</v>
+      </c>
+      <c r="L92">
+        <v>3.8</v>
+      </c>
+      <c r="M92">
+        <v>4.75</v>
+      </c>
+      <c r="N92">
+        <v>1.65</v>
+      </c>
+      <c r="O92">
+        <v>4</v>
+      </c>
+      <c r="P92">
+        <v>5</v>
+      </c>
+      <c r="Q92">
+        <v>-0.75</v>
+      </c>
+      <c r="R92">
+        <v>1.8</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
+        <v>1.85</v>
+      </c>
+      <c r="V92">
+        <v>1.95</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
         <v>3</v>
       </c>
-      <c r="J92" t="s">
-        <v>50</v>
-      </c>
-      <c r="K92">
-        <v>2.15</v>
-      </c>
-      <c r="L92">
-        <v>3.5</v>
-      </c>
-      <c r="M92">
-        <v>2.9</v>
-      </c>
-      <c r="N92">
-        <v>2.6</v>
-      </c>
-      <c r="O92">
-        <v>3.6</v>
-      </c>
-      <c r="P92">
-        <v>2.55</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.9</v>
-      </c>
-      <c r="S92">
-        <v>1.9</v>
-      </c>
-      <c r="T92">
-        <v>3</v>
-      </c>
-      <c r="U92">
-        <v>1.9</v>
-      </c>
-      <c r="V92">
-        <v>1.9</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
       <c r="Y92">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8739,10 +8739,10 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832085</v>
+        <v>6832887</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,13 +8828,13 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -8843,25 +8843,25 @@
         <v>49</v>
       </c>
       <c r="K94">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N94">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P94">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
         <v>1.9</v>
@@ -8870,34 +8870,34 @@
         <v>1.9</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6831801</v>
+        <v>6832085</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,58 +8917,58 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H95">
         <v>3</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K95">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N95">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
+        <v>1.9</v>
+      </c>
+      <c r="S95">
+        <v>1.9</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
+        <v>1.975</v>
+      </c>
+      <c r="V95">
         <v>1.825</v>
       </c>
-      <c r="S95">
-        <v>1.975</v>
-      </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.9</v>
-      </c>
-      <c r="V95">
-        <v>1.9</v>
-      </c>
       <c r="W95">
-        <v>0.833</v>
+        <v>1.2</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8977,13 +8977,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6832887</v>
+        <v>6831801</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,76 +9006,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K96">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L96">
         <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
+        <v>1.825</v>
+      </c>
+      <c r="S96">
+        <v>1.975</v>
+      </c>
+      <c r="T96">
+        <v>2.5</v>
+      </c>
+      <c r="U96">
         <v>1.9</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>1.9</v>
       </c>
-      <c r="T96">
-        <v>3.5</v>
-      </c>
-      <c r="U96">
-        <v>1.95</v>
-      </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X96">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9098,7 +9098,7 @@
         <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6831802</v>
+        <v>6832892</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>51</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="N98">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6832086</v>
+        <v>6832895</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,58 +9273,58 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M99">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O99">
+        <v>4.2</v>
+      </c>
+      <c r="P99">
+        <v>4.333</v>
+      </c>
+      <c r="Q99">
+        <v>-0.75</v>
+      </c>
+      <c r="R99">
+        <v>1.925</v>
+      </c>
+      <c r="S99">
+        <v>1.875</v>
+      </c>
+      <c r="T99">
         <v>3.25</v>
       </c>
-      <c r="P99">
-        <v>3.1</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>2.025</v>
-      </c>
-      <c r="S99">
-        <v>1.775</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.375</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9333,13 +9333,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6832895</v>
+        <v>6832086</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,58 +9362,58 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N100">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P100">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>0.7270000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9422,13 +9422,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6832892</v>
+        <v>6831802</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,76 +9451,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="N101">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y101">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9543,7 +9543,7 @@
         <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9552,7 +9552,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K102">
         <v>4.2</v>
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832893</v>
+        <v>6832087</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,40 +9629,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>49</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L103">
+        <v>3.5</v>
+      </c>
+      <c r="M103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>2.875</v>
-      </c>
       <c r="N103">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
         <v>1.875</v>
@@ -9671,34 +9671,34 @@
         <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832087</v>
+        <v>6832893</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,40 +9718,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L104">
+        <v>3.4</v>
+      </c>
+      <c r="M104">
+        <v>2.875</v>
+      </c>
+      <c r="N104">
+        <v>2.2</v>
+      </c>
+      <c r="O104">
         <v>3.5</v>
       </c>
-      <c r="M104">
-        <v>3.4</v>
-      </c>
-      <c r="N104">
-        <v>1.833</v>
-      </c>
-      <c r="O104">
-        <v>3.6</v>
-      </c>
       <c r="P104">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
         <v>1.875</v>
@@ -9760,34 +9760,34 @@
         <v>1.925</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X104">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K105">
         <v>2.2</v>
@@ -9908,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K106">
         <v>1.55</v>
@@ -9985,10 +9985,10 @@
         <v>45233.6875</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7404273</v>
+        <v>6832897</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45234.4375</v>
       </c>
       <c r="F108" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" t="s">
         <v>29</v>
-      </c>
-      <c r="G108" t="s">
-        <v>32</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M108">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N108">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P108">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X108">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7404272</v>
+        <v>7404273</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,49 +10163,49 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K109">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L109">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N109">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
         <v>1.825</v>
@@ -10217,22 +10217,22 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6832897</v>
+        <v>7404272</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10252,13 +10252,13 @@
         <v>45234.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -10267,61 +10267,61 @@
         <v>49</v>
       </c>
       <c r="K110">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L110">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="N110">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q110">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
+        <v>1.725</v>
+      </c>
+      <c r="S110">
         <v>1.975</v>
       </c>
-      <c r="S110">
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
         <v>1.825</v>
       </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>0.3625</v>
+      </c>
+      <c r="AA110">
+        <v>-0.5</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10341,11 +10341,11 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F111" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111" t="s">
         <v>38</v>
       </c>
-      <c r="G111" t="s">
-        <v>40</v>
-      </c>
       <c r="H111">
         <v>0</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K111">
         <v>2.2</v>
@@ -10430,7 +10430,7 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>1.571</v>
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6832907</v>
+        <v>6832905</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,58 +10519,58 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K113">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
         <v>4.2</v>
       </c>
       <c r="N113">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P113">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>0.615</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,16 +10579,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832905</v>
+        <v>6832907</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,58 +10608,58 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M114">
         <v>4.2</v>
       </c>
       <c r="N114">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O114">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q114">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>0.3999999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,16 +10668,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6832904</v>
+        <v>6832906</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,58 +10697,58 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N115">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O115">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>1.975</v>
+      </c>
+      <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
         <v>1.8</v>
       </c>
-      <c r="S115">
+      <c r="V115">
         <v>2</v>
       </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
-      <c r="V115">
-        <v>1.8</v>
-      </c>
       <c r="W115">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10757,13 +10757,13 @@
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>0.8</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>1</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6832906</v>
+        <v>6832904</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,73 +10786,73 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N116">
+        <v>2.55</v>
+      </c>
+      <c r="O116">
+        <v>3.25</v>
+      </c>
+      <c r="P116">
+        <v>2.875</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
         <v>2</v>
       </c>
-      <c r="O116">
-        <v>3.6</v>
-      </c>
-      <c r="P116">
-        <v>3.6</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>1.975</v>
-      </c>
-      <c r="S116">
-        <v>1.825</v>
-      </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116">
         <v>1.8</v>
       </c>
-      <c r="V116">
-        <v>2</v>
-      </c>
       <c r="W116">
+        <v>1.55</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>0.8</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
         <v>1</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
-      <c r="Z116">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
-      <c r="AB116">
-        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10875,7 +10875,7 @@
         <v>45240.6875</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>35</v>
@@ -10887,7 +10887,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
         <v>3</v>
@@ -10964,10 +10964,10 @@
         <v>45241.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>6</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K118">
         <v>1.666</v>
@@ -11053,7 +11053,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
         <v>41</v>
@@ -11065,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11142,7 +11142,7 @@
         <v>45242.35416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
         <v>36</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K120">
         <v>2.05</v>
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11332,7 +11332,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11412,7 +11412,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11421,7 +11421,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K123">
         <v>4.5</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6832092</v>
+        <v>6832911</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,56 +11498,56 @@
         <v>45255.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124" t="s">
+        <v>51</v>
+      </c>
+      <c r="K124">
+        <v>5.75</v>
+      </c>
+      <c r="L124">
+        <v>4.5</v>
+      </c>
+      <c r="M124">
+        <v>1.444</v>
+      </c>
+      <c r="N124">
+        <v>7.5</v>
+      </c>
+      <c r="O124">
+        <v>5.25</v>
+      </c>
+      <c r="P124">
+        <v>1.363</v>
+      </c>
+      <c r="Q124">
+        <v>1.5</v>
+      </c>
+      <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
         <v>3</v>
       </c>
-      <c r="J124" t="s">
-        <v>50</v>
-      </c>
-      <c r="K124">
-        <v>1.909</v>
-      </c>
-      <c r="L124">
-        <v>3.5</v>
-      </c>
-      <c r="M124">
-        <v>3.6</v>
-      </c>
-      <c r="N124">
-        <v>2.15</v>
-      </c>
-      <c r="O124">
-        <v>3.25</v>
-      </c>
-      <c r="P124">
-        <v>3.4</v>
-      </c>
-      <c r="Q124">
-        <v>-0.25</v>
-      </c>
-      <c r="R124">
+      <c r="U124">
+        <v>1.975</v>
+      </c>
+      <c r="V124">
         <v>1.825</v>
       </c>
-      <c r="S124">
-        <v>1.975</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.875</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
@@ -11555,19 +11555,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,10 +11587,10 @@
         <v>45255.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11599,7 +11599,7 @@
         <v>6</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K125">
         <v>2.2</v>
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6832911</v>
+        <v>6832092</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,52 +11679,52 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K126">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="N126">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="O126">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P126">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="Q126">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11733,19 +11733,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K127">
         <v>3.75</v>
@@ -11857,7 +11857,7 @@
         <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11866,7 +11866,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K128">
         <v>2.875</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6832914</v>
+        <v>6832917</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,73 +11943,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>50</v>
       </c>
       <c r="K129">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N129">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P129">
-        <v>2.625</v>
+        <v>13</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12035,7 +12035,7 @@
         <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12044,7 +12044,7 @@
         <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K130">
         <v>1.909</v>
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6832917</v>
+        <v>6832914</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,73 +12121,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M131">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N131">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>13</v>
+        <v>2.625</v>
       </c>
       <c r="Q131">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12222,7 +12222,7 @@
         <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K132">
         <v>5.25</v>
@@ -12302,7 +12302,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12311,7 +12311,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K133">
         <v>3.2</v>
@@ -12400,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12477,10 +12477,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12489,7 +12489,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>3.5</v>
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7582491</v>
+        <v>7581960</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,49 +12566,49 @@
         <v>45339.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K136">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M136">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N136">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
         <v>1.85</v>
@@ -12623,13 +12623,13 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.75</v>
+        <v>0.615</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB136">
         <v>0.8500000000000001</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7581960</v>
+        <v>7582491</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,49 +12655,49 @@
         <v>45339.4375</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="N137">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="Q137">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
         <v>1.85</v>
@@ -12712,13 +12712,13 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.615</v>
+        <v>2.75</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
         <v>0.8500000000000001</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6831807</v>
+        <v>6832922</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N138">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O138">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P138">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U138">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X138">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
         <v>43</v>
@@ -12845,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K139">
         <v>1.8</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6832922</v>
+        <v>6831807</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>49</v>
       </c>
       <c r="K140">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L140">
+        <v>3.6</v>
+      </c>
+      <c r="M140">
+        <v>4</v>
+      </c>
+      <c r="N140">
+        <v>1.7</v>
+      </c>
+      <c r="O140">
         <v>3.75</v>
       </c>
-      <c r="M140">
-        <v>3.75</v>
-      </c>
-      <c r="N140">
-        <v>1.615</v>
-      </c>
-      <c r="O140">
-        <v>4.5</v>
-      </c>
       <c r="P140">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>45345.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
         <v>35</v>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
         <v>4.75</v>
@@ -13100,10 +13100,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K142">
         <v>1.285</v>
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6832095</v>
+        <v>6832920</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,76 +13189,76 @@
         <v>45346.4375</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K143">
+        <v>3.5</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
         <v>1.909</v>
       </c>
-      <c r="L143">
-        <v>3.5</v>
-      </c>
-      <c r="M143">
-        <v>3.5</v>
-      </c>
       <c r="N143">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6832920</v>
+        <v>6832095</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,13 +13278,13 @@
         <v>45346.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -13293,61 +13293,61 @@
         <v>51</v>
       </c>
       <c r="K144">
+        <v>1.909</v>
+      </c>
+      <c r="L144">
         <v>3.5</v>
       </c>
-      <c r="L144">
-        <v>3.6</v>
-      </c>
       <c r="M144">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N144">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q144">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
+        <v>1.9</v>
+      </c>
+      <c r="V144">
+        <v>1.9</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
         <v>1.875</v>
       </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>3</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
       <c r="Z144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13367,7 +13367,7 @@
         <v>45347.27083333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>44</v>
@@ -13379,7 +13379,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K145">
         <v>2.9</v>
@@ -13459,7 +13459,7 @@
         <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K146">
         <v>3.6</v>
@@ -13471,22 +13471,22 @@
         <v>1.833</v>
       </c>
       <c r="N146">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O146">
         <v>3.6</v>
       </c>
       <c r="P146">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="Q146">
         <v>0.5</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T146">
         <v>2.75</v>
@@ -13545,31 +13545,31 @@
         <v>5</v>
       </c>
       <c r="N147">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O147">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P147">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q147">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13619,31 +13619,31 @@
         <v>7.5</v>
       </c>
       <c r="N148">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O148">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q148">
         <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13678,10 +13678,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K149">
         <v>1.6</v>
@@ -13693,13 +13693,13 @@
         <v>4.8</v>
       </c>
       <c r="N149">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P149">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q149">
         <v>-0.75</v>
@@ -13714,10 +13714,10 @@
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -13740,7 +13740,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6834055</v>
+        <v>6832924</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13752,46 +13752,46 @@
         <v>45353.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K150">
         <v>3.4</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
+        <v>1.833</v>
+      </c>
+      <c r="N150">
+        <v>3.8</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>1.909</v>
+      </c>
+      <c r="Q150">
+        <v>0.5</v>
+      </c>
+      <c r="R150">
         <v>1.9</v>
       </c>
-      <c r="N150">
-        <v>2.4</v>
-      </c>
-      <c r="O150">
-        <v>3.5</v>
-      </c>
-      <c r="P150">
-        <v>2.55</v>
-      </c>
-      <c r="Q150">
-        <v>0</v>
-      </c>
-      <c r="R150">
-        <v>1.8</v>
-      </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13826,10 +13826,10 @@
         <v>45353.4375</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K151">
         <v>2.8</v>
@@ -13841,13 +13841,13 @@
         <v>2.1</v>
       </c>
       <c r="N151">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P151">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q151">
         <v>0.25</v>
@@ -13888,7 +13888,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6832924</v>
+        <v>6834055</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13900,46 +13900,46 @@
         <v>45353.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K152">
         <v>3.4</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>1.833</v>
+        <v>1.9</v>
       </c>
       <c r="N152">
+        <v>2.55</v>
+      </c>
+      <c r="O152">
         <v>3.4</v>
       </c>
-      <c r="O152">
-        <v>3.75</v>
-      </c>
       <c r="P152">
+        <v>2.75</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>1.825</v>
+      </c>
+      <c r="S152">
+        <v>1.975</v>
+      </c>
+      <c r="T152">
+        <v>2.25</v>
+      </c>
+      <c r="U152">
         <v>1.85</v>
       </c>
-      <c r="Q152">
-        <v>0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.9</v>
-      </c>
-      <c r="S152">
-        <v>1.9</v>
-      </c>
-      <c r="T152">
-        <v>2.75</v>
-      </c>
-      <c r="U152">
-        <v>1.9</v>
-      </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -13977,7 +13977,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K153">
         <v>2.7</v>
@@ -13989,31 +13989,31 @@
         <v>2.3</v>
       </c>
       <c r="N153">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O153">
         <v>3.3</v>
       </c>
       <c r="P153">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q153">
         <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
         <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
         <v>0</v>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,19 +103,16 @@
     <t>Austria 2 Liga</t>
   </si>
   <si>
-    <t>FC Dornbirn 1913</t>
-  </si>
-  <si>
     <t>FC Blau Weiss Linz</t>
   </si>
   <si>
-    <t>FC Liefering</t>
+    <t>First Vienna FC 1894</t>
   </si>
   <si>
-    <t>SKU Amstetten</t>
+    <t>SV Kapfenberg</t>
   </si>
   <si>
-    <t>First Vienna FC 1894</t>
+    <t>FC Liefering</t>
   </si>
   <si>
     <t>FC Flyeralarm Admira</t>
@@ -124,16 +121,19 @@
     <t>St Polten</t>
   </si>
   <si>
-    <t>SV Kapfenberg</t>
+    <t>SKU Amstetten</t>
+  </si>
+  <si>
+    <t>FC Dornbirn 1913</t>
   </si>
   <si>
     <t>SW Bregenz</t>
   </si>
   <si>
-    <t>Leoben DSV</t>
+    <t>SV Lafnitz</t>
   </si>
   <si>
-    <t>SV Lafnitz</t>
+    <t>Leoben DSV</t>
   </si>
   <si>
     <t>Grazer AK</t>
@@ -163,13 +163,13 @@
     <t>Rapid Vienna II</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5208062</v>
+        <v>5207398</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,10 +643,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -655,61 +655,61 @@
         <v>49</v>
       </c>
       <c r="K2">
-        <v>6.5</v>
+        <v>1.181</v>
       </c>
       <c r="L2">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="M2">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>1.09</v>
       </c>
       <c r="O2">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="P2">
-        <v>1.444</v>
+        <v>19</v>
       </c>
       <c r="Q2">
-        <v>1.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U2">
+        <v>1.925</v>
+      </c>
+      <c r="V2">
         <v>1.875</v>
       </c>
-      <c r="V2">
-        <v>1.925</v>
-      </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X2">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5207398</v>
+        <v>5208063</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="L3">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N3">
-        <v>1.09</v>
+        <v>3.1</v>
       </c>
       <c r="O3">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>19</v>
+        <v>2.15</v>
       </c>
       <c r="Q3">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208060</v>
+        <v>5257845</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,73 +821,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
       </c>
       <c r="K4">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N4">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208061</v>
+        <v>5208060</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,70 +910,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M5">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N5">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O5">
         <v>4.75</v>
       </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q5">
         <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X5">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5208063</v>
+        <v>5214263</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N6">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O6">
+        <v>3.75</v>
+      </c>
+      <c r="P6">
         <v>3.8</v>
       </c>
-      <c r="P6">
-        <v>2.15</v>
-      </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
+        <v>0.45</v>
+      </c>
+      <c r="AC6">
         <v>-0.5</v>
-      </c>
-      <c r="AC6">
-        <v>0.475</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5214263</v>
+        <v>5227634</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,55 +1088,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M7">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N7">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P7">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1145,16 +1145,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5227634</v>
+        <v>5208061</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,73 +1177,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L8">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O8">
         <v>4.75</v>
       </c>
       <c r="P8">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q8">
         <v>-1</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5257845</v>
+        <v>5208062</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,46 +1266,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M9">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P9">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
         <v>1.875</v>
@@ -1317,22 +1317,22 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y9">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1355,7 +1355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>2.7</v>
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832067</v>
+        <v>6831794</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,55 +1444,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11">
+        <v>1.7</v>
+      </c>
+      <c r="L11">
+        <v>3.75</v>
+      </c>
+      <c r="M11">
+        <v>4.2</v>
+      </c>
+      <c r="N11">
+        <v>1.833</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>3.8</v>
+      </c>
+      <c r="Q11">
+        <v>-0.75</v>
+      </c>
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11">
+      <c r="S11">
+        <v>1.8</v>
+      </c>
+      <c r="T11">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>3.4</v>
-      </c>
-      <c r="M11">
-        <v>2.15</v>
-      </c>
-      <c r="N11">
-        <v>1.909</v>
-      </c>
-      <c r="O11">
-        <v>3.8</v>
-      </c>
-      <c r="P11">
-        <v>3.6</v>
-      </c>
-      <c r="Q11">
-        <v>-0.5</v>
-      </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
-      <c r="S11">
-        <v>1.85</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0.909</v>
+        <v>0.833</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1501,16 +1501,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6831794</v>
+        <v>6832067</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1533,55 +1533,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N12">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.833</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1590,16 +1590,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1619,7 +1619,7 @@
         <v>45135.53125</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
         <v>43</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1711,7 +1711,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>1.533</v>
@@ -1797,10 +1797,10 @@
         <v>45135.53125</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16">
         <v>3.5</v>
@@ -1978,7 +1978,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1987,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>4.2</v>
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6831795</v>
+        <v>6832842</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,67 +2064,67 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
       </c>
       <c r="K18">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N18">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2133,7 +2133,7 @@
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6832069</v>
+        <v>6831795</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,40 +2153,40 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>51</v>
       </c>
       <c r="K19">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L19">
         <v>3.5</v>
       </c>
       <c r="M19">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N19">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
         <v>1.875</v>
@@ -2195,34 +2195,34 @@
         <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y19">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832840</v>
+        <v>6832069</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,55 +2242,55 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>2.3</v>
+      </c>
+      <c r="L20">
+        <v>3.5</v>
+      </c>
+      <c r="M20">
+        <v>2.75</v>
+      </c>
+      <c r="N20">
+        <v>2.5</v>
+      </c>
+      <c r="O20">
+        <v>3.75</v>
+      </c>
+      <c r="P20">
+        <v>2.6</v>
+      </c>
+      <c r="Q20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20">
-        <v>4.2</v>
-      </c>
-      <c r="L20">
-        <v>3.8</v>
-      </c>
-      <c r="M20">
-        <v>1.7</v>
-      </c>
-      <c r="N20">
-        <v>4.75</v>
-      </c>
-      <c r="O20">
-        <v>4.333</v>
-      </c>
-      <c r="P20">
-        <v>1.65</v>
-      </c>
-      <c r="Q20">
-        <v>0.75</v>
-      </c>
       <c r="R20">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2299,19 +2299,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832842</v>
+        <v>6832840</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,76 +2331,76 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
+        <v>1.7</v>
+      </c>
+      <c r="N21">
+        <v>4.75</v>
+      </c>
+      <c r="O21">
         <v>4.333</v>
       </c>
-      <c r="N21">
-        <v>1.727</v>
-      </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
       <c r="P21">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R21">
+        <v>2.05</v>
+      </c>
+      <c r="S21">
+        <v>1.75</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
         <v>1.95</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>1.85</v>
       </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.85</v>
-      </c>
-      <c r="V21">
-        <v>1.95</v>
-      </c>
       <c r="W21">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2432,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K22">
         <v>1.571</v>
@@ -2509,7 +2509,7 @@
         <v>45143.625</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>37</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2598,7 +2598,7 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K24">
         <v>2.4</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832850</v>
+        <v>6832849</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,10 +2687,10 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2699,46 +2699,46 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N25">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O25">
         <v>3.6</v>
       </c>
       <c r="P25">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>2.3</v>
+        <v>0.909</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2747,7 +2747,7 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2756,7 +2756,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832846</v>
+        <v>6832850</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,49 +2776,49 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L26">
         <v>3.6</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N26">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O26">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q26">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S26">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
         <v>1.825</v>
@@ -2827,19 +2827,19 @@
         <v>1.975</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6832849</v>
+        <v>6832846</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,73 +2868,73 @@
         <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>50</v>
       </c>
       <c r="K27">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N27">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2954,7 +2954,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3046,7 +3046,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29">
         <v>2.1</v>
@@ -3132,10 +3132,10 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3233,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K31">
         <v>3.1</v>
@@ -3310,10 +3310,10 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
         <v>2.25</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6832852</v>
+        <v>6832855</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,76 +3399,76 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O33">
         <v>3.6</v>
       </c>
       <c r="P33">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3491,7 +3491,7 @@
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6832855</v>
+        <v>6832071</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>49</v>
       </c>
       <c r="K35">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N35">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3666,7 +3666,7 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3678,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>1.727</v>
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6832071</v>
+        <v>6832852</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,10 +3755,10 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3767,46 +3767,46 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O37">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3815,7 +3815,7 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3824,7 +3824,7 @@
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>1.533</v>
@@ -3933,10 +3933,10 @@
         <v>45157.39583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4022,10 +4022,10 @@
         <v>45158.3125</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4114,7 +4114,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>2.6</v>
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832073</v>
+        <v>6832859</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,34 +4200,34 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N42">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P42">
         <v>3.6</v>
@@ -4242,34 +4242,34 @@
         <v>1.875</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6832860</v>
+        <v>6832073</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,76 +4289,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44">
         <v>1.833</v>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6832859</v>
+        <v>6832860</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,76 +4467,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45">
+        <v>2.625</v>
+      </c>
+      <c r="L45">
+        <v>3.5</v>
+      </c>
+      <c r="M45">
         <v>2.25</v>
       </c>
-      <c r="L45">
-        <v>3.4</v>
-      </c>
-      <c r="M45">
-        <v>2.7</v>
-      </c>
       <c r="N45">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q45">
+        <v>0.25</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1.8</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>1.925</v>
+      </c>
+      <c r="V45">
+        <v>1.875</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>2.75</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
+        <v>0.5</v>
+      </c>
+      <c r="AA45">
         <v>-0.5</v>
       </c>
-      <c r="R45">
-        <v>1.925</v>
-      </c>
-      <c r="S45">
-        <v>1.875</v>
-      </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <v>1.95</v>
-      </c>
-      <c r="V45">
-        <v>1.85</v>
-      </c>
-      <c r="W45">
-        <v>0.95</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>0.925</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4556,10 +4556,10 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4645,7 +4645,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4657,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K47">
         <v>2.25</v>
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6832857</v>
+        <v>6831797</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4734,73 +4734,73 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48">
+        <v>1.85</v>
+      </c>
+      <c r="L48">
+        <v>3.75</v>
+      </c>
+      <c r="M48">
+        <v>3.25</v>
+      </c>
+      <c r="N48">
+        <v>1.909</v>
+      </c>
+      <c r="O48">
         <v>4</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>50</v>
-      </c>
-      <c r="K48">
-        <v>3.1</v>
-      </c>
-      <c r="L48">
+      <c r="P48">
         <v>3.5</v>
       </c>
-      <c r="M48">
+      <c r="Q48">
+        <v>-0.5</v>
+      </c>
+      <c r="R48">
+        <v>1.85</v>
+      </c>
+      <c r="S48">
         <v>1.95</v>
       </c>
-      <c r="N48">
-        <v>4.333</v>
-      </c>
-      <c r="O48">
-        <v>3.8</v>
-      </c>
-      <c r="P48">
-        <v>1.75</v>
-      </c>
-      <c r="Q48">
-        <v>0.75</v>
-      </c>
-      <c r="R48">
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
         <v>1.875</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.925</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.925</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
+        <v>0.95</v>
+      </c>
+      <c r="AB48">
         <v>0.875</v>
-      </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
-      <c r="AB48">
-        <v>0.925</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4811,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6831797</v>
+        <v>6832857</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4823,73 +4823,73 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>49</v>
       </c>
       <c r="K49">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P49">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R49">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
+        <v>1.925</v>
+      </c>
+      <c r="V49">
         <v>1.875</v>
       </c>
-      <c r="V49">
-        <v>1.925</v>
-      </c>
       <c r="W49">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X49">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6832861</v>
+        <v>6832863</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,76 +4912,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L50">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N50">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="O50">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
         <v>1.8</v>
       </c>
-      <c r="S50">
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>1.8</v>
+      </c>
+      <c r="V50">
         <v>2</v>
       </c>
-      <c r="T50">
-        <v>2.75</v>
-      </c>
-      <c r="U50">
-        <v>1.95</v>
-      </c>
-      <c r="V50">
-        <v>1.85</v>
-      </c>
       <c r="W50">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
         <v>0.8</v>
       </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6832863</v>
+        <v>6832861</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,13 +5001,13 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -5016,61 +5016,61 @@
         <v>49</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N51">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
         <v>2</v>
       </c>
-      <c r="S51">
-        <v>1.8</v>
-      </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6832866</v>
+        <v>6832864</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,40 +5090,40 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>50</v>
       </c>
       <c r="K52">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="N52">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P52">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R52">
         <v>1.85</v>
@@ -5132,34 +5132,34 @@
         <v>1.95</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z52">
+        <v>0.425</v>
+      </c>
+      <c r="AA52">
+        <v>-0.5</v>
+      </c>
+      <c r="AB52">
+        <v>-1</v>
+      </c>
+      <c r="AC52">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA52">
-        <v>-1</v>
-      </c>
-      <c r="AB52">
-        <v>-1</v>
-      </c>
-      <c r="AC52">
-        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6832864</v>
+        <v>6832866</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,40 +5179,40 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L53">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="N53">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q53">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
         <v>1.85</v>
@@ -5221,34 +5221,34 @@
         <v>1.95</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54">
         <v>2.25</v>
@@ -5360,7 +5360,7 @@
         <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>2.05</v>
@@ -5449,7 +5449,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>2.7</v>
@@ -5535,10 +5535,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>3.6</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6832871</v>
+        <v>6832869</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,76 +5624,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K58">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L58">
         <v>3.5</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N58">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832869</v>
+        <v>6832867</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,58 +5713,58 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K59">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L59">
+        <v>3.4</v>
+      </c>
+      <c r="M59">
+        <v>3.1</v>
+      </c>
+      <c r="N59">
+        <v>2.1</v>
+      </c>
+      <c r="O59">
         <v>3.5</v>
       </c>
-      <c r="M59">
-        <v>2.4</v>
-      </c>
-      <c r="N59">
-        <v>2.45</v>
-      </c>
-      <c r="O59">
-        <v>3.75</v>
-      </c>
       <c r="P59">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5773,16 +5773,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6832870</v>
+        <v>6832871</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,34 +5802,34 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>2</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>50</v>
       </c>
       <c r="K60">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L60">
         <v>3.5</v>
       </c>
       <c r="M60">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
         <v>3</v>
@@ -5838,40 +5838,40 @@
         <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
+        <v>1.925</v>
+      </c>
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
         <v>2</v>
       </c>
-      <c r="W60">
-        <v>1.2</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6832867</v>
+        <v>6832870</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,58 +5891,58 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>49</v>
+      </c>
+      <c r="K61">
+        <v>1.909</v>
+      </c>
+      <c r="L61">
+        <v>3.5</v>
+      </c>
+      <c r="M61">
+        <v>3.3</v>
+      </c>
+      <c r="N61">
+        <v>2.2</v>
+      </c>
+      <c r="O61">
+        <v>3.75</v>
+      </c>
+      <c r="P61">
         <v>3</v>
-      </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-      <c r="J61" t="s">
-        <v>50</v>
-      </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61">
-        <v>3.4</v>
-      </c>
-      <c r="M61">
-        <v>3.1</v>
-      </c>
-      <c r="N61">
-        <v>2.1</v>
-      </c>
-      <c r="O61">
-        <v>3.5</v>
-      </c>
-      <c r="P61">
-        <v>3.4</v>
       </c>
       <c r="Q61">
         <v>-0.25</v>
       </c>
       <c r="R61">
+        <v>1.875</v>
+      </c>
+      <c r="S61">
+        <v>1.925</v>
+      </c>
+      <c r="T61">
+        <v>2.75</v>
+      </c>
+      <c r="U61">
         <v>1.8</v>
       </c>
-      <c r="S61">
+      <c r="V61">
         <v>2</v>
       </c>
-      <c r="T61">
-        <v>2.5</v>
-      </c>
-      <c r="U61">
-        <v>1.925</v>
-      </c>
-      <c r="V61">
-        <v>1.875</v>
-      </c>
       <c r="W61">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5951,16 +5951,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5980,10 +5980,10 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K62">
         <v>1.571</v>
@@ -6069,7 +6069,7 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
         <v>40</v>
@@ -6081,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>3.75</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6832077</v>
+        <v>6831798</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,76 +6158,76 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>2</v>
-      </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N64">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P64">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
+        <v>1.825</v>
+      </c>
+      <c r="V64">
         <v>1.975</v>
       </c>
-      <c r="V64">
-        <v>1.825</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6831798</v>
+        <v>6832077</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,76 +6247,76 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>2</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>50</v>
       </c>
       <c r="K65">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O65">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R65">
+        <v>1.8</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <v>1.975</v>
+      </c>
+      <c r="V65">
         <v>1.825</v>
       </c>
-      <c r="S65">
-        <v>1.975</v>
-      </c>
-      <c r="T65">
-        <v>2.75</v>
-      </c>
-      <c r="U65">
-        <v>1.825</v>
-      </c>
-      <c r="V65">
-        <v>1.975</v>
-      </c>
       <c r="W65">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.825</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>-1</v>
-      </c>
-      <c r="AC65">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6834056</v>
+        <v>6832078</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,40 +6336,40 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K66">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N66">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
         <v>1.8</v>
@@ -6378,13 +6378,13 @@
         <v>2</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6393,7 +6393,7 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>3.333</v>
+        <v>1.375</v>
       </c>
       <c r="Z66">
         <v>-1</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6425,10 +6425,10 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K67">
         <v>2.7</v>
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832078</v>
+        <v>6834056</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,40 +6514,40 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N68">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
         <v>1.8</v>
@@ -6556,13 +6556,13 @@
         <v>2</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,7 +6571,7 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.375</v>
+        <v>3.333</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6580,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6603,10 +6603,10 @@
         <v>45191.66666666666</v>
       </c>
       <c r="F69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" t="s">
         <v>34</v>
-      </c>
-      <c r="G69" t="s">
-        <v>35</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6695,7 +6695,7 @@
         <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K70">
         <v>1.533</v>
@@ -6781,10 +6781,10 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>1.909</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6832881</v>
+        <v>6832080</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,40 +7048,40 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>51</v>
       </c>
       <c r="K74">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
         <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
         <v>1.975</v>
@@ -7093,28 +7093,28 @@
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y74">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6832080</v>
+        <v>6832881</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,40 +7137,40 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L75">
         <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N75">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
         <v>1.975</v>
@@ -7182,28 +7182,28 @@
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
         <v>1.833</v>
@@ -7315,7 +7315,7 @@
         <v>45198.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7327,7 +7327,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K77">
         <v>2.15</v>
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6832081</v>
+        <v>7262602</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,76 +7404,76 @@
         <v>45199.39583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>51</v>
       </c>
       <c r="K78">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="L78">
         <v>3.75</v>
       </c>
       <c r="M78">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N78">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O78">
         <v>3.75</v>
       </c>
       <c r="P78">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y78">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA78">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7262602</v>
+        <v>6832081</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45199.39583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="L79">
         <v>3.75</v>
       </c>
       <c r="M79">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N79">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O79">
         <v>3.75</v>
       </c>
       <c r="P79">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z79">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6832879</v>
+        <v>6832877</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,73 +7582,73 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
         <v>3</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>50</v>
       </c>
       <c r="K80">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L80">
+        <v>3.75</v>
+      </c>
+      <c r="M80">
+        <v>3.4</v>
+      </c>
+      <c r="N80">
+        <v>2.25</v>
+      </c>
+      <c r="O80">
         <v>3.6</v>
       </c>
-      <c r="M80">
-        <v>2.8</v>
-      </c>
-      <c r="N80">
-        <v>2.3</v>
-      </c>
-      <c r="O80">
-        <v>3.8</v>
-      </c>
       <c r="P80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
         <v>3</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
+        <v>1.75</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
         <v>2</v>
       </c>
-      <c r="W80">
-        <v>1.3</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
       <c r="Z80">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7659,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6832877</v>
+        <v>6832879</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7671,73 +7671,73 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
         <v>2</v>
       </c>
-      <c r="I81">
-        <v>3</v>
-      </c>
       <c r="J81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N81">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R81">
+        <v>1.725</v>
+      </c>
+      <c r="S81">
         <v>1.975</v>
-      </c>
-      <c r="S81">
-        <v>1.825</v>
       </c>
       <c r="T81">
         <v>3</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6831800</v>
+        <v>6832886</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,56 +7760,56 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K82">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L82">
         <v>3.6</v>
       </c>
       <c r="M82">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N82">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P82">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U82">
+        <v>1.95</v>
+      </c>
+      <c r="V82">
         <v>1.85</v>
       </c>
-      <c r="V82">
-        <v>1.95</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
@@ -7817,19 +7817,19 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6832082</v>
+        <v>6831800</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
         <v>3.4</v>
       </c>
-      <c r="M83">
-        <v>2.75</v>
-      </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
         <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832886</v>
+        <v>6832082</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>51</v>
       </c>
       <c r="K84">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y84">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K85">
         <v>3.8</v>
@@ -8116,7 +8116,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8128,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K86">
         <v>2.7</v>
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6832884</v>
+        <v>6832083</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,76 +8205,76 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
         <v>1.9</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>1.9</v>
       </c>
-      <c r="T87">
-        <v>3</v>
-      </c>
-      <c r="U87">
-        <v>1.975</v>
-      </c>
-      <c r="V87">
-        <v>1.825</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
+        <v>-0</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB87">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6832083</v>
+        <v>6832884</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
         <v>50</v>
       </c>
       <c r="K88">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N88">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,10 +8383,10 @@
         <v>45207.22916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8395,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K89">
         <v>2.3</v>
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832891</v>
+        <v>6832888</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N90">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P90">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832888</v>
+        <v>6832890</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,76 +8561,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M91">
         <v>4.75</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O91">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6832890</v>
+        <v>6832891</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,76 +8650,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92" t="s">
+        <v>50</v>
+      </c>
+      <c r="K92">
+        <v>2.15</v>
+      </c>
+      <c r="L92">
+        <v>3.5</v>
+      </c>
+      <c r="M92">
+        <v>2.9</v>
+      </c>
+      <c r="N92">
+        <v>2.6</v>
+      </c>
+      <c r="O92">
+        <v>3.6</v>
+      </c>
+      <c r="P92">
+        <v>2.55</v>
+      </c>
+      <c r="Q92">
         <v>0</v>
       </c>
-      <c r="J92" t="s">
-        <v>49</v>
-      </c>
-      <c r="K92">
-        <v>1.6</v>
-      </c>
-      <c r="L92">
-        <v>3.8</v>
-      </c>
-      <c r="M92">
-        <v>4.75</v>
-      </c>
-      <c r="N92">
-        <v>1.65</v>
-      </c>
-      <c r="O92">
-        <v>4</v>
-      </c>
-      <c r="P92">
-        <v>5</v>
-      </c>
-      <c r="Q92">
-        <v>-0.75</v>
-      </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC92">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8739,7 +8739,7 @@
         <v>45219.64583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>40</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832887</v>
+        <v>6831801</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,76 +8828,76 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>49</v>
       </c>
       <c r="K94">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
+        <v>1.825</v>
+      </c>
+      <c r="S94">
+        <v>1.975</v>
+      </c>
+      <c r="T94">
+        <v>2.5</v>
+      </c>
+      <c r="U94">
         <v>1.9</v>
       </c>
-      <c r="S94">
+      <c r="V94">
         <v>1.9</v>
       </c>
-      <c r="T94">
-        <v>3.5</v>
-      </c>
-      <c r="U94">
-        <v>1.95</v>
-      </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X94">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6832085</v>
+        <v>6832887</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,40 +8917,40 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N95">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P95">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8959,34 +8959,34 @@
         <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6831801</v>
+        <v>6832085</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,58 +9006,58 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H96">
         <v>3</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L96">
         <v>3.4</v>
       </c>
       <c r="M96">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N96">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
+        <v>1.9</v>
+      </c>
+      <c r="S96">
+        <v>1.9</v>
+      </c>
+      <c r="T96">
+        <v>2.75</v>
+      </c>
+      <c r="U96">
+        <v>1.975</v>
+      </c>
+      <c r="V96">
         <v>1.825</v>
       </c>
-      <c r="S96">
-        <v>1.975</v>
-      </c>
-      <c r="T96">
-        <v>2.5</v>
-      </c>
-      <c r="U96">
-        <v>1.9</v>
-      </c>
-      <c r="V96">
-        <v>1.9</v>
-      </c>
       <c r="W96">
-        <v>0.833</v>
+        <v>1.2</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9066,13 +9066,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9095,10 +9095,10 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832892</v>
+        <v>6832086</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="L98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P98">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6832895</v>
+        <v>6831802</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K99">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N99">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6832086</v>
+        <v>6832892</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,13 +9362,13 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9377,61 +9377,61 @@
         <v>50</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
+        <v>1.7</v>
+      </c>
+      <c r="N100">
+        <v>5.25</v>
+      </c>
+      <c r="O100">
+        <v>3.8</v>
+      </c>
+      <c r="P100">
+        <v>1.65</v>
+      </c>
+      <c r="Q100">
+        <v>0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.975</v>
+      </c>
+      <c r="S100">
+        <v>1.825</v>
+      </c>
+      <c r="T100">
         <v>2.75</v>
       </c>
-      <c r="N100">
-        <v>2.375</v>
-      </c>
-      <c r="O100">
-        <v>3.25</v>
-      </c>
-      <c r="P100">
-        <v>3.1</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>2.025</v>
-      </c>
-      <c r="S100">
-        <v>1.775</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6831802</v>
+        <v>6832895</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,76 +9451,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>49</v>
       </c>
       <c r="K101">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M101">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S101">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
+        <v>1.75</v>
+      </c>
+      <c r="V101">
         <v>1.95</v>
       </c>
-      <c r="V101">
-        <v>1.85</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X101">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9552,7 +9552,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K102">
         <v>4.2</v>
@@ -9641,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K103">
         <v>1.909</v>
@@ -9718,10 +9718,10 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>2.15</v>
@@ -9810,7 +9810,7 @@
         <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K105">
         <v>2.2</v>
@@ -9908,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>1.55</v>
@@ -9985,10 +9985,10 @@
         <v>45233.6875</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10074,10 +10074,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
         <v>1.4</v>
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7404273</v>
+        <v>7404272</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10166,46 +10166,46 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K109">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M109">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N109">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
         <v>1.825</v>
@@ -10217,22 +10217,22 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA109">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10240,7 +10240,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7404272</v>
+        <v>7404273</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10252,49 +10252,49 @@
         <v>45234.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K110">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N110">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P110">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
         <v>1.825</v>
@@ -10306,22 +10306,22 @@
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC110">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10344,7 +10344,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K111">
         <v>2.2</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>1.571</v>
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6832905</v>
+        <v>6832907</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,58 +10519,58 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M113">
         <v>4.2</v>
       </c>
       <c r="N113">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O113">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q113">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>0.3999999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,16 +10579,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832907</v>
+        <v>6832905</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,58 +10608,58 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K114">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
         <v>4.2</v>
       </c>
       <c r="N114">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P114">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T114">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>0.615</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,16 +10668,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB114">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10700,7 +10700,7 @@
         <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10709,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>1.909</v>
@@ -10786,10 +10786,10 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" t="s">
         <v>33</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10798,7 +10798,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -10878,7 +10878,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10887,7 +10887,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117">
         <v>3</v>
@@ -10964,10 +10964,10 @@
         <v>45241.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>6</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>1.666</v>
@@ -11065,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11142,10 +11142,10 @@
         <v>45242.35416666666</v>
       </c>
       <c r="F120" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" t="s">
         <v>31</v>
-      </c>
-      <c r="G120" t="s">
-        <v>36</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K120">
         <v>2.05</v>
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11320,7 +11320,7 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>45</v>
@@ -11332,7 +11332,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11409,7 +11409,7 @@
         <v>45254.6875</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11421,7 +11421,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K123">
         <v>4.5</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6832911</v>
+        <v>6832908</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,55 +11498,55 @@
         <v>45255.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124" t="s">
+        <v>50</v>
+      </c>
+      <c r="K124">
+        <v>2.2</v>
+      </c>
+      <c r="L124">
+        <v>3.6</v>
+      </c>
+      <c r="M124">
+        <v>2.75</v>
+      </c>
+      <c r="N124">
+        <v>2.375</v>
+      </c>
+      <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
+        <v>2.7</v>
+      </c>
+      <c r="Q124">
         <v>0</v>
       </c>
-      <c r="I124">
-        <v>2</v>
-      </c>
-      <c r="J124" t="s">
-        <v>51</v>
-      </c>
-      <c r="K124">
-        <v>5.75</v>
-      </c>
-      <c r="L124">
-        <v>4.5</v>
-      </c>
-      <c r="M124">
-        <v>1.444</v>
-      </c>
-      <c r="N124">
-        <v>7.5</v>
-      </c>
-      <c r="O124">
-        <v>5.25</v>
-      </c>
-      <c r="P124">
-        <v>1.363</v>
-      </c>
-      <c r="Q124">
-        <v>1.5</v>
-      </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
         <v>3</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11555,19 +11555,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6832908</v>
+        <v>6832911</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,55 +11587,55 @@
         <v>45255.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P125">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
         <v>3</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11644,19 +11644,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11676,7 +11676,7 @@
         <v>45255.4375</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>37</v>
@@ -11688,7 +11688,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11768,7 +11768,7 @@
         <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K127">
         <v>3.75</v>
@@ -11854,10 +11854,10 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11866,7 +11866,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K128">
         <v>2.875</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6832917</v>
+        <v>6831806</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,73 +11943,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
         <v>50</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N129">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O129">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q129">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6831806</v>
+        <v>6832914</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,55 +12032,55 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M130">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
         <v>1.85</v>
-      </c>
-      <c r="S130">
-        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12089,16 +12089,16 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>2.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB130">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6832914</v>
+        <v>6832917</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,73 +12121,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>49</v>
+      </c>
+      <c r="K131">
+        <v>1.4</v>
+      </c>
+      <c r="L131">
+        <v>4.2</v>
+      </c>
+      <c r="M131">
+        <v>7.5</v>
+      </c>
+      <c r="N131">
+        <v>1.2</v>
+      </c>
+      <c r="O131">
+        <v>7</v>
+      </c>
+      <c r="P131">
+        <v>13</v>
+      </c>
+      <c r="Q131">
+        <v>-2</v>
+      </c>
+      <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
+        <v>2</v>
+      </c>
+      <c r="T131">
+        <v>3.5</v>
+      </c>
+      <c r="U131">
+        <v>1.875</v>
+      </c>
+      <c r="V131">
+        <v>1.925</v>
+      </c>
+      <c r="W131">
+        <v>0.2</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
         <v>0</v>
       </c>
-      <c r="I131">
-        <v>4</v>
-      </c>
-      <c r="J131" t="s">
-        <v>51</v>
-      </c>
-      <c r="K131">
-        <v>2.15</v>
-      </c>
-      <c r="L131">
-        <v>3.25</v>
-      </c>
-      <c r="M131">
-        <v>3.1</v>
-      </c>
-      <c r="N131">
-        <v>2.7</v>
-      </c>
-      <c r="O131">
-        <v>3.4</v>
-      </c>
-      <c r="P131">
-        <v>2.625</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>1.95</v>
-      </c>
-      <c r="S131">
-        <v>1.85</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.9</v>
-      </c>
-      <c r="V131">
-        <v>1.9</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>1.625</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
       <c r="AA131">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12222,7 +12222,7 @@
         <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K132">
         <v>5.25</v>
@@ -12302,7 +12302,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12311,7 +12311,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K133">
         <v>3.2</v>
@@ -12400,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7582036</v>
+        <v>7582491</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,10 +12477,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12489,64 +12489,64 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K135">
+        <v>1.909</v>
+      </c>
+      <c r="L135">
         <v>3.5</v>
       </c>
-      <c r="L135">
+      <c r="M135">
+        <v>3.5</v>
+      </c>
+      <c r="N135">
+        <v>2.05</v>
+      </c>
+      <c r="O135">
         <v>3.6</v>
       </c>
-      <c r="M135">
-        <v>1.909</v>
-      </c>
-      <c r="N135">
-        <v>4.333</v>
-      </c>
-      <c r="O135">
-        <v>3.8</v>
-      </c>
       <c r="P135">
+        <v>3.75</v>
+      </c>
+      <c r="Q135">
+        <v>-0.5</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
         <v>1.8</v>
       </c>
-      <c r="Q135">
-        <v>0.75</v>
-      </c>
-      <c r="R135">
-        <v>1.825</v>
-      </c>
-      <c r="S135">
-        <v>1.975</v>
-      </c>
       <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.85</v>
+      </c>
+      <c r="V135">
+        <v>1.95</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
         <v>2.75</v>
       </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
         <v>0.8</v>
       </c>
-      <c r="Z135">
-        <v>-0.5</v>
-      </c>
-      <c r="AA135">
-        <v>0.4875</v>
-      </c>
       <c r="AB135">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>45339.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>40</v>
@@ -12578,7 +12578,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K136">
         <v>5.5</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7582491</v>
+        <v>7582036</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,10 +12655,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12667,64 +12667,64 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K137">
+        <v>3.5</v>
+      </c>
+      <c r="L137">
+        <v>3.6</v>
+      </c>
+      <c r="M137">
         <v>1.909</v>
       </c>
-      <c r="L137">
-        <v>3.5</v>
-      </c>
-      <c r="M137">
-        <v>3.5</v>
-      </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P137">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q137">
+        <v>0.75</v>
+      </c>
+      <c r="R137">
+        <v>1.825</v>
+      </c>
+      <c r="S137">
+        <v>1.975</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>1.825</v>
+      </c>
+      <c r="V137">
+        <v>1.975</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>0.8</v>
+      </c>
+      <c r="Z137">
         <v>-0.5</v>
       </c>
-      <c r="R137">
-        <v>2</v>
-      </c>
-      <c r="S137">
-        <v>1.8</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.85</v>
-      </c>
-      <c r="V137">
-        <v>1.95</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>2.75</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
-      </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
         <v>45</v>
@@ -12756,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K138">
         <v>1.85</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6832096</v>
+        <v>6831807</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L139">
         <v>3.6</v>
       </c>
       <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>1.7</v>
+      </c>
+      <c r="O139">
         <v>3.75</v>
       </c>
-      <c r="N139">
+      <c r="P139">
+        <v>5</v>
+      </c>
+      <c r="Q139">
+        <v>-0.75</v>
+      </c>
+      <c r="R139">
+        <v>1.9</v>
+      </c>
+      <c r="S139">
+        <v>1.9</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
         <v>1.8</v>
       </c>
-      <c r="O139">
-        <v>4</v>
-      </c>
-      <c r="P139">
-        <v>4</v>
-      </c>
-      <c r="Q139">
-        <v>-0.5</v>
-      </c>
-      <c r="R139">
-        <v>1.8</v>
-      </c>
-      <c r="S139">
+      <c r="V139">
         <v>2</v>
       </c>
-      <c r="T139">
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
         <v>2.75</v>
       </c>
-      <c r="U139">
-        <v>1.975</v>
-      </c>
-      <c r="V139">
-        <v>1.825</v>
-      </c>
-      <c r="W139">
-        <v>0.8</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6831807</v>
+        <v>6832096</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,13 +12922,13 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -12937,61 +12937,61 @@
         <v>49</v>
       </c>
       <c r="K140">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L140">
         <v>3.6</v>
       </c>
       <c r="M140">
+        <v>3.75</v>
+      </c>
+      <c r="N140">
+        <v>1.8</v>
+      </c>
+      <c r="O140">
         <v>4</v>
       </c>
-      <c r="N140">
-        <v>1.7</v>
-      </c>
-      <c r="O140">
-        <v>3.75</v>
-      </c>
       <c r="P140">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X140">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,10 +13011,10 @@
         <v>45345.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K141">
         <v>4.75</v>
@@ -13088,7 +13088,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6832918</v>
+        <v>6832920</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13100,76 +13100,76 @@
         <v>45346.4375</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="L142">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O142">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
         <v>3</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6832920</v>
+        <v>6832918</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,76 +13189,76 @@
         <v>45346.4375</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>49</v>
       </c>
       <c r="K143">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M143">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="N143">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P143">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="Q143">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>3</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X143">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13281,7 +13281,7 @@
         <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13290,7 +13290,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K144">
         <v>1.909</v>
@@ -13367,7 +13367,7 @@
         <v>45347.27083333334</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
         <v>44</v>
@@ -13379,7 +13379,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2.9</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6832097</v>
+        <v>6832926</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,40 +13456,49 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="H146">
+        <v>5</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M146">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="N146">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P146">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q146">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U146">
         <v>1.95</v>
@@ -13498,19 +13507,25 @@
         <v>1.85</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB146">
+        <v>0.95</v>
+      </c>
+      <c r="AC146">
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13518,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6832926</v>
+        <v>6832929</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13530,61 +13545,76 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L147">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M147">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N147">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O147">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P147">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q147">
         <v>-1.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13592,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6832929</v>
+        <v>6832097</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13604,61 +13634,76 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>50</v>
       </c>
       <c r="K148">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="L148">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13681,7 +13726,16 @@
         <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149" t="s">
+        <v>51</v>
       </c>
       <c r="K149">
         <v>1.6</v>
@@ -13696,7 +13750,7 @@
         <v>1.7</v>
       </c>
       <c r="O149">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
         <v>5.25</v>
@@ -13705,34 +13759,40 @@
         <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V149">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB149">
+        <v>0.8</v>
+      </c>
+      <c r="AC149">
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13740,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6832924</v>
+        <v>6832925</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13752,37 +13812,37 @@
         <v>45353.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K150">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="L150">
         <v>3.75</v>
       </c>
       <c r="M150">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="N150">
+        <v>2.75</v>
+      </c>
+      <c r="O150">
         <v>3.8</v>
       </c>
-      <c r="O150">
-        <v>3.75</v>
-      </c>
       <c r="P150">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q150">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
         <v>2.75</v>
@@ -13814,7 +13874,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6832925</v>
+        <v>6832924</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13826,37 +13886,37 @@
         <v>45353.4375</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K151">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L151">
         <v>3.75</v>
       </c>
       <c r="M151">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="N151">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O151">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T151">
         <v>2.75</v>
@@ -13900,7 +13960,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
         <v>37</v>
@@ -13927,10 +13987,10 @@
         <v>0</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
         <v>2.25</v>
@@ -13977,7 +14037,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K153">
         <v>2.7</v>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -106,37 +106,37 @@
     <t>FC Blau Weiss Linz</t>
   </si>
   <si>
-    <t>First Vienna FC 1894</t>
+    <t>SKU Amstetten</t>
   </si>
   <si>
     <t>SV Kapfenberg</t>
   </si>
   <si>
-    <t>FC Liefering</t>
+    <t>St Polten</t>
   </si>
   <si>
     <t>FC Flyeralarm Admira</t>
   </si>
   <si>
-    <t>St Polten</t>
-  </si>
-  <si>
-    <t>SKU Amstetten</t>
+    <t>First Vienna FC 1894</t>
   </si>
   <si>
     <t>FC Dornbirn 1913</t>
   </si>
   <si>
-    <t>SW Bregenz</t>
-  </si>
-  <si>
-    <t>SV Lafnitz</t>
+    <t>FC Liefering</t>
   </si>
   <si>
     <t>Leoben DSV</t>
   </si>
   <si>
     <t>Grazer AK</t>
+  </si>
+  <si>
+    <t>SV Lafnitz</t>
+  </si>
+  <si>
+    <t>SW Bregenz</t>
   </si>
   <si>
     <t>Floridsdorfer AC</t>
@@ -154,22 +154,22 @@
     <t>SV Horn</t>
   </si>
   <si>
-    <t>FK Austria Vienna II</t>
+    <t>Rapid Vienna II</t>
   </si>
   <si>
     <t>SK Vorwrts Steyr</t>
   </si>
   <si>
-    <t>Rapid Vienna II</t>
+    <t>FK Austria Vienna II</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5208063</v>
+        <v>5208061</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,10 +732,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -744,25 +744,25 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="N3">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P3">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R3">
         <v>1.95</v>
@@ -771,22 +771,22 @@
         <v>1.85</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y3">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
@@ -795,10 +795,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -830,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <v>3.1</v>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208060</v>
+        <v>5227634</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -913,7 +913,7 @@
         <v>46</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>4.75</v>
       </c>
       <c r="N5">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O5">
         <v>4.75</v>
@@ -943,22 +943,22 @@
         <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
+        <v>1.975</v>
+      </c>
+      <c r="V5">
         <v>1.825</v>
       </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
       <c r="W5">
-        <v>0.6000000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -967,16 +967,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.825</v>
-      </c>
-      <c r="AC5">
-        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5227634</v>
+        <v>5208063</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,73 +1088,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="L7">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O7">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
         <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5208061</v>
+        <v>5208062</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,52 +1177,52 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M8">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="N8">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="O8">
         <v>4.75</v>
       </c>
       <c r="P8">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
+        <v>1.875</v>
+      </c>
+      <c r="V8">
         <v>1.925</v>
-      </c>
-      <c r="V8">
-        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1234,16 +1234,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.925</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5208062</v>
+        <v>5208060</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="L9">
+        <v>4.333</v>
+      </c>
+      <c r="M9">
         <v>4.75</v>
       </c>
-      <c r="M9">
-        <v>1.4</v>
-      </c>
       <c r="N9">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="O9">
         <v>4.75</v>
       </c>
       <c r="P9">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
+        <v>1.9</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>3.75</v>
+      </c>
+      <c r="U9">
         <v>1.825</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>1.975</v>
       </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.925</v>
-      </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X9">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
         <v>0.825</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
       <c r="AC9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832066</v>
+        <v>6832067</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,55 +1355,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>2</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>49</v>
       </c>
       <c r="K10">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O10">
+        <v>3.8</v>
+      </c>
+      <c r="P10">
         <v>3.6</v>
       </c>
-      <c r="P10">
-        <v>2.2</v>
-      </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1412,16 +1412,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6831794</v>
+        <v>6832835</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1441,76 +1441,76 @@
         <v>45135.53125</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
+        <v>1.55</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
         <v>1.7</v>
       </c>
-      <c r="L11">
-        <v>3.75</v>
-      </c>
-      <c r="M11">
-        <v>4.2</v>
-      </c>
-      <c r="N11">
-        <v>1.833</v>
-      </c>
       <c r="O11">
+        <v>4.333</v>
+      </c>
+      <c r="P11">
         <v>4</v>
-      </c>
-      <c r="P11">
-        <v>3.8</v>
       </c>
       <c r="Q11">
         <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
+        <v>3.25</v>
+      </c>
+      <c r="U11">
+        <v>1.95</v>
+      </c>
+      <c r="V11">
+        <v>1.85</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
         <v>3</v>
       </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>1.8</v>
-      </c>
-      <c r="W11">
-        <v>0.833</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
       <c r="Z11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832067</v>
+        <v>6832839</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,58 +1530,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N12">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1590,16 +1590,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6832839</v>
+        <v>6832836</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,13 +1619,13 @@
         <v>45135.53125</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1634,43 +1634,43 @@
         <v>49</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M13">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>1.375</v>
+        <v>0.615</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1679,16 +1679,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC13">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6832836</v>
+        <v>6831794</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,10 +1708,10 @@
         <v>45135.53125</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1723,43 +1723,43 @@
         <v>49</v>
       </c>
       <c r="K14">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L14">
+        <v>3.75</v>
+      </c>
+      <c r="M14">
         <v>4.2</v>
       </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
       <c r="N14">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
         <v>1.8</v>
       </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
       <c r="W14">
-        <v>0.615</v>
+        <v>0.833</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1768,16 +1768,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6832835</v>
+        <v>6832066</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,40 +1797,40 @@
         <v>45135.53125</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
         <v>1.875</v>
@@ -1839,34 +1839,34 @@
         <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>3.5</v>
@@ -1978,7 +1978,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1987,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17">
         <v>4.2</v>
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832842</v>
+        <v>6832840</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,76 +2064,76 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M18">
+        <v>1.7</v>
+      </c>
+      <c r="N18">
+        <v>4.75</v>
+      </c>
+      <c r="O18">
         <v>4.333</v>
       </c>
-      <c r="N18">
-        <v>1.727</v>
-      </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R18">
+        <v>2.05</v>
+      </c>
+      <c r="S18">
+        <v>1.75</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
         <v>1.95</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.85</v>
       </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6831795</v>
+        <v>6832069</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,40 +2153,40 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>51</v>
       </c>
       <c r="K19">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
         <v>3.5</v>
       </c>
       <c r="M19">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>1.875</v>
@@ -2195,34 +2195,34 @@
         <v>1.925</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832069</v>
+        <v>6832842</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,76 +2242,76 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20">
+        <v>1.727</v>
+      </c>
+      <c r="L20">
+        <v>3.6</v>
+      </c>
+      <c r="M20">
+        <v>4.333</v>
+      </c>
+      <c r="N20">
+        <v>1.727</v>
+      </c>
+      <c r="O20">
         <v>4</v>
       </c>
-      <c r="J20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20">
-        <v>2.3</v>
-      </c>
-      <c r="L20">
-        <v>3.5</v>
-      </c>
-      <c r="M20">
-        <v>2.75</v>
-      </c>
-      <c r="N20">
-        <v>2.5</v>
-      </c>
-      <c r="O20">
-        <v>3.75</v>
-      </c>
       <c r="P20">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832840</v>
+        <v>6831795</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,13 +2331,13 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2346,61 +2346,61 @@
         <v>50</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="N21">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="Q21">
         <v>0.75</v>
       </c>
       <c r="R21">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
+        <v>1.825</v>
+      </c>
+      <c r="V21">
+        <v>1.975</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.85</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2432,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>1.571</v>
@@ -2509,10 +2509,10 @@
         <v>45143.625</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2598,7 +2598,7 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>2.4</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832849</v>
+        <v>6832850</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,10 +2687,10 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2702,43 +2702,43 @@
         <v>49</v>
       </c>
       <c r="K25">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O25">
         <v>3.6</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>0.909</v>
+        <v>2.3</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2747,7 +2747,7 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2756,7 +2756,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832850</v>
+        <v>6832849</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,10 +2776,10 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2791,43 +2791,43 @@
         <v>49</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N26">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
         <v>3.6</v>
       </c>
       <c r="P26">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>2.3</v>
+        <v>0.909</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2836,7 +2836,7 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2845,7 +2845,7 @@
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2865,10 +2865,10 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27">
         <v>1.8</v>
@@ -2954,10 +2954,10 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3043,7 +3043,7 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
         <v>2.1</v>
@@ -3132,10 +3132,10 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832845</v>
+        <v>6832070</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N31">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X31">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6832070</v>
+        <v>6832845</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N32">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3399,7 +3399,7 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>43</v>
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6832854</v>
+        <v>6832072</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,49 +3488,49 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>49</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
         <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U34">
         <v>1.925</v>
@@ -3539,7 +3539,7 @@
         <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3548,16 +3548,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6832071</v>
+        <v>6832852</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,10 +3577,10 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3592,43 +3592,43 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N35">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O35">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3646,7 +3646,7 @@
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6832072</v>
+        <v>6832071</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,7 +3666,7 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3675,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>49</v>
@@ -3684,58 +3684,58 @@
         <v>1.727</v>
       </c>
       <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
         <v>3.75</v>
       </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
       <c r="N36">
+        <v>2.15</v>
+      </c>
+      <c r="O36">
+        <v>3.75</v>
+      </c>
+      <c r="P36">
+        <v>3.1</v>
+      </c>
+      <c r="Q36">
+        <v>-0.25</v>
+      </c>
+      <c r="R36">
         <v>1.8</v>
       </c>
-      <c r="O36">
-        <v>3.8</v>
-      </c>
-      <c r="P36">
-        <v>4.2</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.75</v>
-      </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
+        <v>1.15</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
         <v>0.8</v>
       </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0.75</v>
-      </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6832852</v>
+        <v>6832854</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,13 +3755,13 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3770,43 +3770,43 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>3.4</v>
+      </c>
+      <c r="P37">
+        <v>3.8</v>
+      </c>
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.975</v>
+      </c>
+      <c r="S37">
+        <v>1.825</v>
+      </c>
+      <c r="T37">
         <v>2.5</v>
       </c>
-      <c r="O37">
-        <v>3.6</v>
-      </c>
-      <c r="P37">
-        <v>2.55</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
+      <c r="U37">
+        <v>1.925</v>
+      </c>
+      <c r="V37">
         <v>1.875</v>
       </c>
-      <c r="S37">
-        <v>1.925</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>1.8</v>
-      </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3815,16 +3815,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>45156.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -3933,7 +3933,7 @@
         <v>45157.39583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -4025,7 +4025,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4114,7 +4114,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832859</v>
+        <v>6832860</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,76 +4200,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42">
+        <v>2.625</v>
+      </c>
+      <c r="L42">
+        <v>3.5</v>
+      </c>
+      <c r="M42">
         <v>2.25</v>
       </c>
-      <c r="L42">
-        <v>3.4</v>
-      </c>
-      <c r="M42">
-        <v>2.7</v>
-      </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="O42">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q42">
+        <v>0.25</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>1.8</v>
+      </c>
+      <c r="T42">
+        <v>2.75</v>
+      </c>
+      <c r="U42">
+        <v>1.925</v>
+      </c>
+      <c r="V42">
+        <v>1.875</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>2.75</v>
+      </c>
+      <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
+        <v>0.5</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="R42">
-        <v>1.925</v>
-      </c>
-      <c r="S42">
-        <v>1.875</v>
-      </c>
-      <c r="T42">
-        <v>3</v>
-      </c>
-      <c r="U42">
-        <v>1.95</v>
-      </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
-      <c r="W42">
-        <v>0.95</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>-1</v>
-      </c>
-      <c r="Z42">
-        <v>0.925</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6832073</v>
+        <v>6832859</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,34 +4289,34 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
         <v>3.6</v>
@@ -4331,34 +4331,34 @@
         <v>1.875</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6832860</v>
+        <v>6832858</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,76 +4467,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6832858</v>
+        <v>6832073</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,76 +4556,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K46">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L46">
         <v>3.6</v>
       </c>
       <c r="M46">
+        <v>3.75</v>
+      </c>
+      <c r="N46">
+        <v>1.909</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
         <v>3.6</v>
-      </c>
-      <c r="N46">
-        <v>1.8</v>
-      </c>
-      <c r="O46">
-        <v>3.8</v>
-      </c>
-      <c r="P46">
-        <v>4.2</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4645,10 +4645,10 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47">
         <v>2.25</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48">
         <v>1.85</v>
@@ -4823,10 +4823,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
         <v>38</v>
-      </c>
-      <c r="G49" t="s">
-        <v>40</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50">
         <v>1.727</v>
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6832861</v>
+        <v>6832864</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,49 +5001,49 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K51">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="N51">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P51">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
         <v>1.95</v>
@@ -5052,25 +5052,25 @@
         <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6832864</v>
+        <v>6832861</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,49 +5090,49 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="L52">
+        <v>3.8</v>
+      </c>
+      <c r="M52">
+        <v>3.6</v>
+      </c>
+      <c r="N52">
+        <v>1.833</v>
+      </c>
+      <c r="O52">
+        <v>3.8</v>
+      </c>
+      <c r="P52">
         <v>4.2</v>
       </c>
-      <c r="M52">
-        <v>1.7</v>
-      </c>
-      <c r="N52">
-        <v>6</v>
-      </c>
-      <c r="O52">
-        <v>5</v>
-      </c>
-      <c r="P52">
-        <v>1.5</v>
-      </c>
       <c r="Q52">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
         <v>1.95</v>
@@ -5141,25 +5141,25 @@
         <v>1.85</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>43</v>
@@ -5268,7 +5268,7 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6832862</v>
+        <v>6832075</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,58 +5357,58 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>49</v>
       </c>
       <c r="K55">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O55">
         <v>3.6</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5417,13 +5417,13 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.4375</v>
+        <v>0.425</v>
       </c>
       <c r="AC55">
         <v>-0.5</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6832075</v>
+        <v>6832862</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,58 +5446,58 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>49</v>
       </c>
       <c r="K56">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N56">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O56">
         <v>3.6</v>
       </c>
       <c r="P56">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5506,13 +5506,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.425</v>
+        <v>0.4375</v>
       </c>
       <c r="AC56">
         <v>-0.5</v>
@@ -5538,7 +5538,7 @@
         <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6832869</v>
+        <v>6832871</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,73 +5627,73 @@
         <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L58">
         <v>3.5</v>
       </c>
       <c r="M58">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832867</v>
+        <v>6832868</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,76 +5713,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="N59">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6832871</v>
+        <v>6832869</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,76 +5802,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L60">
         <v>3.5</v>
       </c>
       <c r="M60">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N60">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6832868</v>
+        <v>6832867</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,76 +5980,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6069,10 +6069,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63">
         <v>3.75</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6831798</v>
+        <v>6832077</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,76 +6158,76 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>2</v>
       </c>
-      <c r="I64">
+      <c r="J64" t="s">
+        <v>51</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>3.5</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>2.4</v>
+      </c>
+      <c r="O64">
+        <v>3.6</v>
+      </c>
+      <c r="P64">
+        <v>2.7</v>
+      </c>
+      <c r="Q64">
         <v>0</v>
       </c>
-      <c r="J64" t="s">
-        <v>49</v>
-      </c>
-      <c r="K64">
-        <v>1.571</v>
-      </c>
-      <c r="L64">
-        <v>4</v>
-      </c>
-      <c r="M64">
-        <v>4.333</v>
-      </c>
-      <c r="N64">
-        <v>1.5</v>
-      </c>
-      <c r="O64">
-        <v>4.333</v>
-      </c>
-      <c r="P64">
-        <v>6.5</v>
-      </c>
-      <c r="Q64">
-        <v>-1</v>
-      </c>
       <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>3</v>
+      </c>
+      <c r="U64">
+        <v>1.975</v>
+      </c>
+      <c r="V64">
         <v>1.825</v>
       </c>
-      <c r="S64">
-        <v>1.975</v>
-      </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
-      <c r="U64">
-        <v>1.825</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
       <c r="W64">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.825</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
-      <c r="AC64">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6832077</v>
+        <v>6831798</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,76 +6247,76 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>0</v>
       </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N65">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P65">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
+        <v>1.825</v>
+      </c>
+      <c r="V65">
         <v>1.975</v>
       </c>
-      <c r="V65">
-        <v>1.825</v>
-      </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832078</v>
+        <v>6834056</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,40 +6336,40 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N66">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
         <v>1.8</v>
@@ -6378,13 +6378,13 @@
         <v>2</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6393,7 +6393,7 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.375</v>
+        <v>3.333</v>
       </c>
       <c r="Z66">
         <v>-1</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832876</v>
+        <v>6832078</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,55 +6425,55 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K67">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,19 +6482,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6834056</v>
+        <v>6832876</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,55 +6514,55 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>2</v>
       </c>
-      <c r="I68">
+      <c r="J68" t="s">
+        <v>51</v>
+      </c>
+      <c r="K68">
+        <v>2.7</v>
+      </c>
+      <c r="L68">
+        <v>3.5</v>
+      </c>
+      <c r="M68">
+        <v>2.3</v>
+      </c>
+      <c r="N68">
         <v>3</v>
-      </c>
-      <c r="J68" t="s">
-        <v>50</v>
-      </c>
-      <c r="K68">
-        <v>1.909</v>
-      </c>
-      <c r="L68">
-        <v>3.6</v>
-      </c>
-      <c r="M68">
-        <v>3.4</v>
-      </c>
-      <c r="N68">
-        <v>1.8</v>
       </c>
       <c r="O68">
         <v>3.75</v>
       </c>
       <c r="P68">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,19 +6571,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>3.333</v>
+        <v>1.2</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6606,7 +6606,7 @@
         <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6692,10 +6692,10 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6781,10 +6781,10 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6870,7 +6870,7 @@
         <v>45192.625</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
         <v>44</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6832080</v>
+        <v>6832881</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,40 +7048,40 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>51</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L74">
         <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N74">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
         <v>1.975</v>
@@ -7093,28 +7093,28 @@
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6832881</v>
+        <v>6832080</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7140,37 +7140,37 @@
         <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>50</v>
       </c>
       <c r="K75">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
         <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P75">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
         <v>1.975</v>
@@ -7182,28 +7182,28 @@
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y75">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7315,10 +7315,10 @@
         <v>45198.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K77">
         <v>2.15</v>
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7262602</v>
+        <v>6832081</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,76 +7404,76 @@
         <v>45199.39583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>51</v>
       </c>
       <c r="K78">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
         <v>3.75</v>
       </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N78">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O78">
         <v>3.75</v>
       </c>
       <c r="P78">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z78">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6832081</v>
+        <v>7262602</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45199.39583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>50</v>
       </c>
       <c r="K79">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="L79">
         <v>3.75</v>
       </c>
       <c r="M79">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N79">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O79">
         <v>3.75</v>
       </c>
       <c r="P79">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y79">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA79">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7582,10 +7582,10 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7594,7 +7594,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7674,7 +7674,7 @@
         <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832886</v>
+        <v>6832885</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,73 +7760,73 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L82">
         <v>3.6</v>
       </c>
       <c r="M82">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N82">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6831800</v>
+        <v>6832082</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>50</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
+        <v>2.75</v>
+      </c>
+      <c r="N83">
+        <v>2.05</v>
+      </c>
+      <c r="O83">
+        <v>3.75</v>
+      </c>
+      <c r="P83">
         <v>3.4</v>
       </c>
-      <c r="N83">
-        <v>2.45</v>
-      </c>
-      <c r="O83">
-        <v>3.4</v>
-      </c>
-      <c r="P83">
-        <v>2.8</v>
-      </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
         <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>1.975</v>
+      </c>
+      <c r="V83">
+        <v>1.825</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
         <v>2.75</v>
       </c>
-      <c r="U83">
-        <v>1.85</v>
-      </c>
-      <c r="V83">
-        <v>1.95</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
       <c r="Y83">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832082</v>
+        <v>6831800</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>51</v>
       </c>
       <c r="K84">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
+        <v>3.6</v>
+      </c>
+      <c r="M84">
         <v>3.4</v>
       </c>
-      <c r="M84">
-        <v>2.75</v>
-      </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
         <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6832885</v>
+        <v>6832886</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,73 +8027,73 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85" t="s">
+        <v>51</v>
+      </c>
+      <c r="K85">
         <v>4</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85" t="s">
-        <v>49</v>
-      </c>
-      <c r="K85">
-        <v>3.8</v>
       </c>
       <c r="L85">
         <v>3.6</v>
       </c>
       <c r="M85">
+        <v>1.75</v>
+      </c>
+      <c r="N85">
+        <v>6</v>
+      </c>
+      <c r="O85">
+        <v>4.2</v>
+      </c>
+      <c r="P85">
+        <v>1.533</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
         <v>1.8</v>
       </c>
-      <c r="N85">
-        <v>3.75</v>
-      </c>
-      <c r="O85">
-        <v>3.6</v>
-      </c>
-      <c r="P85">
+      <c r="T85">
+        <v>3</v>
+      </c>
+      <c r="U85">
         <v>1.95</v>
       </c>
-      <c r="Q85">
-        <v>0.5</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.9</v>
-      </c>
-      <c r="T85">
-        <v>2.75</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8116,7 +8116,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8128,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K86">
         <v>2.7</v>
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6832083</v>
+        <v>6832884</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,76 +8205,76 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K87">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N87">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6832884</v>
+        <v>6832083</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
         <v>1.9</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>1.9</v>
       </c>
-      <c r="T88">
-        <v>3</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
-      <c r="V88">
-        <v>1.825</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
+        <v>-0</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB88">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>45207.22916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8395,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K89">
         <v>2.3</v>
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832888</v>
+        <v>6832891</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K90">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="N90">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="O90">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z90">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832890</v>
+        <v>6832888</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,76 +8561,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
         <v>4.75</v>
       </c>
       <c r="N91">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6832891</v>
+        <v>6832890</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,76 +8650,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>50</v>
       </c>
       <c r="K92">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M92">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N92">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
+        <v>1.85</v>
+      </c>
+      <c r="V92">
+        <v>1.95</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
         <v>3</v>
       </c>
-      <c r="U92">
-        <v>1.9</v>
-      </c>
-      <c r="V92">
-        <v>1.9</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
       <c r="Y92">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8742,7 +8742,7 @@
         <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -8831,7 +8831,7 @@
         <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6832887</v>
+        <v>6832085</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,40 +8917,40 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
+        <v>2.875</v>
+      </c>
+      <c r="N95">
         <v>2.2</v>
       </c>
-      <c r="N95">
-        <v>3</v>
-      </c>
       <c r="O95">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8959,34 +8959,34 @@
         <v>1.9</v>
       </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X95">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6832085</v>
+        <v>6832887</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,40 +9006,40 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K96">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
         <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N96">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
         <v>1.9</v>
@@ -9048,34 +9048,34 @@
         <v>1.9</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9095,10 +9095,10 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9184,7 +9184,7 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -9273,7 +9273,7 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>31</v>
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K99">
         <v>2.4</v>
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6832892</v>
+        <v>6832895</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,76 +9362,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K100">
+        <v>1.7</v>
+      </c>
+      <c r="L100">
+        <v>3.8</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100">
+        <v>1.727</v>
+      </c>
+      <c r="O100">
         <v>4.2</v>
       </c>
-      <c r="L100">
-        <v>3.6</v>
-      </c>
-      <c r="M100">
-        <v>1.7</v>
-      </c>
-      <c r="N100">
-        <v>5.25</v>
-      </c>
-      <c r="O100">
-        <v>3.8</v>
-      </c>
       <c r="P100">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.925</v>
+      </c>
+      <c r="S100">
+        <v>1.875</v>
+      </c>
+      <c r="T100">
+        <v>3.25</v>
+      </c>
+      <c r="U100">
+        <v>1.75</v>
+      </c>
+      <c r="V100">
+        <v>1.95</v>
+      </c>
+      <c r="W100">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.925</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>0.75</v>
       </c>
-      <c r="R100">
-        <v>1.975</v>
-      </c>
-      <c r="S100">
-        <v>1.825</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Z100">
-        <v>-0.5</v>
-      </c>
-      <c r="AA100">
-        <v>0.4125</v>
-      </c>
-      <c r="AB100">
-        <v>0.4875</v>
-      </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6832895</v>
+        <v>6832894</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,76 +9451,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F101" t="s">
+        <v>45</v>
+      </c>
+      <c r="G101" t="s">
         <v>38</v>
       </c>
-      <c r="G101" t="s">
-        <v>42</v>
-      </c>
       <c r="H101">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K101">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L101">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M101">
+        <v>1.615</v>
+      </c>
+      <c r="N101">
+        <v>4.333</v>
+      </c>
+      <c r="O101">
         <v>4</v>
       </c>
-      <c r="N101">
+      <c r="P101">
         <v>1.727</v>
       </c>
-      <c r="O101">
-        <v>4.2</v>
-      </c>
-      <c r="P101">
-        <v>4.333</v>
-      </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
         <v>1.95</v>
       </c>
       <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
         <v>0.7270000000000001</v>
       </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
       <c r="Z101">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB101">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6832894</v>
+        <v>6832892</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,10 +9540,10 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9552,43 +9552,43 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K102">
         <v>4.2</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="N102">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P102">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="Q102">
         <v>0.75</v>
       </c>
       <c r="R102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9597,16 +9597,16 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.7270000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z102">
         <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB102">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AC102">
         <v>-0.5</v>
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832087</v>
+        <v>6832893</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,40 +9629,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K103">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
+        <v>3.4</v>
+      </c>
+      <c r="M103">
+        <v>2.875</v>
+      </c>
+      <c r="N103">
+        <v>2.2</v>
+      </c>
+      <c r="O103">
         <v>3.5</v>
       </c>
-      <c r="M103">
-        <v>3.4</v>
-      </c>
-      <c r="N103">
-        <v>1.833</v>
-      </c>
-      <c r="O103">
-        <v>3.6</v>
-      </c>
       <c r="P103">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
         <v>1.875</v>
@@ -9671,34 +9671,34 @@
         <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X103">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832893</v>
+        <v>6832087</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,40 +9718,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
+        <v>3.5</v>
+      </c>
+      <c r="M104">
         <v>3.4</v>
       </c>
-      <c r="M104">
-        <v>2.875</v>
-      </c>
       <c r="N104">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
         <v>1.875</v>
@@ -9760,34 +9760,34 @@
         <v>1.925</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9810,7 +9810,7 @@
         <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K105">
         <v>2.2</v>
@@ -9908,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K106">
         <v>1.55</v>
@@ -9988,7 +9988,7 @@
         <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6832897</v>
+        <v>7404272</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10074,76 +10074,76 @@
         <v>45234.4375</v>
       </c>
       <c r="F108" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" t="s">
         <v>34</v>
       </c>
-      <c r="G108" t="s">
-        <v>36</v>
-      </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L108">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M108">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q108">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
+        <v>1.725</v>
+      </c>
+      <c r="S108">
         <v>1.975</v>
       </c>
-      <c r="S108">
+      <c r="T108">
+        <v>2.5</v>
+      </c>
+      <c r="U108">
         <v>1.825</v>
       </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
-      <c r="U108">
-        <v>1.875</v>
-      </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
+        <v>0.3625</v>
+      </c>
+      <c r="AA108">
+        <v>-0.5</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10151,7 +10151,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7404272</v>
+        <v>6832897</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10163,76 +10163,76 @@
         <v>45234.4375</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K109">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L109">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M109">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="N109">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P109">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R109">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X109">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,10 +10252,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10264,7 +10264,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K110">
         <v>1.909</v>
@@ -10341,10 +10341,10 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F111" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" t="s">
         <v>37</v>
-      </c>
-      <c r="G111" t="s">
-        <v>39</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K111">
         <v>2.2</v>
@@ -10430,7 +10430,7 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10522,7 +10522,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832905</v>
+        <v>6832906</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,13 +10608,13 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -10623,25 +10623,25 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M114">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N114">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q114">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
         <v>1.975</v>
@@ -10650,16 +10650,16 @@
         <v>1.825</v>
       </c>
       <c r="T114">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W114">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,16 +10668,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6832906</v>
+        <v>6832905</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,13 +10697,13 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -10712,25 +10712,25 @@
         <v>49</v>
       </c>
       <c r="K115">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P115">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R115">
         <v>1.975</v>
@@ -10739,16 +10739,16 @@
         <v>1.825</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10757,16 +10757,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10786,7 +10786,7 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -10875,10 +10875,10 @@
         <v>45240.6875</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10887,7 +10887,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117">
         <v>3</v>
@@ -10964,10 +10964,10 @@
         <v>45241.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>6</v>
@@ -11053,7 +11053,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>41</v>
@@ -11065,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11142,7 +11142,7 @@
         <v>45242.35416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
         <v>31</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K120">
         <v>2.05</v>
@@ -11219,7 +11219,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6832912</v>
+        <v>6832910</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11231,76 +11231,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>2</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M121">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N121">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P121">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
+        <v>1.875</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>1.75</v>
+      </c>
+      <c r="V121">
         <v>1.95</v>
       </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.875</v>
-      </c>
-      <c r="V121">
-        <v>1.925</v>
-      </c>
       <c r="W121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6832910</v>
+        <v>6832912</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,76 +11320,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
-      <c r="I122">
+      <c r="J122" t="s">
+        <v>49</v>
+      </c>
+      <c r="K122">
         <v>2</v>
       </c>
-      <c r="J122" t="s">
-        <v>50</v>
-      </c>
-      <c r="K122">
-        <v>1.5</v>
-      </c>
       <c r="L122">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N122">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O122">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P122">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q122">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
+        <v>1.85</v>
+      </c>
+      <c r="S122">
+        <v>1.95</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
+        <v>1.875</v>
+      </c>
+      <c r="V122">
         <v>1.925</v>
       </c>
-      <c r="S122">
-        <v>1.875</v>
-      </c>
-      <c r="T122">
-        <v>2.75</v>
-      </c>
-      <c r="U122">
-        <v>1.75</v>
-      </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11421,7 +11421,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K123">
         <v>4.5</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6832908</v>
+        <v>6832092</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,55 +11498,55 @@
         <v>45255.4375</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K124">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L124">
+        <v>3.5</v>
+      </c>
+      <c r="M124">
         <v>3.6</v>
       </c>
-      <c r="M124">
-        <v>2.75</v>
-      </c>
       <c r="N124">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11555,16 +11555,16 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6832911</v>
+        <v>6832908</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,55 +11587,55 @@
         <v>45255.4375</v>
       </c>
       <c r="F125" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" t="s">
         <v>36</v>
       </c>
-      <c r="G125" t="s">
-        <v>44</v>
-      </c>
       <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>6</v>
+      </c>
+      <c r="J125" t="s">
+        <v>51</v>
+      </c>
+      <c r="K125">
+        <v>2.2</v>
+      </c>
+      <c r="L125">
+        <v>3.6</v>
+      </c>
+      <c r="M125">
+        <v>2.75</v>
+      </c>
+      <c r="N125">
+        <v>2.375</v>
+      </c>
+      <c r="O125">
+        <v>3.75</v>
+      </c>
+      <c r="P125">
+        <v>2.7</v>
+      </c>
+      <c r="Q125">
         <v>0</v>
       </c>
-      <c r="I125">
-        <v>2</v>
-      </c>
-      <c r="J125" t="s">
-        <v>50</v>
-      </c>
-      <c r="K125">
-        <v>5.75</v>
-      </c>
-      <c r="L125">
-        <v>4.5</v>
-      </c>
-      <c r="M125">
-        <v>1.444</v>
-      </c>
-      <c r="N125">
-        <v>7.5</v>
-      </c>
-      <c r="O125">
-        <v>5.25</v>
-      </c>
-      <c r="P125">
-        <v>1.363</v>
-      </c>
-      <c r="Q125">
-        <v>1.5</v>
-      </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T125">
         <v>3</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11644,19 +11644,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6832092</v>
+        <v>6832911</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,56 +11676,56 @@
         <v>45255.4375</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>51</v>
+      </c>
+      <c r="K126">
+        <v>5.75</v>
+      </c>
+      <c r="L126">
+        <v>4.5</v>
+      </c>
+      <c r="M126">
+        <v>1.444</v>
+      </c>
+      <c r="N126">
+        <v>7.5</v>
+      </c>
+      <c r="O126">
+        <v>5.25</v>
+      </c>
+      <c r="P126">
+        <v>1.363</v>
+      </c>
+      <c r="Q126">
+        <v>1.5</v>
+      </c>
+      <c r="R126">
+        <v>1.85</v>
+      </c>
+      <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
         <v>3</v>
       </c>
-      <c r="J126" t="s">
-        <v>50</v>
-      </c>
-      <c r="K126">
-        <v>1.909</v>
-      </c>
-      <c r="L126">
-        <v>3.5</v>
-      </c>
-      <c r="M126">
-        <v>3.6</v>
-      </c>
-      <c r="N126">
-        <v>2.15</v>
-      </c>
-      <c r="O126">
-        <v>3.25</v>
-      </c>
-      <c r="P126">
-        <v>3.4</v>
-      </c>
-      <c r="Q126">
-        <v>-0.25</v>
-      </c>
-      <c r="R126">
+      <c r="U126">
+        <v>1.975</v>
+      </c>
+      <c r="V126">
         <v>1.825</v>
       </c>
-      <c r="S126">
-        <v>1.975</v>
-      </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
-      <c r="U126">
-        <v>1.875</v>
-      </c>
-      <c r="V126">
-        <v>1.925</v>
-      </c>
       <c r="W126">
         <v>-1</v>
       </c>
@@ -11733,19 +11733,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K127">
         <v>3.75</v>
@@ -11854,10 +11854,10 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11866,7 +11866,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K128">
         <v>2.875</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6831806</v>
+        <v>6832917</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,73 +11943,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H129">
+        <v>3</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>49</v>
+      </c>
+      <c r="K129">
+        <v>1.4</v>
+      </c>
+      <c r="L129">
+        <v>4.2</v>
+      </c>
+      <c r="M129">
+        <v>7.5</v>
+      </c>
+      <c r="N129">
+        <v>1.2</v>
+      </c>
+      <c r="O129">
+        <v>7</v>
+      </c>
+      <c r="P129">
+        <v>13</v>
+      </c>
+      <c r="Q129">
+        <v>-2</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
         <v>2</v>
       </c>
-      <c r="I129">
-        <v>4</v>
-      </c>
-      <c r="J129" t="s">
-        <v>50</v>
-      </c>
-      <c r="K129">
-        <v>1.909</v>
-      </c>
-      <c r="L129">
-        <v>3.6</v>
-      </c>
-      <c r="M129">
+      <c r="T129">
         <v>3.5</v>
       </c>
-      <c r="N129">
-        <v>1.909</v>
-      </c>
-      <c r="O129">
-        <v>3.8</v>
-      </c>
-      <c r="P129">
-        <v>3.8</v>
-      </c>
-      <c r="Q129">
-        <v>-0.5</v>
-      </c>
-      <c r="R129">
-        <v>1.85</v>
-      </c>
-      <c r="S129">
-        <v>1.95</v>
-      </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
       <c r="U129">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12044,7 +12044,7 @@
         <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K130">
         <v>2.15</v>
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6832917</v>
+        <v>6831806</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,73 +12121,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N131">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q131">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12222,7 +12222,7 @@
         <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K132">
         <v>5.25</v>
@@ -12302,7 +12302,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12311,7 +12311,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K133">
         <v>3.2</v>
@@ -12400,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12477,10 +12477,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12489,7 +12489,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>1.909</v>
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7581960</v>
+        <v>7582036</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12569,52 +12569,52 @@
         <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K136">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L136">
+        <v>3.6</v>
+      </c>
+      <c r="M136">
+        <v>1.909</v>
+      </c>
+      <c r="N136">
         <v>4.333</v>
       </c>
-      <c r="M136">
-        <v>1.5</v>
-      </c>
-      <c r="N136">
-        <v>5.25</v>
-      </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="Q136">
         <v>0.75</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12623,19 +12623,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7582036</v>
+        <v>7581960</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,55 +12655,55 @@
         <v>45339.4375</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="N137">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O137">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="Q137">
         <v>0.75</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12712,19 +12712,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB137">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6832922</v>
+        <v>6832096</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,58 +12744,58 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>49</v>
       </c>
       <c r="K138">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L138">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
         <v>3.75</v>
       </c>
       <c r="N138">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O138">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
+        <v>1.8</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
         <v>1.975</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.825</v>
       </c>
-      <c r="T138">
-        <v>3.25</v>
-      </c>
-      <c r="U138">
-        <v>1.925</v>
-      </c>
-      <c r="V138">
-        <v>1.875</v>
-      </c>
       <c r="W138">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12804,16 +12804,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12845,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
         <v>1.75</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6832096</v>
+        <v>6832922</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>49</v>
       </c>
       <c r="K140">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M140">
         <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P140">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q140">
+        <v>-1</v>
+      </c>
+      <c r="R140">
+        <v>1.975</v>
+      </c>
+      <c r="S140">
+        <v>1.825</v>
+      </c>
+      <c r="T140">
+        <v>3.25</v>
+      </c>
+      <c r="U140">
+        <v>1.925</v>
+      </c>
+      <c r="V140">
+        <v>1.875</v>
+      </c>
+      <c r="W140">
+        <v>0.615</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>-0</v>
+      </c>
+      <c r="AB140">
         <v>-0.5</v>
       </c>
-      <c r="R140">
-        <v>1.8</v>
-      </c>
-      <c r="S140">
-        <v>2</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.975</v>
-      </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
-      <c r="W140">
-        <v>0.8</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>0.8</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
-      <c r="AB140">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,10 +13011,10 @@
         <v>45345.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141">
         <v>4.75</v>
@@ -13088,7 +13088,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6832920</v>
+        <v>6832095</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13100,13 +13100,13 @@
         <v>45346.4375</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
         <v>30</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -13115,61 +13115,61 @@
         <v>51</v>
       </c>
       <c r="K142">
+        <v>1.909</v>
+      </c>
+      <c r="L142">
         <v>3.5</v>
       </c>
-      <c r="L142">
-        <v>3.6</v>
-      </c>
       <c r="M142">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N142">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q142">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
+        <v>1.9</v>
+      </c>
+      <c r="V142">
+        <v>1.9</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
         <v>1.875</v>
       </c>
-      <c r="V142">
-        <v>1.925</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>3</v>
-      </c>
-      <c r="Y142">
-        <v>-1</v>
-      </c>
       <c r="Z142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,10 +13189,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6832095</v>
+        <v>6832920</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,13 +13278,13 @@
         <v>45346.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -13293,61 +13293,61 @@
         <v>50</v>
       </c>
       <c r="K144">
+        <v>3.5</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
         <v>1.909</v>
       </c>
-      <c r="L144">
-        <v>3.5</v>
-      </c>
-      <c r="M144">
-        <v>3.5</v>
-      </c>
       <c r="N144">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6832929</v>
+        <v>6832097</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,76 +13545,76 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
         <v>1</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K147">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="L147">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="N147">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O147">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P147">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q147">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6832097</v>
+        <v>6832929</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,76 +13634,76 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
         <v>0</v>
       </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="N148">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P148">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13723,10 +13723,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13735,7 +13735,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K149">
         <v>1.6</v>
@@ -13812,10 +13812,19 @@
         <v>45353.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>51</v>
       </c>
       <c r="K150">
         <v>2.8</v>
@@ -13827,46 +13836,52 @@
         <v>2.1</v>
       </c>
       <c r="N150">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O150">
         <v>3.8</v>
       </c>
       <c r="P150">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13886,10 +13901,19 @@
         <v>45353.4375</v>
       </c>
       <c r="F151" t="s">
+        <v>36</v>
+      </c>
+      <c r="G151" t="s">
         <v>32</v>
       </c>
-      <c r="G151" t="s">
-        <v>34</v>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>49</v>
       </c>
       <c r="K151">
         <v>3.4</v>
@@ -13901,22 +13925,22 @@
         <v>1.833</v>
       </c>
       <c r="N151">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O151">
         <v>3.6</v>
       </c>
       <c r="P151">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T151">
         <v>2.75</v>
@@ -13928,19 +13952,25 @@
         <v>1.9</v>
       </c>
       <c r="W151">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="X151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA151">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB151">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC151">
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13963,7 +13993,16 @@
         <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>3</v>
+      </c>
+      <c r="J152" t="s">
+        <v>51</v>
       </c>
       <c r="K152">
         <v>3.4</v>
@@ -13975,46 +14014,52 @@
         <v>1.9</v>
       </c>
       <c r="N152">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB152">
+        <v>0.825</v>
+      </c>
+      <c r="AC152">
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,19 +14106,19 @@
         <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T153">
         <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
         <v>0</v>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Austria 2 Liga</t>
   </si>
   <si>
-    <t>SV Kapfenberg</t>
+    <t>FC Liefering</t>
   </si>
   <si>
-    <t>FC Liefering</t>
+    <t>SV Kapfenberg</t>
   </si>
   <si>
     <t>FC Flyeralarm Admira</t>
@@ -118,31 +118,31 @@
     <t>St Polten</t>
   </si>
   <si>
-    <t>SKU Amstetten</t>
+    <t>First Vienna FC 1894</t>
   </si>
   <si>
     <t>FC Blau Weiss Linz</t>
   </si>
   <si>
-    <t>First Vienna FC 1894</t>
+    <t>SKU Amstetten</t>
+  </si>
+  <si>
+    <t>SW Bregenz</t>
+  </si>
+  <si>
+    <t>SV Lafnitz</t>
+  </si>
+  <si>
+    <t>Grazer AK</t>
   </si>
   <si>
     <t>Leoben DSV</t>
   </si>
   <si>
-    <t>Grazer AK</t>
-  </si>
-  <si>
-    <t>SV Lafnitz</t>
-  </si>
-  <si>
-    <t>SW Bregenz</t>
+    <t>Floridsdorfer AC</t>
   </si>
   <si>
     <t>Sturm Graz II</t>
-  </si>
-  <si>
-    <t>Floridsdorfer AC</t>
   </si>
   <si>
     <t>SV StripfingWeiden</t>
@@ -163,10 +163,10 @@
     <t>Rapid Vienna II</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC177"/>
+  <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5257845</v>
+        <v>5208060</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>0</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P2">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U2">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC2">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5208060</v>
+        <v>5257845</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N3">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>1.909</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>1.6</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5208061</v>
+        <v>5208063</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,37 +1088,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="N7">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O7">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
         <v>1.95</v>
@@ -1127,22 +1127,22 @@
         <v>1.85</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z7">
         <v>-1</v>
@@ -1151,10 +1151,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>1.181</v>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5208063</v>
+        <v>5208061</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,37 +1266,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="N9">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P9">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1305,22 +1305,22 @@
         <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y9">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -1329,10 +1329,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832067</v>
+        <v>6832835</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1352,49 +1352,49 @@
         <v>45135.53125</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>50</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -1403,25 +1403,25 @@
         <v>1.85</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832836</v>
+        <v>6832066</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1441,46 +1441,46 @@
         <v>45135.53125</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N11">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
         <v>2.75</v>
@@ -1492,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="W11">
-        <v>0.615</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1501,16 +1501,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832835</v>
+        <v>6831794</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,76 +1530,76 @@
         <v>45135.53125</v>
       </c>
       <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
       <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
         <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
       </c>
       <c r="K12">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="L12">
+        <v>3.75</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
+        <v>1.833</v>
+      </c>
+      <c r="O12">
         <v>4</v>
       </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>1.7</v>
-      </c>
-      <c r="O12">
-        <v>4.333</v>
-      </c>
       <c r="P12">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q12">
         <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6831794</v>
+        <v>6832839</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,58 +1619,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N13">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1679,16 +1679,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6832066</v>
+        <v>6832836</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,46 +1708,46 @@
         <v>45135.53125</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
         <v>36</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q14">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
         <v>2.75</v>
@@ -1759,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>0.615</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1768,16 +1768,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6832839</v>
+        <v>6832067</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,58 +1797,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>3.4</v>
       </c>
       <c r="M15">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="N15">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
+        <v>3.8</v>
+      </c>
+      <c r="P15">
         <v>3.6</v>
       </c>
-      <c r="P15">
-        <v>2.75</v>
-      </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,16 +1857,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6832837</v>
+        <v>6832838</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,37 +1889,37 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N16">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="O16">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>1.925</v>
@@ -1928,34 +1928,34 @@
         <v>1.875</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832838</v>
+        <v>6832837</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,37 +1978,37 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N17">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="O17">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P17">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -2017,34 +2017,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832069</v>
+        <v>6832840</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,55 +2064,55 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M18">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P18">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2121,19 +2121,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6832840</v>
+        <v>6832842</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,76 +2153,76 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
       </c>
       <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
         <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="L19">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M19">
-        <v>1.7</v>
+        <v>4.333</v>
       </c>
       <c r="N19">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
+        <v>1.85</v>
+      </c>
+      <c r="V19">
         <v>1.95</v>
       </c>
-      <c r="V19">
-        <v>1.85</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832842</v>
+        <v>6831795</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,67 +2242,67 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N20">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O20">
         <v>4</v>
       </c>
       <c r="P20">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -2311,7 +2311,7 @@
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6831795</v>
+        <v>6832069</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,40 +2331,40 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
         <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>1.875</v>
@@ -2373,34 +2373,34 @@
         <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2509,10 +2509,10 @@
         <v>45143.625</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2598,10 +2598,10 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>2.05</v>
@@ -2779,7 +2779,7 @@
         <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
         <v>1.8</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>3.6</v>
@@ -2954,10 +2954,10 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6832847</v>
+        <v>6834058</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>50</v>
       </c>
       <c r="K29">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
+        <v>1.75</v>
+      </c>
+      <c r="V29">
         <v>1.95</v>
       </c>
-      <c r="V29">
-        <v>1.85</v>
-      </c>
       <c r="W29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6834058</v>
+        <v>6832847</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>0</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>49</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N30">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
+        <v>1.975</v>
+      </c>
+      <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
         <v>1.95</v>
       </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
-      <c r="U30">
-        <v>1.75</v>
-      </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3221,10 +3221,10 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>2.25</v>
@@ -3310,10 +3310,10 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
         <v>41</v>
-      </c>
-      <c r="G32" t="s">
-        <v>42</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3402,7 +3402,7 @@
         <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>1.727</v>
@@ -3488,10 +3488,10 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3577,7 +3577,7 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>43</v>
@@ -3669,7 +3669,7 @@
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>2.6</v>
@@ -3755,10 +3755,10 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3844,10 +3844,10 @@
         <v>45156.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>1.533</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4022,7 +4022,7 @@
         <v>45158.3125</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -4034,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4114,7 +4114,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>2.6</v>
@@ -4200,10 +4200,10 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42">
         <v>1.75</v>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>2.25</v>
@@ -4378,7 +4378,7 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
         <v>44</v>
@@ -4470,7 +4470,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4559,7 +4559,7 @@
         <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4648,7 +4648,7 @@
         <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47">
         <v>2.25</v>
@@ -4734,10 +4734,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" t="s">
         <v>39</v>
-      </c>
-      <c r="G48" t="s">
-        <v>38</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>3.1</v>
@@ -4823,10 +4823,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6832864</v>
+        <v>6832866</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,37 +4915,37 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>0</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="N50">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
         <v>1.85</v>
@@ -4954,34 +4954,34 @@
         <v>1.95</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6832861</v>
+        <v>6832863</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,76 +5001,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
         <v>42</v>
       </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
         <v>1.8</v>
       </c>
-      <c r="S51">
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>1.8</v>
+      </c>
+      <c r="V51">
         <v>2</v>
       </c>
-      <c r="T51">
-        <v>2.75</v>
-      </c>
-      <c r="U51">
-        <v>1.95</v>
-      </c>
-      <c r="V51">
-        <v>1.85</v>
-      </c>
       <c r="W51">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
         <v>0.8</v>
       </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6832863</v>
+        <v>6832864</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,76 +5090,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="N52">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P52">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA52">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6832866</v>
+        <v>6832861</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,58 +5179,58 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M53">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P53">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T53">
         <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>1.9</v>
+        <v>0.833</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5239,16 +5239,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54">
         <v>2.25</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>2.05</v>
@@ -5446,10 +5446,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>2.7</v>
@@ -5535,10 +5535,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>3.6</v>
@@ -5624,7 +5624,7 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
@@ -5636,7 +5636,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5713,7 +5713,7 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K59">
         <v>1.909</v>
@@ -5805,7 +5805,7 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K60">
         <v>2.4</v>
@@ -5891,7 +5891,7 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>43</v>
@@ -5903,7 +5903,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>1.95</v>
@@ -5983,7 +5983,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62">
         <v>1.571</v>
@@ -6069,10 +6069,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>3.75</v>
@@ -6158,10 +6158,10 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6170,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6250,7 +6250,7 @@
         <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>1.571</v>
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6834056</v>
+        <v>6832078</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,40 +6336,40 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K66">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N66">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
         <v>1.8</v>
@@ -6378,13 +6378,13 @@
         <v>2</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6393,7 +6393,7 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>3.333</v>
+        <v>1.375</v>
       </c>
       <c r="Z66">
         <v>-1</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832078</v>
+        <v>6832876</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,55 +6425,55 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P67">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,19 +6482,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832876</v>
+        <v>6834056</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,56 +6514,56 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
         <v>3.75</v>
       </c>
       <c r="P68">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
+        <v>1.8</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>1.95</v>
+      </c>
+      <c r="V68">
         <v>1.85</v>
       </c>
-      <c r="S68">
-        <v>1.95</v>
-      </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.9</v>
-      </c>
-      <c r="V68">
-        <v>1.9</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
@@ -6571,19 +6571,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.2</v>
+        <v>3.333</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
         <v>0.95</v>
       </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6692,10 +6692,10 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K70">
         <v>1.533</v>
@@ -6781,7 +6781,7 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -6870,7 +6870,7 @@
         <v>45192.625</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>44</v>
@@ -6962,7 +6962,7 @@
         <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>1.909</v>
@@ -7048,10 +7048,10 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <v>1.833</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7318,7 +7318,7 @@
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
         <v>2.15</v>
@@ -7404,7 +7404,7 @@
         <v>45199.39583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>31</v>
@@ -7493,10 +7493,10 @@
         <v>45199.39583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7505,7 +7505,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79">
         <v>1.75</v>
@@ -7582,10 +7582,10 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7594,7 +7594,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K80">
         <v>2.3</v>
@@ -7671,10 +7671,10 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7683,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832082</v>
+        <v>6832885</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,76 +7760,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K82">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
+        <v>1.8</v>
+      </c>
+      <c r="N82">
+        <v>3.75</v>
+      </c>
+      <c r="O82">
+        <v>3.6</v>
+      </c>
+      <c r="P82">
+        <v>1.95</v>
+      </c>
+      <c r="Q82">
+        <v>0.5</v>
+      </c>
+      <c r="R82">
+        <v>1.9</v>
+      </c>
+      <c r="S82">
+        <v>1.9</v>
+      </c>
+      <c r="T82">
         <v>2.75</v>
       </c>
-      <c r="N82">
-        <v>2.05</v>
-      </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
-      <c r="P82">
-        <v>3.4</v>
-      </c>
-      <c r="Q82">
-        <v>-0.5</v>
-      </c>
-      <c r="R82">
-        <v>1.975</v>
-      </c>
-      <c r="S82">
-        <v>1.825</v>
-      </c>
-      <c r="T82">
-        <v>3</v>
-      </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6832886</v>
+        <v>6831800</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>2</v>
       </c>
-      <c r="I83">
-        <v>3</v>
-      </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L83">
         <v>3.6</v>
       </c>
       <c r="M83">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
+        <v>1.725</v>
+      </c>
+      <c r="T83">
+        <v>2.75</v>
+      </c>
+      <c r="U83">
+        <v>1.85</v>
+      </c>
+      <c r="V83">
+        <v>1.95</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
         <v>1.8</v>
       </c>
-      <c r="T83">
-        <v>3</v>
-      </c>
-      <c r="U83">
-        <v>1.95</v>
-      </c>
-      <c r="V83">
-        <v>1.85</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>0.95</v>
-      </c>
-      <c r="AC83">
-        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832885</v>
+        <v>6832886</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,73 +7938,73 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" t="s">
         <v>50</v>
       </c>
       <c r="K84">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L84">
         <v>3.6</v>
       </c>
       <c r="M84">
+        <v>1.75</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84">
+        <v>4.2</v>
+      </c>
+      <c r="P84">
+        <v>1.533</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
         <v>1.8</v>
       </c>
-      <c r="N84">
-        <v>3.75</v>
-      </c>
-      <c r="O84">
-        <v>3.6</v>
-      </c>
-      <c r="P84">
+      <c r="T84">
+        <v>3</v>
+      </c>
+      <c r="U84">
         <v>1.95</v>
       </c>
-      <c r="Q84">
-        <v>0.5</v>
-      </c>
-      <c r="R84">
-        <v>1.9</v>
-      </c>
-      <c r="S84">
-        <v>1.9</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.875</v>
-      </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z84">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6831800</v>
+        <v>6832082</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
+        <v>2.75</v>
+      </c>
+      <c r="N85">
+        <v>2.05</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
         <v>3.4</v>
       </c>
-      <c r="N85">
-        <v>2.45</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>2.8</v>
-      </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
         <v>1.975</v>
       </c>
       <c r="S85">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
+        <v>3</v>
+      </c>
+      <c r="U85">
+        <v>1.975</v>
+      </c>
+      <c r="V85">
+        <v>1.825</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
         <v>2.75</v>
       </c>
-      <c r="U85">
-        <v>1.85</v>
-      </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
       <c r="Y85">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8116,10 +8116,10 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6832083</v>
+        <v>6832884</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,76 +8205,76 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
         <v>50</v>
       </c>
       <c r="K87">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N87">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6832884</v>
+        <v>6832083</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
         <v>1.9</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>1.9</v>
       </c>
-      <c r="T88">
-        <v>3</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
-      <c r="V88">
-        <v>1.825</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
+        <v>-0</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB88">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>45207.22916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
         <v>31</v>
@@ -8472,7 +8472,7 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>43</v>
@@ -8484,7 +8484,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K90">
         <v>2.15</v>
@@ -8564,7 +8564,7 @@
         <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>4</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K91">
         <v>1.615</v>
@@ -8650,10 +8650,10 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832085</v>
+        <v>6832887</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,40 +8828,40 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K94">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N94">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P94">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
         <v>1.9</v>
@@ -8870,34 +8870,34 @@
         <v>1.9</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6832887</v>
+        <v>6832085</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,40 +8917,40 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
+        <v>2.875</v>
+      </c>
+      <c r="N95">
         <v>2.2</v>
       </c>
-      <c r="N95">
-        <v>3</v>
-      </c>
       <c r="O95">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8959,34 +8959,34 @@
         <v>1.9</v>
       </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X95">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9006,7 +9006,7 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9018,7 +9018,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K96">
         <v>2.05</v>
@@ -9098,7 +9098,7 @@
         <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6831802</v>
+        <v>6832086</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P98">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
+        <v>2.025</v>
+      </c>
+      <c r="S98">
         <v>1.775</v>
       </c>
-      <c r="S98">
-        <v>2.025</v>
-      </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6832894</v>
+        <v>6832892</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,10 +9273,10 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9285,43 +9285,43 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K99">
         <v>4.2</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="N99">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="Q99">
         <v>0.75</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
         <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9330,16 +9330,16 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.7270000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z99">
         <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB99">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AC99">
         <v>-0.5</v>
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6832086</v>
+        <v>6832895</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,58 +9362,58 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M100">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>4.333</v>
+      </c>
+      <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.925</v>
+      </c>
+      <c r="S100">
+        <v>1.875</v>
+      </c>
+      <c r="T100">
         <v>3.25</v>
       </c>
-      <c r="P100">
-        <v>3.1</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>2.025</v>
-      </c>
-      <c r="S100">
-        <v>1.775</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
-        <v>1.375</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9422,13 +9422,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6832892</v>
+        <v>6832894</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,10 +9451,10 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9463,43 +9463,43 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K101">
         <v>4.2</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="N101">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="Q101">
         <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9508,16 +9508,16 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.6499999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z101">
         <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB101">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AC101">
         <v>-0.5</v>
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6832895</v>
+        <v>6831802</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,76 +9540,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K102">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L102">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N102">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O102">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P102">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832893</v>
+        <v>6832087</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,40 +9629,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L103">
+        <v>3.5</v>
+      </c>
+      <c r="M103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>2.875</v>
-      </c>
       <c r="N103">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
         <v>1.875</v>
@@ -9671,34 +9671,34 @@
         <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832087</v>
+        <v>6832893</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,40 +9718,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L104">
+        <v>3.4</v>
+      </c>
+      <c r="M104">
+        <v>2.875</v>
+      </c>
+      <c r="N104">
+        <v>2.2</v>
+      </c>
+      <c r="O104">
         <v>3.5</v>
       </c>
-      <c r="M104">
-        <v>3.4</v>
-      </c>
-      <c r="N104">
-        <v>1.833</v>
-      </c>
-      <c r="O104">
-        <v>3.6</v>
-      </c>
       <c r="P104">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
         <v>1.875</v>
@@ -9760,34 +9760,34 @@
         <v>1.925</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X104">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9896,7 +9896,7 @@
         <v>45233.59027777778</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
         <v>45</v>
@@ -9908,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>1.55</v>
@@ -9988,7 +9988,7 @@
         <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10074,10 +10074,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K109">
         <v>1.4</v>
@@ -10252,10 +10252,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10341,10 +10341,10 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F111" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111" t="s">
         <v>40</v>
-      </c>
-      <c r="G111" t="s">
-        <v>37</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>1.571</v>
@@ -10522,7 +10522,7 @@
         <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K113">
         <v>1.65</v>
@@ -10611,7 +10611,7 @@
         <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10620,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K114">
         <v>1.909</v>
@@ -10697,7 +10697,7 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
         <v>31</v>
@@ -10709,7 +10709,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>2.5</v>
@@ -10789,7 +10789,7 @@
         <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10798,7 +10798,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>1.7</v>
@@ -10875,7 +10875,7 @@
         <v>45240.6875</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>33</v>
@@ -10887,7 +10887,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K117">
         <v>3</v>
@@ -10964,7 +10964,7 @@
         <v>45241.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
         <v>32</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>1.666</v>
@@ -11053,10 +11053,10 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11065,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11142,10 +11142,10 @@
         <v>45242.35416666666</v>
       </c>
       <c r="F120" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" t="s">
         <v>30</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K120">
         <v>2.05</v>
@@ -11231,7 +11231,7 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
         <v>43</v>
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11332,7 +11332,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11409,10 +11409,10 @@
         <v>45254.6875</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11421,7 +11421,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123">
         <v>4.5</v>
@@ -11510,7 +11510,7 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K124">
         <v>5.75</v>
@@ -11587,10 +11587,10 @@
         <v>45255.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11599,7 +11599,7 @@
         <v>6</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K125">
         <v>2.2</v>
@@ -11679,7 +11679,7 @@
         <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11688,7 +11688,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11765,10 +11765,10 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F127" t="s">
+        <v>36</v>
+      </c>
+      <c r="G127" t="s">
         <v>34</v>
-      </c>
-      <c r="G127" t="s">
-        <v>36</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11777,7 +11777,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K127">
         <v>2.875</v>
@@ -11854,10 +11854,10 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11866,7 +11866,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K128">
         <v>3.75</v>
@@ -11943,10 +11943,10 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -11955,7 +11955,7 @@
         <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K129">
         <v>1.909</v>
@@ -12035,7 +12035,7 @@
         <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
         <v>1.4</v>
@@ -12133,7 +12133,7 @@
         <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
         <v>2.15</v>
@@ -12210,7 +12210,7 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
         <v>44</v>
@@ -12222,7 +12222,7 @@
         <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K132">
         <v>5.25</v>
@@ -12302,7 +12302,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12311,7 +12311,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K133">
         <v>3.2</v>
@@ -12391,7 +12391,7 @@
         <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12400,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12480,7 +12480,7 @@
         <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12489,7 +12489,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K135">
         <v>3.5</v>
@@ -12566,10 +12566,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12578,7 +12578,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K136">
         <v>5.5</v>
@@ -12655,10 +12655,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12667,7 +12667,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
         <v>1.909</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6832922</v>
+        <v>6832096</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,58 +12744,58 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L138">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
         <v>3.75</v>
       </c>
       <c r="N138">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O138">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
+        <v>1.8</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>2.75</v>
+      </c>
+      <c r="U138">
         <v>1.975</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.825</v>
       </c>
-      <c r="T138">
-        <v>3.25</v>
-      </c>
-      <c r="U138">
-        <v>1.925</v>
-      </c>
-      <c r="V138">
-        <v>1.875</v>
-      </c>
       <c r="W138">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12804,16 +12804,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6831807</v>
+        <v>6832922</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>49</v>
+      </c>
+      <c r="K139">
+        <v>1.85</v>
+      </c>
+      <c r="L139">
+        <v>3.75</v>
+      </c>
+      <c r="M139">
+        <v>3.75</v>
+      </c>
+      <c r="N139">
+        <v>1.615</v>
+      </c>
+      <c r="O139">
+        <v>4.5</v>
+      </c>
+      <c r="P139">
+        <v>4.333</v>
+      </c>
+      <c r="Q139">
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <v>1.975</v>
+      </c>
+      <c r="S139">
+        <v>1.825</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
+        <v>1.925</v>
+      </c>
+      <c r="V139">
+        <v>1.875</v>
+      </c>
+      <c r="W139">
+        <v>0.615</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
         <v>0</v>
       </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139" t="s">
-        <v>51</v>
-      </c>
-      <c r="K139">
-        <v>1.75</v>
-      </c>
-      <c r="L139">
-        <v>3.6</v>
-      </c>
-      <c r="M139">
-        <v>4</v>
-      </c>
-      <c r="N139">
-        <v>1.7</v>
-      </c>
-      <c r="O139">
-        <v>3.75</v>
-      </c>
-      <c r="P139">
-        <v>5</v>
-      </c>
-      <c r="Q139">
-        <v>-0.75</v>
-      </c>
-      <c r="R139">
-        <v>1.9</v>
-      </c>
-      <c r="S139">
-        <v>1.9</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
-      <c r="W139">
-        <v>-1</v>
-      </c>
-      <c r="X139">
-        <v>2.75</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
-      <c r="Z139">
-        <v>-1</v>
-      </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6832096</v>
+        <v>6831807</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L140">
         <v>3.6</v>
       </c>
       <c r="M140">
+        <v>4</v>
+      </c>
+      <c r="N140">
+        <v>1.7</v>
+      </c>
+      <c r="O140">
         <v>3.75</v>
       </c>
-      <c r="N140">
+      <c r="P140">
+        <v>5</v>
+      </c>
+      <c r="Q140">
+        <v>-0.75</v>
+      </c>
+      <c r="R140">
+        <v>1.9</v>
+      </c>
+      <c r="S140">
+        <v>1.9</v>
+      </c>
+      <c r="T140">
+        <v>2.25</v>
+      </c>
+      <c r="U140">
         <v>1.8</v>
       </c>
-      <c r="O140">
-        <v>4</v>
-      </c>
-      <c r="P140">
-        <v>4</v>
-      </c>
-      <c r="Q140">
-        <v>-0.5</v>
-      </c>
-      <c r="R140">
-        <v>1.8</v>
-      </c>
-      <c r="S140">
+      <c r="V140">
         <v>2</v>
       </c>
-      <c r="T140">
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
         <v>2.75</v>
       </c>
-      <c r="U140">
-        <v>1.975</v>
-      </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
-      <c r="W140">
-        <v>0.8</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>45345.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K141">
         <v>4.75</v>
@@ -13100,10 +13100,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13189,7 +13189,7 @@
         <v>45346.4375</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
         <v>32</v>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K143">
         <v>1.285</v>
@@ -13278,10 +13278,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13290,7 +13290,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K144">
         <v>1.909</v>
@@ -13379,7 +13379,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2.9</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6832929</v>
+        <v>6832097</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
         <v>1</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>50</v>
       </c>
       <c r="K146">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="L146">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="N146">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O146">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P146">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q146">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6832926</v>
+        <v>6832929</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,28 +13545,28 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L147">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M147">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N147">
         <v>1.363</v>
@@ -13578,22 +13578,22 @@
         <v>7</v>
       </c>
       <c r="Q147">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R147">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
         <v>0.363</v>
@@ -13605,16 +13605,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6832097</v>
+        <v>6832926</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,76 +13634,76 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H148">
+        <v>5</v>
+      </c>
+      <c r="I148">
         <v>0</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>49</v>
       </c>
       <c r="K148">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M148">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="N148">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O148">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P148">
+        <v>7</v>
+      </c>
+      <c r="Q148">
+        <v>-1.25</v>
+      </c>
+      <c r="R148">
         <v>1.8</v>
       </c>
-      <c r="Q148">
-        <v>0.5</v>
-      </c>
-      <c r="R148">
-        <v>2.025</v>
-      </c>
       <c r="S148">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
         <v>0.8</v>
       </c>
-      <c r="Z148">
-        <v>-1</v>
-      </c>
       <c r="AA148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13723,10 +13723,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13812,10 +13812,10 @@
         <v>45353.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13824,7 +13824,7 @@
         <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K150">
         <v>3.4</v>
@@ -13904,7 +13904,7 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13913,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K151">
         <v>2.8</v>
@@ -13990,7 +13990,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
         <v>33</v>
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>3.4</v>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K153">
         <v>2.7</v>
@@ -14171,7 +14171,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14180,7 +14180,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K154">
         <v>2.05</v>
@@ -14257,7 +14257,7 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
         <v>45</v>
@@ -14269,7 +14269,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K155">
         <v>1.833</v>
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832930</v>
+        <v>6832098</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,49 +14346,49 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L156">
+        <v>3.4</v>
+      </c>
+      <c r="M156">
+        <v>2.2</v>
+      </c>
+      <c r="N156">
         <v>3.6</v>
       </c>
-      <c r="M156">
-        <v>1.833</v>
-      </c>
-      <c r="N156">
-        <v>4</v>
-      </c>
       <c r="O156">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q156">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
         <v>1.95</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
         <v>1.825</v>
@@ -14397,25 +14397,25 @@
         <v>1.975</v>
       </c>
       <c r="W156">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14438,7 +14438,7 @@
         <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K157">
         <v>1.444</v>
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6832098</v>
+        <v>6832930</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,49 +14524,49 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K158">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N158">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P158">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q158">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S158">
         <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
         <v>1.825</v>
@@ -14575,25 +14575,25 @@
         <v>1.975</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X158">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14613,7 +14613,7 @@
         <v>45359.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
         <v>44</v>
@@ -14625,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K159">
         <v>3</v>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K160">
         <v>1.533</v>
@@ -14791,10 +14791,10 @@
         <v>45361.27083333334</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K161">
         <v>6</v>
@@ -14883,7 +14883,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K162">
         <v>1.615</v>
@@ -14981,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>2.05</v>
@@ -15058,10 +15058,10 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F164" t="s">
+        <v>39</v>
+      </c>
+      <c r="G164" t="s">
         <v>38</v>
-      </c>
-      <c r="G164" t="s">
-        <v>39</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15147,10 +15147,10 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15159,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15236,7 +15236,7 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
         <v>31</v>
@@ -15248,7 +15248,7 @@
         <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K166">
         <v>3.3</v>
@@ -15325,7 +15325,7 @@
         <v>45366.6875</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15337,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>2.75</v>
@@ -15414,10 +15414,10 @@
         <v>45367.4375</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15503,7 +15503,7 @@
         <v>45368.27083333334</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
         <v>32</v>
@@ -15515,7 +15515,7 @@
         <v>4</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K169">
         <v>1.95</v>
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6834054</v>
+        <v>6832102</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,49 +15589,49 @@
         <v>28</v>
       </c>
       <c r="E170" s="2">
-        <v>45380.59027777778</v>
+        <v>45381.4375</v>
       </c>
       <c r="F170" t="s">
+        <v>38</v>
+      </c>
+      <c r="G170" t="s">
         <v>37</v>
       </c>
-      <c r="G170" t="s">
-        <v>29</v>
-      </c>
       <c r="K170">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="L170">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M170">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="N170">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O170">
         <v>3.8</v>
       </c>
       <c r="P170">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15654,7 +15654,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6832944</v>
+        <v>6832945</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,49 +15663,49 @@
         <v>28</v>
       </c>
       <c r="E171" s="2">
-        <v>45380.59027777778</v>
+        <v>45381.4375</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K171">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="L171">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>8</v>
+        <v>1.869</v>
       </c>
       <c r="N171">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="O171">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q171">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S171">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W171">
         <v>0</v>
@@ -15728,7 +15728,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6832943</v>
+        <v>6832941</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15737,49 +15737,49 @@
         <v>28</v>
       </c>
       <c r="E172" s="2">
-        <v>45380.6875</v>
+        <v>45382.22916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K172">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L172">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M172">
+        <v>1.727</v>
+      </c>
+      <c r="N172">
+        <v>4.333</v>
+      </c>
+      <c r="O172">
+        <v>4</v>
+      </c>
+      <c r="P172">
+        <v>1.75</v>
+      </c>
+      <c r="Q172">
+        <v>0.75</v>
+      </c>
+      <c r="R172">
+        <v>1.825</v>
+      </c>
+      <c r="S172">
+        <v>1.975</v>
+      </c>
+      <c r="T172">
         <v>2.75</v>
       </c>
-      <c r="N172">
-        <v>2.1</v>
-      </c>
-      <c r="O172">
-        <v>3.6</v>
-      </c>
-      <c r="P172">
-        <v>3.3</v>
-      </c>
-      <c r="Q172">
-        <v>-0.25</v>
-      </c>
-      <c r="R172">
-        <v>1.85</v>
-      </c>
-      <c r="S172">
-        <v>1.95</v>
-      </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
       <c r="U172">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
         <v>0</v>
@@ -15802,7 +15802,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6832102</v>
+        <v>6832942</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15811,34 +15811,34 @@
         <v>28</v>
       </c>
       <c r="E173" s="2">
-        <v>45381.4375</v>
+        <v>45382.22916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K173">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L173">
         <v>3.5</v>
       </c>
       <c r="M173">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="O173">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P173">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
         <v>1.975</v>
@@ -15850,10 +15850,10 @@
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
         <v>0</v>
@@ -15876,7 +15876,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6832945</v>
+        <v>6832940</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15885,40 +15885,40 @@
         <v>28</v>
       </c>
       <c r="E174" s="2">
-        <v>45381.4375</v>
+        <v>45382.3125</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K174">
+        <v>3.25</v>
+      </c>
+      <c r="L174">
         <v>3.5</v>
       </c>
-      <c r="L174">
-        <v>3.6</v>
-      </c>
       <c r="M174">
-        <v>1.869</v>
+        <v>2</v>
       </c>
       <c r="N174">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O174">
         <v>3.6</v>
       </c>
       <c r="P174">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R174">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S174">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T174">
         <v>2.5</v>
@@ -15942,228 +15942,6 @@
         <v>0</v>
       </c>
       <c r="AA174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>6832941</v>
-      </c>
-      <c r="C175" t="s">
-        <v>28</v>
-      </c>
-      <c r="D175" t="s">
-        <v>28</v>
-      </c>
-      <c r="E175" s="2">
-        <v>45382.22916666666</v>
-      </c>
-      <c r="F175" t="s">
-        <v>41</v>
-      </c>
-      <c r="G175" t="s">
-        <v>31</v>
-      </c>
-      <c r="K175">
-        <v>4</v>
-      </c>
-      <c r="L175">
-        <v>3.8</v>
-      </c>
-      <c r="M175">
-        <v>1.727</v>
-      </c>
-      <c r="N175">
-        <v>4.333</v>
-      </c>
-      <c r="O175">
-        <v>4</v>
-      </c>
-      <c r="P175">
-        <v>1.75</v>
-      </c>
-      <c r="Q175">
-        <v>0.75</v>
-      </c>
-      <c r="R175">
-        <v>1.825</v>
-      </c>
-      <c r="S175">
-        <v>1.975</v>
-      </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>1.975</v>
-      </c>
-      <c r="V175">
-        <v>1.825</v>
-      </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-      <c r="X175">
-        <v>0</v>
-      </c>
-      <c r="Y175">
-        <v>0</v>
-      </c>
-      <c r="Z175">
-        <v>0</v>
-      </c>
-      <c r="AA175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>6832942</v>
-      </c>
-      <c r="C176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D176" t="s">
-        <v>28</v>
-      </c>
-      <c r="E176" s="2">
-        <v>45382.22916666666</v>
-      </c>
-      <c r="F176" t="s">
-        <v>43</v>
-      </c>
-      <c r="G176" t="s">
-        <v>36</v>
-      </c>
-      <c r="K176">
-        <v>2.5</v>
-      </c>
-      <c r="L176">
-        <v>3.5</v>
-      </c>
-      <c r="M176">
-        <v>2.45</v>
-      </c>
-      <c r="N176">
-        <v>3.2</v>
-      </c>
-      <c r="O176">
-        <v>3.75</v>
-      </c>
-      <c r="P176">
-        <v>2.1</v>
-      </c>
-      <c r="Q176">
-        <v>0.25</v>
-      </c>
-      <c r="R176">
-        <v>1.975</v>
-      </c>
-      <c r="S176">
-        <v>1.825</v>
-      </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
-      <c r="U176">
-        <v>1.95</v>
-      </c>
-      <c r="V176">
-        <v>1.85</v>
-      </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-      <c r="X176">
-        <v>0</v>
-      </c>
-      <c r="Y176">
-        <v>0</v>
-      </c>
-      <c r="Z176">
-        <v>0</v>
-      </c>
-      <c r="AA176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:27">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>6832940</v>
-      </c>
-      <c r="C177" t="s">
-        <v>28</v>
-      </c>
-      <c r="D177" t="s">
-        <v>28</v>
-      </c>
-      <c r="E177" s="2">
-        <v>45382.3125</v>
-      </c>
-      <c r="F177" t="s">
-        <v>30</v>
-      </c>
-      <c r="G177" t="s">
-        <v>42</v>
-      </c>
-      <c r="K177">
-        <v>3.25</v>
-      </c>
-      <c r="L177">
-        <v>3.5</v>
-      </c>
-      <c r="M177">
-        <v>2</v>
-      </c>
-      <c r="N177">
-        <v>2.45</v>
-      </c>
-      <c r="O177">
-        <v>3.6</v>
-      </c>
-      <c r="P177">
-        <v>2.7</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>1.8</v>
-      </c>
-      <c r="S177">
-        <v>2</v>
-      </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
-      <c r="U177">
-        <v>1.8</v>
-      </c>
-      <c r="V177">
-        <v>2</v>
-      </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-      <c r="X177">
-        <v>0</v>
-      </c>
-      <c r="Y177">
-        <v>0</v>
-      </c>
-      <c r="Z177">
-        <v>0</v>
-      </c>
-      <c r="AA177">
         <v>0</v>
       </c>
     </row>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Austria 2 Liga</t>
   </si>
   <si>
-    <t>FC Liefering</t>
+    <t>SV Kapfenberg</t>
   </si>
   <si>
-    <t>SV Kapfenberg</t>
+    <t>FC Liefering</t>
   </si>
   <si>
     <t>FC Flyeralarm Admira</t>
@@ -118,25 +118,25 @@
     <t>St Polten</t>
   </si>
   <si>
-    <t>First Vienna FC 1894</t>
+    <t>SKU Amstetten</t>
   </si>
   <si>
     <t>FC Blau Weiss Linz</t>
   </si>
   <si>
-    <t>SKU Amstetten</t>
+    <t>First Vienna FC 1894</t>
   </si>
   <si>
-    <t>SW Bregenz</t>
+    <t>Leoben DSV</t>
+  </si>
+  <si>
+    <t>Grazer AK</t>
   </si>
   <si>
     <t>SV Lafnitz</t>
   </si>
   <si>
-    <t>Grazer AK</t>
-  </si>
-  <si>
-    <t>Leoben DSV</t>
+    <t>SW Bregenz</t>
   </si>
   <si>
     <t>Floridsdorfer AC</t>
@@ -163,10 +163,10 @@
     <t>Rapid Vienna II</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC174"/>
+  <dimension ref="A1:AC172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5208060</v>
+        <v>5257845</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -643,73 +643,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
       </c>
       <c r="K2">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N2">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P2">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W2">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB2">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5257845</v>
+        <v>5208060</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -732,73 +732,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>0</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P3">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>1.909</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>1.6</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5208063</v>
+        <v>5208061</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,37 +1088,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="N7">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="O7">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P7">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R7">
         <v>1.95</v>
@@ -1127,22 +1127,22 @@
         <v>1.85</v>
       </c>
       <c r="T7">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y7">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
@@ -1151,10 +1151,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>1.181</v>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5208061</v>
+        <v>5208063</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,37 +1266,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="N9">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1305,22 +1305,22 @@
         <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -1329,10 +1329,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>45135.53125</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>1.55</v>
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832066</v>
+        <v>6832067</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1444,55 +1444,55 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>3.4</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
+        <v>3.8</v>
+      </c>
+      <c r="P11">
         <v>3.6</v>
       </c>
-      <c r="P11">
-        <v>2.2</v>
-      </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1501,16 +1501,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6831794</v>
+        <v>6832836</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1533,7 +1533,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1542,46 +1542,46 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
+        <v>1.975</v>
+      </c>
+      <c r="S12">
+        <v>1.825</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
+        <v>1.8</v>
+      </c>
+      <c r="V12">
         <v>2</v>
       </c>
-      <c r="S12">
-        <v>1.8</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>1.8</v>
-      </c>
       <c r="W12">
-        <v>0.833</v>
+        <v>0.615</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1590,16 +1590,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6832839</v>
+        <v>6831794</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,76 +1619,76 @@
         <v>45135.53125</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
+        <v>1.7</v>
+      </c>
+      <c r="L13">
+        <v>3.75</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>1.833</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>3.8</v>
+      </c>
+      <c r="Q13">
+        <v>-0.75</v>
+      </c>
+      <c r="R13">
         <v>2</v>
       </c>
-      <c r="L13">
-        <v>3.4</v>
-      </c>
-      <c r="M13">
-        <v>3.3</v>
-      </c>
-      <c r="N13">
-        <v>2.375</v>
-      </c>
-      <c r="O13">
-        <v>3.6</v>
-      </c>
-      <c r="P13">
-        <v>2.75</v>
-      </c>
-      <c r="Q13">
+      <c r="S13">
+        <v>1.8</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>1.8</v>
+      </c>
+      <c r="W13">
+        <v>0.833</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>1.775</v>
-      </c>
-      <c r="S13">
-        <v>2.025</v>
-      </c>
-      <c r="T13">
-        <v>2.75</v>
-      </c>
-      <c r="U13">
-        <v>1.9</v>
-      </c>
-      <c r="V13">
-        <v>1.9</v>
-      </c>
-      <c r="W13">
-        <v>1.375</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6832836</v>
+        <v>6832066</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,46 +1708,46 @@
         <v>45135.53125</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
         <v>36</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N14">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
         <v>2.75</v>
@@ -1759,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="W14">
-        <v>0.615</v>
+        <v>2</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1768,16 +1768,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6832067</v>
+        <v>6832839</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,58 +1797,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15">
         <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
       </c>
       <c r="L15">
         <v>3.4</v>
       </c>
       <c r="M15">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N15">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,16 +1857,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1987,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>4.2</v>
@@ -2067,7 +2067,7 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>4.2</v>
@@ -2156,7 +2156,7 @@
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>1.727</v>
@@ -2242,7 +2242,7 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -2334,7 +2334,7 @@
         <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2343,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>2.3</v>
@@ -2509,10 +2509,10 @@
         <v>45143.625</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2598,7 +2598,7 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832849</v>
+        <v>6832850</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,10 +2687,10 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2699,46 +2699,46 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O25">
         <v>3.6</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>0.909</v>
+        <v>2.3</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2747,7 +2747,7 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2756,7 +2756,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832846</v>
+        <v>6832849</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,76 +2776,76 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>0</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>50</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L26">
+        <v>3.4</v>
+      </c>
+      <c r="M26">
+        <v>3.2</v>
+      </c>
+      <c r="N26">
+        <v>1.909</v>
+      </c>
+      <c r="O26">
         <v>3.6</v>
       </c>
-      <c r="M26">
-        <v>3.8</v>
-      </c>
-      <c r="N26">
-        <v>1.5</v>
-      </c>
-      <c r="O26">
-        <v>4.333</v>
-      </c>
       <c r="P26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6832850</v>
+        <v>6832846</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,49 +2865,49 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>49</v>
       </c>
       <c r="K27">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N27">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P27">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <v>1.825</v>
@@ -2916,19 +2916,19 @@
         <v>1.975</v>
       </c>
       <c r="W27">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2954,10 +2954,10 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6834058</v>
+        <v>6832847</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,76 +3043,76 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>0</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>50</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N29">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O29">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
+        <v>1.975</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
         <v>1.95</v>
       </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
-      <c r="U29">
-        <v>1.75</v>
-      </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6832847</v>
+        <v>6834058</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3132,76 +3132,76 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>49</v>
       </c>
       <c r="K30">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
+        <v>1.75</v>
+      </c>
+      <c r="V30">
         <v>1.95</v>
       </c>
-      <c r="V30">
-        <v>1.85</v>
-      </c>
       <c r="W30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3221,10 +3221,10 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>2.25</v>
@@ -3402,7 +3402,7 @@
         <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>1.727</v>
@@ -3488,10 +3488,10 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3577,7 +3577,7 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>43</v>
@@ -3669,7 +3669,7 @@
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
         <v>2.6</v>
@@ -3758,7 +3758,7 @@
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3844,7 +3844,7 @@
         <v>45156.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>1.533</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4022,7 +4022,7 @@
         <v>45158.3125</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -4034,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4114,7 +4114,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
         <v>2.6</v>
@@ -4200,10 +4200,10 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>1.75</v>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43">
         <v>2.25</v>
@@ -4378,7 +4378,7 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>44</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4559,7 +4559,7 @@
         <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46">
         <v>1.8</v>
@@ -4648,7 +4648,7 @@
         <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K47">
         <v>2.25</v>
@@ -4734,10 +4734,10 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
         <v>38</v>
-      </c>
-      <c r="G48" t="s">
-        <v>39</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48">
         <v>3.1</v>
@@ -4826,7 +4826,7 @@
         <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6832866</v>
+        <v>6832864</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4915,37 +4915,37 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M50">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="N50">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P50">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
         <v>1.85</v>
@@ -4954,34 +4954,34 @@
         <v>1.95</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z50">
+        <v>0.425</v>
+      </c>
+      <c r="AA50">
+        <v>-0.5</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6832863</v>
+        <v>6832861</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,76 +5001,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N51">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
         <v>2</v>
       </c>
-      <c r="S51">
-        <v>1.8</v>
-      </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6832864</v>
+        <v>6832863</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,76 +5090,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52">
+        <v>1.727</v>
+      </c>
+      <c r="L52">
         <v>3.75</v>
       </c>
-      <c r="L52">
-        <v>4.2</v>
-      </c>
       <c r="M52">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="N52">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
         <v>5</v>
       </c>
-      <c r="P52">
-        <v>1.5</v>
-      </c>
       <c r="Q52">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6832861</v>
+        <v>6832866</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,58 +5179,58 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L53">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N53">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="O53">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
         <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>0.833</v>
+        <v>1.9</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5239,16 +5239,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54">
         <v>2.25</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55">
         <v>2.05</v>
@@ -5446,10 +5446,10 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>2.7</v>
@@ -5535,10 +5535,10 @@
         <v>45172.22916666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57">
         <v>3.6</v>
@@ -5636,7 +5636,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832870</v>
+        <v>6832871</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,34 +5713,34 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
         <v>2</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>49</v>
       </c>
       <c r="K59">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L59">
         <v>3.5</v>
       </c>
       <c r="M59">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N59">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
         <v>3</v>
@@ -5749,40 +5749,40 @@
         <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
         <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
+        <v>1.925</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
         <v>2</v>
       </c>
-      <c r="W59">
-        <v>1.2</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
       <c r="Z59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6832869</v>
+        <v>6832868</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,7 +5802,7 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -5811,31 +5811,31 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>49</v>
       </c>
       <c r="K60">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N60">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R60">
         <v>1.85</v>
@@ -5847,31 +5847,31 @@
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6832871</v>
+        <v>6832870</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,34 +5891,34 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>50</v>
       </c>
       <c r="K61">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L61">
         <v>3.5</v>
       </c>
       <c r="M61">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N61">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P61">
         <v>3</v>
@@ -5927,40 +5927,40 @@
         <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6832868</v>
+        <v>6832869</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,7 +5980,7 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>34</v>
@@ -5989,31 +5989,31 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>50</v>
       </c>
       <c r="K62">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N62">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R62">
         <v>1.85</v>
@@ -6025,31 +6025,31 @@
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6069,10 +6069,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>3.75</v>
@@ -6161,7 +6161,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6170,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6250,7 +6250,7 @@
         <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K65">
         <v>1.571</v>
@@ -6336,7 +6336,7 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6348,7 +6348,7 @@
         <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.6</v>
@@ -6425,10 +6425,10 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>2.7</v>
@@ -6517,7 +6517,7 @@
         <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6526,7 +6526,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>1.909</v>
@@ -6692,10 +6692,10 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K70">
         <v>1.533</v>
@@ -6781,7 +6781,7 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -6870,7 +6870,7 @@
         <v>45192.625</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
         <v>44</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73">
         <v>1.909</v>
@@ -7048,10 +7048,10 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75">
         <v>1.833</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7318,7 +7318,7 @@
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>2.15</v>
@@ -7404,7 +7404,7 @@
         <v>45199.39583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
         <v>31</v>
@@ -7496,7 +7496,7 @@
         <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7505,7 +7505,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>1.75</v>
@@ -7585,7 +7585,7 @@
         <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7594,7 +7594,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K80">
         <v>2.3</v>
@@ -7671,10 +7671,10 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7683,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832885</v>
+        <v>6832082</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,76 +7760,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K82">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N82">
+        <v>2.05</v>
+      </c>
+      <c r="O82">
         <v>3.75</v>
       </c>
-      <c r="O82">
-        <v>3.6</v>
-      </c>
       <c r="P82">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="U82">
+        <v>1.975</v>
+      </c>
+      <c r="V82">
+        <v>1.825</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>2.75</v>
       </c>
-      <c r="U82">
-        <v>1.875</v>
-      </c>
-      <c r="V82">
-        <v>1.925</v>
-      </c>
-      <c r="W82">
-        <v>2.75</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6831800</v>
+        <v>6832886</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,56 +7849,56 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L83">
         <v>3.6</v>
       </c>
       <c r="M83">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N83">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U83">
+        <v>1.95</v>
+      </c>
+      <c r="V83">
         <v>1.85</v>
       </c>
-      <c r="V83">
-        <v>1.95</v>
-      </c>
       <c r="W83">
         <v>-1</v>
       </c>
@@ -7906,19 +7906,19 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>1.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832886</v>
+        <v>6832885</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,73 +7938,73 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>50</v>
       </c>
       <c r="K84">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L84">
         <v>3.6</v>
       </c>
       <c r="M84">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6832082</v>
+        <v>6831800</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K85">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L85">
+        <v>3.6</v>
+      </c>
+      <c r="M85">
         <v>3.4</v>
       </c>
-      <c r="M85">
-        <v>2.75</v>
-      </c>
       <c r="N85">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
         <v>1.975</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8116,7 +8116,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6832884</v>
+        <v>6832083</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,76 +8205,76 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>50</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
+        <v>1.925</v>
+      </c>
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
         <v>1.9</v>
       </c>
-      <c r="S87">
+      <c r="V87">
         <v>1.9</v>
       </c>
-      <c r="T87">
-        <v>3</v>
-      </c>
-      <c r="U87">
-        <v>1.975</v>
-      </c>
-      <c r="V87">
-        <v>1.825</v>
-      </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
+        <v>-0</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB87">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6832083</v>
+        <v>6832884</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8294,76 +8294,76 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
         <v>49</v>
       </c>
       <c r="K88">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N88">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>45207.22916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>31</v>
@@ -8472,7 +8472,7 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
         <v>43</v>
@@ -8484,7 +8484,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>2.15</v>
@@ -8564,7 +8564,7 @@
         <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>4</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K91">
         <v>1.615</v>
@@ -8653,7 +8653,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6832887</v>
+        <v>6832085</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8828,40 +8828,40 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K94">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
+        <v>2.875</v>
+      </c>
+      <c r="N94">
         <v>2.2</v>
       </c>
-      <c r="N94">
-        <v>3</v>
-      </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
         <v>1.9</v>
@@ -8870,34 +8870,34 @@
         <v>1.9</v>
       </c>
       <c r="T94">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X94">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6832085</v>
+        <v>6832887</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,40 +8917,40 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N95">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P95">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8959,34 +8959,34 @@
         <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9006,7 +9006,7 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9018,7 +9018,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K96">
         <v>2.05</v>
@@ -9098,7 +9098,7 @@
         <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832086</v>
+        <v>6831802</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K98">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O98">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.775</v>
+      </c>
+      <c r="S98">
         <v>2.025</v>
       </c>
-      <c r="S98">
-        <v>1.775</v>
-      </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6832892</v>
+        <v>6832894</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,10 +9273,10 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9285,43 +9285,43 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>4.2</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="N99">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="Q99">
         <v>0.75</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9330,16 +9330,16 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.6499999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z99">
         <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB99">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AC99">
         <v>-0.5</v>
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6832895</v>
+        <v>6832086</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,58 +9362,58 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N100">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P100">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>0.7270000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9422,13 +9422,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6832894</v>
+        <v>6832892</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,10 +9451,10 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9463,43 +9463,43 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>4.2</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="N101">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="Q101">
         <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9508,16 +9508,16 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.7270000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z101">
         <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB101">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AC101">
         <v>-0.5</v>
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6831802</v>
+        <v>6832895</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,76 +9540,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M102">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P102">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
+        <v>1.75</v>
+      </c>
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X102">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6832087</v>
+        <v>6832893</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,40 +9629,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
+        <v>3.4</v>
+      </c>
+      <c r="M103">
+        <v>2.875</v>
+      </c>
+      <c r="N103">
+        <v>2.2</v>
+      </c>
+      <c r="O103">
         <v>3.5</v>
       </c>
-      <c r="M103">
-        <v>3.4</v>
-      </c>
-      <c r="N103">
-        <v>1.833</v>
-      </c>
-      <c r="O103">
-        <v>3.6</v>
-      </c>
       <c r="P103">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
         <v>1.875</v>
@@ -9671,34 +9671,34 @@
         <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X103">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6832893</v>
+        <v>6832087</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,40 +9718,40 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
+        <v>3.5</v>
+      </c>
+      <c r="M104">
         <v>3.4</v>
       </c>
-      <c r="M104">
-        <v>2.875</v>
-      </c>
       <c r="N104">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
         <v>1.875</v>
@@ -9760,34 +9760,34 @@
         <v>1.925</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9908,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <v>1.55</v>
@@ -9988,7 +9988,7 @@
         <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
         <v>1.909</v>
@@ -10074,10 +10074,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K109">
         <v>1.4</v>
@@ -10252,10 +10252,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10341,10 +10341,10 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F111" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" t="s">
         <v>37</v>
-      </c>
-      <c r="G111" t="s">
-        <v>40</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>1.571</v>
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6832907</v>
+        <v>6832904</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,58 +10519,58 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>50</v>
+      </c>
+      <c r="K113">
+        <v>2.5</v>
+      </c>
+      <c r="L113">
+        <v>3.4</v>
+      </c>
+      <c r="M113">
+        <v>2.5</v>
+      </c>
+      <c r="N113">
+        <v>2.55</v>
+      </c>
+      <c r="O113">
+        <v>3.25</v>
+      </c>
+      <c r="P113">
+        <v>2.875</v>
+      </c>
+      <c r="Q113">
         <v>0</v>
       </c>
-      <c r="J113" t="s">
-        <v>49</v>
-      </c>
-      <c r="K113">
-        <v>1.65</v>
-      </c>
-      <c r="L113">
-        <v>4</v>
-      </c>
-      <c r="M113">
-        <v>4.2</v>
-      </c>
-      <c r="N113">
-        <v>1.615</v>
-      </c>
-      <c r="O113">
-        <v>4.2</v>
-      </c>
-      <c r="P113">
-        <v>5</v>
-      </c>
-      <c r="Q113">
-        <v>-1</v>
-      </c>
       <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
         <v>2</v>
       </c>
-      <c r="S113">
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>2</v>
+      </c>
+      <c r="V113">
         <v>1.8</v>
       </c>
-      <c r="T113">
-        <v>3</v>
-      </c>
-      <c r="U113">
-        <v>1.85</v>
-      </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
       <c r="W113">
-        <v>0.615</v>
+        <v>1.55</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10579,13 +10579,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>0.8</v>
+      </c>
+      <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
         <v>1</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
-      <c r="AB113">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6832906</v>
+        <v>6832905</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,40 +10608,40 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P114">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R114">
         <v>1.975</v>
@@ -10650,16 +10650,16 @@
         <v>1.825</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,16 +10668,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6832904</v>
+        <v>6832906</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,58 +10697,58 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F115" t="s">
+        <v>45</v>
+      </c>
+      <c r="G115" t="s">
         <v>34</v>
       </c>
-      <c r="G115" t="s">
-        <v>31</v>
-      </c>
       <c r="H115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N115">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O115">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>1.975</v>
+      </c>
+      <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
         <v>1.8</v>
       </c>
-      <c r="S115">
+      <c r="V115">
         <v>2</v>
       </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
-      <c r="V115">
-        <v>1.8</v>
-      </c>
       <c r="W115">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10757,13 +10757,13 @@
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>0.8</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>1</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6832905</v>
+        <v>6832907</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,58 +10786,58 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M116">
         <v>4.2</v>
       </c>
       <c r="N116">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O116">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P116">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q116">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T116">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>0.3999999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10846,16 +10846,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>45240.6875</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
         <v>33</v>
@@ -10887,7 +10887,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>3</v>
@@ -10964,7 +10964,7 @@
         <v>45241.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
         <v>32</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K118">
         <v>1.666</v>
@@ -11053,7 +11053,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>41</v>
@@ -11065,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11142,10 +11142,10 @@
         <v>45242.35416666666</v>
       </c>
       <c r="F120" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" t="s">
         <v>29</v>
-      </c>
-      <c r="G120" t="s">
-        <v>30</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>2.05</v>
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11332,7 +11332,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11409,10 +11409,10 @@
         <v>45254.6875</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11421,7 +11421,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>4.5</v>
@@ -11510,7 +11510,7 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K124">
         <v>5.75</v>
@@ -11587,10 +11587,10 @@
         <v>45255.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11599,7 +11599,7 @@
         <v>6</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>2.2</v>
@@ -11679,7 +11679,7 @@
         <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11688,7 +11688,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11765,10 +11765,10 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F127" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" t="s">
         <v>36</v>
-      </c>
-      <c r="G127" t="s">
-        <v>34</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11777,7 +11777,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>2.875</v>
@@ -11857,7 +11857,7 @@
         <v>42</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11866,7 +11866,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K128">
         <v>3.75</v>
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6831806</v>
+        <v>6832914</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,55 +11943,55 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N129">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R129">
+        <v>1.95</v>
+      </c>
+      <c r="S129">
         <v>1.85</v>
-      </c>
-      <c r="S129">
-        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -12000,16 +12000,16 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6832917</v>
+        <v>6831806</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,73 +12032,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N130">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O130">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q130">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6832914</v>
+        <v>6832917</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,73 +12121,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>50</v>
       </c>
       <c r="K131">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M131">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N131">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P131">
-        <v>2.625</v>
+        <v>13</v>
       </c>
       <c r="Q131">
+        <v>-2</v>
+      </c>
+      <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
+        <v>2</v>
+      </c>
+      <c r="T131">
+        <v>3.5</v>
+      </c>
+      <c r="U131">
+        <v>1.875</v>
+      </c>
+      <c r="V131">
+        <v>1.925</v>
+      </c>
+      <c r="W131">
+        <v>0.2</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
         <v>0</v>
       </c>
-      <c r="R131">
-        <v>1.95</v>
-      </c>
-      <c r="S131">
-        <v>1.85</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.9</v>
-      </c>
-      <c r="V131">
-        <v>1.9</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>1.625</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
       <c r="AA131">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12222,7 +12222,7 @@
         <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>5.25</v>
@@ -12302,7 +12302,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12311,7 +12311,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K133">
         <v>3.2</v>
@@ -12400,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>1.666</v>
@@ -12480,7 +12480,7 @@
         <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12489,7 +12489,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K135">
         <v>3.5</v>
@@ -12566,10 +12566,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12578,7 +12578,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K136">
         <v>5.5</v>
@@ -12655,10 +12655,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12667,7 +12667,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>1.909</v>
@@ -12744,7 +12744,7 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>43</v>
@@ -12756,7 +12756,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K138">
         <v>1.8</v>
@@ -12833,7 +12833,7 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>45</v>
@@ -12845,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K139">
         <v>1.85</v>
@@ -12925,7 +12925,7 @@
         <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>45345.6875</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K141">
         <v>4.75</v>
@@ -13103,7 +13103,7 @@
         <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13189,7 +13189,7 @@
         <v>45346.4375</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
         <v>32</v>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143">
         <v>1.285</v>
@@ -13278,10 +13278,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13290,7 +13290,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K144">
         <v>1.909</v>
@@ -13379,7 +13379,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K145">
         <v>2.9</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6832097</v>
+        <v>6832929</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
         <v>0</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>50</v>
       </c>
       <c r="K146">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M146">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="N146">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O146">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P146">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q146">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R146">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6832929</v>
+        <v>6832926</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,28 +13545,28 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K147">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L147">
+        <v>4.2</v>
+      </c>
+      <c r="M147">
         <v>5</v>
-      </c>
-      <c r="M147">
-        <v>7.5</v>
       </c>
       <c r="N147">
         <v>1.363</v>
@@ -13578,22 +13578,22 @@
         <v>7</v>
       </c>
       <c r="Q147">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>0.363</v>
@@ -13605,16 +13605,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6832926</v>
+        <v>6832097</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,76 +13634,76 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>49</v>
       </c>
       <c r="K148">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L148">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="N148">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O148">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q148">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
+        <v>2.025</v>
+      </c>
+      <c r="S148">
+        <v>1.775</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
         <v>1.8</v>
       </c>
-      <c r="S148">
+      <c r="V148">
         <v>2</v>
       </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
-      <c r="V148">
-        <v>1.85</v>
-      </c>
       <c r="W148">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13723,10 +13723,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13812,10 +13812,10 @@
         <v>45353.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13824,7 +13824,7 @@
         <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K150">
         <v>3.4</v>
@@ -13904,7 +13904,7 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13913,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>2.8</v>
@@ -13990,7 +13990,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
         <v>33</v>
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K152">
         <v>3.4</v>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
         <v>2.7</v>
@@ -14171,7 +14171,7 @@
         <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14180,7 +14180,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K154">
         <v>2.05</v>
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6832934</v>
+        <v>6832930</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,73 +14257,73 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
         <v>1</v>
-      </c>
-      <c r="I155">
-        <v>2</v>
       </c>
       <c r="J155" t="s">
         <v>50</v>
       </c>
       <c r="K155">
+        <v>3.75</v>
+      </c>
+      <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
         <v>1.833</v>
       </c>
-      <c r="L155">
-        <v>3.75</v>
-      </c>
-      <c r="M155">
-        <v>3.6</v>
-      </c>
       <c r="N155">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O155">
         <v>3.75</v>
       </c>
       <c r="P155">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
         <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832098</v>
+        <v>6832934</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,76 +14346,76 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N156">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P156">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
+        <v>1.975</v>
+      </c>
+      <c r="T156">
+        <v>2.5</v>
+      </c>
+      <c r="U156">
+        <v>1.75</v>
+      </c>
+      <c r="V156">
         <v>1.95</v>
       </c>
-      <c r="T156">
-        <v>2.75</v>
-      </c>
-      <c r="U156">
-        <v>1.825</v>
-      </c>
-      <c r="V156">
-        <v>1.975</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14438,7 +14438,7 @@
         <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K157">
         <v>1.444</v>
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6832930</v>
+        <v>6832098</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,49 +14524,49 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K158">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L158">
+        <v>3.4</v>
+      </c>
+      <c r="M158">
+        <v>2.2</v>
+      </c>
+      <c r="N158">
         <v>3.6</v>
       </c>
-      <c r="M158">
-        <v>1.833</v>
-      </c>
-      <c r="N158">
-        <v>4</v>
-      </c>
       <c r="O158">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q158">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
         <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
         <v>1.825</v>
@@ -14575,25 +14575,25 @@
         <v>1.975</v>
       </c>
       <c r="W158">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14613,7 +14613,7 @@
         <v>45359.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
         <v>44</v>
@@ -14625,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K159">
         <v>3</v>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K160">
         <v>1.533</v>
@@ -14794,7 +14794,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K161">
         <v>6</v>
@@ -14883,7 +14883,7 @@
         <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K162">
         <v>1.615</v>
@@ -14981,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K163">
         <v>2.05</v>
@@ -15058,10 +15058,10 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F164" t="s">
+        <v>38</v>
+      </c>
+      <c r="G164" t="s">
         <v>39</v>
-      </c>
-      <c r="G164" t="s">
-        <v>38</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15147,10 +15147,10 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15159,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15236,7 +15236,7 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
         <v>31</v>
@@ -15248,7 +15248,7 @@
         <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K166">
         <v>3.3</v>
@@ -15337,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K167">
         <v>2.75</v>
@@ -15414,7 +15414,7 @@
         <v>45367.4375</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
         <v>42</v>
@@ -15503,7 +15503,7 @@
         <v>45368.27083333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
         <v>32</v>
@@ -15515,7 +15515,7 @@
         <v>4</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K169">
         <v>1.95</v>
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6832102</v>
+        <v>6832941</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,49 +15589,49 @@
         <v>28</v>
       </c>
       <c r="E170" s="2">
-        <v>45381.4375</v>
+        <v>45382.22916666666</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K170">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="L170">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M170">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N170">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="O170">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P170">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R170">
+        <v>1.825</v>
+      </c>
+      <c r="S170">
         <v>1.975</v>
-      </c>
-      <c r="S170">
-        <v>1.825</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
         <v>0</v>
@@ -15654,7 +15654,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6832945</v>
+        <v>6832942</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,49 +15663,49 @@
         <v>28</v>
       </c>
       <c r="E171" s="2">
-        <v>45381.4375</v>
+        <v>45382.22916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K171">
+        <v>2.5</v>
+      </c>
+      <c r="L171">
         <v>3.5</v>
       </c>
-      <c r="L171">
+      <c r="M171">
+        <v>2.45</v>
+      </c>
+      <c r="N171">
         <v>3.6</v>
       </c>
-      <c r="M171">
-        <v>1.869</v>
-      </c>
-      <c r="N171">
-        <v>2.8</v>
-      </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P171">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q171">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
         <v>0</v>
@@ -15728,7 +15728,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6832941</v>
+        <v>6832940</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15737,49 +15737,49 @@
         <v>28</v>
       </c>
       <c r="E172" s="2">
-        <v>45382.22916666666</v>
+        <v>45382.3125</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K172">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L172">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N172">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
+        <v>2.8</v>
+      </c>
+      <c r="Q172">
+        <v>-0.25</v>
+      </c>
+      <c r="R172">
+        <v>2.05</v>
+      </c>
+      <c r="S172">
         <v>1.75</v>
       </c>
-      <c r="Q172">
-        <v>0.75</v>
-      </c>
-      <c r="R172">
-        <v>1.825</v>
-      </c>
-      <c r="S172">
-        <v>1.975</v>
-      </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W172">
         <v>0</v>
@@ -15794,154 +15794,6 @@
         <v>0</v>
       </c>
       <c r="AA172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:29">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>6832942</v>
-      </c>
-      <c r="C173" t="s">
-        <v>28</v>
-      </c>
-      <c r="D173" t="s">
-        <v>28</v>
-      </c>
-      <c r="E173" s="2">
-        <v>45382.22916666666</v>
-      </c>
-      <c r="F173" t="s">
-        <v>43</v>
-      </c>
-      <c r="G173" t="s">
-        <v>34</v>
-      </c>
-      <c r="K173">
-        <v>2.5</v>
-      </c>
-      <c r="L173">
-        <v>3.5</v>
-      </c>
-      <c r="M173">
-        <v>2.45</v>
-      </c>
-      <c r="N173">
-        <v>3.2</v>
-      </c>
-      <c r="O173">
-        <v>3.75</v>
-      </c>
-      <c r="P173">
-        <v>2.1</v>
-      </c>
-      <c r="Q173">
-        <v>0.25</v>
-      </c>
-      <c r="R173">
-        <v>1.975</v>
-      </c>
-      <c r="S173">
-        <v>1.825</v>
-      </c>
-      <c r="T173">
-        <v>2.75</v>
-      </c>
-      <c r="U173">
-        <v>1.95</v>
-      </c>
-      <c r="V173">
-        <v>1.85</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
-        <v>0</v>
-      </c>
-      <c r="Y173">
-        <v>0</v>
-      </c>
-      <c r="Z173">
-        <v>0</v>
-      </c>
-      <c r="AA173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:29">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>6832940</v>
-      </c>
-      <c r="C174" t="s">
-        <v>28</v>
-      </c>
-      <c r="D174" t="s">
-        <v>28</v>
-      </c>
-      <c r="E174" s="2">
-        <v>45382.3125</v>
-      </c>
-      <c r="F174" t="s">
-        <v>29</v>
-      </c>
-      <c r="G174" t="s">
-        <v>41</v>
-      </c>
-      <c r="K174">
-        <v>3.25</v>
-      </c>
-      <c r="L174">
-        <v>3.5</v>
-      </c>
-      <c r="M174">
-        <v>2</v>
-      </c>
-      <c r="N174">
-        <v>2.45</v>
-      </c>
-      <c r="O174">
-        <v>3.6</v>
-      </c>
-      <c r="P174">
-        <v>2.7</v>
-      </c>
-      <c r="Q174">
-        <v>0</v>
-      </c>
-      <c r="R174">
-        <v>1.8</v>
-      </c>
-      <c r="S174">
-        <v>2</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
-      <c r="U174">
-        <v>1.8</v>
-      </c>
-      <c r="V174">
-        <v>2</v>
-      </c>
-      <c r="W174">
-        <v>0</v>
-      </c>
-      <c r="X174">
-        <v>0</v>
-      </c>
-      <c r="Y174">
-        <v>0</v>
-      </c>
-      <c r="Z174">
-        <v>0</v>
-      </c>
-      <c r="AA174">
         <v>0</v>
       </c>
     </row>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6832914</v>
+        <v>6831806</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,13 +11943,13 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>4</v>
@@ -11958,40 +11958,40 @@
         <v>51</v>
       </c>
       <c r="K129">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N129">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
+        <v>1.85</v>
+      </c>
+      <c r="S129">
         <v>1.95</v>
-      </c>
-      <c r="S129">
-        <v>1.85</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -12000,16 +12000,16 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.625</v>
+        <v>2.8</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6831806</v>
+        <v>6832914</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,13 +12032,13 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>4</v>
@@ -12047,40 +12047,40 @@
         <v>51</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M130">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
         <v>1.85</v>
-      </c>
-      <c r="S130">
-        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12089,16 +12089,16 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>2.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB130">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6832926</v>
+        <v>6832929</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,13 +13545,13 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13560,13 +13560,13 @@
         <v>49</v>
       </c>
       <c r="K147">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L147">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M147">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N147">
         <v>1.363</v>
@@ -13578,22 +13578,22 @@
         <v>7</v>
       </c>
       <c r="Q147">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R147">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
         <v>0.363</v>
@@ -13605,16 +13605,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6832929</v>
+        <v>6832926</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,13 +13634,13 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13649,13 +13649,13 @@
         <v>49</v>
       </c>
       <c r="K148">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L148">
+        <v>4.2</v>
+      </c>
+      <c r="M148">
         <v>5</v>
-      </c>
-      <c r="M148">
-        <v>7.5</v>
       </c>
       <c r="N148">
         <v>1.363</v>
@@ -13667,22 +13667,22 @@
         <v>7</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
         <v>0.363</v>
@@ -13694,16 +13694,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6831808</v>
+        <v>6832933</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,76 +14168,76 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
         <v>2</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K154">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L154">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M154">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N154">
+        <v>2.5</v>
+      </c>
+      <c r="O154">
+        <v>4</v>
+      </c>
+      <c r="P154">
+        <v>2.45</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>1.9</v>
+      </c>
+      <c r="S154">
+        <v>1.9</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
         <v>1.8</v>
       </c>
-      <c r="O154">
-        <v>3.75</v>
-      </c>
-      <c r="P154">
-        <v>4.2</v>
-      </c>
-      <c r="Q154">
-        <v>-0.75</v>
-      </c>
-      <c r="R154">
-        <v>1.95</v>
-      </c>
-      <c r="S154">
-        <v>1.75</v>
-      </c>
-      <c r="T154">
-        <v>2.5</v>
-      </c>
-      <c r="U154">
-        <v>1.9</v>
-      </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W154">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6832933</v>
+        <v>6831808</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,76 +14257,76 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K155">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L155">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M155">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N155">
+        <v>1.8</v>
+      </c>
+      <c r="O155">
+        <v>3.75</v>
+      </c>
+      <c r="P155">
+        <v>4.2</v>
+      </c>
+      <c r="Q155">
+        <v>-0.75</v>
+      </c>
+      <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>1.75</v>
+      </c>
+      <c r="T155">
         <v>2.5</v>
       </c>
-      <c r="O155">
-        <v>4</v>
-      </c>
-      <c r="P155">
-        <v>2.45</v>
-      </c>
-      <c r="Q155">
-        <v>0</v>
-      </c>
-      <c r="R155">
+      <c r="U155">
         <v>1.9</v>
       </c>
-      <c r="S155">
+      <c r="V155">
         <v>1.9</v>
       </c>
-      <c r="T155">
-        <v>2.75</v>
-      </c>
-      <c r="U155">
-        <v>1.8</v>
-      </c>
-      <c r="V155">
-        <v>2</v>
-      </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB155">
-        <v>-1</v>
-      </c>
-      <c r="AC155">
-        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832098</v>
+        <v>6832930</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,49 +14346,49 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N156">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P156">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S156">
         <v>1.95</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
         <v>1.825</v>
@@ -14397,25 +14397,25 @@
         <v>1.975</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6832930</v>
+        <v>6832098</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,49 +14435,49 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L157">
+        <v>3.4</v>
+      </c>
+      <c r="M157">
+        <v>2.2</v>
+      </c>
+      <c r="N157">
         <v>3.6</v>
       </c>
-      <c r="M157">
-        <v>1.833</v>
-      </c>
-      <c r="N157">
-        <v>4</v>
-      </c>
       <c r="O157">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P157">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q157">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
         <v>1.95</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
         <v>1.825</v>
@@ -14486,25 +14486,25 @@
         <v>1.975</v>
       </c>
       <c r="W157">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6832100</v>
+        <v>6832939</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,58 +14880,58 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
         <v>1</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>49</v>
       </c>
       <c r="K162">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L162">
+        <v>3.8</v>
+      </c>
+      <c r="M162">
+        <v>3.1</v>
+      </c>
+      <c r="N162">
+        <v>2.05</v>
+      </c>
+      <c r="O162">
+        <v>3.8</v>
+      </c>
+      <c r="P162">
         <v>3.3</v>
       </c>
-      <c r="M162">
-        <v>2.4</v>
-      </c>
-      <c r="N162">
-        <v>3.75</v>
-      </c>
-      <c r="O162">
-        <v>3.25</v>
-      </c>
-      <c r="P162">
-        <v>2.1</v>
-      </c>
       <c r="Q162">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14940,16 +14940,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6832936</v>
+        <v>6832938</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>50</v>
+      </c>
+      <c r="K163">
+        <v>1.444</v>
+      </c>
+      <c r="L163">
+        <v>4.5</v>
+      </c>
+      <c r="M163">
+        <v>6</v>
+      </c>
+      <c r="N163">
+        <v>1.4</v>
+      </c>
+      <c r="O163">
+        <v>4.75</v>
+      </c>
+      <c r="P163">
+        <v>7</v>
+      </c>
+      <c r="Q163">
+        <v>-1.25</v>
+      </c>
+      <c r="R163">
+        <v>1.9</v>
+      </c>
+      <c r="S163">
+        <v>1.9</v>
+      </c>
+      <c r="T163">
         <v>3</v>
       </c>
-      <c r="I163">
-        <v>2</v>
-      </c>
-      <c r="J163" t="s">
-        <v>49</v>
-      </c>
-      <c r="K163">
-        <v>1.615</v>
-      </c>
-      <c r="L163">
-        <v>4</v>
-      </c>
-      <c r="M163">
-        <v>4.75</v>
-      </c>
-      <c r="N163">
-        <v>1.909</v>
-      </c>
-      <c r="O163">
+      <c r="U163">
+        <v>1.95</v>
+      </c>
+      <c r="V163">
+        <v>1.85</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
         <v>3.75</v>
       </c>
-      <c r="P163">
-        <v>4</v>
-      </c>
-      <c r="Q163">
-        <v>-0.5</v>
-      </c>
-      <c r="R163">
-        <v>1.875</v>
-      </c>
-      <c r="S163">
-        <v>1.925</v>
-      </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>1.875</v>
-      </c>
-      <c r="V163">
-        <v>1.925</v>
-      </c>
-      <c r="W163">
-        <v>0.909</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB163">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6832935</v>
+        <v>6832936</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,73 +15058,73 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="L164">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N164">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P164">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6832939</v>
+        <v>6832935</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F165" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>3</v>
+      </c>
+      <c r="J165" t="s">
+        <v>51</v>
+      </c>
+      <c r="K165">
+        <v>3.3</v>
+      </c>
+      <c r="L165">
+        <v>3.5</v>
+      </c>
+      <c r="M165">
         <v>2</v>
       </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-      <c r="J165" t="s">
-        <v>49</v>
-      </c>
-      <c r="K165">
-        <v>2.05</v>
-      </c>
-      <c r="L165">
-        <v>3.8</v>
-      </c>
-      <c r="M165">
-        <v>3.1</v>
-      </c>
       <c r="N165">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
+        <v>1.85</v>
+      </c>
+      <c r="S165">
         <v>1.95</v>
       </c>
-      <c r="S165">
-        <v>1.75</v>
-      </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
         <v>0.95</v>
       </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
       <c r="AB165">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6832938</v>
+        <v>6832100</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,76 +15236,76 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K166">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="L166">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M166">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N166">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O166">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P166">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q166">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U166">
+        <v>1.85</v>
+      </c>
+      <c r="V166">
         <v>1.95</v>
       </c>
-      <c r="V166">
-        <v>1.85</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X166">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA166">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6832942</v>
+        <v>6832941</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,73 +16037,73 @@
         <v>45382.22916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
         <v>3</v>
       </c>
-      <c r="I175">
-        <v>2</v>
-      </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K175">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L175">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M175">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N175">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O175">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P175">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Q175">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB175">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6832941</v>
+        <v>6832942</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,73 +16126,73 @@
         <v>45382.22916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L176">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N176">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O176">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P176">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Q176">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R176">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16319,31 +16319,31 @@
         <v>1.6</v>
       </c>
       <c r="N178">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="O178">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="Q178">
         <v>1</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
         <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -16405,10 +16405,10 @@
         <v>0.75</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
         <v>3</v>
@@ -16467,22 +16467,22 @@
         <v>1.95</v>
       </c>
       <c r="N180">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O180">
         <v>3.4</v>
       </c>
       <c r="P180">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q180">
         <v>0.5</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T180">
         <v>2.5</v>
@@ -16553,10 +16553,10 @@
         <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T181">
         <v>2.75</v>
@@ -16627,19 +16627,19 @@
         <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V182">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -16858,10 +16858,10 @@
         <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W185">
         <v>0</v>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6831806</v>
+        <v>6832914</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,13 +11943,13 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>4</v>
@@ -11958,40 +11958,40 @@
         <v>51</v>
       </c>
       <c r="K129">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N129">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R129">
+        <v>1.95</v>
+      </c>
+      <c r="S129">
         <v>1.85</v>
-      </c>
-      <c r="S129">
-        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -12000,16 +12000,16 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.8</v>
+        <v>1.625</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6832914</v>
+        <v>6831806</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,13 +12032,13 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>4</v>
@@ -12047,40 +12047,40 @@
         <v>51</v>
       </c>
       <c r="K130">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N130">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
+        <v>1.85</v>
+      </c>
+      <c r="S130">
         <v>1.95</v>
-      </c>
-      <c r="S130">
-        <v>1.85</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12089,16 +12089,16 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.625</v>
+        <v>2.8</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6832929</v>
+        <v>6832926</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,13 +13545,13 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13560,13 +13560,13 @@
         <v>49</v>
       </c>
       <c r="K147">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L147">
+        <v>4.2</v>
+      </c>
+      <c r="M147">
         <v>5</v>
-      </c>
-      <c r="M147">
-        <v>7.5</v>
       </c>
       <c r="N147">
         <v>1.363</v>
@@ -13578,22 +13578,22 @@
         <v>7</v>
       </c>
       <c r="Q147">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>0.363</v>
@@ -13605,16 +13605,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6832926</v>
+        <v>6832929</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,13 +13634,13 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H148">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13649,13 +13649,13 @@
         <v>49</v>
       </c>
       <c r="K148">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L148">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N148">
         <v>1.363</v>
@@ -13667,22 +13667,22 @@
         <v>7</v>
       </c>
       <c r="Q148">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
         <v>0.363</v>
@@ -13694,16 +13694,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6832933</v>
+        <v>6831808</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,76 +14168,76 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K154">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L154">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M154">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N154">
+        <v>1.8</v>
+      </c>
+      <c r="O154">
+        <v>3.75</v>
+      </c>
+      <c r="P154">
+        <v>4.2</v>
+      </c>
+      <c r="Q154">
+        <v>-0.75</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.75</v>
+      </c>
+      <c r="T154">
         <v>2.5</v>
       </c>
-      <c r="O154">
-        <v>4</v>
-      </c>
-      <c r="P154">
-        <v>2.45</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
+      <c r="U154">
         <v>1.9</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.9</v>
       </c>
-      <c r="T154">
-        <v>2.75</v>
-      </c>
-      <c r="U154">
-        <v>1.8</v>
-      </c>
-      <c r="V154">
-        <v>2</v>
-      </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB154">
-        <v>-1</v>
-      </c>
-      <c r="AC154">
-        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6831808</v>
+        <v>6832933</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,76 +14257,76 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
         <v>2</v>
       </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K155">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L155">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M155">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N155">
+        <v>2.5</v>
+      </c>
+      <c r="O155">
+        <v>4</v>
+      </c>
+      <c r="P155">
+        <v>2.45</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>1.9</v>
+      </c>
+      <c r="S155">
+        <v>1.9</v>
+      </c>
+      <c r="T155">
+        <v>2.75</v>
+      </c>
+      <c r="U155">
         <v>1.8</v>
       </c>
-      <c r="O155">
-        <v>3.75</v>
-      </c>
-      <c r="P155">
-        <v>4.2</v>
-      </c>
-      <c r="Q155">
-        <v>-0.75</v>
-      </c>
-      <c r="R155">
-        <v>1.95</v>
-      </c>
-      <c r="S155">
-        <v>1.75</v>
-      </c>
-      <c r="T155">
-        <v>2.5</v>
-      </c>
-      <c r="U155">
-        <v>1.9</v>
-      </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z155">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832930</v>
+        <v>6832098</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,49 +14346,49 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K156">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L156">
+        <v>3.4</v>
+      </c>
+      <c r="M156">
+        <v>2.2</v>
+      </c>
+      <c r="N156">
         <v>3.6</v>
       </c>
-      <c r="M156">
-        <v>1.833</v>
-      </c>
-      <c r="N156">
-        <v>4</v>
-      </c>
       <c r="O156">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q156">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
         <v>1.95</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
         <v>1.825</v>
@@ -14397,25 +14397,25 @@
         <v>1.975</v>
       </c>
       <c r="W156">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6832098</v>
+        <v>6832930</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,49 +14435,49 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K157">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N157">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S157">
         <v>1.95</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
         <v>1.825</v>
@@ -14486,25 +14486,25 @@
         <v>1.975</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X157">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6832939</v>
+        <v>6832100</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,59 +14880,59 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
         <v>49</v>
       </c>
       <c r="K162">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L162">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N162">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="O162">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P162">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
+        <v>1.975</v>
+      </c>
+      <c r="S162">
+        <v>1.825</v>
+      </c>
+      <c r="T162">
+        <v>2.25</v>
+      </c>
+      <c r="U162">
+        <v>1.85</v>
+      </c>
+      <c r="V162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.75</v>
-      </c>
-      <c r="T162">
+      <c r="W162">
         <v>2.75</v>
       </c>
-      <c r="U162">
-        <v>1.925</v>
-      </c>
-      <c r="V162">
-        <v>1.875</v>
-      </c>
-      <c r="W162">
-        <v>1.05</v>
-      </c>
       <c r="X162">
         <v>-1</v>
       </c>
@@ -14940,16 +14940,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA162">
+        <v>-1</v>
+      </c>
+      <c r="AB162">
+        <v>-1</v>
+      </c>
+      <c r="AC162">
         <v>0.95</v>
-      </c>
-      <c r="AA162">
-        <v>-1</v>
-      </c>
-      <c r="AB162">
-        <v>0.4625</v>
-      </c>
-      <c r="AC162">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6832938</v>
+        <v>6832936</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L163">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M163">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N163">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6832936</v>
+        <v>6832935</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,73 +15058,73 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
         <v>3</v>
       </c>
-      <c r="I164">
+      <c r="J164" t="s">
+        <v>51</v>
+      </c>
+      <c r="K164">
+        <v>3.3</v>
+      </c>
+      <c r="L164">
+        <v>3.5</v>
+      </c>
+      <c r="M164">
         <v>2</v>
       </c>
-      <c r="J164" t="s">
-        <v>49</v>
-      </c>
-      <c r="K164">
-        <v>1.615</v>
-      </c>
-      <c r="L164">
-        <v>4</v>
-      </c>
-      <c r="M164">
-        <v>4.75</v>
-      </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z164">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB164">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6832935</v>
+        <v>6832939</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
         <v>1</v>
       </c>
-      <c r="I165">
-        <v>3</v>
-      </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K165">
+        <v>2.05</v>
+      </c>
+      <c r="L165">
+        <v>3.8</v>
+      </c>
+      <c r="M165">
+        <v>3.1</v>
+      </c>
+      <c r="N165">
+        <v>2.05</v>
+      </c>
+      <c r="O165">
+        <v>3.8</v>
+      </c>
+      <c r="P165">
         <v>3.3</v>
       </c>
-      <c r="L165">
-        <v>3.5</v>
-      </c>
-      <c r="M165">
-        <v>2</v>
-      </c>
-      <c r="N165">
-        <v>3.2</v>
-      </c>
-      <c r="O165">
-        <v>3.3</v>
-      </c>
-      <c r="P165">
-        <v>2.25</v>
-      </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6832100</v>
+        <v>6832938</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,76 +15236,76 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K166">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L166">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M166">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N166">
+        <v>1.4</v>
+      </c>
+      <c r="O166">
+        <v>4.75</v>
+      </c>
+      <c r="P166">
+        <v>7</v>
+      </c>
+      <c r="Q166">
+        <v>-1.25</v>
+      </c>
+      <c r="R166">
+        <v>1.9</v>
+      </c>
+      <c r="S166">
+        <v>1.9</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>1.95</v>
+      </c>
+      <c r="V166">
+        <v>1.85</v>
+      </c>
+      <c r="W166">
+        <v>-1</v>
+      </c>
+      <c r="X166">
         <v>3.75</v>
       </c>
-      <c r="O166">
-        <v>3.25</v>
-      </c>
-      <c r="P166">
-        <v>2.1</v>
-      </c>
-      <c r="Q166">
-        <v>0.25</v>
-      </c>
-      <c r="R166">
-        <v>1.975</v>
-      </c>
-      <c r="S166">
-        <v>1.825</v>
-      </c>
-      <c r="T166">
-        <v>2.25</v>
-      </c>
-      <c r="U166">
-        <v>1.85</v>
-      </c>
-      <c r="V166">
-        <v>1.95</v>
-      </c>
-      <c r="W166">
-        <v>2.75</v>
-      </c>
-      <c r="X166">
-        <v>-1</v>
-      </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6832941</v>
+        <v>6832942</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,73 +16037,73 @@
         <v>45382.22916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L175">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N175">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P175">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Q175">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6832942</v>
+        <v>6832941</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,73 +16126,73 @@
         <v>45382.22916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
         <v>3</v>
       </c>
-      <c r="I176">
-        <v>2</v>
-      </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M176">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N176">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O176">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB176">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16322,28 +16322,28 @@
         <v>5.75</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="Q178">
         <v>1</v>
       </c>
       <c r="R178">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T178">
         <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -16393,31 +16393,31 @@
         <v>1.7</v>
       </c>
       <c r="N179">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O179">
         <v>4</v>
       </c>
       <c r="P179">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q179">
         <v>0.75</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
         <v>3</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W179">
         <v>0</v>
@@ -16473,25 +16473,25 @@
         <v>3.4</v>
       </c>
       <c r="P180">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q180">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W180">
         <v>0</v>
@@ -16541,7 +16541,7 @@
         <v>3</v>
       </c>
       <c r="N181">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O181">
         <v>3.6</v>
@@ -16550,13 +16550,13 @@
         <v>2.8</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T181">
         <v>2.75</v>
@@ -16588,7 +16588,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6832103</v>
+        <v>6832948</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16600,46 +16600,46 @@
         <v>45388.39583333334</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K182">
+        <v>1.85</v>
+      </c>
+      <c r="L182">
+        <v>3.6</v>
+      </c>
+      <c r="M182">
+        <v>3.6</v>
+      </c>
+      <c r="N182">
+        <v>2.05</v>
+      </c>
+      <c r="O182">
+        <v>3.6</v>
+      </c>
+      <c r="P182">
+        <v>3.5</v>
+      </c>
+      <c r="Q182">
+        <v>-0.25</v>
+      </c>
+      <c r="R182">
         <v>1.8</v>
       </c>
-      <c r="L182">
-        <v>3.5</v>
-      </c>
-      <c r="M182">
-        <v>4</v>
-      </c>
-      <c r="N182">
-        <v>1.8</v>
-      </c>
-      <c r="O182">
-        <v>3.5</v>
-      </c>
-      <c r="P182">
-        <v>4</v>
-      </c>
-      <c r="Q182">
-        <v>-0.5</v>
-      </c>
-      <c r="R182">
-        <v>1.85</v>
-      </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -16689,13 +16689,13 @@
         <v>3.6</v>
       </c>
       <c r="N183">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P183">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q183">
         <v>-0.5</v>
@@ -16710,10 +16710,10 @@
         <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V183">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6832948</v>
+        <v>6832103</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16748,46 +16748,46 @@
         <v>45388.39583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K184">
+        <v>1.8</v>
+      </c>
+      <c r="L184">
+        <v>3.5</v>
+      </c>
+      <c r="M184">
+        <v>4</v>
+      </c>
+      <c r="N184">
+        <v>1.833</v>
+      </c>
+      <c r="O184">
+        <v>3.75</v>
+      </c>
+      <c r="P184">
+        <v>4.2</v>
+      </c>
+      <c r="Q184">
+        <v>-0.5</v>
+      </c>
+      <c r="R184">
         <v>1.85</v>
       </c>
-      <c r="L184">
-        <v>3.6</v>
-      </c>
-      <c r="M184">
-        <v>3.6</v>
-      </c>
-      <c r="N184">
-        <v>2.05</v>
-      </c>
-      <c r="O184">
-        <v>3.5</v>
-      </c>
-      <c r="P184">
-        <v>3.2</v>
-      </c>
-      <c r="Q184">
-        <v>-0.25</v>
-      </c>
-      <c r="R184">
-        <v>1.8</v>
-      </c>
       <c r="S184">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W184">
         <v>0</v>
@@ -16837,13 +16837,13 @@
         <v>2.75</v>
       </c>
       <c r="N185">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -16855,13 +16855,13 @@
         <v>2.025</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W185">
         <v>0</v>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -112,28 +112,28 @@
     <t>FC Flyeralarm Admira</t>
   </si>
   <si>
-    <t>First Vienna FC 1894</t>
+    <t>FC Blau Weiss Linz</t>
+  </si>
+  <si>
+    <t>FC Dornbirn 1913</t>
   </si>
   <si>
     <t>FC Liefering</t>
   </si>
   <si>
-    <t>FC Dornbirn 1913</t>
-  </si>
-  <si>
     <t>SKU Amstetten</t>
   </si>
   <si>
-    <t>FC Blau Weiss Linz</t>
+    <t>First Vienna FC 1894</t>
   </si>
   <si>
-    <t>Leoben DSV</t>
+    <t>SW Bregenz</t>
   </si>
   <si>
     <t>Grazer AK</t>
   </si>
   <si>
-    <t>SW Bregenz</t>
+    <t>Leoben DSV</t>
   </si>
   <si>
     <t>SV Lafnitz</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208063</v>
+        <v>5207398</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>2.8</v>
+        <v>1.181</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M5">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="N5">
-        <v>3.1</v>
+        <v>1.09</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="P5">
-        <v>2.15</v>
+        <v>19</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5208060</v>
+        <v>5208062</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="L6">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M6">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="N6">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="O6">
         <v>4.75</v>
       </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
+        <v>1.875</v>
+      </c>
+      <c r="V6">
+        <v>1.925</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
         <v>3.75</v>
       </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
-      <c r="W6">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5208062</v>
+        <v>5208060</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1088,73 +1088,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="L7">
+        <v>4.333</v>
+      </c>
+      <c r="M7">
         <v>4.75</v>
       </c>
-      <c r="M7">
-        <v>1.4</v>
-      </c>
       <c r="N7">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="O7">
         <v>4.75</v>
       </c>
       <c r="P7">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="Q7">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R7">
+        <v>1.9</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>3.75</v>
+      </c>
+      <c r="U7">
         <v>1.825</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.875</v>
-      </c>
-      <c r="V7">
-        <v>1.925</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X7">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.825</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5207398</v>
+        <v>5208063</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="L9">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N9">
-        <v>1.09</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>19</v>
+        <v>2.15</v>
       </c>
       <c r="Q9">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832067</v>
+        <v>6832066</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,55 +1355,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>49</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1412,16 +1412,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832066</v>
+        <v>6832067</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1533,55 +1533,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
         <v>2</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>49</v>
       </c>
       <c r="K12">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
+        <v>3.8</v>
+      </c>
+      <c r="P12">
         <v>3.6</v>
       </c>
-      <c r="P12">
-        <v>2.2</v>
-      </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1590,16 +1590,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1619,10 +1619,10 @@
         <v>45135.53125</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6832839</v>
+        <v>6831794</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,13 +1708,13 @@
         <v>45135.53125</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1723,61 +1723,61 @@
         <v>49</v>
       </c>
       <c r="K14">
+        <v>1.7</v>
+      </c>
+      <c r="L14">
+        <v>3.75</v>
+      </c>
+      <c r="M14">
+        <v>4.2</v>
+      </c>
+      <c r="N14">
+        <v>1.833</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>3.8</v>
+      </c>
+      <c r="Q14">
+        <v>-0.75</v>
+      </c>
+      <c r="R14">
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>3.4</v>
-      </c>
-      <c r="M14">
-        <v>3.3</v>
-      </c>
-      <c r="N14">
-        <v>2.375</v>
-      </c>
-      <c r="O14">
-        <v>3.6</v>
-      </c>
-      <c r="P14">
-        <v>2.75</v>
-      </c>
-      <c r="Q14">
+      <c r="S14">
+        <v>1.8</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>1.8</v>
+      </c>
+      <c r="W14">
+        <v>0.833</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>1.775</v>
-      </c>
-      <c r="S14">
-        <v>2.025</v>
-      </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
-      <c r="U14">
-        <v>1.9</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
-      <c r="W14">
-        <v>1.375</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6831794</v>
+        <v>6832839</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,13 +1797,13 @@
         <v>45135.53125</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1812,43 +1812,43 @@
         <v>49</v>
       </c>
       <c r="K15">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N15">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1857,16 +1857,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2245,7 +2245,7 @@
         <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2331,7 +2331,7 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2512,7 +2512,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -2690,7 +2690,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -3046,7 +3046,7 @@
         <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>45150.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
@@ -3221,7 +3221,7 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6832855</v>
+        <v>6832854</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,40 +3399,40 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
+        <v>3.3</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
         <v>3.4</v>
       </c>
-      <c r="N33">
-        <v>2.625</v>
-      </c>
-      <c r="O33">
-        <v>3.6</v>
-      </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
         <v>1.975</v>
@@ -3441,34 +3441,34 @@
         <v>1.825</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6832071</v>
+        <v>6832072</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,7 +3488,7 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3497,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>49</v>
@@ -3506,40 +3506,40 @@
         <v>1.727</v>
       </c>
       <c r="L34">
+        <v>3.75</v>
+      </c>
+      <c r="M34">
         <v>4</v>
       </c>
-      <c r="M34">
-        <v>3.75</v>
-      </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O34">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3548,16 +3548,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6832852</v>
+        <v>6832071</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,10 +3577,10 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3592,43 +3592,43 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N35">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3646,7 +3646,7 @@
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6832854</v>
+        <v>6832852</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,13 +3666,13 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3681,61 +3681,61 @@
         <v>49</v>
       </c>
       <c r="K36">
+        <v>2.6</v>
+      </c>
+      <c r="L36">
+        <v>3.5</v>
+      </c>
+      <c r="M36">
+        <v>2.4</v>
+      </c>
+      <c r="N36">
+        <v>2.5</v>
+      </c>
+      <c r="O36">
+        <v>3.6</v>
+      </c>
+      <c r="P36">
+        <v>2.55</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1.875</v>
+      </c>
+      <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>1.8</v>
+      </c>
+      <c r="V36">
         <v>2</v>
       </c>
-      <c r="L36">
-        <v>3.4</v>
-      </c>
-      <c r="M36">
-        <v>3.3</v>
-      </c>
-      <c r="N36">
-        <v>2</v>
-      </c>
-      <c r="O36">
-        <v>3.4</v>
-      </c>
-      <c r="P36">
-        <v>3.8</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.975</v>
-      </c>
-      <c r="S36">
-        <v>1.825</v>
-      </c>
-      <c r="T36">
-        <v>2.5</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
       <c r="W36">
+        <v>1.5</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>0.875</v>
+      </c>
+      <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>1</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.925</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6832072</v>
+        <v>6832855</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,76 +3755,76 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N37">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>45157.39583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>31</v>
@@ -4114,7 +4114,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6832858</v>
+        <v>6832856</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,58 +4200,58 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>49</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L42">
         <v>3.6</v>
       </c>
       <c r="M42">
+        <v>3.5</v>
+      </c>
+      <c r="N42">
+        <v>2.15</v>
+      </c>
+      <c r="O42">
         <v>3.6</v>
       </c>
-      <c r="N42">
-        <v>1.8</v>
-      </c>
-      <c r="O42">
-        <v>3.8</v>
-      </c>
       <c r="P42">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S42">
+        <v>1.925</v>
+      </c>
+      <c r="T42">
+        <v>2.5</v>
+      </c>
+      <c r="U42">
         <v>1.95</v>
       </c>
-      <c r="T42">
-        <v>2.75</v>
-      </c>
-      <c r="U42">
+      <c r="V42">
         <v>1.85</v>
       </c>
-      <c r="V42">
-        <v>1.95</v>
-      </c>
       <c r="W42">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4260,16 +4260,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6832856</v>
+        <v>6832860</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,76 +4289,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43">
+        <v>2.625</v>
+      </c>
+      <c r="L43">
+        <v>3.5</v>
+      </c>
+      <c r="M43">
+        <v>2.25</v>
+      </c>
+      <c r="N43">
+        <v>3.25</v>
+      </c>
+      <c r="O43">
+        <v>3.75</v>
+      </c>
+      <c r="P43">
+        <v>2.05</v>
+      </c>
+      <c r="Q43">
+        <v>0.25</v>
+      </c>
+      <c r="R43">
         <v>2</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>49</v>
-      </c>
-      <c r="K43">
-        <v>1.833</v>
-      </c>
-      <c r="L43">
-        <v>3.6</v>
-      </c>
-      <c r="M43">
-        <v>3.5</v>
-      </c>
-      <c r="N43">
-        <v>2.15</v>
-      </c>
-      <c r="O43">
-        <v>3.6</v>
-      </c>
-      <c r="P43">
-        <v>3.25</v>
-      </c>
-      <c r="Q43">
-        <v>-0.25</v>
-      </c>
-      <c r="R43">
+      <c r="S43">
+        <v>1.8</v>
+      </c>
+      <c r="T43">
+        <v>2.75</v>
+      </c>
+      <c r="U43">
+        <v>1.925</v>
+      </c>
+      <c r="V43">
         <v>1.875</v>
       </c>
-      <c r="S43">
-        <v>1.925</v>
-      </c>
-      <c r="T43">
-        <v>2.5</v>
-      </c>
-      <c r="U43">
-        <v>1.95</v>
-      </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
       <c r="W43">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>0.5</v>
+      </c>
+      <c r="AA43">
+        <v>-0.5</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.875</v>
-      </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
-      <c r="AC43">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6832073</v>
+        <v>6832858</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,76 +4378,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L44">
         <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q44">
         <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6832859</v>
+        <v>6832073</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,34 +4467,34 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P45">
         <v>3.6</v>
@@ -4509,34 +4509,34 @@
         <v>1.875</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6832860</v>
+        <v>6832859</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,76 +4556,76 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N46">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4645,10 +4645,10 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6832866</v>
+        <v>6832861</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,58 +4912,58 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M50">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N50">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>1.9</v>
+        <v>0.833</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4972,16 +4972,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6832864</v>
+        <v>6832863</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,76 +5001,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51">
+        <v>1.727</v>
+      </c>
+      <c r="L51">
         <v>3.75</v>
       </c>
-      <c r="L51">
-        <v>4.2</v>
-      </c>
       <c r="M51">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
         <v>5</v>
       </c>
-      <c r="P51">
-        <v>1.5</v>
-      </c>
       <c r="Q51">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6832861</v>
+        <v>6832864</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,49 +5090,49 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="N52">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="O52">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P52">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
         <v>1.95</v>
@@ -5141,25 +5141,25 @@
         <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z52">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6832863</v>
+        <v>6832866</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L53">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N53">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q53">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X53">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6832075</v>
+        <v>6832862</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,58 +5357,58 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>49</v>
       </c>
       <c r="K55">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O55">
         <v>3.6</v>
       </c>
       <c r="P55">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5417,13 +5417,13 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.425</v>
+        <v>0.4375</v>
       </c>
       <c r="AC55">
         <v>-0.5</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6832862</v>
+        <v>6832075</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,58 +5446,58 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>49</v>
       </c>
       <c r="K56">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N56">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O56">
         <v>3.6</v>
       </c>
       <c r="P56">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5506,13 +5506,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.4375</v>
+        <v>0.425</v>
       </c>
       <c r="AC56">
         <v>-0.5</v>
@@ -5538,7 +5538,7 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832868</v>
+        <v>6832869</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,40 +5713,40 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K59">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N59">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R59">
         <v>1.85</v>
@@ -5758,31 +5758,31 @@
         <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6832870</v>
+        <v>6832868</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,76 +5802,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>2</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K60">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
         <v>43</v>
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6832869</v>
+        <v>6832870</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,13 +5980,13 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5995,43 +5995,43 @@
         <v>49</v>
       </c>
       <c r="K62">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
         <v>3.5</v>
       </c>
       <c r="M62">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="N62">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
         <v>3.75</v>
       </c>
       <c r="P62">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6040,7 +6040,7 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
         <v>-1</v>
@@ -6049,7 +6049,7 @@
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6069,7 +6069,7 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6161,7 +6161,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832876</v>
+        <v>6834056</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,56 +6336,56 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
         <v>50</v>
       </c>
       <c r="K66">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O66">
         <v>3.75</v>
       </c>
       <c r="P66">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
+        <v>1.8</v>
+      </c>
+      <c r="S66">
+        <v>2</v>
+      </c>
+      <c r="T66">
+        <v>2.75</v>
+      </c>
+      <c r="U66">
+        <v>1.95</v>
+      </c>
+      <c r="V66">
         <v>1.85</v>
       </c>
-      <c r="S66">
-        <v>1.95</v>
-      </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
-      <c r="U66">
-        <v>1.9</v>
-      </c>
-      <c r="V66">
-        <v>1.9</v>
-      </c>
       <c r="W66">
         <v>-1</v>
       </c>
@@ -6393,19 +6393,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.2</v>
+        <v>3.333</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66">
         <v>0.95</v>
       </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6832078</v>
+        <v>6832876</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,55 +6425,55 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>50</v>
       </c>
       <c r="K67">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L67">
         <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P67">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q67">
         <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,19 +6482,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6834056</v>
+        <v>6832078</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,40 +6514,40 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
         <v>50</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
         <v>1.8</v>
@@ -6556,13 +6556,13 @@
         <v>2</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6571,7 +6571,7 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>3.333</v>
+        <v>1.375</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6580,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6692,10 +6692,10 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6870,7 +6870,7 @@
         <v>45192.625</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>44</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6832080</v>
+        <v>6832880</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,73 +7048,73 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N74">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O74">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X74">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7137,7 +7137,7 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6832880</v>
+        <v>6832080</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,73 +7226,73 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K76">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L76">
+        <v>3.6</v>
+      </c>
+      <c r="M76">
+        <v>2.8</v>
+      </c>
+      <c r="N76">
+        <v>2.375</v>
+      </c>
+      <c r="O76">
         <v>3.75</v>
       </c>
-      <c r="M76">
-        <v>4</v>
-      </c>
-      <c r="N76">
-        <v>1.571</v>
-      </c>
-      <c r="O76">
-        <v>4</v>
-      </c>
       <c r="P76">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB76">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7407,7 +7407,7 @@
         <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7585,7 +7585,7 @@
         <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832885</v>
+        <v>6831800</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,76 +7760,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K82">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="L82">
         <v>3.6</v>
       </c>
       <c r="M82">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="N82">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6832082</v>
+        <v>6832886</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>50</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
+        <v>1.75</v>
+      </c>
+      <c r="N83">
+        <v>6</v>
+      </c>
+      <c r="O83">
+        <v>4.2</v>
+      </c>
+      <c r="P83">
+        <v>1.533</v>
+      </c>
+      <c r="Q83">
         <v>1</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>51</v>
-      </c>
-      <c r="K83">
-        <v>2.25</v>
-      </c>
-      <c r="L83">
-        <v>3.4</v>
-      </c>
-      <c r="M83">
-        <v>2.75</v>
-      </c>
-      <c r="N83">
-        <v>2.05</v>
-      </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
-      <c r="P83">
-        <v>3.4</v>
-      </c>
-      <c r="Q83">
-        <v>-0.5</v>
-      </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
         <v>3</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832886</v>
+        <v>6832082</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K84">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y84">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6831800</v>
+        <v>6832885</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K85">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="L85">
         <v>3.6</v>
       </c>
       <c r="M85">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="N85">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
         <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8116,7 +8116,7 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8208,7 +8208,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8294,7 +8294,7 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>42</v>
@@ -8383,7 +8383,7 @@
         <v>45207.22916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
         <v>31</v>
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6832890</v>
+        <v>6832888</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="L90">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
         <v>4.75</v>
       </c>
       <c r="N90">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6832888</v>
+        <v>6832891</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,76 +8561,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="O91">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z91">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6832891</v>
+        <v>6832890</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,76 +8650,76 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>51</v>
+      </c>
+      <c r="K92">
+        <v>1.6</v>
+      </c>
+      <c r="L92">
+        <v>3.8</v>
+      </c>
+      <c r="M92">
+        <v>4.75</v>
+      </c>
+      <c r="N92">
+        <v>1.65</v>
+      </c>
+      <c r="O92">
+        <v>4</v>
+      </c>
+      <c r="P92">
+        <v>5</v>
+      </c>
+      <c r="Q92">
+        <v>-0.75</v>
+      </c>
+      <c r="R92">
+        <v>1.8</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
+        <v>1.85</v>
+      </c>
+      <c r="V92">
+        <v>1.95</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
         <v>3</v>
       </c>
-      <c r="J92" t="s">
-        <v>50</v>
-      </c>
-      <c r="K92">
-        <v>2.15</v>
-      </c>
-      <c r="L92">
-        <v>3.5</v>
-      </c>
-      <c r="M92">
-        <v>2.9</v>
-      </c>
-      <c r="N92">
-        <v>2.6</v>
-      </c>
-      <c r="O92">
-        <v>3.6</v>
-      </c>
-      <c r="P92">
-        <v>2.55</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.9</v>
-      </c>
-      <c r="S92">
-        <v>1.9</v>
-      </c>
-      <c r="T92">
-        <v>3</v>
-      </c>
-      <c r="U92">
-        <v>1.9</v>
-      </c>
-      <c r="V92">
-        <v>1.9</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
       <c r="Y92">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8831,7 +8831,7 @@
         <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8920,7 +8920,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9006,7 +9006,7 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
         <v>45</v>
@@ -9098,7 +9098,7 @@
         <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832086</v>
+        <v>6832894</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K98">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M98">
+        <v>1.615</v>
+      </c>
+      <c r="N98">
+        <v>4.333</v>
+      </c>
+      <c r="O98">
+        <v>4</v>
+      </c>
+      <c r="P98">
+        <v>1.727</v>
+      </c>
+      <c r="Q98">
+        <v>0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
         <v>2.75</v>
       </c>
-      <c r="N98">
-        <v>2.375</v>
-      </c>
-      <c r="O98">
-        <v>3.25</v>
-      </c>
-      <c r="P98">
-        <v>3.1</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.775</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6832892</v>
+        <v>6832895</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K99">
+        <v>1.7</v>
+      </c>
+      <c r="L99">
+        <v>3.8</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>1.727</v>
+      </c>
+      <c r="O99">
         <v>4.2</v>
       </c>
-      <c r="L99">
-        <v>3.6</v>
-      </c>
-      <c r="M99">
-        <v>1.7</v>
-      </c>
-      <c r="N99">
-        <v>5.25</v>
-      </c>
-      <c r="O99">
-        <v>3.8</v>
-      </c>
       <c r="P99">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
+        <v>-0.75</v>
+      </c>
+      <c r="R99">
+        <v>1.925</v>
+      </c>
+      <c r="S99">
+        <v>1.875</v>
+      </c>
+      <c r="T99">
+        <v>3.25</v>
+      </c>
+      <c r="U99">
+        <v>1.75</v>
+      </c>
+      <c r="V99">
+        <v>1.95</v>
+      </c>
+      <c r="W99">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.925</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>0.75</v>
       </c>
-      <c r="R99">
-        <v>1.975</v>
-      </c>
-      <c r="S99">
-        <v>1.825</v>
-      </c>
-      <c r="T99">
-        <v>2.75</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Z99">
-        <v>-0.5</v>
-      </c>
-      <c r="AA99">
-        <v>0.4125</v>
-      </c>
-      <c r="AB99">
-        <v>0.4875</v>
-      </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6832894</v>
+        <v>6832086</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,76 +9451,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="N101">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P101">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA101">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6832895</v>
+        <v>6832892</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,76 +9540,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K102">
+        <v>4.2</v>
+      </c>
+      <c r="L102">
+        <v>3.6</v>
+      </c>
+      <c r="M102">
         <v>1.7</v>
       </c>
-      <c r="L102">
+      <c r="N102">
+        <v>5.25</v>
+      </c>
+      <c r="O102">
         <v>3.8</v>
       </c>
-      <c r="M102">
-        <v>4</v>
-      </c>
-      <c r="N102">
-        <v>1.727</v>
-      </c>
-      <c r="O102">
-        <v>4.2</v>
-      </c>
       <c r="P102">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z102">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB102">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9632,7 +9632,7 @@
         <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9718,10 +9718,10 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10077,7 +10077,7 @@
         <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10166,7 +10166,7 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>45234.4375</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>35</v>
@@ -10341,10 +10341,10 @@
         <v>45235.27083333334</v>
       </c>
       <c r="F111" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111" t="s">
         <v>39</v>
-      </c>
-      <c r="G111" t="s">
-        <v>37</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6832904</v>
+        <v>6832906</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,13 +10697,13 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -10712,43 +10712,43 @@
         <v>49</v>
       </c>
       <c r="K115">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N115">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O115">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>1.975</v>
+      </c>
+      <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
         <v>1.8</v>
       </c>
-      <c r="S115">
+      <c r="V115">
         <v>2</v>
       </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
-      <c r="V115">
-        <v>1.8</v>
-      </c>
       <c r="W115">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10757,13 +10757,13 @@
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>0.8</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>1</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6832906</v>
+        <v>6832904</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,13 +10786,13 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -10801,58 +10801,58 @@
         <v>49</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N116">
+        <v>2.55</v>
+      </c>
+      <c r="O116">
+        <v>3.25</v>
+      </c>
+      <c r="P116">
+        <v>2.875</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
         <v>2</v>
       </c>
-      <c r="O116">
-        <v>3.6</v>
-      </c>
-      <c r="P116">
-        <v>3.6</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>1.975</v>
-      </c>
-      <c r="S116">
-        <v>1.825</v>
-      </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116">
         <v>1.8</v>
       </c>
-      <c r="V116">
-        <v>2</v>
-      </c>
       <c r="W116">
+        <v>1.55</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>0.8</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
         <v>1</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
-      <c r="Z116">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
-      <c r="AB116">
-        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10875,7 +10875,7 @@
         <v>45240.6875</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -10964,10 +10964,10 @@
         <v>45241.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>6</v>
@@ -11142,7 +11142,7 @@
         <v>45242.35416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
         <v>30</v>
@@ -11501,7 +11501,7 @@
         <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11587,7 +11587,7 @@
         <v>45255.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
         <v>44</v>
@@ -11679,7 +11679,7 @@
         <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6832909</v>
+        <v>6832091</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,55 +11765,55 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>50</v>
       </c>
       <c r="K127">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L127">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M127">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N127">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P127">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R127">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11822,19 +11822,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6832091</v>
+        <v>6832909</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,56 +11854,56 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>50</v>
       </c>
       <c r="K128">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L128">
+        <v>3.5</v>
+      </c>
+      <c r="M128">
+        <v>2.2</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128">
         <v>3.6</v>
       </c>
-      <c r="M128">
-        <v>1.833</v>
-      </c>
-      <c r="N128">
-        <v>4.5</v>
-      </c>
-      <c r="O128">
-        <v>4.2</v>
-      </c>
       <c r="P128">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
+        <v>1.925</v>
+      </c>
+      <c r="S128">
+        <v>1.875</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
         <v>1.95</v>
       </c>
-      <c r="S128">
-        <v>1.85</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
-      <c r="U128">
-        <v>2</v>
-      </c>
-      <c r="V128">
-        <v>1.8</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11911,19 +11911,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
+        <v>0.875</v>
+      </c>
+      <c r="AB128">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12302,7 +12302,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12477,10 +12477,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12655,10 +12655,10 @@
         <v>45339.4375</v>
       </c>
       <c r="F137" t="s">
+        <v>33</v>
+      </c>
+      <c r="G137" t="s">
         <v>34</v>
-      </c>
-      <c r="G137" t="s">
-        <v>33</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12833,7 +12833,7 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
         <v>43</v>
@@ -12922,7 +12922,7 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
         <v>45</v>
@@ -13103,7 +13103,7 @@
         <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13192,7 +13192,7 @@
         <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13278,7 +13278,7 @@
         <v>45346.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
         <v>35</v>
@@ -13459,7 +13459,7 @@
         <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13726,7 +13726,7 @@
         <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13812,7 +13812,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13901,7 +13901,7 @@
         <v>45353.4375</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>40</v>
@@ -13993,7 +13993,7 @@
         <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6832930</v>
+        <v>6831808</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,58 +14168,58 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>49</v>
       </c>
       <c r="K154">
-        <v>3.75</v>
+        <v>1.444</v>
       </c>
       <c r="L154">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M154">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="N154">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O154">
         <v>3.75</v>
       </c>
       <c r="P154">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q154">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
         <v>1.75</v>
-      </c>
-      <c r="S154">
-        <v>1.95</v>
       </c>
       <c r="T154">
         <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14228,16 +14228,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6831808</v>
+        <v>6832930</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,58 +14257,58 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>49</v>
       </c>
       <c r="K155">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="L155">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M155">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N155">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O155">
         <v>3.75</v>
       </c>
       <c r="P155">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R155">
+        <v>1.75</v>
+      </c>
+      <c r="S155">
         <v>1.95</v>
-      </c>
-      <c r="S155">
-        <v>1.75</v>
       </c>
       <c r="T155">
         <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14317,16 +14317,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832933</v>
+        <v>6832934</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,13 +14346,13 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -14361,40 +14361,40 @@
         <v>50</v>
       </c>
       <c r="K156">
+        <v>1.833</v>
+      </c>
+      <c r="L156">
+        <v>3.75</v>
+      </c>
+      <c r="M156">
+        <v>3.6</v>
+      </c>
+      <c r="N156">
         <v>2.05</v>
       </c>
-      <c r="L156">
-        <v>3.8</v>
-      </c>
-      <c r="M156">
-        <v>2.9</v>
-      </c>
-      <c r="N156">
+      <c r="O156">
+        <v>3.75</v>
+      </c>
+      <c r="P156">
+        <v>3.3</v>
+      </c>
+      <c r="Q156">
+        <v>-0.25</v>
+      </c>
+      <c r="R156">
+        <v>1.825</v>
+      </c>
+      <c r="S156">
+        <v>1.975</v>
+      </c>
+      <c r="T156">
         <v>2.5</v>
       </c>
-      <c r="O156">
-        <v>4</v>
-      </c>
-      <c r="P156">
-        <v>2.45</v>
-      </c>
-      <c r="Q156">
-        <v>0</v>
-      </c>
-      <c r="R156">
-        <v>1.9</v>
-      </c>
-      <c r="S156">
-        <v>1.9</v>
-      </c>
-      <c r="T156">
-        <v>2.75</v>
-      </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14403,19 +14403,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6832934</v>
+        <v>6832933</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,13 +14435,13 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -14450,40 +14450,40 @@
         <v>50</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M157">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N157">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O157">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14492,19 +14492,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14524,10 +14524,10 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14613,7 +14613,7 @@
         <v>45359.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
         <v>44</v>
@@ -14705,7 +14705,7 @@
         <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6832939</v>
+        <v>6832938</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14880,76 +14880,76 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K162">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L162">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N162">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O162">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P162">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
+        <v>1.9</v>
+      </c>
+      <c r="S162">
+        <v>1.9</v>
+      </c>
+      <c r="T162">
+        <v>3</v>
+      </c>
+      <c r="U162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.75</v>
-      </c>
-      <c r="T162">
-        <v>2.75</v>
-      </c>
-      <c r="U162">
-        <v>1.925</v>
-      </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB162">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6832935</v>
+        <v>6832100</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
       <c r="I163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K163">
+        <v>2.8</v>
+      </c>
+      <c r="L163">
         <v>3.3</v>
       </c>
-      <c r="L163">
-        <v>3.5</v>
-      </c>
       <c r="M163">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N163">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O163">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P163">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q163">
         <v>0.25</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
         <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
+        <v>-1</v>
+      </c>
+      <c r="AB163">
+        <v>-1</v>
+      </c>
+      <c r="AC163">
         <v>0.95</v>
-      </c>
-      <c r="AB163">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC163">
-        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6832936</v>
+        <v>6832935</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,73 +15058,73 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
         <v>3</v>
       </c>
-      <c r="I164">
+      <c r="J164" t="s">
+        <v>50</v>
+      </c>
+      <c r="K164">
+        <v>3.3</v>
+      </c>
+      <c r="L164">
+        <v>3.5</v>
+      </c>
+      <c r="M164">
         <v>2</v>
       </c>
-      <c r="J164" t="s">
-        <v>49</v>
-      </c>
-      <c r="K164">
-        <v>1.615</v>
-      </c>
-      <c r="L164">
-        <v>4</v>
-      </c>
-      <c r="M164">
-        <v>4.75</v>
-      </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z164">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB164">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6832938</v>
+        <v>6832936</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K165">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L165">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M165">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N165">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O165">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q165">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T165">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X165">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6832100</v>
+        <v>6832939</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,58 +15236,58 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
         <v>1</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
       </c>
       <c r="J166" t="s">
         <v>49</v>
       </c>
       <c r="K166">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L166">
+        <v>3.8</v>
+      </c>
+      <c r="M166">
+        <v>3.1</v>
+      </c>
+      <c r="N166">
+        <v>2.05</v>
+      </c>
+      <c r="O166">
+        <v>3.8</v>
+      </c>
+      <c r="P166">
         <v>3.3</v>
       </c>
-      <c r="M166">
-        <v>2.4</v>
-      </c>
-      <c r="N166">
-        <v>3.75</v>
-      </c>
-      <c r="O166">
-        <v>3.25</v>
-      </c>
-      <c r="P166">
-        <v>2.1</v>
-      </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
-        <v>2.75</v>
+        <v>1.05</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15296,16 +15296,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC166">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15503,10 +15503,10 @@
         <v>45368.27083333334</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15592,7 +15592,7 @@
         <v>45380.59027777778</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
         <v>30</v>
@@ -15859,7 +15859,7 @@
         <v>45381.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
         <v>45</v>
@@ -15951,7 +15951,7 @@
         <v>40</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16129,7 +16129,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16215,7 +16215,7 @@
         <v>45382.3125</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
         <v>41</v>
@@ -16482,7 +16482,7 @@
         <v>45387.54861111111</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
         <v>29</v>
@@ -16574,7 +16574,7 @@
         <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6832103</v>
+        <v>6832946</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16657,49 +16657,49 @@
         <v>28</v>
       </c>
       <c r="E182" s="2">
-        <v>45388.39583333334</v>
+        <v>45389.22916666666</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K182">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M182">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N182">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P182">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -16714,228 +16714,6 @@
         <v>0</v>
       </c>
       <c r="AA182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:29">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>6832104</v>
-      </c>
-      <c r="C183" t="s">
-        <v>28</v>
-      </c>
-      <c r="D183" t="s">
-        <v>28</v>
-      </c>
-      <c r="E183" s="2">
-        <v>45388.39583333334</v>
-      </c>
-      <c r="F183" t="s">
-        <v>39</v>
-      </c>
-      <c r="G183" t="s">
-        <v>42</v>
-      </c>
-      <c r="K183">
-        <v>1.833</v>
-      </c>
-      <c r="L183">
-        <v>3.75</v>
-      </c>
-      <c r="M183">
-        <v>3.6</v>
-      </c>
-      <c r="N183">
-        <v>1.95</v>
-      </c>
-      <c r="O183">
-        <v>3.8</v>
-      </c>
-      <c r="P183">
-        <v>3.75</v>
-      </c>
-      <c r="Q183">
-        <v>-0.5</v>
-      </c>
-      <c r="R183">
-        <v>1.95</v>
-      </c>
-      <c r="S183">
-        <v>1.85</v>
-      </c>
-      <c r="T183">
-        <v>2.75</v>
-      </c>
-      <c r="U183">
-        <v>1.925</v>
-      </c>
-      <c r="V183">
-        <v>1.875</v>
-      </c>
-      <c r="W183">
-        <v>0</v>
-      </c>
-      <c r="X183">
-        <v>0</v>
-      </c>
-      <c r="Y183">
-        <v>0</v>
-      </c>
-      <c r="Z183">
-        <v>0</v>
-      </c>
-      <c r="AA183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:29">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>6832948</v>
-      </c>
-      <c r="C184" t="s">
-        <v>28</v>
-      </c>
-      <c r="D184" t="s">
-        <v>28</v>
-      </c>
-      <c r="E184" s="2">
-        <v>45388.39583333334</v>
-      </c>
-      <c r="F184" t="s">
-        <v>35</v>
-      </c>
-      <c r="G184" t="s">
-        <v>34</v>
-      </c>
-      <c r="K184">
-        <v>1.85</v>
-      </c>
-      <c r="L184">
-        <v>3.6</v>
-      </c>
-      <c r="M184">
-        <v>3.6</v>
-      </c>
-      <c r="N184">
-        <v>2.05</v>
-      </c>
-      <c r="O184">
-        <v>3.6</v>
-      </c>
-      <c r="P184">
-        <v>3.4</v>
-      </c>
-      <c r="Q184">
-        <v>-0.25</v>
-      </c>
-      <c r="R184">
-        <v>1.825</v>
-      </c>
-      <c r="S184">
-        <v>1.975</v>
-      </c>
-      <c r="T184">
-        <v>2.75</v>
-      </c>
-      <c r="U184">
-        <v>1.875</v>
-      </c>
-      <c r="V184">
-        <v>1.925</v>
-      </c>
-      <c r="W184">
-        <v>0</v>
-      </c>
-      <c r="X184">
-        <v>0</v>
-      </c>
-      <c r="Y184">
-        <v>0</v>
-      </c>
-      <c r="Z184">
-        <v>0</v>
-      </c>
-      <c r="AA184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:29">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>6832946</v>
-      </c>
-      <c r="C185" t="s">
-        <v>28</v>
-      </c>
-      <c r="D185" t="s">
-        <v>28</v>
-      </c>
-      <c r="E185" s="2">
-        <v>45389.22916666666</v>
-      </c>
-      <c r="F185" t="s">
-        <v>31</v>
-      </c>
-      <c r="G185" t="s">
-        <v>41</v>
-      </c>
-      <c r="K185">
-        <v>2.4</v>
-      </c>
-      <c r="L185">
-        <v>3.2</v>
-      </c>
-      <c r="M185">
-        <v>2.75</v>
-      </c>
-      <c r="N185">
-        <v>2.55</v>
-      </c>
-      <c r="O185">
-        <v>3.25</v>
-      </c>
-      <c r="P185">
-        <v>2.9</v>
-      </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
-        <v>1.75</v>
-      </c>
-      <c r="S185">
-        <v>2.05</v>
-      </c>
-      <c r="T185">
-        <v>2.5</v>
-      </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
-      <c r="V185">
-        <v>1.8</v>
-      </c>
-      <c r="W185">
-        <v>0</v>
-      </c>
-      <c r="X185">
-        <v>0</v>
-      </c>
-      <c r="Y185">
-        <v>0</v>
-      </c>
-      <c r="Z185">
-        <v>0</v>
-      </c>
-      <c r="AA185">
         <v>0</v>
       </c>
     </row>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -127,7 +127,7 @@
     <t>FC Flyeralarm Admira</t>
   </si>
   <si>
-    <t>Grazer AK</t>
+    <t>Leoben DSV</t>
   </si>
   <si>
     <t>SW Bregenz</t>
@@ -136,13 +136,13 @@
     <t>SV Lafnitz</t>
   </si>
   <si>
-    <t>Leoben DSV</t>
+    <t>Grazer AK</t>
+  </si>
+  <si>
+    <t>Sturm Graz II</t>
   </si>
   <si>
     <t>Floridsdorfer AC</t>
-  </si>
-  <si>
-    <t>Sturm Graz II</t>
   </si>
   <si>
     <t>SV StripfingWeiden</t>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6832839</v>
+        <v>6832067</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1352,58 +1352,58 @@
         <v>45135.53125</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>51</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="N10">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O10">
+        <v>3.8</v>
+      </c>
+      <c r="P10">
         <v>3.6</v>
       </c>
-      <c r="P10">
-        <v>2.75</v>
-      </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1412,16 +1412,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832835</v>
+        <v>6832066</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1441,40 +1441,40 @@
         <v>45135.53125</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N11">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
         <v>1.875</v>
@@ -1483,34 +1483,34 @@
         <v>1.925</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832836</v>
+        <v>6831794</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,10 +1530,10 @@
         <v>45135.53125</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1545,43 +1545,43 @@
         <v>51</v>
       </c>
       <c r="K12">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L12">
+        <v>3.75</v>
+      </c>
+      <c r="M12">
         <v>4.2</v>
       </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
       <c r="N12">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
         <v>1.8</v>
       </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
-        <v>0.615</v>
+        <v>0.833</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1590,16 +1590,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6832066</v>
+        <v>6832836</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,13 +1619,13 @@
         <v>45135.53125</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1634,31 +1634,31 @@
         <v>51</v>
       </c>
       <c r="K13">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M13">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q13">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
         <v>2.75</v>
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>0.615</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1679,16 +1679,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6831794</v>
+        <v>6832839</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1708,13 +1708,13 @@
         <v>45135.53125</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1723,43 +1723,43 @@
         <v>51</v>
       </c>
       <c r="K14">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N14">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1768,16 +1768,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6832067</v>
+        <v>6832835</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,49 +1797,49 @@
         <v>45135.53125</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
         <v>1.95</v>
@@ -1848,25 +1848,25 @@
         <v>1.85</v>
       </c>
       <c r="W15">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6832838</v>
+        <v>6832837</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,37 +1889,37 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N16">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P16">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
         <v>1.925</v>
@@ -1928,34 +1928,34 @@
         <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832837</v>
+        <v>6832838</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,37 +1978,37 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N17">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="O17">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -2017,34 +2017,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6831795</v>
+        <v>6832842</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,67 +2064,67 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N18">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2133,7 +2133,7 @@
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6832840</v>
+        <v>6832069</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,55 +2153,55 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
         <v>37</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2210,19 +2210,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832842</v>
+        <v>6832840</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,76 +2242,76 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
+        <v>1.7</v>
+      </c>
+      <c r="N20">
+        <v>4.75</v>
+      </c>
+      <c r="O20">
         <v>4.333</v>
       </c>
-      <c r="N20">
-        <v>1.727</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
       <c r="P20">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
+        <v>2.05</v>
+      </c>
+      <c r="S20">
+        <v>1.75</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
         <v>1.95</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>1.85</v>
       </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
-      <c r="U20">
-        <v>1.85</v>
-      </c>
-      <c r="V20">
-        <v>1.95</v>
-      </c>
       <c r="W20">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6832069</v>
+        <v>6831795</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,40 +2331,40 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
         <v>3.5</v>
       </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N21">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R21">
         <v>1.875</v>
@@ -2373,34 +2373,34 @@
         <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y21">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2601,7 +2601,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2957,7 +2957,7 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6832070</v>
+        <v>6832845</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6832845</v>
+        <v>6832070</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N32">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6832072</v>
+        <v>6832852</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,58 +3399,58 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>51</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N33">
+        <v>2.5</v>
+      </c>
+      <c r="O33">
+        <v>3.6</v>
+      </c>
+      <c r="P33">
+        <v>2.55</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1.875</v>
+      </c>
+      <c r="S33">
+        <v>1.925</v>
+      </c>
+      <c r="T33">
+        <v>2.75</v>
+      </c>
+      <c r="U33">
         <v>1.8</v>
       </c>
-      <c r="O33">
-        <v>3.8</v>
-      </c>
-      <c r="P33">
-        <v>4.2</v>
-      </c>
-      <c r="Q33">
-        <v>-0.5</v>
-      </c>
-      <c r="R33">
-        <v>1.75</v>
-      </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3459,16 +3459,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6832071</v>
+        <v>6832854</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,13 +3488,13 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3503,43 +3503,43 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O34">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3548,16 +3548,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6832855</v>
+        <v>6832072</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M35">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
         <v>-0</v>
-      </c>
-      <c r="AB35">
-        <v>-1</v>
-      </c>
-      <c r="AC35">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6832854</v>
+        <v>6832071</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,13 +3666,13 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3681,43 +3681,43 @@
         <v>51</v>
       </c>
       <c r="K36">
+        <v>1.727</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>3.75</v>
+      </c>
+      <c r="N36">
+        <v>2.15</v>
+      </c>
+      <c r="O36">
+        <v>3.75</v>
+      </c>
+      <c r="P36">
+        <v>3.1</v>
+      </c>
+      <c r="Q36">
+        <v>-0.25</v>
+      </c>
+      <c r="R36">
+        <v>1.8</v>
+      </c>
+      <c r="S36">
         <v>2</v>
       </c>
-      <c r="L36">
-        <v>3.4</v>
-      </c>
-      <c r="M36">
-        <v>3.3</v>
-      </c>
-      <c r="N36">
-        <v>2</v>
-      </c>
-      <c r="O36">
-        <v>3.4</v>
-      </c>
-      <c r="P36">
-        <v>3.8</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.975</v>
-      </c>
-      <c r="S36">
-        <v>1.825</v>
-      </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,16 +3726,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6832852</v>
+        <v>6832855</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3755,76 +3755,76 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N37">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3844,10 +3844,10 @@
         <v>45156.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4467,7 +4467,7 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
@@ -4737,7 +4737,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -4823,7 +4823,7 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
         <v>29</v>
@@ -4912,7 +4912,7 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>34</v>
@@ -5182,7 +5182,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5538,7 +5538,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6832869</v>
+        <v>6832867</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,58 +5624,58 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>51</v>
       </c>
       <c r="K58">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L58">
+        <v>3.4</v>
+      </c>
+      <c r="M58">
+        <v>3.1</v>
+      </c>
+      <c r="N58">
+        <v>2.1</v>
+      </c>
+      <c r="O58">
         <v>3.5</v>
       </c>
-      <c r="M58">
-        <v>2.4</v>
-      </c>
-      <c r="N58">
-        <v>2.45</v>
-      </c>
-      <c r="O58">
-        <v>3.75</v>
-      </c>
       <c r="P58">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5684,16 +5684,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832868</v>
+        <v>6832870</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,76 +5713,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K59">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N59">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
         <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6832871</v>
+        <v>6832869</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,76 +5802,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K60">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L60">
         <v>3.5</v>
       </c>
       <c r="M60">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N60">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
         <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6832870</v>
+        <v>6832868</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,76 +5891,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>2</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N61">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O61">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6832867</v>
+        <v>6832871</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,76 +5980,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N62">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O62">
         <v>3.5</v>
       </c>
       <c r="P62">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q62">
         <v>-0.25</v>
       </c>
       <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
         <v>1.8</v>
       </c>
-      <c r="S62">
+      <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
+        <v>1.925</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
         <v>2</v>
       </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
-      <c r="U62">
-        <v>1.925</v>
-      </c>
-      <c r="V62">
-        <v>1.875</v>
-      </c>
-      <c r="W62">
-        <v>1.1</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
       <c r="Z62">
+        <v>-1</v>
+      </c>
+      <c r="AA62">
         <v>0.8</v>
       </c>
-      <c r="AA62">
-        <v>-1</v>
-      </c>
       <c r="AB62">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6069,10 +6069,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
         <v>40</v>
-      </c>
-      <c r="G63" t="s">
-        <v>37</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6158,7 +6158,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6832078</v>
+        <v>6832876</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,55 +6336,55 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>49</v>
       </c>
       <c r="K66">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L66">
         <v>3.5</v>
       </c>
       <c r="M66">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N66">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q66">
         <v>0.25</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6393,19 +6393,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6834056</v>
+        <v>6832078</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6425,40 +6425,40 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
         <v>49</v>
       </c>
       <c r="K67">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
         <v>1.8</v>
@@ -6467,13 +6467,13 @@
         <v>2</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6482,7 +6482,7 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>3.333</v>
+        <v>1.375</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6491,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6502,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6832876</v>
+        <v>6834056</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6514,56 +6514,56 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
         <v>49</v>
       </c>
       <c r="K68">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
         <v>3.75</v>
       </c>
       <c r="P68">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
+        <v>1.8</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>1.95</v>
+      </c>
+      <c r="V68">
         <v>1.85</v>
       </c>
-      <c r="S68">
-        <v>1.95</v>
-      </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.9</v>
-      </c>
-      <c r="V68">
-        <v>1.9</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
@@ -6571,19 +6571,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.2</v>
+        <v>3.333</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
         <v>0.95</v>
       </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6692,7 +6692,7 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
         <v>34</v>
@@ -6962,7 +6962,7 @@
         <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6832880</v>
+        <v>6832881</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,73 +7048,73 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N74">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6832080</v>
+        <v>6832880</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,73 +7137,73 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X75">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6832881</v>
+        <v>6832080</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,40 +7226,40 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L76">
         <v>3.6</v>
       </c>
       <c r="M76">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O76">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P76">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
         <v>1.975</v>
@@ -7271,28 +7271,28 @@
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y76">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7318,7 +7318,7 @@
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7493,7 +7493,7 @@
         <v>45199.39583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
         <v>38</v>
@@ -7671,7 +7671,7 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -7748,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6832885</v>
+        <v>6831800</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7760,76 +7760,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K82">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="L82">
         <v>3.6</v>
       </c>
       <c r="M82">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="N82">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6831800</v>
+        <v>6832082</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,76 +7849,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
+        <v>2.75</v>
+      </c>
+      <c r="N83">
+        <v>2.05</v>
+      </c>
+      <c r="O83">
+        <v>3.75</v>
+      </c>
+      <c r="P83">
         <v>3.4</v>
       </c>
-      <c r="N83">
-        <v>2.45</v>
-      </c>
-      <c r="O83">
-        <v>3.4</v>
-      </c>
-      <c r="P83">
-        <v>2.8</v>
-      </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
         <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>1.975</v>
+      </c>
+      <c r="V83">
+        <v>1.825</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
         <v>2.75</v>
       </c>
-      <c r="U83">
-        <v>1.85</v>
-      </c>
-      <c r="V83">
-        <v>1.95</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
       <c r="Y83">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6832082</v>
+        <v>6832885</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,76 +7938,76 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K84">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
+        <v>1.8</v>
+      </c>
+      <c r="N84">
+        <v>3.75</v>
+      </c>
+      <c r="O84">
+        <v>3.6</v>
+      </c>
+      <c r="P84">
+        <v>1.95</v>
+      </c>
+      <c r="Q84">
+        <v>0.5</v>
+      </c>
+      <c r="R84">
+        <v>1.9</v>
+      </c>
+      <c r="S84">
+        <v>1.9</v>
+      </c>
+      <c r="T84">
         <v>2.75</v>
       </c>
-      <c r="N84">
-        <v>2.05</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
-      <c r="P84">
-        <v>3.4</v>
-      </c>
-      <c r="Q84">
-        <v>-0.5</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
-      </c>
-      <c r="T84">
-        <v>3</v>
-      </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X84">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8119,7 +8119,7 @@
         <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8297,7 +8297,7 @@
         <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8650,7 +8650,7 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
         <v>31</v>
@@ -8742,7 +8742,7 @@
         <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -9098,7 +9098,7 @@
         <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9187,7 +9187,7 @@
         <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9365,7 +9365,7 @@
         <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9451,7 +9451,7 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>36</v>
@@ -9543,7 +9543,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>5</v>
@@ -9896,7 +9896,7 @@
         <v>45233.59027777778</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
         <v>45</v>
@@ -10344,7 +10344,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10522,7 +10522,7 @@
         <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10964,7 +10964,7 @@
         <v>45241.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
         <v>32</v>
@@ -11053,10 +11053,10 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11219,7 +11219,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6832912</v>
+        <v>6832910</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11231,76 +11231,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>2</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M121">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N121">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P121">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
+        <v>1.875</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>1.75</v>
+      </c>
+      <c r="V121">
         <v>1.95</v>
       </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.875</v>
-      </c>
-      <c r="V121">
-        <v>1.925</v>
-      </c>
       <c r="W121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6832910</v>
+        <v>6832912</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,76 +11320,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>51</v>
+      </c>
+      <c r="K122">
         <v>2</v>
       </c>
-      <c r="J122" t="s">
-        <v>49</v>
-      </c>
-      <c r="K122">
-        <v>1.5</v>
-      </c>
       <c r="L122">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N122">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O122">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P122">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q122">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
+        <v>1.85</v>
+      </c>
+      <c r="S122">
+        <v>1.95</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
+        <v>1.875</v>
+      </c>
+      <c r="V122">
         <v>1.925</v>
       </c>
-      <c r="S122">
-        <v>1.875</v>
-      </c>
-      <c r="T122">
-        <v>2.75</v>
-      </c>
-      <c r="U122">
-        <v>1.75</v>
-      </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6832908</v>
+        <v>6832911</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,55 +11587,55 @@
         <v>45255.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>49</v>
       </c>
       <c r="K125">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P125">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
         <v>3</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11644,19 +11644,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6832911</v>
+        <v>6832908</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,55 +11676,55 @@
         <v>45255.4375</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J126" t="s">
         <v>49</v>
       </c>
       <c r="K126">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M126">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="N126">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="O126">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="Q126">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
         <v>3</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11733,19 +11733,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6832909</v>
+        <v>6832091</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,55 +11765,55 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>49</v>
       </c>
       <c r="K127">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L127">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M127">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N127">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P127">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R127">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11822,19 +11822,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6832091</v>
+        <v>6832909</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11854,56 +11854,56 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L128">
+        <v>3.5</v>
+      </c>
+      <c r="M128">
+        <v>2.2</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128">
         <v>3.6</v>
       </c>
-      <c r="M128">
-        <v>1.833</v>
-      </c>
-      <c r="N128">
-        <v>4.5</v>
-      </c>
-      <c r="O128">
-        <v>4.2</v>
-      </c>
       <c r="P128">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
+        <v>1.925</v>
+      </c>
+      <c r="S128">
+        <v>1.875</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
         <v>1.95</v>
       </c>
-      <c r="S128">
-        <v>1.85</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
-      <c r="U128">
-        <v>2</v>
-      </c>
-      <c r="V128">
-        <v>1.8</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11911,19 +11911,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
+        <v>0.875</v>
+      </c>
+      <c r="AB128">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6832914</v>
+        <v>6831806</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11943,13 +11943,13 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>4</v>
@@ -11958,40 +11958,40 @@
         <v>49</v>
       </c>
       <c r="K129">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N129">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
+        <v>1.85</v>
+      </c>
+      <c r="S129">
         <v>1.95</v>
-      </c>
-      <c r="S129">
-        <v>1.85</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -12000,16 +12000,16 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.625</v>
+        <v>2.8</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12020,7 +12020,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6831806</v>
+        <v>6832917</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12032,73 +12032,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>51</v>
+      </c>
+      <c r="K130">
+        <v>1.4</v>
+      </c>
+      <c r="L130">
+        <v>4.2</v>
+      </c>
+      <c r="M130">
+        <v>7.5</v>
+      </c>
+      <c r="N130">
+        <v>1.2</v>
+      </c>
+      <c r="O130">
+        <v>7</v>
+      </c>
+      <c r="P130">
+        <v>13</v>
+      </c>
+      <c r="Q130">
+        <v>-2</v>
+      </c>
+      <c r="R130">
+        <v>1.8</v>
+      </c>
+      <c r="S130">
         <v>2</v>
       </c>
-      <c r="I130">
-        <v>4</v>
-      </c>
-      <c r="J130" t="s">
-        <v>49</v>
-      </c>
-      <c r="K130">
-        <v>1.909</v>
-      </c>
-      <c r="L130">
-        <v>3.6</v>
-      </c>
-      <c r="M130">
+      <c r="T130">
         <v>3.5</v>
       </c>
-      <c r="N130">
-        <v>1.909</v>
-      </c>
-      <c r="O130">
-        <v>3.8</v>
-      </c>
-      <c r="P130">
-        <v>3.8</v>
-      </c>
-      <c r="Q130">
-        <v>-0.5</v>
-      </c>
-      <c r="R130">
-        <v>1.85</v>
-      </c>
-      <c r="S130">
-        <v>1.95</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
       <c r="U130">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6832917</v>
+        <v>6832914</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,73 +12121,73 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M131">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N131">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>13</v>
+        <v>2.625</v>
       </c>
       <c r="Q131">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12210,7 +12210,7 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
         <v>44</v>
@@ -12302,7 +12302,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12391,7 +12391,7 @@
         <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12744,7 +12744,7 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>43</v>
@@ -12922,7 +12922,7 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
         <v>29</v>
@@ -13100,7 +13100,7 @@
         <v>45346.4375</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
         <v>32</v>
@@ -13189,7 +13189,7 @@
         <v>45346.4375</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
         <v>30</v>
@@ -13456,10 +13456,10 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F146" t="s">
+        <v>42</v>
+      </c>
+      <c r="G146" t="s">
         <v>41</v>
-      </c>
-      <c r="G146" t="s">
-        <v>42</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13637,7 +13637,7 @@
         <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13723,7 +13723,7 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6832930</v>
+        <v>6832098</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,49 +14168,49 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L154">
+        <v>3.4</v>
+      </c>
+      <c r="M154">
+        <v>2.2</v>
+      </c>
+      <c r="N154">
         <v>3.6</v>
       </c>
-      <c r="M154">
-        <v>1.833</v>
-      </c>
-      <c r="N154">
-        <v>4</v>
-      </c>
       <c r="O154">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q154">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R154">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
         <v>1.95</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
         <v>1.825</v>
@@ -14219,25 +14219,25 @@
         <v>1.975</v>
       </c>
       <c r="W154">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6832934</v>
+        <v>6832930</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,73 +14257,73 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
         <v>1</v>
       </c>
-      <c r="I155">
-        <v>2</v>
-      </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K155">
+        <v>3.75</v>
+      </c>
+      <c r="L155">
+        <v>3.6</v>
+      </c>
+      <c r="M155">
         <v>1.833</v>
       </c>
-      <c r="L155">
-        <v>3.75</v>
-      </c>
-      <c r="M155">
-        <v>3.6</v>
-      </c>
       <c r="N155">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O155">
         <v>3.75</v>
       </c>
       <c r="P155">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
         <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6831808</v>
+        <v>6832934</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,76 +14346,76 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
         <v>2</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K156">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="L156">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N156">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O156">
         <v>3.75</v>
       </c>
       <c r="P156">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6832933</v>
+        <v>6831808</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L157">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N157">
+        <v>1.8</v>
+      </c>
+      <c r="O157">
+        <v>3.75</v>
+      </c>
+      <c r="P157">
+        <v>4.2</v>
+      </c>
+      <c r="Q157">
+        <v>-0.75</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>1.75</v>
+      </c>
+      <c r="T157">
         <v>2.5</v>
       </c>
-      <c r="O157">
-        <v>4</v>
-      </c>
-      <c r="P157">
-        <v>2.45</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
+      <c r="U157">
         <v>1.9</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.9</v>
       </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
-      <c r="U157">
-        <v>1.8</v>
-      </c>
-      <c r="V157">
-        <v>2</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
-      <c r="AC157">
-        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6832098</v>
+        <v>6832933</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,76 +14524,76 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K158">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="N158">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P158">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="Q158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V158">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14613,7 +14613,7 @@
         <v>45359.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
         <v>44</v>
@@ -14791,10 +14791,10 @@
         <v>45361.27083333334</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14883,7 +14883,7 @@
         <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14969,7 +14969,7 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
         <v>39</v>
@@ -15325,7 +15325,7 @@
         <v>45366.6875</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15417,7 +15417,7 @@
         <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6832944</v>
+        <v>6834054</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,76 +15592,76 @@
         <v>45380.59027777778</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="L170">
+        <v>3.9</v>
+      </c>
+      <c r="M170">
+        <v>4.6</v>
+      </c>
+      <c r="N170">
+        <v>1.75</v>
+      </c>
+      <c r="O170">
+        <v>3.75</v>
+      </c>
+      <c r="P170">
         <v>5</v>
       </c>
-      <c r="M170">
-        <v>8</v>
-      </c>
-      <c r="N170">
-        <v>1.533</v>
-      </c>
-      <c r="O170">
-        <v>4.75</v>
-      </c>
-      <c r="P170">
-        <v>5.5</v>
-      </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
+        <v>1.95</v>
+      </c>
+      <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
+        <v>1.975</v>
+      </c>
+      <c r="V170">
         <v>1.825</v>
       </c>
-      <c r="S170">
-        <v>1.975</v>
-      </c>
-      <c r="T170">
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
         <v>2.75</v>
       </c>
-      <c r="U170">
-        <v>1.875</v>
-      </c>
-      <c r="V170">
-        <v>1.925</v>
-      </c>
-      <c r="W170">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>0.825</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>0.875</v>
-      </c>
-      <c r="AC170">
-        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6834054</v>
+        <v>6832944</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45380.59027777778</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K171">
-        <v>1.615</v>
+        <v>1.3</v>
       </c>
       <c r="L171">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="M171">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="N171">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O171">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P171">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X171">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC171">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15773,7 +15773,7 @@
         <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -16126,7 +16126,7 @@
         <v>45382.22916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
         <v>36</v>
@@ -16218,7 +16218,7 @@
         <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H177">
         <v>4</v>
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6831810</v>
+        <v>6832949</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,73 +16304,73 @@
         <v>45387.54861111111</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I178">
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K178">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="N178">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="O178">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P178">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
         <v>1.95</v>
       </c>
       <c r="T178">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6832947</v>
+        <v>6832950</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,49 +16393,49 @@
         <v>45387.54861111111</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
         <v>1</v>
       </c>
-      <c r="I179">
-        <v>2</v>
-      </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M179">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="N179">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q179">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
         <v>1.75</v>
@@ -16444,25 +16444,25 @@
         <v>1.95</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>0.375</v>
+      </c>
+      <c r="AC179">
         <v>-0.5</v>
-      </c>
-      <c r="AA179">
-        <v>0.5</v>
-      </c>
-      <c r="AB179">
-        <v>0</v>
-      </c>
-      <c r="AC179">
-        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16470,7 +16470,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6832949</v>
+        <v>6832947</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16482,76 +16482,76 @@
         <v>45387.54861111111</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180" t="s">
+        <v>49</v>
+      </c>
+      <c r="K180">
+        <v>4.2</v>
+      </c>
+      <c r="L180">
+        <v>4</v>
+      </c>
+      <c r="M180">
+        <v>1.7</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180">
+        <v>4</v>
+      </c>
+      <c r="P180">
+        <v>1.8</v>
+      </c>
+      <c r="Q180">
+        <v>0.75</v>
+      </c>
+      <c r="R180">
+        <v>1.8</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
         <v>3</v>
       </c>
-      <c r="J180" t="s">
-        <v>51</v>
-      </c>
-      <c r="K180">
-        <v>3.5</v>
-      </c>
-      <c r="L180">
-        <v>3.4</v>
-      </c>
-      <c r="M180">
+      <c r="U180">
+        <v>1.75</v>
+      </c>
+      <c r="V180">
         <v>1.95</v>
       </c>
-      <c r="N180">
-        <v>2.625</v>
-      </c>
-      <c r="O180">
-        <v>3.3</v>
-      </c>
-      <c r="P180">
-        <v>2.7</v>
-      </c>
-      <c r="Q180">
-        <v>0</v>
-      </c>
-      <c r="R180">
-        <v>1.85</v>
-      </c>
-      <c r="S180">
-        <v>1.95</v>
-      </c>
-      <c r="T180">
-        <v>2.5</v>
-      </c>
-      <c r="U180">
-        <v>1.8</v>
-      </c>
-      <c r="V180">
-        <v>2</v>
-      </c>
       <c r="W180">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z180">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB180">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6832950</v>
+        <v>6831810</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,76 +16571,76 @@
         <v>45387.54861111111</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
+        <v>3</v>
+      </c>
+      <c r="J181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K181">
+        <v>5.25</v>
+      </c>
+      <c r="L181">
+        <v>3.75</v>
+      </c>
+      <c r="M181">
+        <v>1.6</v>
+      </c>
+      <c r="N181">
+        <v>5.25</v>
+      </c>
+      <c r="O181">
+        <v>3.75</v>
+      </c>
+      <c r="P181">
+        <v>1.666</v>
+      </c>
+      <c r="Q181">
         <v>1</v>
       </c>
-      <c r="J181" t="s">
-        <v>51</v>
-      </c>
-      <c r="K181">
-        <v>2.05</v>
-      </c>
-      <c r="L181">
-        <v>3.6</v>
-      </c>
-      <c r="M181">
-        <v>3</v>
-      </c>
-      <c r="N181">
-        <v>2.4</v>
-      </c>
-      <c r="O181">
-        <v>3.6</v>
-      </c>
-      <c r="P181">
-        <v>2.75</v>
-      </c>
-      <c r="Q181">
-        <v>0</v>
-      </c>
       <c r="R181">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S181">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
         <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z181">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB181">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16749,10 +16749,10 @@
         <v>45388.39583333334</v>
       </c>
       <c r="F183" t="s">
+        <v>40</v>
+      </c>
+      <c r="G183" t="s">
         <v>37</v>
-      </c>
-      <c r="G183" t="s">
-        <v>40</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16841,7 +16841,7 @@
         <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H184">
         <v>3</v>
@@ -16930,7 +16930,7 @@
         <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17031,13 +17031,13 @@
         <v>3.6</v>
       </c>
       <c r="N186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P186">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q186">
         <v>-0.5</v>
@@ -17105,22 +17105,22 @@
         <v>2</v>
       </c>
       <c r="N187">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O187">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P187">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q187">
         <v>0.5</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
         <v>2.75</v>
@@ -17167,7 +17167,7 @@
         <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K188">
         <v>2.5</v>
@@ -17179,13 +17179,13 @@
         <v>2.4</v>
       </c>
       <c r="N188">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O188">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -17200,10 +17200,10 @@
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17256,10 +17256,10 @@
         <v>2.05</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q189">
         <v>-0.25</v>
@@ -17312,10 +17312,10 @@
         <v>45394.64583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17327,13 +17327,13 @@
         <v>2.875</v>
       </c>
       <c r="N190">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O190">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P190">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -17401,13 +17401,13 @@
         <v>9</v>
       </c>
       <c r="N191">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="O191">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P191">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Q191">
         <v>-1.75</v>
@@ -17460,7 +17460,7 @@
         <v>45396.22916666666</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G192" t="s">
         <v>45</v>
@@ -17475,13 +17475,13 @@
         <v>2.25</v>
       </c>
       <c r="N192">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O192">
         <v>3.5</v>
       </c>
       <c r="P192">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q192">
         <v>0.25</v>
@@ -17549,13 +17549,13 @@
         <v>3</v>
       </c>
       <c r="N193">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q193">
         <v>-0.25</v>
@@ -17570,10 +17570,10 @@
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
         <v>0</v>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -112,37 +112,37 @@
     <t>FC Liefering</t>
   </si>
   <si>
+    <t>FC Blau Weiss Linz</t>
+  </si>
+  <si>
+    <t>St Polten</t>
+  </si>
+  <si>
+    <t>FC Flyeralarm Admira</t>
+  </si>
+  <si>
     <t>FC Dornbirn 1913</t>
   </si>
   <si>
     <t>First Vienna FC 1894</t>
   </si>
   <si>
-    <t>FC Flyeralarm Admira</t>
+    <t>SW Bregenz</t>
   </si>
   <si>
-    <t>St Polten</t>
-  </si>
-  <si>
-    <t>FC Blau Weiss Linz</t>
-  </si>
-  <si>
-    <t>SW Bregenz</t>
+    <t>Grazer AK</t>
   </si>
   <si>
     <t>Leoben DSV</t>
   </si>
   <si>
-    <t>Grazer AK</t>
-  </si>
-  <si>
     <t>SV Lafnitz</t>
   </si>
   <si>
-    <t>Floridsdorfer AC</t>
+    <t>Sturm Graz II</t>
   </si>
   <si>
-    <t>Sturm Graz II</t>
+    <t>Floridsdorfer AC</t>
   </si>
   <si>
     <t>SV StripfingWeiden</t>
@@ -157,10 +157,10 @@
     <t>FK Austria Vienna II</t>
   </si>
   <si>
-    <t>SK Vorwrts Steyr</t>
+    <t>Rapid Vienna II</t>
   </si>
   <si>
-    <t>Rapid Vienna II</t>
+    <t>SK Vorwrts Steyr</t>
   </si>
   <si>
     <t>D</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC201"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,7 +732,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208062</v>
+        <v>5207398</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>6.5</v>
+        <v>1.181</v>
       </c>
       <c r="L5">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="M5">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>1.09</v>
       </c>
       <c r="O5">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="P5">
-        <v>1.444</v>
+        <v>19</v>
       </c>
       <c r="Q5">
-        <v>1.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U5">
+        <v>1.925</v>
+      </c>
+      <c r="V5">
         <v>1.875</v>
       </c>
-      <c r="V5">
-        <v>1.925</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X5">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5208063</v>
+        <v>5227634</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6">
+        <v>1.6</v>
+      </c>
+      <c r="L6">
+        <v>4.333</v>
+      </c>
+      <c r="M6">
+        <v>4.75</v>
+      </c>
+      <c r="N6">
+        <v>1.615</v>
+      </c>
+      <c r="O6">
+        <v>4.75</v>
+      </c>
+      <c r="P6">
+        <v>4.75</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6">
-        <v>2.8</v>
-      </c>
-      <c r="L6">
-        <v>3.4</v>
-      </c>
-      <c r="M6">
-        <v>2.375</v>
-      </c>
-      <c r="N6">
-        <v>3.1</v>
-      </c>
-      <c r="O6">
-        <v>3.8</v>
-      </c>
-      <c r="P6">
-        <v>2.15</v>
-      </c>
-      <c r="Q6">
-        <v>0.25</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
         <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5227634</v>
+        <v>5208062</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1177,73 +1177,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="L8">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M8">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="O8">
         <v>4.75</v>
       </c>
       <c r="P8">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5207398</v>
+        <v>5208063</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,73 +1266,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>1.181</v>
+        <v>2.8</v>
       </c>
       <c r="L9">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N9">
-        <v>1.09</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="P9">
-        <v>19</v>
+        <v>2.15</v>
       </c>
       <c r="Q9">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832835</v>
+        <v>6832066</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1441,40 +1441,40 @@
         <v>45135.53125</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N11">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
         <v>1.875</v>
@@ -1483,34 +1483,34 @@
         <v>1.925</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832066</v>
+        <v>6832835</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1530,40 +1530,40 @@
         <v>45135.53125</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
         <v>1.875</v>
@@ -1572,34 +1572,34 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6832067</v>
+        <v>6832836</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1622,55 +1622,55 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>51</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M13">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
         <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>0.909</v>
+        <v>0.615</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1679,16 +1679,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6832836</v>
+        <v>6832067</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1711,55 +1711,55 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N14">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P14">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>0.615</v>
+        <v>0.909</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1768,16 +1768,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6832838</v>
+        <v>6832837</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1889,37 +1889,37 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N16">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P16">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
         <v>1.925</v>
@@ -1928,34 +1928,34 @@
         <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6832837</v>
+        <v>6832838</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1978,37 +1978,37 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N17">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="O17">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -2017,34 +2017,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6832069</v>
+        <v>6832842</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,76 +2064,76 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18">
+        <v>1.727</v>
+      </c>
+      <c r="L18">
+        <v>3.6</v>
+      </c>
+      <c r="M18">
+        <v>4.333</v>
+      </c>
+      <c r="N18">
+        <v>1.727</v>
+      </c>
+      <c r="O18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18">
-        <v>2.3</v>
-      </c>
-      <c r="L18">
-        <v>3.5</v>
-      </c>
-      <c r="M18">
-        <v>2.75</v>
-      </c>
-      <c r="N18">
-        <v>2.5</v>
-      </c>
-      <c r="O18">
-        <v>3.75</v>
-      </c>
       <c r="P18">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
         <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6832840</v>
+        <v>6831795</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2153,76 +2153,76 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="N19">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="Q19">
         <v>0.75</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1.825</v>
+      </c>
+      <c r="V19">
+        <v>1.975</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
         <v>3</v>
       </c>
-      <c r="U19">
-        <v>1.95</v>
-      </c>
-      <c r="V19">
-        <v>1.85</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
       <c r="Y19">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6832842</v>
+        <v>6832840</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,73 +2245,73 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M20">
+        <v>1.7</v>
+      </c>
+      <c r="N20">
+        <v>4.75</v>
+      </c>
+      <c r="O20">
         <v>4.333</v>
       </c>
-      <c r="N20">
-        <v>1.727</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
       <c r="P20">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
+        <v>2.05</v>
+      </c>
+      <c r="S20">
+        <v>1.75</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
         <v>1.95</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>1.85</v>
       </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
-      <c r="U20">
-        <v>1.85</v>
-      </c>
-      <c r="V20">
-        <v>1.95</v>
-      </c>
       <c r="W20">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6831795</v>
+        <v>6832069</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,40 +2331,40 @@
         <v>45142.54861111111</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
         <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>1.875</v>
@@ -2373,34 +2373,34 @@
         <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2598,10 +2598,10 @@
         <v>45144.22916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6832849</v>
+        <v>6832846</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,76 +2687,76 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6832850</v>
+        <v>6832849</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,10 +2776,10 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2791,43 +2791,43 @@
         <v>51</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N26">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
         <v>3.6</v>
       </c>
       <c r="P26">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>2.3</v>
+        <v>0.909</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2836,7 +2836,7 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2845,7 +2845,7 @@
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6832846</v>
+        <v>6832850</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2865,49 +2865,49 @@
         <v>45149.54861111111</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N27">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O27">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q27">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
         <v>1.825</v>
@@ -2916,19 +2916,19 @@
         <v>1.975</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2954,10 +2954,10 @@
         <v>45149.64583333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3046,7 +3046,7 @@
         <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3221,10 +3221,10 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
         <v>42</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3310,7 +3310,7 @@
         <v>45151.22916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3402,7 +3402,7 @@
         <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3580,7 +3580,7 @@
         <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3755,7 +3755,7 @@
         <v>45156.54861111111</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3844,10 +3844,10 @@
         <v>45156.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>45157.39583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>34</v>
@@ -4025,7 +4025,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4378,10 +4378,10 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4556,10 +4556,10 @@
         <v>45163.54861111111</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4645,7 +4645,7 @@
         <v>45163.64583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4734,7 +4734,7 @@
         <v>45165.22916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -4826,7 +4826,7 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4900,7 +4900,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6832866</v>
+        <v>6832861</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4912,58 +4912,58 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>51</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M50">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N50">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>1.9</v>
+        <v>0.833</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4972,16 +4972,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6832863</v>
+        <v>6832866</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,76 +5001,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N51">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6832864</v>
+        <v>6832863</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,76 +5090,76 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52">
+        <v>1.727</v>
+      </c>
+      <c r="L52">
         <v>3.75</v>
       </c>
-      <c r="L52">
-        <v>4.2</v>
-      </c>
       <c r="M52">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="N52">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52">
         <v>5</v>
       </c>
-      <c r="P52">
-        <v>1.5</v>
-      </c>
       <c r="Q52">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6832861</v>
+        <v>6832864</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,49 +5179,49 @@
         <v>45170.54861111111</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="L53">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="N53">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="O53">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P53">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U53">
         <v>1.95</v>
@@ -5230,25 +5230,25 @@
         <v>1.85</v>
       </c>
       <c r="W53">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5345,7 +5345,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6832075</v>
+        <v>6832862</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5357,58 +5357,58 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>51</v>
       </c>
       <c r="K55">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O55">
         <v>3.6</v>
       </c>
       <c r="P55">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5417,13 +5417,13 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.425</v>
+        <v>0.4375</v>
       </c>
       <c r="AC55">
         <v>-0.5</v>
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6832862</v>
+        <v>6832075</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,58 +5446,58 @@
         <v>45171.39583333334</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>51</v>
       </c>
       <c r="K56">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N56">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O56">
         <v>3.6</v>
       </c>
       <c r="P56">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5506,13 +5506,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.4375</v>
+        <v>0.425</v>
       </c>
       <c r="AC56">
         <v>-0.5</v>
@@ -5538,7 +5538,7 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6832870</v>
+        <v>6832869</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,13 +5624,13 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -5639,43 +5639,43 @@
         <v>51</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L58">
         <v>3.5</v>
       </c>
       <c r="M58">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O58">
         <v>3.75</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5684,7 +5684,7 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5693,7 +5693,7 @@
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6832869</v>
+        <v>6832871</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,76 +5713,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K59">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L59">
         <v>3.5</v>
       </c>
       <c r="M59">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="N59">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
         <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5802,7 +5802,7 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
         <v>34</v>
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6832871</v>
+        <v>6832868</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,10 +5891,10 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5906,40 +5906,40 @@
         <v>50</v>
       </c>
       <c r="K61">
+        <v>1.571</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>4.333</v>
+      </c>
+      <c r="N61">
+        <v>1.55</v>
+      </c>
+      <c r="O61">
+        <v>4</v>
+      </c>
+      <c r="P61">
+        <v>6</v>
+      </c>
+      <c r="Q61">
+        <v>-1</v>
+      </c>
+      <c r="R61">
+        <v>1.85</v>
+      </c>
+      <c r="S61">
         <v>1.95</v>
-      </c>
-      <c r="L61">
-        <v>3.5</v>
-      </c>
-      <c r="M61">
-        <v>3.2</v>
-      </c>
-      <c r="N61">
-        <v>2.3</v>
-      </c>
-      <c r="O61">
-        <v>3.5</v>
-      </c>
-      <c r="P61">
-        <v>3</v>
-      </c>
-      <c r="Q61">
-        <v>-0.25</v>
-      </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
-      <c r="S61">
-        <v>1.8</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5948,16 +5948,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB61">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
       <c r="AC61">
         <v>-0.5</v>
@@ -5968,7 +5968,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6832868</v>
+        <v>6832870</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5980,76 +5980,76 @@
         <v>45184.54861111111</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N62">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6069,10 +6069,10 @@
         <v>45184.64583333334</v>
       </c>
       <c r="F63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" t="s">
         <v>38</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6247,7 +6247,7 @@
         <v>45186.22916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
         <v>37</v>
@@ -6336,10 +6336,10 @@
         <v>45191.54861111111</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6692,7 +6692,7 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
         <v>31</v>
@@ -6781,10 +6781,10 @@
         <v>45192.39583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6962,7 +6962,7 @@
         <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7048,7 +7048,7 @@
         <v>45198.54861111111</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>43</v>
@@ -7229,7 +7229,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7315,10 +7315,10 @@
         <v>45198.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7404,7 +7404,7 @@
         <v>45199.39583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7585,7 +7585,7 @@
         <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7671,7 +7671,7 @@
         <v>45200.22916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
@@ -7938,7 +7938,7 @@
         <v>45205.54861111111</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -8030,7 +8030,7 @@
         <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8116,10 +8116,10 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8205,10 +8205,10 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8294,7 +8294,7 @@
         <v>45206.39583333334</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
         <v>37</v>
@@ -8475,7 +8475,7 @@
         <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -8561,7 +8561,7 @@
         <v>45219.54861111111</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8742,7 +8742,7 @@
         <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>45220.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
         <v>31</v>
@@ -9009,7 +9009,7 @@
         <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9095,10 +9095,10 @@
         <v>45221.22916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6832895</v>
+        <v>6832894</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K98">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M98">
+        <v>1.615</v>
+      </c>
+      <c r="N98">
+        <v>4.333</v>
+      </c>
+      <c r="O98">
         <v>4</v>
       </c>
-      <c r="N98">
+      <c r="P98">
         <v>1.727</v>
       </c>
-      <c r="O98">
-        <v>4.2</v>
-      </c>
-      <c r="P98">
-        <v>4.333</v>
-      </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
         <v>1.95</v>
       </c>
       <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
         <v>0.7270000000000001</v>
       </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
       <c r="Z98">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB98">
-        <v>0.75</v>
+        <v>0.425</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6831802</v>
+        <v>6832892</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,76 +9273,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K99">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="N99">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6832892</v>
+        <v>6832086</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,76 +9362,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K100">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="N100">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P100">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="Q100">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6832894</v>
+        <v>6831802</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,76 +9451,76 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N101">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
+        <v>1.775</v>
+      </c>
+      <c r="S101">
+        <v>2.025</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
+        <v>1.95</v>
+      </c>
+      <c r="V101">
         <v>1.85</v>
       </c>
-      <c r="S101">
-        <v>1.95</v>
-      </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y101">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6832086</v>
+        <v>6832895</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,13 +9540,13 @@
         <v>45226.54861111111</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I102">
         <v>2</v>
@@ -9555,43 +9555,43 @@
         <v>51</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M102">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O102">
+        <v>4.2</v>
+      </c>
+      <c r="P102">
+        <v>4.333</v>
+      </c>
+      <c r="Q102">
+        <v>-0.75</v>
+      </c>
+      <c r="R102">
+        <v>1.925</v>
+      </c>
+      <c r="S102">
+        <v>1.875</v>
+      </c>
+      <c r="T102">
         <v>3.25</v>
       </c>
-      <c r="P102">
-        <v>3.1</v>
-      </c>
-      <c r="Q102">
-        <v>-0.25</v>
-      </c>
-      <c r="R102">
-        <v>2.025</v>
-      </c>
-      <c r="S102">
-        <v>1.775</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>1.375</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9600,13 +9600,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9629,7 +9629,7 @@
         <v>45227.39583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>31</v>
@@ -9810,7 +9810,7 @@
         <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9896,7 +9896,7 @@
         <v>45233.59027777778</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
         <v>45</v>
@@ -10166,7 +10166,7 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10252,10 +10252,10 @@
         <v>45234.4375</v>
       </c>
       <c r="F110" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" t="s">
         <v>35</v>
-      </c>
-      <c r="G110" t="s">
-        <v>32</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10344,7 +10344,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>45235.35416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10608,7 +10608,7 @@
         <v>45240.59027777778</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10789,7 +10789,7 @@
         <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10878,7 +10878,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10964,10 +10964,10 @@
         <v>45241.4375</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>6</v>
@@ -11053,10 +11053,10 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11219,7 +11219,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6832910</v>
+        <v>6832912</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11231,76 +11231,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>51</v>
+      </c>
+      <c r="K121">
         <v>2</v>
       </c>
-      <c r="J121" t="s">
-        <v>50</v>
-      </c>
-      <c r="K121">
-        <v>1.5</v>
-      </c>
       <c r="L121">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M121">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N121">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="O121">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q121">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
+        <v>1.875</v>
+      </c>
+      <c r="V121">
         <v>1.925</v>
       </c>
-      <c r="S121">
-        <v>1.875</v>
-      </c>
-      <c r="T121">
-        <v>2.75</v>
-      </c>
-      <c r="U121">
-        <v>1.75</v>
-      </c>
-      <c r="V121">
-        <v>1.95</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6832912</v>
+        <v>6832910</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11320,76 +11320,76 @@
         <v>45254.59027777778</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>2</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M122">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N122">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O122">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P122">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
+        <v>1.875</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
+        <v>1.75</v>
+      </c>
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.875</v>
-      </c>
-      <c r="V122">
-        <v>1.925</v>
-      </c>
       <c r="W122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11587,7 +11587,7 @@
         <v>45255.4375</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>44</v>
@@ -11765,10 +11765,10 @@
         <v>45256.27083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11857,7 +11857,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12121,10 +12121,10 @@
         <v>45261.59027777778</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12210,7 +12210,7 @@
         <v>45266.60416666666</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
         <v>44</v>
@@ -12302,7 +12302,7 @@
         <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12391,7 +12391,7 @@
         <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12566,7 +12566,7 @@
         <v>45339.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>31</v>
@@ -12655,7 +12655,7 @@
         <v>45339.4375</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
         <v>37</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6832096</v>
+        <v>6832922</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>51</v>
       </c>
       <c r="K138">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
         <v>3.75</v>
       </c>
       <c r="N138">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q138">
+        <v>-1</v>
+      </c>
+      <c r="R138">
+        <v>1.975</v>
+      </c>
+      <c r="S138">
+        <v>1.825</v>
+      </c>
+      <c r="T138">
+        <v>3.25</v>
+      </c>
+      <c r="U138">
+        <v>1.925</v>
+      </c>
+      <c r="V138">
+        <v>1.875</v>
+      </c>
+      <c r="W138">
+        <v>0.615</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>-0</v>
+      </c>
+      <c r="AB138">
         <v>-0.5</v>
       </c>
-      <c r="R138">
-        <v>1.8</v>
-      </c>
-      <c r="S138">
-        <v>2</v>
-      </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.975</v>
-      </c>
-      <c r="V138">
-        <v>1.825</v>
-      </c>
-      <c r="W138">
-        <v>0.8</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
-      <c r="Y138">
-        <v>-1</v>
-      </c>
-      <c r="Z138">
-        <v>0.8</v>
-      </c>
-      <c r="AA138">
-        <v>-1</v>
-      </c>
-      <c r="AB138">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6831807</v>
+        <v>6832096</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,76 +12833,76 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L139">
         <v>3.6</v>
       </c>
       <c r="M139">
+        <v>3.75</v>
+      </c>
+      <c r="N139">
+        <v>1.8</v>
+      </c>
+      <c r="O139">
         <v>4</v>
       </c>
-      <c r="N139">
-        <v>1.7</v>
-      </c>
-      <c r="O139">
-        <v>3.75</v>
-      </c>
       <c r="P139">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X139">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6832922</v>
+        <v>6831807</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45345.59027777778</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>49</v>
+      </c>
+      <c r="K140">
+        <v>1.75</v>
+      </c>
+      <c r="L140">
+        <v>3.6</v>
+      </c>
+      <c r="M140">
+        <v>4</v>
+      </c>
+      <c r="N140">
+        <v>1.7</v>
+      </c>
+      <c r="O140">
+        <v>3.75</v>
+      </c>
+      <c r="P140">
+        <v>5</v>
+      </c>
+      <c r="Q140">
+        <v>-0.75</v>
+      </c>
+      <c r="R140">
+        <v>1.9</v>
+      </c>
+      <c r="S140">
+        <v>1.9</v>
+      </c>
+      <c r="T140">
+        <v>2.25</v>
+      </c>
+      <c r="U140">
+        <v>1.8</v>
+      </c>
+      <c r="V140">
         <v>2</v>
       </c>
-      <c r="I140">
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>2.75</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>1</v>
-      </c>
-      <c r="J140" t="s">
-        <v>51</v>
-      </c>
-      <c r="K140">
-        <v>1.85</v>
-      </c>
-      <c r="L140">
-        <v>3.75</v>
-      </c>
-      <c r="M140">
-        <v>3.75</v>
-      </c>
-      <c r="N140">
-        <v>1.615</v>
-      </c>
-      <c r="O140">
-        <v>4.5</v>
-      </c>
-      <c r="P140">
-        <v>4.333</v>
-      </c>
-      <c r="Q140">
-        <v>-1</v>
-      </c>
-      <c r="R140">
-        <v>1.975</v>
-      </c>
-      <c r="S140">
-        <v>1.825</v>
-      </c>
-      <c r="T140">
-        <v>3.25</v>
-      </c>
-      <c r="U140">
-        <v>1.925</v>
-      </c>
-      <c r="V140">
-        <v>1.875</v>
-      </c>
-      <c r="W140">
-        <v>0.615</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>0</v>
-      </c>
-      <c r="AA140">
-        <v>-0</v>
-      </c>
-      <c r="AB140">
-        <v>-0.5</v>
-      </c>
-      <c r="AC140">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13014,7 +13014,7 @@
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13100,10 +13100,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13278,10 +13278,10 @@
         <v>45346.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6832929</v>
+        <v>6832926</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,13 +13456,13 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -13471,13 +13471,13 @@
         <v>51</v>
       </c>
       <c r="K146">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L146">
+        <v>4.2</v>
+      </c>
+      <c r="M146">
         <v>5</v>
-      </c>
-      <c r="M146">
-        <v>7.5</v>
       </c>
       <c r="N146">
         <v>1.363</v>
@@ -13489,22 +13489,22 @@
         <v>7</v>
       </c>
       <c r="Q146">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T146">
         <v>3</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
         <v>0.363</v>
@@ -13516,16 +13516,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6832097</v>
+        <v>6832929</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,76 +13545,76 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M147">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O147">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P147">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q147">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R147">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6832926</v>
+        <v>6832097</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,76 +13634,76 @@
         <v>45352.59027777778</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K148">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L148">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="N148">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O148">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="Q148">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
+        <v>2.025</v>
+      </c>
+      <c r="S148">
+        <v>1.775</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
         <v>1.8</v>
       </c>
-      <c r="S148">
+      <c r="V148">
         <v>2</v>
       </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
-      <c r="V148">
-        <v>1.85</v>
-      </c>
       <c r="W148">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13723,10 +13723,10 @@
         <v>45352.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13800,7 +13800,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6832925</v>
+        <v>6832924</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13812,76 +13812,76 @@
         <v>45353.4375</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K150">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L150">
         <v>3.75</v>
       </c>
       <c r="M150">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="N150">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O150">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6832924</v>
+        <v>6832925</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13901,76 +13901,76 @@
         <v>45353.4375</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K151">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="L151">
         <v>3.75</v>
       </c>
       <c r="M151">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="N151">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P151">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S151">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W151">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6832098</v>
+        <v>6832930</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,49 +14168,49 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K154">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="N154">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P154">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S154">
         <v>1.95</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
         <v>1.825</v>
@@ -14219,25 +14219,25 @@
         <v>1.975</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X154">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6832930</v>
+        <v>6832934</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14257,73 +14257,73 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
         <v>2</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
       <c r="J155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K155">
+        <v>1.833</v>
+      </c>
+      <c r="L155">
         <v>3.75</v>
       </c>
-      <c r="L155">
+      <c r="M155">
         <v>3.6</v>
       </c>
-      <c r="M155">
-        <v>1.833</v>
-      </c>
       <c r="N155">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O155">
         <v>3.75</v>
       </c>
       <c r="P155">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q155">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
         <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z155">
+        <v>-1</v>
+      </c>
+      <c r="AA155">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB155">
         <v>0.75</v>
-      </c>
-      <c r="AA155">
-        <v>-1</v>
-      </c>
-      <c r="AB155">
-        <v>0.825</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6832934</v>
+        <v>6832933</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,13 +14346,13 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -14361,40 +14361,40 @@
         <v>50</v>
       </c>
       <c r="K156">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M156">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N156">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O156">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P156">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14403,19 +14403,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB156">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6832933</v>
+        <v>6831808</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L157">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N157">
+        <v>1.8</v>
+      </c>
+      <c r="O157">
+        <v>3.75</v>
+      </c>
+      <c r="P157">
+        <v>4.2</v>
+      </c>
+      <c r="Q157">
+        <v>-0.75</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>1.75</v>
+      </c>
+      <c r="T157">
         <v>2.5</v>
       </c>
-      <c r="O157">
-        <v>4</v>
-      </c>
-      <c r="P157">
-        <v>2.45</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
+      <c r="U157">
         <v>1.9</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.9</v>
       </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
-      <c r="U157">
-        <v>1.8</v>
-      </c>
-      <c r="V157">
-        <v>2</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
-      <c r="AC157">
-        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14512,7 +14512,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6831808</v>
+        <v>6832098</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14524,67 +14524,67 @@
         <v>45359.59027777778</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K158">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L158">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N158">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="O158">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
+        <v>1.85</v>
+      </c>
+      <c r="S158">
         <v>1.95</v>
       </c>
-      <c r="S158">
-        <v>1.75</v>
-      </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA158">
         <v>-1</v>
@@ -14593,7 +14593,7 @@
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14613,7 +14613,7 @@
         <v>45359.6875</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
         <v>44</v>
@@ -14705,7 +14705,7 @@
         <v>34</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14791,10 +14791,10 @@
         <v>45361.27083333334</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -15147,7 +15147,7 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
         <v>40</v>
@@ -15236,10 +15236,10 @@
         <v>45366.59027777778</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15325,10 +15325,10 @@
         <v>45366.6875</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15417,7 +15417,7 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15506,7 +15506,7 @@
         <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6832944</v>
+        <v>6834054</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15592,76 +15592,76 @@
         <v>45380.59027777778</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K170">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="L170">
+        <v>3.9</v>
+      </c>
+      <c r="M170">
+        <v>4.6</v>
+      </c>
+      <c r="N170">
+        <v>1.75</v>
+      </c>
+      <c r="O170">
+        <v>3.75</v>
+      </c>
+      <c r="P170">
         <v>5</v>
       </c>
-      <c r="M170">
-        <v>8</v>
-      </c>
-      <c r="N170">
-        <v>1.533</v>
-      </c>
-      <c r="O170">
-        <v>4.75</v>
-      </c>
-      <c r="P170">
-        <v>5.5</v>
-      </c>
       <c r="Q170">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
+        <v>1.95</v>
+      </c>
+      <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
+        <v>1.975</v>
+      </c>
+      <c r="V170">
         <v>1.825</v>
       </c>
-      <c r="S170">
-        <v>1.975</v>
-      </c>
-      <c r="T170">
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
         <v>2.75</v>
       </c>
-      <c r="U170">
-        <v>1.875</v>
-      </c>
-      <c r="V170">
-        <v>1.925</v>
-      </c>
-      <c r="W170">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>0.825</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>0.875</v>
-      </c>
-      <c r="AC170">
-        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15669,7 +15669,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6834054</v>
+        <v>6832944</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15681,76 +15681,76 @@
         <v>45380.59027777778</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K171">
-        <v>1.615</v>
+        <v>1.3</v>
       </c>
       <c r="L171">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="M171">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="N171">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O171">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P171">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X171">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC171">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15773,7 +15773,7 @@
         <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>45381.4375</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
         <v>45</v>
@@ -16040,7 +16040,7 @@
         <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -16126,7 +16126,7 @@
         <v>45382.22916666666</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
         <v>34</v>
@@ -16218,7 +16218,7 @@
         <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H177">
         <v>4</v>
@@ -16304,10 +16304,10 @@
         <v>45387.54861111111</v>
       </c>
       <c r="F178" t="s">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
         <v>33</v>
-      </c>
-      <c r="G178" t="s">
-        <v>35</v>
       </c>
       <c r="H178">
         <v>7</v>
@@ -16663,7 +16663,7 @@
         <v>29</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6832103</v>
+        <v>6832104</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,76 +16749,76 @@
         <v>45388.39583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J183" t="s">
         <v>49</v>
       </c>
       <c r="K183">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L183">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M183">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N183">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P183">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S183">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC183">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16826,7 +16826,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6832104</v>
+        <v>6832103</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16838,76 +16838,76 @@
         <v>45388.39583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>49</v>
       </c>
       <c r="K184">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L184">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M184">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N184">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O184">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q184">
+        <v>-0.25</v>
+      </c>
+      <c r="R184">
+        <v>1.775</v>
+      </c>
+      <c r="S184">
+        <v>2.025</v>
+      </c>
+      <c r="T184">
+        <v>2.5</v>
+      </c>
+      <c r="U184">
+        <v>1.975</v>
+      </c>
+      <c r="V184">
+        <v>1.825</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>2.5</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
         <v>-0.5</v>
       </c>
-      <c r="R184">
-        <v>1.975</v>
-      </c>
-      <c r="S184">
-        <v>1.825</v>
-      </c>
-      <c r="T184">
-        <v>2.75</v>
-      </c>
-      <c r="U184">
-        <v>1.875</v>
-      </c>
-      <c r="V184">
-        <v>1.925</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>2.75</v>
-      </c>
-      <c r="Y184">
-        <v>-1</v>
-      </c>
-      <c r="Z184">
-        <v>-1</v>
-      </c>
       <c r="AA184">
+        <v>0.5125</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
         <v>0.825</v>
-      </c>
-      <c r="AB184">
-        <v>0.875</v>
-      </c>
-      <c r="AC184">
-        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16930,7 +16930,7 @@
         <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6832953</v>
+        <v>6832951</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,37 +17016,37 @@
         <v>45394.54861111111</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K186">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="L186">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N186">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q186">
         <v>0.25</v>
@@ -17058,34 +17058,34 @@
         <v>1.975</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W186">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z186">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC186">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17105,10 +17105,10 @@
         <v>45394.54861111111</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6832951</v>
+        <v>6834053</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,73 +17194,73 @@
         <v>45394.54861111111</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="L188">
+        <v>3.4</v>
+      </c>
+      <c r="M188">
+        <v>3.25</v>
+      </c>
+      <c r="N188">
+        <v>2.25</v>
+      </c>
+      <c r="O188">
         <v>3.5</v>
       </c>
-      <c r="M188">
-        <v>3.6</v>
-      </c>
-      <c r="N188">
-        <v>3.1</v>
-      </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
       <c r="P188">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA188">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6834053</v>
+        <v>6832953</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,58 +17283,58 @@
         <v>45394.54861111111</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>51</v>
       </c>
       <c r="K189">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="N189">
+        <v>2.9</v>
+      </c>
+      <c r="O189">
+        <v>3.6</v>
+      </c>
+      <c r="P189">
         <v>2.25</v>
       </c>
-      <c r="O189">
-        <v>3.5</v>
-      </c>
-      <c r="P189">
-        <v>3.2</v>
-      </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W189">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17343,16 +17343,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17372,10 +17372,10 @@
         <v>45394.64583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17550,7 +17550,7 @@
         <v>45396.22916666666</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G192" t="s">
         <v>45</v>
@@ -17716,7 +17716,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6832960</v>
+        <v>6832108</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17728,13 +17728,13 @@
         <v>45401.54861111111</v>
       </c>
       <c r="F194" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>2</v>
@@ -17743,40 +17743,40 @@
         <v>50</v>
       </c>
       <c r="K194">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="L194">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="N194">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="O194">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P194">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="Q194">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
         <v>-1</v>
@@ -17785,19 +17785,19 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.444</v>
+        <v>2.25</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6832959</v>
+        <v>6832957</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17817,76 +17817,76 @@
         <v>45401.54861111111</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J195" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K195">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
+        <v>3.8</v>
+      </c>
+      <c r="N195">
+        <v>2.15</v>
+      </c>
+      <c r="O195">
         <v>4</v>
       </c>
-      <c r="N195">
-        <v>2.1</v>
-      </c>
-      <c r="O195">
-        <v>3.6</v>
-      </c>
       <c r="P195">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q195">
         <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S195">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17894,7 +17894,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6832108</v>
+        <v>6831811</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17906,76 +17906,76 @@
         <v>45401.54861111111</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>51</v>
+      </c>
+      <c r="K196">
+        <v>1.615</v>
+      </c>
+      <c r="L196">
+        <v>3.8</v>
+      </c>
+      <c r="M196">
+        <v>4.75</v>
+      </c>
+      <c r="N196">
+        <v>1.65</v>
+      </c>
+      <c r="O196">
+        <v>4</v>
+      </c>
+      <c r="P196">
+        <v>5.25</v>
+      </c>
+      <c r="Q196">
+        <v>-0.75</v>
+      </c>
+      <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
         <v>2</v>
       </c>
-      <c r="J196" t="s">
-        <v>50</v>
-      </c>
-      <c r="K196">
-        <v>2.2</v>
-      </c>
-      <c r="L196">
-        <v>3.4</v>
-      </c>
-      <c r="M196">
-        <v>2.875</v>
-      </c>
-      <c r="N196">
-        <v>2.1</v>
-      </c>
-      <c r="O196">
-        <v>3.75</v>
-      </c>
-      <c r="P196">
-        <v>3.25</v>
-      </c>
-      <c r="Q196">
-        <v>-0.25</v>
-      </c>
-      <c r="R196">
-        <v>1.825</v>
-      </c>
-      <c r="S196">
-        <v>1.975</v>
-      </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
+        <v>1.875</v>
+      </c>
+      <c r="V196">
         <v>1.925</v>
       </c>
-      <c r="V196">
-        <v>1.875</v>
-      </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA196">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB196">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17983,7 +17983,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6832957</v>
+        <v>6832959</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17995,76 +17995,76 @@
         <v>45401.54861111111</v>
       </c>
       <c r="F197" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>51</v>
+      </c>
+      <c r="K197">
+        <v>1.727</v>
+      </c>
+      <c r="L197">
+        <v>3.75</v>
+      </c>
+      <c r="M197">
         <v>4</v>
       </c>
-      <c r="J197" t="s">
-        <v>50</v>
-      </c>
-      <c r="K197">
-        <v>1.8</v>
-      </c>
-      <c r="L197">
+      <c r="N197">
+        <v>2.1</v>
+      </c>
+      <c r="O197">
         <v>3.6</v>
       </c>
-      <c r="M197">
-        <v>3.8</v>
-      </c>
-      <c r="N197">
-        <v>2.15</v>
-      </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
       <c r="P197">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA197">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18072,7 +18072,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6831811</v>
+        <v>6832960</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18084,76 +18084,76 @@
         <v>45401.54861111111</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K198">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="L198">
         <v>3.8</v>
       </c>
       <c r="M198">
+        <v>1.615</v>
+      </c>
+      <c r="N198">
+        <v>7</v>
+      </c>
+      <c r="O198">
         <v>4.75</v>
       </c>
-      <c r="N198">
-        <v>1.65</v>
-      </c>
-      <c r="O198">
-        <v>4</v>
-      </c>
       <c r="P198">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R198">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z198">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18176,7 +18176,7 @@
         <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6832956</v>
+        <v>6831812</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18259,49 +18259,49 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45402.39583333334</v>
+        <v>45408.54861111111</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K200">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L200">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N200">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O200">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R200">
+        <v>2</v>
+      </c>
+      <c r="S200">
+        <v>1.8</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
         <v>1.825</v>
       </c>
-      <c r="S200">
+      <c r="V200">
         <v>1.975</v>
-      </c>
-      <c r="T200">
-        <v>2.75</v>
-      </c>
-      <c r="U200">
-        <v>1.975</v>
-      </c>
-      <c r="V200">
-        <v>1.825</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18324,7 +18324,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6832958</v>
+        <v>6832964</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18333,63 +18333,507 @@
         <v>28</v>
       </c>
       <c r="E201" s="2">
-        <v>45403.22916666666</v>
+        <v>45408.54861111111</v>
       </c>
       <c r="F201" t="s">
+        <v>44</v>
+      </c>
+      <c r="G201" t="s">
+        <v>29</v>
+      </c>
+      <c r="K201">
+        <v>1.4</v>
+      </c>
+      <c r="L201">
+        <v>5</v>
+      </c>
+      <c r="M201">
+        <v>6</v>
+      </c>
+      <c r="N201">
+        <v>1.4</v>
+      </c>
+      <c r="O201">
+        <v>5</v>
+      </c>
+      <c r="P201">
+        <v>6</v>
+      </c>
+      <c r="Q201">
+        <v>-1.25</v>
+      </c>
+      <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>1.975</v>
+      </c>
+      <c r="T201">
+        <v>3</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
+        <v>1.8</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6832109</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45408.54861111111</v>
+      </c>
+      <c r="F202" t="s">
+        <v>40</v>
+      </c>
+      <c r="G202" t="s">
         <v>39</v>
       </c>
-      <c r="G201" t="s">
+      <c r="K202">
+        <v>4</v>
+      </c>
+      <c r="L202">
+        <v>3.6</v>
+      </c>
+      <c r="M202">
+        <v>1.8</v>
+      </c>
+      <c r="N202">
+        <v>4</v>
+      </c>
+      <c r="O202">
+        <v>3.6</v>
+      </c>
+      <c r="P202">
+        <v>1.8</v>
+      </c>
+      <c r="Q202">
+        <v>0.75</v>
+      </c>
+      <c r="R202">
+        <v>1.775</v>
+      </c>
+      <c r="S202">
+        <v>2.025</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.8</v>
+      </c>
+      <c r="V202">
+        <v>2</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6832963</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45409.38541666666</v>
+      </c>
+      <c r="F203" t="s">
+        <v>42</v>
+      </c>
+      <c r="G203" t="s">
+        <v>36</v>
+      </c>
+      <c r="K203">
+        <v>2.05</v>
+      </c>
+      <c r="L203">
+        <v>3.4</v>
+      </c>
+      <c r="M203">
+        <v>3.25</v>
+      </c>
+      <c r="N203">
+        <v>2.05</v>
+      </c>
+      <c r="O203">
+        <v>3.4</v>
+      </c>
+      <c r="P203">
+        <v>3.25</v>
+      </c>
+      <c r="Q203">
+        <v>-0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.8</v>
+      </c>
+      <c r="S203">
+        <v>2</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.975</v>
+      </c>
+      <c r="V203">
+        <v>1.825</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6832110</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45409.39583333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>37</v>
+      </c>
+      <c r="G204" t="s">
+        <v>38</v>
+      </c>
+      <c r="K204">
+        <v>4</v>
+      </c>
+      <c r="L204">
+        <v>3.4</v>
+      </c>
+      <c r="M204">
+        <v>1.8</v>
+      </c>
+      <c r="N204">
+        <v>5.5</v>
+      </c>
+      <c r="O204">
+        <v>3.8</v>
+      </c>
+      <c r="P204">
+        <v>1.533</v>
+      </c>
+      <c r="Q204">
+        <v>1</v>
+      </c>
+      <c r="R204">
+        <v>1.85</v>
+      </c>
+      <c r="S204">
+        <v>1.95</v>
+      </c>
+      <c r="T204">
+        <v>2.75</v>
+      </c>
+      <c r="U204">
+        <v>1.95</v>
+      </c>
+      <c r="V204">
+        <v>1.85</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6832961</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45409.39583333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>34</v>
+      </c>
+      <c r="G205" t="s">
+        <v>31</v>
+      </c>
+      <c r="K205">
+        <v>2.2</v>
+      </c>
+      <c r="L205">
+        <v>3.5</v>
+      </c>
+      <c r="M205">
+        <v>2.9</v>
+      </c>
+      <c r="N205">
+        <v>2.2</v>
+      </c>
+      <c r="O205">
+        <v>3.5</v>
+      </c>
+      <c r="P205">
+        <v>2.875</v>
+      </c>
+      <c r="Q205">
+        <v>-0.25</v>
+      </c>
+      <c r="R205">
+        <v>1.975</v>
+      </c>
+      <c r="S205">
+        <v>1.825</v>
+      </c>
+      <c r="T205">
+        <v>2.75</v>
+      </c>
+      <c r="U205">
+        <v>1.9</v>
+      </c>
+      <c r="V205">
+        <v>1.9</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>6832962</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45409.39583333334</v>
+      </c>
+      <c r="F206" t="s">
+        <v>41</v>
+      </c>
+      <c r="G206" t="s">
         <v>35</v>
       </c>
-      <c r="K201">
-        <v>1.909</v>
-      </c>
-      <c r="L201">
+      <c r="K206">
+        <v>2.4</v>
+      </c>
+      <c r="L206">
         <v>3.4</v>
       </c>
-      <c r="M201">
-        <v>3.6</v>
-      </c>
-      <c r="N201">
-        <v>1.909</v>
-      </c>
-      <c r="O201">
+      <c r="M206">
+        <v>2.625</v>
+      </c>
+      <c r="N206">
+        <v>2.25</v>
+      </c>
+      <c r="O206">
+        <v>3.4</v>
+      </c>
+      <c r="P206">
+        <v>2.8</v>
+      </c>
+      <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>1.8</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.775</v>
+      </c>
+      <c r="V206">
+        <v>2.025</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>6832965</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45410.22916666666</v>
+      </c>
+      <c r="F207" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" t="s">
+        <v>43</v>
+      </c>
+      <c r="K207">
+        <v>1.727</v>
+      </c>
+      <c r="L207">
         <v>3.5</v>
       </c>
-      <c r="P201">
+      <c r="M207">
         <v>4</v>
       </c>
-      <c r="Q201">
-        <v>-0.5</v>
-      </c>
-      <c r="R201">
-        <v>1.875</v>
-      </c>
-      <c r="S201">
-        <v>1.925</v>
-      </c>
-      <c r="T201">
+      <c r="N207">
+        <v>1.533</v>
+      </c>
+      <c r="O207">
+        <v>3.8</v>
+      </c>
+      <c r="P207">
+        <v>5.25</v>
+      </c>
+      <c r="Q207">
+        <v>-1</v>
+      </c>
+      <c r="R207">
+        <v>1.9</v>
+      </c>
+      <c r="S207">
+        <v>1.9</v>
+      </c>
+      <c r="T207">
         <v>2.75</v>
       </c>
-      <c r="U201">
+      <c r="U207">
+        <v>1.825</v>
+      </c>
+      <c r="V207">
         <v>1.975</v>
       </c>
-      <c r="V201">
-        <v>1.825</v>
-      </c>
-      <c r="W201">
-        <v>0</v>
-      </c>
-      <c r="X201">
-        <v>0</v>
-      </c>
-      <c r="Y201">
-        <v>0</v>
-      </c>
-      <c r="Z201">
-        <v>0</v>
-      </c>
-      <c r="AA201">
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
         <v>0</v>
       </c>
     </row>

--- a/Austria 2 Liga/Austria 2 Liga.xlsx
+++ b/Austria 2 Liga/Austria 2 Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -97,16 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>6832965</t>
-  </si>
-  <si>
     <t>Austria 2 Liga</t>
   </si>
   <si>
-    <t>SV Kapfenberg</t>
+    <t>FC Flyeralarm Admira</t>
   </si>
   <si>
-    <t>FC Flyeralarm Admira</t>
+    <t>SV Kapfenberg</t>
   </si>
   <si>
     <t>FC Liefering</t>
@@ -133,10 +130,10 @@
     <t>Grazer AK</t>
   </si>
   <si>
-    <t>SW Bregenz</t>
+    <t>Leoben DSV</t>
   </si>
   <si>
-    <t>Leoben DSV</t>
+    <t>SW Bregenz</t>
   </si>
   <si>
     <t>Sturm Graz II</t>
@@ -163,10 +160,10 @@
     <t>Rapid Vienna II</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -531,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB205"/>
+  <dimension ref="A1:AB204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,85 +622,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5257845</v>
+        <v>5214263</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45081.39583333334</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="K2">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L2">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N2">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O2">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -711,85 +708,85 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5214263</v>
+        <v>5257845</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45081.39583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3">
+        <v>3.1</v>
+      </c>
+      <c r="K3">
+        <v>3.4</v>
+      </c>
+      <c r="L3">
+        <v>2.3</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>4.2</v>
+      </c>
+      <c r="O3">
+        <v>1.65</v>
+      </c>
+      <c r="P3">
+        <v>0.75</v>
+      </c>
+      <c r="Q3">
+        <v>1.95</v>
+      </c>
+      <c r="R3">
+        <v>1.85</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>1.875</v>
+      </c>
+      <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
+        <v>-1</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3">
-        <v>1.909</v>
-      </c>
-      <c r="K3">
-        <v>3.6</v>
-      </c>
-      <c r="L3">
-        <v>3.75</v>
-      </c>
-      <c r="M3">
-        <v>1.95</v>
-      </c>
-      <c r="N3">
-        <v>3.75</v>
-      </c>
-      <c r="O3">
-        <v>3.8</v>
-      </c>
-      <c r="P3">
-        <v>-0.5</v>
-      </c>
-      <c r="Q3">
-        <v>1.925</v>
-      </c>
-      <c r="R3">
-        <v>1.875</v>
-      </c>
-      <c r="S3">
-        <v>2.75</v>
-      </c>
-      <c r="T3">
-        <v>1.9</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>0.95</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>0.925</v>
-      </c>
-      <c r="Z3">
-        <v>-1</v>
-      </c>
-      <c r="AA3">
-        <v>0.45</v>
-      </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -800,16 +797,16 @@
         <v>5208060</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45081.39583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -818,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>1.6</v>
@@ -886,16 +883,16 @@
         <v>5208062</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45081.39583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -904,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5">
         <v>6.5</v>
@@ -972,16 +969,16 @@
         <v>5207398</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45081.39583333334</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -990,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>1.181</v>
@@ -1058,16 +1055,16 @@
         <v>5208063</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45081.39583333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1144,16 +1141,16 @@
         <v>5227634</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45081.39583333334</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1162,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>1.6</v>
@@ -1230,16 +1227,16 @@
         <v>5208061</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45081.39583333334</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1248,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>2.55</v>
@@ -1316,13 +1313,13 @@
         <v>6831794</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45135.53125</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1334,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>1.7</v>
@@ -1399,67 +1396,67 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6832836</v>
+        <v>6832839</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45135.53125</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="N11">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O11">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
         <v>2.75</v>
       </c>
       <c r="T11">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>0.615</v>
+        <v>1.375</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1468,16 +1465,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1485,67 +1482,67 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6832839</v>
+        <v>6832836</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45135.53125</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O12">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q12">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
         <v>2.75</v>
       </c>
       <c r="T12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.375</v>
+        <v>0.615</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1554,16 +1551,16 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB12">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1571,58 +1568,58 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6832835</v>
+        <v>6832067</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45135.53125</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="M13">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N13">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q13">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S13">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T13">
         <v>1.95</v>
@@ -1631,25 +1628,25 @@
         <v>1.85</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB13">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1657,49 +1654,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6832066</v>
+        <v>6832835</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45135.53125</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14">
-        <v>2</